--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="65">
   <si>
     <t>Project_ID</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>object_area</t>
+  </si>
+  <si>
+    <t>object_annotation_category</t>
   </si>
   <si>
     <t>Variables</t>
@@ -678,6 +681,9 @@
       <c r="U2" t="s">
         <v>33</v>
       </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3">
@@ -710,6 +716,9 @@
       <c r="U3" t="s">
         <v>33</v>
       </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4">
@@ -742,6 +751,9 @@
       <c r="U4" t="s">
         <v>33</v>
       </c>
+      <c r="Y4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
@@ -774,6 +786,9 @@
       <c r="U5" t="s">
         <v>33</v>
       </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
@@ -806,6 +821,9 @@
       <c r="U6" t="s">
         <v>33</v>
       </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
@@ -838,6 +856,9 @@
       <c r="U7" t="s">
         <v>33</v>
       </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8">
@@ -870,6 +891,9 @@
       <c r="U8" t="s">
         <v>33</v>
       </c>
+      <c r="Y8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9">
@@ -902,6 +926,9 @@
       <c r="U9" t="s">
         <v>33</v>
       </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10">
@@ -934,6 +961,9 @@
       <c r="U10" t="s">
         <v>33</v>
       </c>
+      <c r="Y10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11">
@@ -966,6 +996,9 @@
       <c r="U11" t="s">
         <v>33</v>
       </c>
+      <c r="Y11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12">
@@ -998,6 +1031,9 @@
       <c r="U12" t="s">
         <v>33</v>
       </c>
+      <c r="Y12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13">
@@ -1030,6 +1066,9 @@
       <c r="U13" t="s">
         <v>33</v>
       </c>
+      <c r="Y13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14">
@@ -1062,6 +1101,9 @@
       <c r="U14" t="s">
         <v>33</v>
       </c>
+      <c r="Y14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15">
@@ -1094,6 +1136,9 @@
       <c r="U15" t="s">
         <v>33</v>
       </c>
+      <c r="Y15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16">
@@ -1126,8 +1171,11 @@
       <c r="U16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="Y16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -1158,8 +1206,11 @@
       <c r="U17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="Y17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -1190,8 +1241,11 @@
       <c r="U18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="Y18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -1222,8 +1276,11 @@
       <c r="U19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="Y19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -1254,8 +1311,11 @@
       <c r="U20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="Y20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -1286,8 +1346,11 @@
       <c r="U21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="Y21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -1318,8 +1381,11 @@
       <c r="U22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="Y22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -1350,8 +1416,11 @@
       <c r="U23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="Y23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -1382,8 +1451,11 @@
       <c r="U24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="Y24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -1414,8 +1486,11 @@
       <c r="U25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="Y25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -1446,8 +1521,11 @@
       <c r="U26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="Y26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -1478,8 +1556,11 @@
       <c r="U27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="Y27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -1510,8 +1591,11 @@
       <c r="U28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="Y28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -1542,8 +1626,11 @@
       <c r="U29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="Y29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -1574,8 +1661,11 @@
       <c r="U30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="Y30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -1606,8 +1696,11 @@
       <c r="U31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="Y31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -1638,8 +1731,11 @@
       <c r="U32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="Y32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -1670,8 +1766,11 @@
       <c r="U33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="Y33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -1702,8 +1801,11 @@
       <c r="U34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="Y34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -1734,8 +1836,11 @@
       <c r="U35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="Y35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -1766,8 +1871,11 @@
       <c r="U36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="Y36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -1798,8 +1906,11 @@
       <c r="U37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="Y37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -1830,8 +1941,11 @@
       <c r="U38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="Y38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -1862,8 +1976,11 @@
       <c r="U39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="Y39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -1894,8 +2011,11 @@
       <c r="U40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="Y40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -1926,8 +2046,11 @@
       <c r="U41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="Y41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -1958,8 +2081,11 @@
       <c r="U42" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="Y42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -1990,8 +2116,11 @@
       <c r="U43" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="Y43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -2022,8 +2151,11 @@
       <c r="U44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="Y44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -2054,8 +2186,11 @@
       <c r="U45" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="Y45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -2086,8 +2221,11 @@
       <c r="U46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="Y46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -2117,6 +2255,9 @@
       </c>
       <c r="U47" t="s">
         <v>33</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2134,13 +2275,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2148,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2159,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2170,10 +2311,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2181,10 +2322,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2192,10 +2333,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2203,10 +2344,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2214,10 +2355,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2225,10 +2366,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2236,10 +2377,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2247,10 +2388,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2258,10 +2399,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2269,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2280,10 +2421,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2291,10 +2432,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2302,10 +2443,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2313,10 +2454,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2324,10 +2465,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2335,10 +2476,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2346,10 +2487,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2357,10 +2498,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2368,10 +2509,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2379,10 +2520,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2390,10 +2531,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2401,10 +2542,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2412,10 +2553,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947903F-B784-BE43-A5F8-A10BFC2897C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="68">
   <si>
     <t>Project_ID</t>
   </si>
@@ -210,13 +216,22 @@
   </si>
   <si>
     <t>Name of the category ID column in project export file</t>
+  </si>
+  <si>
+    <t>object_equivdiameter</t>
+  </si>
+  <si>
+    <t>meters</t>
+  </si>
+  <si>
+    <t>process_pixel_to_micron</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +294,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -325,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,14 +625,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -672,20 +748,29 @@
       <c r="J2" t="s">
         <v>30</v>
       </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
       <c r="L2" t="s">
         <v>31</v>
       </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
       <c r="S2" t="s">
         <v>32</v>
       </c>
       <c r="U2" t="s">
         <v>33</v>
       </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
       <c r="Y2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -720,7 +805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -755,7 +840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -790,7 +875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -825,7 +910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -860,7 +945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -895,7 +980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -930,7 +1015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -965,7 +1050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -1000,7 +1085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -1035,7 +1120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -1070,7 +1155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -1105,7 +1190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -1140,7 +1225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -1175,7 +1260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -1210,7 +1295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -1245,7 +1330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -1280,7 +1365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -1305,6 +1390,9 @@
       <c r="L20" t="s">
         <v>31</v>
       </c>
+      <c r="Q20" t="s">
+        <v>65</v>
+      </c>
       <c r="S20" t="s">
         <v>32</v>
       </c>
@@ -1315,7 +1403,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -1350,7 +1438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -1385,7 +1473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -1420,7 +1508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -1455,7 +1543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -1490,7 +1578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -1525,7 +1613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -1560,7 +1648,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -1595,7 +1683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -1630,7 +1718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -1665,7 +1753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -1700,7 +1788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -1735,7 +1823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -1770,7 +1858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -1805,7 +1893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -1840,7 +1928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -1875,7 +1963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -1910,7 +1998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -1945,7 +2033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -1980,7 +2068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -2015,7 +2103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -2050,7 +2138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -2085,7 +2173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -2120,7 +2208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -2155,7 +2243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -2190,7 +2278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -2225,7 +2313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -2266,14 +2354,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2284,7 +2372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2306,7 +2394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2317,7 +2405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2328,7 +2416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2339,7 +2427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2361,7 +2449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +2460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2471,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2394,7 +2482,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2405,7 +2493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2416,7 +2504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2427,7 +2515,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2438,7 +2526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2449,7 +2537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2460,7 +2548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2471,7 +2559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2482,7 +2570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2493,7 +2581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2504,7 +2592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2515,7 +2603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2526,7 +2614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2537,7 +2625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2548,7 +2636,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947903F-B784-BE43-A5F8-A10BFC2897C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93730C3B-1EFE-6540-9013-58C108CA9F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="78">
   <si>
     <t>Project_ID</t>
   </si>
@@ -225,6 +225,36 @@
   </si>
   <si>
     <t>process_pixel_to_micron</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>degree_decimals</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>pixels^3</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>There is a column called 'object_summedbiovolume'</t>
+  </si>
+  <si>
+    <t>pixels/um</t>
+  </si>
+  <si>
+    <t>listed as 'object orientation'. Some IFCB projects represent only one station</t>
+  </si>
+  <si>
+    <t>station.ID.fromName</t>
+  </si>
+  <si>
+    <t>number of the station ID inferred from the project export file</t>
   </si>
 </sst>
 </file>
@@ -248,15 +278,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -279,15 +315,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,30 +691,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="X26" sqref="I16:X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,71 +728,74 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -739,38 +808,74 @@
       <c r="D2" t="s">
         <v>27</v>
       </c>
+      <c r="E2">
+        <v>159</v>
+      </c>
       <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
       <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>66</v>
       </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
       <c r="S2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" t="s">
         <v>32</v>
       </c>
       <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
         <v>33</v>
       </c>
       <c r="W2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" t="s">
         <v>67</v>
       </c>
       <c r="Y2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -783,29 +888,74 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
+      <c r="E3">
+        <v>160</v>
+      </c>
       <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
       </c>
       <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" t="s">
         <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>71</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" t="s">
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -818,29 +968,32 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -853,29 +1006,32 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -888,29 +1044,32 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -923,29 +1082,32 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -958,29 +1120,32 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -993,29 +1158,32 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -1028,29 +1196,32 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -1063,29 +1234,32 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -1098,29 +1272,32 @@
       <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -1133,29 +1310,32 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -1168,29 +1348,32 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -1203,29 +1386,32 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -1238,29 +1424,32 @@
       <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-      <c r="S16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -1273,29 +1462,32 @@
       <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -1308,29 +1500,32 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -1343,29 +1538,32 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" t="s">
+        <v>65</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -1378,32 +1576,32 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>65</v>
-      </c>
-      <c r="S20" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" t="s">
+        <v>65</v>
+      </c>
+      <c r="T20" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -1416,29 +1614,32 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U21" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -1451,29 +1652,32 @@
       <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" t="s">
+        <v>65</v>
+      </c>
+      <c r="T22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -1486,29 +1690,32 @@
       <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -1521,29 +1728,32 @@
       <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" t="s">
-        <v>31</v>
-      </c>
-      <c r="S24" t="s">
-        <v>32</v>
-      </c>
-      <c r="U24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" t="s">
+        <v>65</v>
+      </c>
+      <c r="T24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -1556,29 +1766,32 @@
       <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S25" t="s">
-        <v>32</v>
-      </c>
-      <c r="U25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -1591,30 +1804,33 @@
       <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" t="s">
-        <v>31</v>
-      </c>
-      <c r="S26" t="s">
-        <v>32</v>
-      </c>
-      <c r="U26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T26" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>3315</v>
       </c>
       <c r="B27" t="s">
@@ -1626,30 +1842,69 @@
       <c r="D27" t="s">
         <v>27</v>
       </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
       <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
         <v>28</v>
       </c>
       <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
         <v>29</v>
       </c>
       <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
         <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>68</v>
+      </c>
+      <c r="R27" t="s">
+        <v>65</v>
       </c>
       <c r="S27" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="T27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" t="s">
+        <v>33</v>
+      </c>
+      <c r="X27" t="s">
+        <v>67</v>
       </c>
       <c r="Y27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28">
+        <v>74</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>3318</v>
       </c>
       <c r="B28" t="s">
@@ -1661,29 +1916,68 @@
       <c r="D28" t="s">
         <v>27</v>
       </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
       <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
         <v>28</v>
       </c>
       <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
         <v>29</v>
       </c>
       <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
         <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>68</v>
+      </c>
+      <c r="R28" t="s">
+        <v>65</v>
       </c>
       <c r="S28" t="s">
-        <v>32</v>
-      </c>
-      <c r="U28" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="T28" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28" t="s">
+        <v>67</v>
       </c>
       <c r="Y28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -1696,29 +1990,32 @@
       <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" t="s">
-        <v>31</v>
-      </c>
-      <c r="S29" t="s">
-        <v>32</v>
-      </c>
-      <c r="U29" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" t="s">
+        <v>65</v>
+      </c>
+      <c r="T29" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -1731,29 +2028,32 @@
       <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" t="s">
-        <v>31</v>
-      </c>
-      <c r="S30" t="s">
-        <v>32</v>
-      </c>
-      <c r="U30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" t="s">
+        <v>65</v>
+      </c>
+      <c r="T30" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -1766,29 +2066,32 @@
       <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" t="s">
-        <v>31</v>
-      </c>
-      <c r="S31" t="s">
-        <v>32</v>
-      </c>
-      <c r="U31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" t="s">
+        <v>65</v>
+      </c>
+      <c r="T31" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -1801,29 +2104,32 @@
       <c r="D32" t="s">
         <v>27</v>
       </c>
-      <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" t="s">
-        <v>32</v>
-      </c>
-      <c r="U32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T32" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -1836,29 +2142,32 @@
       <c r="D33" t="s">
         <v>27</v>
       </c>
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S33" t="s">
-        <v>32</v>
-      </c>
-      <c r="U33" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" t="s">
+        <v>65</v>
+      </c>
+      <c r="T33" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -1871,30 +2180,33 @@
       <c r="D34" t="s">
         <v>27</v>
       </c>
-      <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" t="s">
-        <v>31</v>
-      </c>
-      <c r="S34" t="s">
-        <v>32</v>
-      </c>
-      <c r="U34" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" t="s">
+        <v>65</v>
+      </c>
+      <c r="T34" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>3326</v>
       </c>
       <c r="B35" t="s">
@@ -1906,29 +2218,68 @@
       <c r="D35" t="s">
         <v>27</v>
       </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
       <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
         <v>28</v>
       </c>
       <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
         <v>29</v>
       </c>
       <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
         <v>30</v>
       </c>
       <c r="L35" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="M35" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>68</v>
+      </c>
+      <c r="R35" t="s">
+        <v>65</v>
       </c>
       <c r="S35" t="s">
-        <v>32</v>
-      </c>
-      <c r="U35" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="T35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" t="s">
+        <v>33</v>
+      </c>
+      <c r="X35" t="s">
+        <v>67</v>
       </c>
       <c r="Y35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -1941,29 +2292,32 @@
       <c r="D36" t="s">
         <v>27</v>
       </c>
-      <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S36" t="s">
-        <v>32</v>
-      </c>
-      <c r="U36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" t="s">
+        <v>65</v>
+      </c>
+      <c r="T36" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -1976,29 +2330,32 @@
       <c r="D37" t="s">
         <v>27</v>
       </c>
-      <c r="F37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
-        <v>30</v>
-      </c>
-      <c r="L37" t="s">
-        <v>31</v>
-      </c>
-      <c r="S37" t="s">
-        <v>32</v>
-      </c>
-      <c r="U37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" t="s">
+        <v>65</v>
+      </c>
+      <c r="T37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -2011,29 +2368,32 @@
       <c r="D38" t="s">
         <v>27</v>
       </c>
-      <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>30</v>
-      </c>
-      <c r="L38" t="s">
-        <v>31</v>
-      </c>
-      <c r="S38" t="s">
-        <v>32</v>
-      </c>
-      <c r="U38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" t="s">
+        <v>65</v>
+      </c>
+      <c r="T38" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -2046,29 +2406,32 @@
       <c r="D39" t="s">
         <v>27</v>
       </c>
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" t="s">
-        <v>31</v>
-      </c>
-      <c r="S39" t="s">
-        <v>32</v>
-      </c>
-      <c r="U39" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" t="s">
+        <v>65</v>
+      </c>
+      <c r="T39" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -2081,29 +2444,32 @@
       <c r="D40" t="s">
         <v>27</v>
       </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" t="s">
-        <v>31</v>
-      </c>
-      <c r="S40" t="s">
-        <v>32</v>
-      </c>
-      <c r="U40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" t="s">
+        <v>65</v>
+      </c>
+      <c r="T40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -2116,29 +2482,32 @@
       <c r="D41" t="s">
         <v>27</v>
       </c>
-      <c r="F41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" t="s">
-        <v>31</v>
-      </c>
-      <c r="S41" t="s">
-        <v>32</v>
-      </c>
-      <c r="U41" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" t="s">
+        <v>65</v>
+      </c>
+      <c r="T41" t="s">
+        <v>32</v>
+      </c>
+      <c r="V41" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -2151,29 +2520,32 @@
       <c r="D42" t="s">
         <v>27</v>
       </c>
-      <c r="F42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" t="s">
-        <v>31</v>
-      </c>
-      <c r="S42" t="s">
-        <v>32</v>
-      </c>
-      <c r="U42" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" t="s">
+        <v>65</v>
+      </c>
+      <c r="T42" t="s">
+        <v>32</v>
+      </c>
+      <c r="V42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -2186,29 +2558,32 @@
       <c r="D43" t="s">
         <v>27</v>
       </c>
-      <c r="F43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" t="s">
-        <v>31</v>
-      </c>
-      <c r="S43" t="s">
-        <v>32</v>
-      </c>
-      <c r="U43" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" t="s">
+        <v>31</v>
+      </c>
+      <c r="R43" t="s">
+        <v>65</v>
+      </c>
+      <c r="T43" t="s">
+        <v>32</v>
+      </c>
+      <c r="V43" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -2221,29 +2596,32 @@
       <c r="D44" t="s">
         <v>27</v>
       </c>
-      <c r="F44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" t="s">
-        <v>31</v>
-      </c>
-      <c r="S44" t="s">
-        <v>32</v>
-      </c>
-      <c r="U44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" t="s">
+        <v>31</v>
+      </c>
+      <c r="R44" t="s">
+        <v>65</v>
+      </c>
+      <c r="T44" t="s">
+        <v>32</v>
+      </c>
+      <c r="V44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -2256,29 +2634,32 @@
       <c r="D45" t="s">
         <v>27</v>
       </c>
-      <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" t="s">
-        <v>31</v>
-      </c>
-      <c r="S45" t="s">
-        <v>32</v>
-      </c>
-      <c r="U45" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" t="s">
+        <v>31</v>
+      </c>
+      <c r="R45" t="s">
+        <v>65</v>
+      </c>
+      <c r="T45" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -2291,29 +2672,32 @@
       <c r="D46" t="s">
         <v>27</v>
       </c>
-      <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" t="s">
-        <v>31</v>
-      </c>
-      <c r="S46" t="s">
-        <v>32</v>
-      </c>
-      <c r="U46" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" t="s">
+        <v>31</v>
+      </c>
+      <c r="R46" t="s">
+        <v>65</v>
+      </c>
+      <c r="T46" t="s">
+        <v>32</v>
+      </c>
+      <c r="V46" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -2326,25 +2710,28 @@
       <c r="D47" t="s">
         <v>27</v>
       </c>
-      <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" t="s">
-        <v>31</v>
-      </c>
-      <c r="S47" t="s">
-        <v>32</v>
-      </c>
-      <c r="U47" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y47" t="s">
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" t="s">
+        <v>65</v>
+      </c>
+      <c r="T47" t="s">
+        <v>32</v>
+      </c>
+      <c r="V47" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z47" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2355,13 +2742,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2371,8 +2764,11 @@
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2394,7 +2790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2405,7 +2801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2415,235 +2811,252 @@
       <c r="C5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
         <v>64</v>
       </c>
     </row>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93730C3B-1EFE-6540-9013-58C108CA9F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDEC98C-ABBF-FF4C-99D9-4A658835212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39260" yWindow="1960" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="86">
   <si>
     <t>Project_ID</t>
   </si>
@@ -254,7 +254,31 @@
     <t>station.ID.fromName</t>
   </si>
   <si>
-    <t>number of the station ID inferred from the project export file</t>
+    <t>empty.coord</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>projects with empty fields in lat &amp; lon</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>leg.from.name</t>
+  </si>
+  <si>
+    <t>leg_from_name</t>
+  </si>
+  <si>
+    <t>leg number of the expedition</t>
+  </si>
+  <si>
+    <t>number of the station ID inferred from the project export file. If NaN, mutiple stations in a project</t>
   </si>
 </sst>
 </file>
@@ -343,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -353,6 +377,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,31 +722,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="X26" sqref="I16:X26"/>
+    <sheetView topLeftCell="B1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,74 +760,80 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -809,73 +847,79 @@
         <v>27</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>159</v>
       </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
       <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
         <v>68</v>
       </c>
       <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="S2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>71</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -889,73 +933,79 @@
         <v>27</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>160</v>
       </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
       <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
-      </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
         <v>68</v>
       </c>
       <c r="R3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" t="s">
         <v>65</v>
       </c>
-      <c r="S3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" t="s">
         <v>32</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>71</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>33</v>
       </c>
-      <c r="W3" t="s">
-        <v>70</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>74</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -968,32 +1018,80 @@
       <c r="D4" t="s">
         <v>27</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>167</v>
+      </c>
       <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
         <v>31</v>
       </c>
+      <c r="P4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>68</v>
+      </c>
       <c r="R4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
         <v>65</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" t="s">
         <v>32</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
         <v>33</v>
       </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
       <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1006,34 +1104,79 @@
       <c r="D5" t="s">
         <v>27</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>155</v>
+      </c>
       <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
         <v>31</v>
       </c>
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
       <c r="R5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s">
         <v>65</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" t="s">
         <v>32</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>33</v>
       </c>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1044,34 +1187,79 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>156</v>
+      </c>
       <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
         <v>31</v>
       </c>
+      <c r="P6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>68</v>
+      </c>
       <c r="R6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" t="s">
         <v>65</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" t="s">
         <v>32</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>33</v>
       </c>
+      <c r="Y6" t="s">
+        <v>70</v>
+      </c>
       <c r="Z6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1082,34 +1270,79 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>157</v>
+      </c>
       <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
         <v>31</v>
       </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
       <c r="R7" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" t="s">
         <v>65</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7" t="s">
         <v>32</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>33</v>
       </c>
+      <c r="Y7" t="s">
+        <v>70</v>
+      </c>
       <c r="Z7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1120,34 +1353,79 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>158</v>
+      </c>
       <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
         <v>30</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
         <v>31</v>
       </c>
+      <c r="P8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>68</v>
+      </c>
       <c r="R8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8" t="s">
         <v>65</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" t="s">
         <v>32</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>33</v>
       </c>
+      <c r="Y8" t="s">
+        <v>70</v>
+      </c>
       <c r="Z8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1158,34 +1436,79 @@
       <c r="D9" t="s">
         <v>27</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>161</v>
+      </c>
       <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
         <v>31</v>
       </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>68</v>
+      </c>
       <c r="R9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" t="s">
         <v>65</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
         <v>32</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>33</v>
       </c>
+      <c r="Y9" t="s">
+        <v>70</v>
+      </c>
       <c r="Z9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1196,34 +1519,79 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>162</v>
+      </c>
       <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
         <v>28</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
         <v>29</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
         <v>31</v>
       </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>68</v>
+      </c>
       <c r="R10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" t="s">
         <v>65</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" t="s">
         <v>32</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>33</v>
       </c>
+      <c r="Y10" t="s">
+        <v>70</v>
+      </c>
       <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1234,34 +1602,79 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>163</v>
+      </c>
       <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
         <v>28</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
         <v>30</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
         <v>31</v>
       </c>
+      <c r="P11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>68</v>
+      </c>
       <c r="R11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" t="s">
         <v>65</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>70</v>
+      </c>
+      <c r="V11" t="s">
         <v>32</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>33</v>
       </c>
+      <c r="Y11" t="s">
+        <v>70</v>
+      </c>
       <c r="Z11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1272,34 +1685,79 @@
       <c r="D12" t="s">
         <v>27</v>
       </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
       <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s">
         <v>28</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" t="s">
         <v>30</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" t="s">
         <v>31</v>
       </c>
+      <c r="P12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
+      </c>
       <c r="R12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" t="s">
         <v>65</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" t="s">
         <v>32</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>33</v>
       </c>
+      <c r="Y12" t="s">
+        <v>70</v>
+      </c>
       <c r="Z12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1310,34 +1768,79 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
       <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
         <v>28</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
         <v>30</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" t="s">
         <v>31</v>
       </c>
+      <c r="P13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>68</v>
+      </c>
       <c r="R13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" t="s">
         <v>65</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
+        <v>70</v>
+      </c>
+      <c r="V13" t="s">
         <v>32</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>33</v>
       </c>
+      <c r="Y13" t="s">
+        <v>70</v>
+      </c>
       <c r="Z13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1348,34 +1851,79 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>165</v>
+      </c>
       <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
         <v>30</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
         <v>31</v>
       </c>
+      <c r="P14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>68</v>
+      </c>
       <c r="R14" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" t="s">
         <v>65</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
+        <v>70</v>
+      </c>
+      <c r="V14" t="s">
         <v>32</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>33</v>
       </c>
+      <c r="Y14" t="s">
+        <v>70</v>
+      </c>
       <c r="Z14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1386,34 +1934,79 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>166</v>
+      </c>
       <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" t="s">
         <v>29</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
         <v>30</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" t="s">
         <v>31</v>
       </c>
+      <c r="P15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>68</v>
+      </c>
       <c r="R15" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" t="s">
         <v>65</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
+        <v>70</v>
+      </c>
+      <c r="V15" t="s">
         <v>32</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>33</v>
       </c>
+      <c r="Y15" t="s">
+        <v>70</v>
+      </c>
       <c r="Z15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1424,34 +2017,79 @@
       <c r="D16" t="s">
         <v>27</v>
       </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>168</v>
+      </c>
       <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
         <v>28</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" t="s">
         <v>29</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" t="s">
         <v>30</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" t="s">
         <v>31</v>
       </c>
+      <c r="P16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>68</v>
+      </c>
       <c r="R16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T16" t="s">
         <v>65</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V16" t="s">
         <v>32</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>33</v>
       </c>
+      <c r="Y16" t="s">
+        <v>70</v>
+      </c>
       <c r="Z16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1462,34 +2100,79 @@
       <c r="D17" t="s">
         <v>27</v>
       </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>169</v>
+      </c>
       <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" t="s">
         <v>29</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" t="s">
         <v>30</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" t="s">
         <v>31</v>
       </c>
+      <c r="P17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>68</v>
+      </c>
       <c r="R17" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" t="s">
         <v>65</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
+        <v>70</v>
+      </c>
+      <c r="V17" t="s">
         <v>32</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
         <v>33</v>
       </c>
+      <c r="Y17" t="s">
+        <v>70</v>
+      </c>
       <c r="Z17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1500,34 +2183,79 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>170</v>
+      </c>
       <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
         <v>28</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" t="s">
         <v>29</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" t="s">
         <v>30</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" t="s">
         <v>31</v>
       </c>
+      <c r="P18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>68</v>
+      </c>
       <c r="R18" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" t="s">
         <v>65</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
+        <v>70</v>
+      </c>
+      <c r="V18" t="s">
         <v>32</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
         <v>33</v>
       </c>
+      <c r="Y18" t="s">
+        <v>70</v>
+      </c>
       <c r="Z18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1538,34 +2266,79 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>171</v>
+      </c>
       <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
         <v>28</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s">
         <v>29</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" t="s">
         <v>30</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" t="s">
         <v>31</v>
       </c>
+      <c r="P19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>68</v>
+      </c>
       <c r="R19" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" t="s">
+        <v>68</v>
+      </c>
+      <c r="T19" t="s">
         <v>65</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
+        <v>70</v>
+      </c>
+      <c r="V19" t="s">
         <v>32</v>
       </c>
-      <c r="V19" t="s">
+      <c r="X19" t="s">
         <v>33</v>
       </c>
+      <c r="Y19" t="s">
+        <v>70</v>
+      </c>
       <c r="Z19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1576,34 +2349,79 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>172</v>
+      </c>
       <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
         <v>28</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s">
         <v>29</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" t="s">
         <v>30</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" t="s">
         <v>31</v>
       </c>
+      <c r="P20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>68</v>
+      </c>
       <c r="R20" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" t="s">
+        <v>68</v>
+      </c>
+      <c r="T20" t="s">
         <v>65</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V20" t="s">
         <v>32</v>
       </c>
-      <c r="V20" t="s">
+      <c r="X20" t="s">
         <v>33</v>
       </c>
+      <c r="Y20" t="s">
+        <v>70</v>
+      </c>
       <c r="Z20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1614,34 +2432,79 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>173</v>
+      </c>
       <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
         <v>28</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s">
         <v>29</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" t="s">
         <v>30</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" t="s">
         <v>31</v>
       </c>
+      <c r="P21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>68</v>
+      </c>
       <c r="R21" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" t="s">
+        <v>68</v>
+      </c>
+      <c r="T21" t="s">
         <v>65</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
+        <v>70</v>
+      </c>
+      <c r="V21" t="s">
         <v>32</v>
       </c>
-      <c r="V21" t="s">
+      <c r="X21" t="s">
         <v>33</v>
       </c>
+      <c r="Y21" t="s">
+        <v>70</v>
+      </c>
       <c r="Z21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1652,34 +2515,79 @@
       <c r="D22" t="s">
         <v>27</v>
       </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>174</v>
+      </c>
       <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
         <v>28</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" t="s">
         <v>29</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" t="s">
         <v>30</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" t="s">
         <v>31</v>
       </c>
+      <c r="P22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>68</v>
+      </c>
       <c r="R22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" t="s">
+        <v>68</v>
+      </c>
+      <c r="T22" t="s">
         <v>65</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
+        <v>70</v>
+      </c>
+      <c r="V22" t="s">
         <v>32</v>
       </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
         <v>33</v>
       </c>
+      <c r="Y22" t="s">
+        <v>70</v>
+      </c>
       <c r="Z22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1690,34 +2598,79 @@
       <c r="D23" t="s">
         <v>27</v>
       </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>175</v>
+      </c>
       <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
         <v>28</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
         <v>29</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" t="s">
         <v>30</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" t="s">
         <v>31</v>
       </c>
+      <c r="P23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>68</v>
+      </c>
       <c r="R23" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T23" t="s">
         <v>65</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V23" t="s">
         <v>32</v>
       </c>
-      <c r="V23" t="s">
+      <c r="X23" t="s">
         <v>33</v>
       </c>
+      <c r="Y23" t="s">
+        <v>70</v>
+      </c>
       <c r="Z23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1728,34 +2681,79 @@
       <c r="D24" t="s">
         <v>27</v>
       </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>176</v>
+      </c>
       <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
         <v>28</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
         <v>29</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" t="s">
         <v>30</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
         <v>31</v>
       </c>
+      <c r="P24" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>68</v>
+      </c>
       <c r="R24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S24" t="s">
+        <v>68</v>
+      </c>
+      <c r="T24" t="s">
         <v>65</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
+        <v>70</v>
+      </c>
+      <c r="V24" t="s">
         <v>32</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>33</v>
       </c>
+      <c r="Y24" t="s">
+        <v>70</v>
+      </c>
       <c r="Z24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1766,34 +2764,79 @@
       <c r="D25" t="s">
         <v>27</v>
       </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>177</v>
+      </c>
       <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
         <v>28</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
         <v>29</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" t="s">
         <v>30</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" t="s">
         <v>31</v>
       </c>
+      <c r="P25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>68</v>
+      </c>
       <c r="R25" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25" t="s">
+        <v>68</v>
+      </c>
+      <c r="T25" t="s">
         <v>65</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
+        <v>70</v>
+      </c>
+      <c r="V25" t="s">
         <v>32</v>
       </c>
-      <c r="V25" t="s">
+      <c r="X25" t="s">
         <v>33</v>
       </c>
+      <c r="Y25" t="s">
+        <v>70</v>
+      </c>
       <c r="Z25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1804,34 +2847,79 @@
       <c r="D26" t="s">
         <v>27</v>
       </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>178</v>
+      </c>
       <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
         <v>28</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
         <v>29</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" t="s">
         <v>30</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" t="s">
         <v>31</v>
       </c>
+      <c r="P26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
       <c r="R26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S26" t="s">
+        <v>68</v>
+      </c>
+      <c r="T26" t="s">
         <v>65</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
+        <v>70</v>
+      </c>
+      <c r="V26" t="s">
         <v>32</v>
       </c>
-      <c r="V26" t="s">
+      <c r="X26" t="s">
         <v>33</v>
       </c>
+      <c r="Y26" t="s">
+        <v>70</v>
+      </c>
       <c r="Z26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>3315</v>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3313</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1842,70 +2930,79 @@
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
-        <v>68</v>
+      <c r="E27">
+        <v>7</v>
       </c>
       <c r="F27" t="s">
         <v>68</v>
       </c>
       <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s">
         <v>28</v>
       </c>
-      <c r="H27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" t="s">
         <v>29</v>
       </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" t="s">
         <v>30</v>
       </c>
-      <c r="L27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" t="s">
         <v>31</v>
       </c>
-      <c r="N27" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" t="s">
-        <v>68</v>
-      </c>
       <c r="P27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q27" t="s">
         <v>68</v>
       </c>
       <c r="R27" t="s">
+        <v>68</v>
+      </c>
+      <c r="S27" t="s">
+        <v>68</v>
+      </c>
+      <c r="T27" t="s">
         <v>65</v>
       </c>
-      <c r="S27" t="s">
-        <v>70</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
+        <v>70</v>
+      </c>
+      <c r="V27" t="s">
         <v>32</v>
       </c>
-      <c r="V27" t="s">
+      <c r="X27" t="s">
         <v>33</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z27" t="s">
         <v>67</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AA27" t="s">
         <v>74</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AB27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>3318</v>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3314</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -1916,70 +3013,79 @@
       <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" t="s">
-        <v>68</v>
+      <c r="E28">
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>68</v>
       </c>
       <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s">
         <v>28</v>
       </c>
-      <c r="H28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
         <v>29</v>
       </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" t="s">
         <v>30</v>
       </c>
-      <c r="L28" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" t="s">
         <v>31</v>
       </c>
-      <c r="N28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" t="s">
-        <v>68</v>
-      </c>
       <c r="P28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q28" t="s">
         <v>68</v>
       </c>
       <c r="R28" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" t="s">
+        <v>68</v>
+      </c>
+      <c r="T28" t="s">
         <v>65</v>
       </c>
-      <c r="S28" t="s">
-        <v>70</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
+        <v>70</v>
+      </c>
+      <c r="V28" t="s">
         <v>32</v>
       </c>
-      <c r="V28" t="s">
+      <c r="X28" t="s">
         <v>33</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z28" t="s">
         <v>67</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AA28" t="s">
         <v>74</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AB28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>3320</v>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>3315</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -1990,34 +3096,79 @@
       <c r="D29" t="s">
         <v>27</v>
       </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
       <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s">
         <v>28</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
         <v>29</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" t="s">
         <v>30</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" t="s">
         <v>31</v>
       </c>
+      <c r="P29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>68</v>
+      </c>
       <c r="R29" t="s">
+        <v>68</v>
+      </c>
+      <c r="S29" t="s">
+        <v>68</v>
+      </c>
+      <c r="T29" t="s">
         <v>65</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
+        <v>70</v>
+      </c>
+      <c r="V29" t="s">
         <v>32</v>
       </c>
-      <c r="V29" t="s">
+      <c r="X29" t="s">
         <v>33</v>
       </c>
+      <c r="Y29" t="s">
+        <v>70</v>
+      </c>
       <c r="Z29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>3321</v>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>3318</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -2028,34 +3179,79 @@
       <c r="D30" t="s">
         <v>27</v>
       </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
       <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s">
         <v>28</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" t="s">
         <v>29</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" t="s">
         <v>30</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" t="s">
         <v>31</v>
       </c>
+      <c r="P30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>68</v>
+      </c>
       <c r="R30" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" t="s">
+        <v>68</v>
+      </c>
+      <c r="T30" t="s">
         <v>65</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
+        <v>70</v>
+      </c>
+      <c r="V30" t="s">
         <v>32</v>
       </c>
-      <c r="V30" t="s">
+      <c r="X30" t="s">
         <v>33</v>
       </c>
+      <c r="Y30" t="s">
+        <v>70</v>
+      </c>
       <c r="Z30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -2066,34 +3262,79 @@
       <c r="D31" t="s">
         <v>27</v>
       </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>205</v>
+      </c>
       <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s">
         <v>28</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
         <v>29</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" t="s">
         <v>30</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" t="s">
         <v>31</v>
       </c>
+      <c r="P31" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>68</v>
+      </c>
       <c r="R31" t="s">
+        <v>68</v>
+      </c>
+      <c r="S31" t="s">
+        <v>68</v>
+      </c>
+      <c r="T31" t="s">
         <v>65</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
+        <v>70</v>
+      </c>
+      <c r="V31" t="s">
         <v>32</v>
       </c>
-      <c r="V31" t="s">
+      <c r="X31" t="s">
         <v>33</v>
       </c>
+      <c r="Y31" t="s">
+        <v>70</v>
+      </c>
       <c r="Z31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -2104,34 +3345,79 @@
       <c r="D32" t="s">
         <v>27</v>
       </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>206</v>
+      </c>
       <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s">
         <v>28</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
         <v>29</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" t="s">
         <v>30</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" t="s">
         <v>31</v>
       </c>
+      <c r="P32" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>68</v>
+      </c>
       <c r="R32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S32" t="s">
+        <v>68</v>
+      </c>
+      <c r="T32" t="s">
         <v>65</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
+        <v>70</v>
+      </c>
+      <c r="V32" t="s">
         <v>32</v>
       </c>
-      <c r="V32" t="s">
+      <c r="X32" t="s">
         <v>33</v>
       </c>
+      <c r="Y32" t="s">
+        <v>70</v>
+      </c>
       <c r="Z32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -2142,34 +3428,79 @@
       <c r="D33" t="s">
         <v>27</v>
       </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>207</v>
+      </c>
       <c r="G33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
         <v>28</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
         <v>29</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" t="s">
         <v>30</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" t="s">
         <v>31</v>
       </c>
+      <c r="P33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>68</v>
+      </c>
       <c r="R33" t="s">
+        <v>68</v>
+      </c>
+      <c r="S33" t="s">
+        <v>68</v>
+      </c>
+      <c r="T33" t="s">
         <v>65</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
+        <v>70</v>
+      </c>
+      <c r="V33" t="s">
         <v>32</v>
       </c>
-      <c r="V33" t="s">
+      <c r="X33" t="s">
         <v>33</v>
       </c>
+      <c r="Y33" t="s">
+        <v>70</v>
+      </c>
       <c r="Z33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -2180,34 +3511,79 @@
       <c r="D34" t="s">
         <v>27</v>
       </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>208</v>
+      </c>
       <c r="G34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s">
         <v>28</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
         <v>29</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" t="s">
         <v>30</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" t="s">
         <v>31</v>
       </c>
+      <c r="P34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>68</v>
+      </c>
       <c r="R34" t="s">
+        <v>68</v>
+      </c>
+      <c r="S34" t="s">
+        <v>68</v>
+      </c>
+      <c r="T34" t="s">
         <v>65</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
+        <v>70</v>
+      </c>
+      <c r="V34" t="s">
         <v>32</v>
       </c>
-      <c r="V34" t="s">
+      <c r="X34" t="s">
         <v>33</v>
       </c>
+      <c r="Y34" t="s">
+        <v>70</v>
+      </c>
       <c r="Z34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>3326</v>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3324</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -2218,70 +3594,79 @@
       <c r="D35" t="s">
         <v>27</v>
       </c>
-      <c r="E35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>209</v>
       </c>
       <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s">
         <v>28</v>
       </c>
-      <c r="H35" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
         <v>29</v>
       </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M35" t="s">
         <v>30</v>
       </c>
-      <c r="L35" t="s">
-        <v>66</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" t="s">
         <v>31</v>
       </c>
-      <c r="N35" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" t="s">
-        <v>68</v>
-      </c>
       <c r="P35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q35" t="s">
         <v>68</v>
       </c>
       <c r="R35" t="s">
+        <v>68</v>
+      </c>
+      <c r="S35" t="s">
+        <v>68</v>
+      </c>
+      <c r="T35" t="s">
         <v>65</v>
       </c>
-      <c r="S35" t="s">
-        <v>70</v>
-      </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
+        <v>70</v>
+      </c>
+      <c r="V35" t="s">
         <v>32</v>
       </c>
-      <c r="V35" t="s">
+      <c r="X35" t="s">
         <v>33</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z35" t="s">
         <v>67</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="AA35" t="s">
         <v>74</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AB35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>3331</v>
+        <v>3325</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -2292,34 +3677,79 @@
       <c r="D36" t="s">
         <v>27</v>
       </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>210</v>
+      </c>
       <c r="G36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
         <v>28</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" t="s">
         <v>29</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" t="s">
         <v>30</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" t="s">
         <v>31</v>
       </c>
+      <c r="P36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>68</v>
+      </c>
       <c r="R36" t="s">
+        <v>68</v>
+      </c>
+      <c r="S36" t="s">
+        <v>68</v>
+      </c>
+      <c r="T36" t="s">
         <v>65</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
+        <v>70</v>
+      </c>
+      <c r="V36" t="s">
         <v>32</v>
       </c>
-      <c r="V36" t="s">
+      <c r="X36" t="s">
         <v>33</v>
       </c>
+      <c r="Y36" t="s">
+        <v>70</v>
+      </c>
       <c r="Z36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>3332</v>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>3326</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -2330,34 +3760,79 @@
       <c r="D37" t="s">
         <v>27</v>
       </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
       <c r="G37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
         <v>28</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" t="s">
         <v>29</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" t="s">
         <v>30</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" t="s">
         <v>31</v>
       </c>
+      <c r="P37" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>68</v>
+      </c>
       <c r="R37" t="s">
+        <v>68</v>
+      </c>
+      <c r="S37" t="s">
+        <v>68</v>
+      </c>
+      <c r="T37" t="s">
         <v>65</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
+        <v>70</v>
+      </c>
+      <c r="V37" t="s">
         <v>32</v>
       </c>
-      <c r="V37" t="s">
+      <c r="X37" t="s">
         <v>33</v>
       </c>
+      <c r="Y37" t="s">
+        <v>70</v>
+      </c>
       <c r="Z37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -2368,34 +3843,79 @@
       <c r="D38" t="s">
         <v>27</v>
       </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>182</v>
+      </c>
       <c r="G38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s">
         <v>28</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" t="s">
         <v>29</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>69</v>
+      </c>
+      <c r="M38" t="s">
         <v>30</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" t="s">
         <v>31</v>
       </c>
+      <c r="P38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>68</v>
+      </c>
       <c r="R38" t="s">
+        <v>68</v>
+      </c>
+      <c r="S38" t="s">
+        <v>68</v>
+      </c>
+      <c r="T38" t="s">
         <v>65</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
+        <v>70</v>
+      </c>
+      <c r="V38" t="s">
         <v>32</v>
       </c>
-      <c r="V38" t="s">
+      <c r="X38" t="s">
         <v>33</v>
       </c>
+      <c r="Y38" t="s">
+        <v>70</v>
+      </c>
       <c r="Z38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -2406,34 +3926,79 @@
       <c r="D39" t="s">
         <v>27</v>
       </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>186</v>
+      </c>
       <c r="G39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s">
         <v>28</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" t="s">
         <v>29</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" t="s">
         <v>30</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" t="s">
         <v>31</v>
       </c>
+      <c r="P39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>68</v>
+      </c>
       <c r="R39" t="s">
+        <v>68</v>
+      </c>
+      <c r="S39" t="s">
+        <v>68</v>
+      </c>
+      <c r="T39" t="s">
         <v>65</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
+        <v>70</v>
+      </c>
+      <c r="V39" t="s">
         <v>32</v>
       </c>
-      <c r="V39" t="s">
+      <c r="X39" t="s">
         <v>33</v>
       </c>
+      <c r="Y39" t="s">
+        <v>70</v>
+      </c>
       <c r="Z39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -2444,34 +4009,79 @@
       <c r="D40" t="s">
         <v>27</v>
       </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>187</v>
+      </c>
       <c r="G40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s">
         <v>28</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" t="s">
         <v>29</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" t="s">
         <v>30</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" t="s">
         <v>31</v>
       </c>
+      <c r="P40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>68</v>
+      </c>
       <c r="R40" t="s">
+        <v>68</v>
+      </c>
+      <c r="S40" t="s">
+        <v>68</v>
+      </c>
+      <c r="T40" t="s">
         <v>65</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
+        <v>70</v>
+      </c>
+      <c r="V40" t="s">
         <v>32</v>
       </c>
-      <c r="V40" t="s">
+      <c r="X40" t="s">
         <v>33</v>
       </c>
+      <c r="Y40" t="s">
+        <v>70</v>
+      </c>
       <c r="Z40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -2482,34 +4092,79 @@
       <c r="D41" t="s">
         <v>27</v>
       </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>188</v>
+      </c>
       <c r="G41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s">
         <v>28</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" t="s">
         <v>29</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" t="s">
         <v>30</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" t="s">
         <v>31</v>
       </c>
+      <c r="P41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>68</v>
+      </c>
       <c r="R41" t="s">
+        <v>68</v>
+      </c>
+      <c r="S41" t="s">
+        <v>68</v>
+      </c>
+      <c r="T41" t="s">
         <v>65</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
+        <v>70</v>
+      </c>
+      <c r="V41" t="s">
         <v>32</v>
       </c>
-      <c r="V41" t="s">
+      <c r="X41" t="s">
         <v>33</v>
       </c>
+      <c r="Y41" t="s">
+        <v>70</v>
+      </c>
       <c r="Z41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -2520,34 +4175,79 @@
       <c r="D42" t="s">
         <v>27</v>
       </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>189</v>
+      </c>
       <c r="G42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" t="s">
         <v>28</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" t="s">
         <v>29</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" t="s">
         <v>30</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" t="s">
         <v>31</v>
       </c>
+      <c r="P42" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>68</v>
+      </c>
       <c r="R42" t="s">
+        <v>68</v>
+      </c>
+      <c r="S42" t="s">
+        <v>68</v>
+      </c>
+      <c r="T42" t="s">
         <v>65</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
+        <v>70</v>
+      </c>
+      <c r="V42" t="s">
         <v>32</v>
       </c>
-      <c r="V42" t="s">
+      <c r="X42" t="s">
         <v>33</v>
       </c>
+      <c r="Y42" t="s">
+        <v>70</v>
+      </c>
       <c r="Z42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -2558,34 +4258,79 @@
       <c r="D43" t="s">
         <v>27</v>
       </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>194</v>
+      </c>
       <c r="G43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s">
         <v>28</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" t="s">
         <v>29</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" t="s">
         <v>30</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
+        <v>66</v>
+      </c>
+      <c r="O43" t="s">
         <v>31</v>
       </c>
+      <c r="P43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>68</v>
+      </c>
       <c r="R43" t="s">
+        <v>68</v>
+      </c>
+      <c r="S43" t="s">
+        <v>68</v>
+      </c>
+      <c r="T43" t="s">
         <v>65</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
+        <v>70</v>
+      </c>
+      <c r="V43" t="s">
         <v>32</v>
       </c>
-      <c r="V43" t="s">
+      <c r="X43" t="s">
         <v>33</v>
       </c>
+      <c r="Y43" t="s">
+        <v>70</v>
+      </c>
       <c r="Z43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -2596,34 +4341,79 @@
       <c r="D44" t="s">
         <v>27</v>
       </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>195</v>
+      </c>
       <c r="G44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s">
         <v>28</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" t="s">
         <v>29</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
+        <v>69</v>
+      </c>
+      <c r="M44" t="s">
         <v>30</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" t="s">
         <v>31</v>
       </c>
+      <c r="P44" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>68</v>
+      </c>
       <c r="R44" t="s">
+        <v>68</v>
+      </c>
+      <c r="S44" t="s">
+        <v>68</v>
+      </c>
+      <c r="T44" t="s">
         <v>65</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
+        <v>70</v>
+      </c>
+      <c r="V44" t="s">
         <v>32</v>
       </c>
-      <c r="V44" t="s">
+      <c r="X44" t="s">
         <v>33</v>
       </c>
+      <c r="Y44" t="s">
+        <v>70</v>
+      </c>
       <c r="Z44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -2634,34 +4424,79 @@
       <c r="D45" t="s">
         <v>27</v>
       </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>196</v>
+      </c>
       <c r="G45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s">
         <v>28</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" t="s">
         <v>29</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
+        <v>69</v>
+      </c>
+      <c r="M45" t="s">
         <v>30</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" t="s">
         <v>31</v>
       </c>
+      <c r="P45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>68</v>
+      </c>
       <c r="R45" t="s">
+        <v>68</v>
+      </c>
+      <c r="S45" t="s">
+        <v>68</v>
+      </c>
+      <c r="T45" t="s">
         <v>65</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
+        <v>70</v>
+      </c>
+      <c r="V45" t="s">
         <v>32</v>
       </c>
-      <c r="V45" t="s">
+      <c r="X45" t="s">
         <v>33</v>
       </c>
+      <c r="Y45" t="s">
+        <v>70</v>
+      </c>
       <c r="Z45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -2672,34 +4507,79 @@
       <c r="D46" t="s">
         <v>27</v>
       </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>197</v>
+      </c>
       <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s">
         <v>28</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46" t="s">
         <v>29</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M46" t="s">
         <v>30</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" t="s">
         <v>31</v>
       </c>
+      <c r="P46" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>68</v>
+      </c>
       <c r="R46" t="s">
+        <v>68</v>
+      </c>
+      <c r="S46" t="s">
+        <v>68</v>
+      </c>
+      <c r="T46" t="s">
         <v>65</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
+        <v>70</v>
+      </c>
+      <c r="V46" t="s">
         <v>32</v>
       </c>
-      <c r="V46" t="s">
+      <c r="X46" t="s">
         <v>33</v>
       </c>
+      <c r="Y46" t="s">
+        <v>70</v>
+      </c>
       <c r="Z46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -2710,28 +4590,239 @@
       <c r="D47" t="s">
         <v>27</v>
       </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>198</v>
+      </c>
       <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s">
         <v>28</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" t="s">
         <v>29</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" t="s">
         <v>30</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
+        <v>66</v>
+      </c>
+      <c r="O47" t="s">
         <v>31</v>
       </c>
+      <c r="P47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>68</v>
+      </c>
       <c r="R47" t="s">
+        <v>68</v>
+      </c>
+      <c r="S47" t="s">
+        <v>68</v>
+      </c>
+      <c r="T47" t="s">
         <v>65</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
+        <v>70</v>
+      </c>
+      <c r="V47" t="s">
         <v>32</v>
       </c>
-      <c r="V47" t="s">
+      <c r="X47" t="s">
         <v>33</v>
       </c>
+      <c r="Y47" t="s">
+        <v>70</v>
+      </c>
       <c r="Z47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3342</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>199</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" t="s">
+        <v>69</v>
+      </c>
+      <c r="K48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M48" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" t="s">
+        <v>31</v>
+      </c>
+      <c r="P48" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>68</v>
+      </c>
+      <c r="R48" t="s">
+        <v>68</v>
+      </c>
+      <c r="S48" t="s">
+        <v>68</v>
+      </c>
+      <c r="T48" t="s">
+        <v>65</v>
+      </c>
+      <c r="U48" t="s">
+        <v>70</v>
+      </c>
+      <c r="V48" t="s">
+        <v>32</v>
+      </c>
+      <c r="X48" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3343</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>202</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" t="s">
+        <v>69</v>
+      </c>
+      <c r="M49" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" t="s">
+        <v>66</v>
+      </c>
+      <c r="O49" t="s">
+        <v>31</v>
+      </c>
+      <c r="P49" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>68</v>
+      </c>
+      <c r="R49" t="s">
+        <v>68</v>
+      </c>
+      <c r="S49" t="s">
+        <v>68</v>
+      </c>
+      <c r="T49" t="s">
+        <v>65</v>
+      </c>
+      <c r="U49" t="s">
+        <v>70</v>
+      </c>
+      <c r="V49" t="s">
+        <v>32</v>
+      </c>
+      <c r="X49" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB49" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2742,10 +4833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2817,246 +4908,268 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
         <v>64</v>
       </c>
     </row>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDEC98C-ABBF-FF4C-99D9-4A658835212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C523D7A-DFBB-F543-A7B7-793039EFDFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39260" yWindow="1960" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="520" windowWidth="37300" windowHeight="18500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AA$49</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="89">
   <si>
     <t>Project_ID</t>
   </si>
@@ -29,75 +32,6 @@
     <t>Instrument</t>
   </si>
   <si>
-    <t>Cruise.field</t>
-  </si>
-  <si>
-    <t>Station.field</t>
-  </si>
-  <si>
-    <t>Profile.field</t>
-  </si>
-  <si>
-    <t>Latitude.field</t>
-  </si>
-  <si>
-    <t>Latitude.unit</t>
-  </si>
-  <si>
-    <t>Longitude.field</t>
-  </si>
-  <si>
-    <t>Longitude.unit</t>
-  </si>
-  <si>
-    <t>Depth_min.field</t>
-  </si>
-  <si>
-    <t>Depth_min.unit</t>
-  </si>
-  <si>
-    <t>Depth_max.field</t>
-  </si>
-  <si>
-    <t>Depth_max.unit</t>
-  </si>
-  <si>
-    <t>Volume_analyzed.field</t>
-  </si>
-  <si>
-    <t>Volume_analyzed.unit</t>
-  </si>
-  <si>
-    <t>Dilution.field</t>
-  </si>
-  <si>
-    <t>ESD.field</t>
-  </si>
-  <si>
-    <t>ESD.unit</t>
-  </si>
-  <si>
-    <t>Biovolume.field</t>
-  </si>
-  <si>
-    <t>Biovolume.unit</t>
-  </si>
-  <si>
-    <t>Area.field</t>
-  </si>
-  <si>
-    <t>Area.unit</t>
-  </si>
-  <si>
-    <t>Pixel.field</t>
-  </si>
-  <si>
-    <t>Pixel.unit</t>
-  </si>
-  <si>
-    <t>Category.field</t>
-  </si>
-  <si>
     <t>IFCB</t>
   </si>
   <si>
@@ -221,21 +155,12 @@
     <t>object_equivdiameter</t>
   </si>
   <si>
-    <t>meters</t>
-  </si>
-  <si>
     <t>process_pixel_to_micron</t>
   </si>
   <si>
     <t>NaN</t>
   </si>
   <si>
-    <t>degree_decimals</t>
-  </si>
-  <si>
-    <t>pixels</t>
-  </si>
-  <si>
     <t>pixels^3</t>
   </si>
   <si>
@@ -251,34 +176,127 @@
     <t>listed as 'object orientation'. Some IFCB projects represent only one station</t>
   </si>
   <si>
-    <t>station.ID.fromName</t>
-  </si>
-  <si>
-    <t>empty.coord</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
     <t>projects with empty fields in lat &amp; lon</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>leg.from.name</t>
-  </si>
-  <si>
-    <t>leg_from_name</t>
-  </si>
-  <si>
-    <t>leg number of the expedition</t>
-  </si>
-  <si>
-    <t>number of the station ID inferred from the project export file. If NaN, mutiple stations in a project</t>
+    <t>Cruise_field</t>
+  </si>
+  <si>
+    <t>Station_field</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>object_biovolume, object_summed_biovolume</t>
+  </si>
+  <si>
+    <t>missing_index</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169,170,171,172,173,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,233,234,235,236,237,238,239,240,241,242,243,244,245,246,247,248,249,250,251,252,253,254,255,256,257,258,259,260,261,262,263,264,265,266,267,268,269,270,271,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,288,289,290,291,292,293,294,295,296,297,298,299,300,301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,330,331,332,333,334,335,336,337,338,339,340,341,342,343,344,345,346,347,348,349,350,351,352,353,354,355,356,357,358,359,360,361,362,363,364,365,366,367,368,369,370,371,372,373,374,375,376,377,378,379,380,381,382,383,384,385,386,387,388,389,390,391,392,393,394,395,396,397,398,399,400,401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,444,445,446,447,448,449,450,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,467,468,469,470,471,472,473,474,475,476,477,478,479,480,481,482,483,484,485,486,487,488,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,504,505,506,507,508,509,510,511,512,513,514,515,516,517,518,519,520,521,522,523,524,525,526,527,528,529,530,531,532,533,534,535,536,537,538,539,540,541,542,543,544,545,546,547,548,549,550,551,552,553,554,555,556,557,558,559,560,561,562,563,564,565,566,567,568,569,570,571,572,573,574,575,576,577,578,579,580,581,582,583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,598,599,600,601,602,603,604,605,606,607,608,609,610,611,612,613,614,615,616,617,618,619,620,621,622,623,624,625,626,627,628,629,630,631,632,633,634,635,636,637,638,639,640,641,642,643,644,645,646,647,648,649,650,651,652,653,654,655,656,657,658,659,660,661,662,663,664,665,666,667,668,669,670,671,672,673,674,675,676,677,678,679,680,681,682,683,684,685,686,687,688,689,690,691,692,693,694,695,696,697,698,699,700,701,702,703,704,705,706,707,708,709,710,711,712,713,714,715,716,717,718,719,720,721,722,723,724,725,726,727,728,729,730,731,732,733,734,735,736,737,738,739,740,741,742,743,744,745,746,747,748,749,750,751,752,753,754,755,756,757,758,759,760,761,762,763,764,765,766,767,768,769,770,771,772,773,774,775,776,777,778,779,780,781,782,783,784,785,786,787,788,789,790,791,792,793,794,795,796,797,798,799,800,801,802,803,804,805,806,807,808,809,810,811,812,813,814,815,816,817,818,819,820,821,822,823,824,825,826,827,828,829,830,831,832,833,834,835,836,837,838,839,840,841,842,843,844,845,846,847,848,849,850,851,852,853,854,855,856,857,858,859,860,861,862,863,864,865,866,867,868,869,870,871,872,873,874,875,876,877,878,879,880,881,882,883,884,885,886,887,888,889,890,891,892,893,894,895,896,897,898,899,900,901,902,903,904,905,906,907,908,909,910,911,912,913,914,915,916,917,918,919,920,921,922,923,924,925,926,927,928,929,930,931,932,933,934,935,936,937,938,939,940,941,942,943,944,945,946,947,948,949,950,951,952,953,954,955,956,957,958,959,960,961,962,963,964,965,966,967,968,969,970,971,972,973,974,975,976,977,978,979,980,981,982,983,984,985,986,987,988,989,990,991,992,993,994,995,996,997,998,999,1000,1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011,1012,1013,1014,1015,1016,1017,1018,1019,1020,1021,1022,1023,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1041,1042,1043,1044,1045,1046,1047,1048,1049,1050,1051,1052,1053,1054,1055,1056,1057,1058,1059,1060,1061,1062,1063,1064,1065,1066,1067,1068,1069,1070,1071,1072,1073,1074,1075,1076,1077,1078,1079,1080,1081,1082,1083,1084,1085,1086,1087,1088,1089,1090,1091,1092,1093,1094,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106,1107,1108,1109,1110,1111,1112,1113,1114,1115,1116,1117,1118,1119,1120,1121,1122,1123,1124,1125,1126,1127,1128,1129,1130,1131,1132,1133,1134,1135,1136,1137,1138,1139,1140,1141,1142,1143,1144,1145,1146,1147,1148,1149,1150,1151,1152,1153,1154,1155,1156,1157,1158,1159,1160,1161,1162,1163,1164,1165,1166,1167,1168,1169,1170,1171,1172,1173,1174,1175,1176,1177,1178,1179,1180,1181,1182,1183,1184,1185,1186,1187,1188,1189,1190,1191,1192,1193,1194,1195,1196,1197,1198,1199,1200,1201,1202,1203,1204,1205,1206,1207,1208,1209,1210,1211,1212,1213,1214,1215,1216,1217,1218,1219,1220,1221,1222,1223,1224,1225,1226,1227,1228,1229,1230,1231,1232,1233,1234,1235,1236,1237,1238,1239,1240,1241,1242,1243,1244,1245,1246,1247,1248,1249,1250,1251,1252,1253,1254,1255,1256,1257,1258,1259,1260,1261,1262,1263,1264,1265,1266,1267,1268,1269,1270,1271,1272,1273,1274,1275,1276,1277,1278,1279,1280,1281,1282,1283,1284,1285,1286,1287,1288,1289,1290,1291,1292,1293,1294,1295,1296,1297,1298,1299,1300,1301,1302,1303,1304,1305,1306,1307,1308,1309,1310,1311,1312,1313,1314,1315,1316,1317,1318,1319,1320,1321,1322,1323,1324,1325,1326,1327,1328,1329,1330,1331,1332,1333,1334,1335,1336,1337,1338,1339,1340,1341,1342,1343,1344,1345,1346,1347,1348,1349,1350,1351,1352,1353,1354,1355,1356,1357,1358,1359,1360,1361,1362,1363,1364,1365,1366,1367,1368,1369,1370,1371,1372,1373,1374,1375,1376,1377,1378,1379,1380,1381,1382,1383,1384,1385,1386,1387,1388,1389,1390,1391,1392,1393,1394,1395,1396,1397,1398,1399,1400,1401,1402,1403,1404,1405,1406,1407,1408,1409,1410,1411,1412,1413,1414,1415,1416,1417,1418,1419,1420,1421,1422,1423,1424,1425,1426,1427,1428,1429,1430,1431,1432,1433,1434,1435,1436,1437,1438,1439,1440,1441,1442,1443,1444,1445,1446,1447,1448,1449,1450,1451,1452,1453,1454,1455,1456,1457,1458,1459,1460,1461,1462,1463,1464,1465,1466,1467,1468,1469,1470,1471,1472,1473,1474,1475,1476,1477,1478,1479,1480,1481,1482,1483,1484,1485,1486,1487,1488,1489,1490,1491,1492,1493,1494,1495,1496,1497,1498,1499,1500,1501,1502,1503,1504,1505,1506,1507,1508,1509,1510,1511,1512,1513,1514,1515,1516,1517,1518,1519,1520,1521,1522,1523,1524,1525,1526,1527,1528,1529,1530,1531,1532,1533,1534,1535,1536,1537,1538,1539,1540,1541,1542,1543,1544,1545,1546,1547,1548,1549,1550,1551,1552,1553,1554,1555,1556,1557,1558,1559,1560,1561,1562,1563,1564,1565,1566,1567,1568,1569,1570,1571,1572,1573,1574,1575,1576,1577,1578,1579,1580,1581,1582,1583,1584,1585,1586,1587,1588,1589,1590,1591,1592,1593,1594,1595,1596,1597,1598,1599,1600,1601,1602,1603,1604,1605,1606,1607,1608,1609,1610,1611,1612,1613,1614,1615,1616,1617,1618,1619,1620,1621,1622,1623,1624,1625,1626,1627,1628,1629,1630,1631,1632,1633,1634,1635,1636,1637,1638,1639,1640,1641,1642,1643,1644,1645,1646,1647,1648,1649,1650,1651,1652,1653,1654,1655,1656,1657,1658,1659,1660,1661,1662,1663,1664,1665,1666,1667,1668,1669,1670,1671,1672,1673,1674,1675,1676,1677,1678,1679,1680,1681,1682,1683,1684,1685,1686,1687,1688,1689,1690,1691,1692,1693,1694,1695,1696,1697,1698,1699,1700,1701,1702,1703,1704,1705,1706,1707,1708,1709,1710,1711,1712,1713,1714,1715,1716,1717,1718,1719,1720,1721,1722,1723,1724,1725,1726,1727,1728,1729,1730,1731,1732,1733,1734,1735,1736,1737,1738,1739,1740,1741,1742,1743,1744,1745,1746,1747,1748,1749,1750,1751,1752,1753,1754,1755,1756,1757,1758,1759,1760,1761,1762,1763,1764,1765,1766,1767,1768,1769,1770,1771,1772,1773,1774,1775,1776,1777,1778,1779,1780,1781,1782,1783,1784,1785,1786,1787,1788,1789,1790,1791,1792,1793,1794,1795,1796,1797,1798,1799,1800,1801,1802,1803,1804,1805,1806,1807,1808,1809,1810,1811,1812,1813,1814,1815,1816,1817,1818,1819,1820,1821,1822,1823,1824,1825,1826,1827,1828,1829,1830,1831,1832,1833,1834,1835,1836,1837,1838,1839,1840,1841,1842,1843,1844,1845,1846,1847,1848,1849,1850,1851,1852,1853,1854,1855,1856,1857,1858,1859,1860,1861,1862,1863,1864,1865,1866,1867,1868,1869,1870,1871,1872,1873,1874,1875,1876,1877,1878,1879,1880,1881,1882,1883,1884,1885,1886,1887,1888,1889,1890,1891,1892,1893,1894,1895,1896,1897,1898,1899,1900,1901,1902,1903,1904,1905,1906,1907,1908,1909,1910,1911,1912,1913,1914,1915,1916,1917,1918,1919,1920,1921,1922,1923,1924,1925,1926,1927,1928,1929,1930,1931,1932,1933,1934,1935,1936,1937,1938,1939,1940,1941,1942,1943,1944,1945,1946,1947,1948,1949,1950,1951,1952,1953,1954,1955,1956,1957,1958,1959,1960,1961,1962,1963,1964,1965,1966,1967,1968,1969,1970,1971,1972,1973,1974,1975,1976,1977,1978,1979,1980,1981,1982,1983,1984,1985,1986,1987,1988,1989,1990,1991,1992,1993,1994,1995,1996,1997,1998,1999,2000,2001,2002,2003,2004,2005,2006,2007,2008,2009,2010,2011,2012,2013,2014,2015,2016,2017,2018,2019,2020,2021,2022,2023,2024,2025,2026,2027,2028,2029,2030,2031,2032,2033,2034,2035,2036,2037,2038,2039,2040,2041,2042,2043,2044,2045,2046,2047,2048,2049,2050,2051,2052,2053,2054,2055,2056,2057,2058,2059,2060,2061,2062,2063,2064,2065,2066,2067,2068,2069,2070,2071,2072,2073,2074,2075,2076,2077,2078,2079,2080,2081,2082,2083,2084,2085,2086,2087,2088,2089,2090,2091,2092,2093,2094,2095,2096,2097,2098,2099,2100,2101,2102,2103,2104,2105,2106,2107,2108,2109,2110,2111,2112,2113,2114,2115,2116,2117,2118,2119,2120,2121,2122,2123,2124,2125,2126,2127,2128,2129,2130,2131,2132,2133,2134,2135,2136,2137,2138,2139,2140,2141,2142,2143,2144,2145,2146,2147,2148,2149,2150,2151,2152,2153,2154,2155,2156,2157,2158,2159,2160,2161,2162,2163,2164,2165,2166,2167,2168,2169,2170,2171,2172,2173,2174,2175,2176,2177,2178,2179,2180,2181,2182,2183,2184,2185,2186,2187,2188,2189,2190,2191,2192,2193,2194,2195,2196,2197,2198,2199,2200,2201,2202,2203,2204,2205,2206,2207,2208,2209,2210,2211,2212,2213,2214,2215,2216,2217,2218,2219,2220,2221,2222,2223,2224,2225,2226,2227,2228,2229,2230,2231,2232,2233,2234,2235,2236,2237,2238,2239,2240,2241,2242,2243,2244,2245,2246,2247,2248,2249,2250,2251,2252,2253,2254,2255,2256,2257,2258,2259,2260,2261,2262,2263,2264,2265,2266,2267,2268,2269,2270,2271,2272,2273,2274,2275,2276,2277,2278,2279,2280,2281,2282,2283,2284,2285,2286,2287,2288,2289,2290,2291,2292,2293,2294,2295,2296,2297,2298,2299,2300,2301,2302,2303,2304,2305,2306,2307,2308,2309,2310,2311,2312,2313,2314,2315,2316,2317,2318,2319,2320,2321,2322,2323,2324,2325,2326,2327,2328,2329,2330,2331,2332,2333,2334,2335,2336,2337,2338,2339,2340,2341,2342,2343,2344,2345,2346,2347,2348,2349,2350,2351,2352,2353,2354,2355,2356,2357,2358,2359,2360,2361,2362,2363,2364,2365,2366,2367,2368,2369,2370,2371,2372,2373,2374,2375,2376,2377,2378,2379,2380,2381,2382,2383,2384,2385,2386,2387,2388,2389,2390,2391,2392,2393,2394,2395,2396,2397,2398,2399,2400,2401,2402,2403,2404,2405,2406,2407,2408,2409,2410,2411,2412,2413,2414,2415,2416,2417,2418,2419,2420,2421,2422,2423,2424,2425,2426,2427,2428,2429,2430,2431,2432,2433,2434,2435,2436,2437,2438,2439,2440,2441,2442,2443,2444,2445,2446,2447,2448,2449,2450,2451,2452,2453,2454,2455,2456,2457,2458,2459,2460,2461,2462,2463,2464,2465,2466,2467,2468,2469,2470,2471,2472,2473,2474,2475,2476,2477,2478,2479,2480,2481,2482,2483,2484,2485,2486,2487,2488,2489,2490,2491,2492,2493,2494,2495,2496,2497,2498,2499,2500,2501,2502,2503,2504,2505,2506,2507,2508,2509,2510,2511,2512,2513,2514,2515,2516,2517,2518,2519,2520,2521,2522,2523,2524,2525,2526,2527,2528,2529,2530,2531,2532,2533,2534,2535,2536,2537,2538,2539,2540,2541,2542,2543,2544,2545,2546,2547,2548,2549,2550,2551,2552,2553,2554,2555,2556,2557,2558,2559,2560,2561,2562,2563,2564,2565,2566,2567,2568,2569,2570,2571,2572,2573,2574,2575,2576,2577,2578,2579,2580,2581,2582,2583,2584,2585,2586,2587,2588,2589,2590,2591,2592,2593,2594,2595,2596,2597,2598,2599,2600,2601,2602,2603,2604,2605,2606,2607,2608,2609,2610,2611,2612,2613,2614,2615,2616,2617,2618,2619,2620,2621,2622,2623,2624,2625,2626,2627,2628,2629,2630,2631,2632,2633,2634,2635,2636,2637,2638,2639,2640,2641,2642,2643,2644,2645,2646,2647,2648,2649,2650,2651,2652,2653,2654,2655,2656,2657,2658,2659,2660,2661,2662,2663,2664,2665,2666,2667,2668,2669,2670,2671,2672,2673,2674,2675,2676,2677,2678,2679,2680,2681,2682,2683,2684,2685,2686,2687,2688,2689,2690,2691,2692,2693,2694,2695,2696,2697,2698,2699,2700,2701,2702,2703,2704,2705,2706,2707,2708,2709,2710,2711,2712,2713,2714,2715,2716,2717,2718,2719,2720,2721,2722,2723,2724,2725,2726,2727,2728,2729,2730,2731,2732,2733,2734,2735,2736,2737,2738,2739,2740,2741,2742,2743,2744,2745,2746,2747,2748,2749,2750,2751,2752,2753,2754,2755,2756,2757,2758,2759,2760,2761,2762,2763,2764,2765,2766,2767,2768,2769,2770,2771,2772,2773,2774,2775,2776,2777,2778,2779,2780,2781,2782,2783,2784,2785,2786,2787,2788,2789,2790,2791,2792,2793,2794,2795,2796,2797,2798,2799,2800,2801,2802,2803,2804,2805,2806,2807,2808,2809,2810,2811,2812,2813,2814,2815,2816,2817,2818,2819,2820,2821,2822,2823,2824,2825,2826,2827,2828,2829,2830,2831,2832,2833,2834,2835,2836,2837,2838,2839,2840,2841,2842,2843,2844,2845,2846,2847,2848,2849,2850,2851,2852,2853,2854,2855,2856,2857,2858,2859,2860
+0,358,359,360,361,362,363,364,365,366,367,368,369,370,371,372,373,374,375,376,377,378,379,380,381,382,383,384,385,386,387,388,389,390,391,392,393,394,395,396,397,398,399,400,401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,444,445,446,447,448,449,450,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,467,468,469,470,471,472,473,474,475,476,477,478,479,480,481,482,483,484,485,486,487,488,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,504,505,506,507,508,509,510,511,512,513,514,515,516,517,518,519,520,521,522,523,524,525,526,527,528,529,530,531,532,533,534,535,536,537,538,539,540,541,542,543,544,545,546,547,548,549,550,551,552,553,554,555,556,557,558,559,560,561,562,563,564,565,566,567,568,569,570,571,572,573,574,575,576,577,578,579,580,581,582,583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,598,599,600,601,602,603,604,605,606,607,608,609,610,611,612,613,614,615,616,617,618,619,620,621,622,623,624,625,626,627,628,629,630,631,632,633,634,635,636,637,638,639,640,641,642,643,644,645,646,647,648,649,650,651,652,653,654,655,656,657,658,659,660,661,662,663,664,665,666,667,668,669,670,671,672,673,674,675,676,677,678,679,680,681,682,683,684,685,686,687,688,689,690,691,692,693,694,695,696,697,698,699,700,701,702,703,704,705,706,707,708,709,710,711,712,713,714,715,716,717,718,719,720,721,722,723,724,725,726,727,728,729,730,731,732,733,734,735,736,737,738,739,740,741,742,743,744,745,746,747,748,749,750,751,752,753,754,755,756,757,758,759,760,761,762,763,764,765,766,767,768,769,770,771,772,773,774,775,776,777,778,779,780,781,782,783,784,785,786,787,788,789,790,791,792,793,794,795,796,797,798,799,800,801,802,803,804,805,806,807,808,809,810,811,812,813,814,815,816,817,818,819,820,821,822,823,824,825,826,827,828,829,830,831,832,833,834,835,836,837,838,839,840,841,842,843,844,845,846,847,848,849,850,851,852,853,854,855,856,857,858,859,860,861,862,863,864,865,866,867,868,869,870,871,872,873,874,875,876,877,878,879,880,881,882,883,884,885,886,887,888,889,890,891,892,893,894,895,896,897,898,899,900,901,902,903,904,905,906,907,908,909,910,911,912,913,914,915,916,917,918,919,920,921,922,923,924,925,926,927,928,929,930,931,932,933,934,935,936,937,938,939,940,941,942,943,944,945,946,947,948,949,950,951,952,953,954,955,956,957,958,959,960,961,962,963,964,965,966,967,968,969,970,971,972,973,974,975,976,977,978,979,980,981,982,983,984,985,986,987,988,989,990,991,992,993,994,995,996,997,998,999,1000,1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011,1012,1013,1014,1015,1016,1017,1018,1019,1020,1021,1022,1023,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1041,1042,1043,1044,1045,1046,1047,1048,1049,1050,1051,1052,1053,1054,1055,1056,1057,1058,1059,1060,1061,1062,1063,1064,1065,1066,1067,1068,1069,1070,1071,1072,1073,1074,1075,1076,1077,1078,1079,1080,1081,1082,1083,1084,1085,1086,1087,1088,1089,1090,1091,1092,1093,1094,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106,1107,1108,1109,1110,1111,1112,1113,1114,1115,1116,1117,1118,1119,1120,1121,1122,1123,1124,1125,1126,1127,1128,1129,1130,1131,1132,1133,1134,1135,1136,1137,1138,1139,1140,1141,1142,1143,1144,1145,1146,1147,1148,1149,1150,1151,1152,1153,1154,1155,1156,1157,1158,1159,1160,1161,1162,1163,1164,1165,1166,1167,1168,1169,1170,1171,1172,1173,1174,1175,1176,1177,1178,1179,1180,1181,1182,1183,1184,1185,1186,1187,1188,1189,1190,1191,1192,1193,1194,1195,1196,1197,1198,1199,1200,1201,1202,1203,1204,1205,1206,1207,1208,1209,1210,1211,1212,1213,1214,1215,1216,1217,1218,1219,1220,1221,1222,1223,1224,1225,1226,1227,1228,1229,1230,1231,1232,1233,1234,1235,1236,1237,1238,1239,1240,1241,1242,1243,1244,1245,1246,1247,1248,1249,1250,1251,1252,1253,1254,1255,1256,1257,1258,1259,1260,1261,1262,1263,1264,1265,1266,1267,1268,1269,1270,1271,1272,1273,1274,1275,1276,1277,1278,1279,1280,1281,1282,1283,1284,1285,1286,1287,1288,1289,1290,1291,1292,1293,1294,1295,1296,1297,1298,1299,1300,1301,1302,1303,1304,1305,1306,1307,1308,1309,1310,1311,1312,1313,1314,1315,1316,1317,1318,1319,1320,1321,1322,1323,1324,1325,1326,1327,1328,1329,1330,1331,1332,1333,1334,1335,1336,1337,1338,1339,1340,1341,1342,1343,1344,1345,1346,1347,1348,1349,1350,1351,1352,1353,1354,1355,1356,1357,1358,1359,1360,1361,1362,1363,1364,1365,1366,1367,1368,1369,1370,1371,1372,1373,1374,1375,1376,1377,1378,1379,1380,1381,1382,1383,1384,1385,1386,1387,1388,1389,1390,1391,1392,1393,1394,1395,1396,1397,1398,1399,1400,1401,1402,1403,1404,1405,1406,1407,1408,1409,1410,1411,1412,1413,1414,1415,1416,1417,1418,1419,1420,1421,1422,1423,1424,1425,1426,1427,1428,1429,1430,1431,1432,1433,1434,1435,1436,1437,1438,1439,1440,1441,1442,1443,1444,1445,1446,1447,1448,1449,1450,1451,1452,1453,1454,1455,1456,1457,1458,1459,1460,1461,1462,1463,1464,1465,1466,1467,1468,1469,1470,1471,1472,1473,1474,1475,1476,1477,1478,1479,1480,1481,1482,1483,1484,1485,1486,1487,1488,1489,1490,1491,1492,1493,1494,1495,1496,1497,1498,1499,1500,1501,1502,1503,1504,1505,1506,1507,1508,1509,1510,1511,1512,1513,1514,1515,1516,1517,1518,1519,1520,1521,1522,1523,1524,1525,1526,1527,1528,1529,1530,1531,1532,1533,1534,1535,1536,1537,1538,1539,1540,1541,1542,1543,1544,1545,1546,1547,1548,1549,1550,1551,1552,1553,1554,1555,1556,1557,1558,1559,1560,1561,1562,1563,1564,1565,1566,1567,1568,1569,1570,1571,1572,1573,1574,1575,1576,1577,1578,1579,1580,1581,1582,1583,1584,1585,1586,1587,1588,1589,1590,1591,1592,1593,1594,1595,1596,1597,1598,1599,1600,1601,1602,1603,1604,1605,1606,1607,1608,1609,1610,1611,1612,1613,1614,1615,1616,1617,1618,1619,1620,1621,1622,1623,1624,1625,1626,1627,1628,1629,1630,1631,1632,1633,1634,1635,1636,1637,1638,1639,1640,1641,1642,1643,1644,1645,1646,1647,1648,1649,1650,1651,1652,1653,1654,1655,1656,1657,1658,1659,1660,1661,1662,1663,1664,1665,1666,1667,1668,1669,1670,1671,1672,1673,1674,1675,1676,1677,1678,1679,1680,1681,1682,1683,1684,1685,1686,1687,1688,1689,1690,1691,1692,1693,1694,1695,1696,1697,1698,1699,1700,1701,1702,1703,1704,1705,1706,1707,1708,1709,1710,1711,1712,1713,1714,1715,1716,1717,1718,1719,1720,1721,1722,1723,1724,1725,1726,1727,1728,1729,1730,1731,1732,1733,1734,1735,1736,1737,1738,1739,1740,1741,1742,1743,1744,1745,1746,1747,1748,1749,1750,1751,1752,1753,1754,1755,1756,1757,1758,1759,1760,1761,1762,1763,1764,1765,1766,1767,1768,1769,1770,1771,1772,1773,1774,1775,1776,1777,1778,1779,1780,1781,1782,1783,1784,1785,1786,1787,1788,1789,1790,1791,1792,1793,1794,1795,1796,1797,1798,1799,1800,1801,1802,1803,1804,1805,1806,1807,1808,1809,1810,1811,1812,1813,1814,1815,1816,1817,1818,1819,1820,1821,1822,1823,1824,1825,1826,1827,1828,1829,1830,1831,1832,1833,1834,1835,1836,1837,1838,1839,1840,1841,1842,1843,1844,1845,1846,1847,1848,1849,1850,1851,1852,1853,1854,1855,1856,1857,1858,1859,1860,1861,1862,1863,1864,1865,1866,1867,1868,1869,1870,1871,1872,1873,1874,1875,1876,1877,1878,1879,1880,1881,1882,1883,1884,1885,1886,1887,1888,1889,1890,1891,1892,1893,1894,1895,1896,1897,1898,1899,1900,1901,1902,1903,1904,1905,1906,1907,1908,1909,1910,1911,1912,1913,1914,1915,1916,1917,1918,1919,1920,1921,1922,1923,1924,1925,1926,1927,1928,1929,1930,1931,1932,1933,1934,1935,1936,1937,1938,1939,1940,1941,1942,1943,1944,1945,1946,1947,1948,1949,1950,1951,1952,1953,1954,1955,1956,1957,1958,1959,1960,1961,1962,1963,1964,1965,1966,1967,1968,1969,1970,1971,1972,1973,1974,1975,1976,1977,1978,1979,1980,1981,1982,1983,1984,1985,1986,1987,1988,1989,1990,1991,1992,1993,1994,1995,1996,1997,1998,1999,2000,2001,2002,2003,2004,2005,2006,2007,2008,2009,2010,2011,2012,2013,2014,2015,2016,2017,2018,2019,2020,2021,2022,2023,2024,2025,2026,2027,2028,2029,2030,2031,2032,2033,2034,2035,2036,2037,2038,2039,2040,2041,2042,2043,2044,2045,2046,2047,2048,2049,2050,2051,2052,2053,2054,2055,2056,2057,2058,2059,2060,2061,2062,2063,2064,2065,2066,2067,2068,2069,2070,2071,2072,2073,2074,2075,2076,2077,2078,2079,2080,2081,2082,2083,2084,2085,2086,2087,2088,2089,2090,2091,2092,2093,2094,2095,2096,2097,2098,2099,2100,2101,2102,2103,2104,2105,2106,2107,2108,2109,2110,2111,2112,2113,2114,2115,2116,2117,2118,2119,2120,14012,14013,14014,14015,14016,14017,14018,14019,14020,14021,14022,14023,14024,14025,14026,14027,14028,14029,14030,14031,14032,14033,14034,14035,14036,14037,14038,14039,14040,14041,14042,14043,14044,14045,14046,14047,14048,14049,14050,14051,14052,14053,14054,14055,14056,14057,14058,14059,14060,14061,14062,14063,14064,14065,14066,14067,14068,14069,14070,14071,14072,14073,14074,14075,14076,14077,14078,14079,14080,14081,14082,14083,14084,14085,14086,14087,14088,14089,14090,14091,14092,14093,14094,14095,14096,14097,14098,14099,14100,14101,14102,14103,14104,14105,14106,14107,14108,14109,14110,14111,14112,14113,14114,14115,14116,14117,14118,14119,14120,14121,14122,14123,14124,14125,14126,14127,14128,14129,14130,14131,14132,14133,14134,14135,14136,14137,14138,14139,14140,14141,14142,14143,14144,14145,14146,14147,14148,14149,14150,14151,14152,14153,14154,14155,14156,14157,14158,14159,14160,14161,14162,14163,14164,14165,14166,14167,14168,14169,14170,14171,14172,14173,14174,14175,14176,14177,14178,14179,14180,14181,14182,14183,14184,14185,14186,14187,14188,14189,14190,14191,14192,14193,14194,14195,14196,14197,14198,14199,14200,14201,14202,14203,14204,14205,14206,14207,14208,14209,14210,14211,14212,14213,14214,14215,14216,14217,14218,14219,14220,14221,14222,14223,14224,14225,14226,14227,14228,14229,14230,14231,14232,14233,14234,14235,14236,14237,14238,14239,14240,14241,14242,14243,14244,14245,14246,14247,14248,14249,14250,14251,14252,14253,14254,14255,14256,14257,14258,14259,14260,14261,14262,14263,14264,14265,14266,14267,14268,14269,14270,14271,14272,14273,14274,14275,14276,14277,14278,14279,14280,14281,14282,14283,14284,14285,14286,14287,14288,14289,14290,14291,14292,14293,14294,14295,14296,14297,14298,14299,14300,14301,14302,14303,14304,14305,14306,14307,14308,14309,14310,14311,14312,14313,14314,14315,14316,14317,14318,14319,14320,14321,14322,14323,14324,14325,14326,14327,14328,14329,14330,14331,14332,14333,14334,14335,14336,14337,14338,14339,14340,14341,14342,14343,14344,14345,14346,14347,14348,14349,14350,14351,14352,14353,14354,14355,14356,14357,14358,14359,14360,14361,14362,14363,14364,14365,14366,14367,14368,14369,14370,14371,14372,14373,14374,14375,14376,14377,14378,14379,14380,14381,14382,14383,14384,14385,14386,14387,14388,14389,14390,14391,14392,14393,14394,14395,14396,14397,14398,14399,14400,14401,14402,14403,14404,14405,14406,14407,14408,14409,14410,14411,14412,14413,14414,14415,14416,14417,14418,14419,14420,14421,14422,14423,14424,14425,14426,14427,14428,14429,14430,14431,14432,14433,14434,14435,14436,14437,14438,14439,14440,14441,14442,14443,14444,14445,14446,14447,14448,14449,14450,14451,14452,14453,14454,14455,14456,14457,14458,14459,14460,14461,14462,14463,14464,14465,14466,14467,14468,14469,14470,14471,14472,14473,14474,14475,14476,14477,14478,14479,14480,14481,14482,14483,14484,14485,14486,14487,14488,14489,14490,14491,14492,14493,14494,14495,14496,14497,14498,14499,14500,14501,14502,14503,14504,14505,14506,14507,14508,14509,14510,14511,14512,14513,14514,14515,14516,14517,14518,14519,14520,14521,14522,14523,14524,14525,14526,14527,14528,14529,14530,14531,14532,14533,14534,14535,14536,14537,14538,14539,14540,14541,14542,14543,14544,14545,14546,14547,14548,14549,14550,14551,14552,14553,14554,14555,14556,14557,14558,14559,14560,14561,14562,14563,14564,14565,14566,14567,14568,14569,14570,14571,14572,14573,14574,14575,14576,14577,14578,14579,14580,14581,14582,14583,14584,14585,14586,14587,14588,14589,14590,14591,14592,14593,14594,14595,14596,14597,14598,14599,14600,14601,14602,14603,14604,14605,14606,14607,14608,14609,14610,14611,14612,14613,14614,14615,14616,14617,14618,14619,14620,14621,14622,14623,14624,14625,14626,14627,14628,14629,14630,14631,14632,14633,14634,14635,14636,14637,14638,14639,14640,14641,14642,14643,14644,14645,14646,14647,14648,14649,14650,14651,14652,14653,14654,14655,14656,14657,14658,14659,14660,14661,14662,14663,14664,14665,14666,14667,14668,14669,14670,14671,14672,14673,14674,14675,14676,14677,14678,14679,14680,14681,14682,14683,14684,14685,14686,14687,14688,14689,14690,14691,14692,14693,14694,14695,14696,14697,14698,14699,14700,14701,14702,14703,14704,14705,14706,14707,14708,14709,14710,14711,14712,14713,14714,14715,14716,14717,14718,14719,14720,14721,14722,14723,14724,14725,14726,14727,14728,14729,14730,14731,14732,14733,14734,14735,14736,14737,14738,14739,14740,14741,14742,14743,14744,14745,14746,14747,14748,14749,14750,14751,14752,14753,14754,14755,14756,14757,14758,14759,14760,14761,14762,14763,14764,14765,14766,14767,14768,14769,14770,14771,14772,14773,14774,14775,14776,14777,14778,14779,14780,14781,14782,14783,14784,14785,14786,14787,14788,14789,14790,14791,14792,14793,14794,14795,14796,14797,14798,14799,14800,14801,14802,14803,14804,14805,14806,14807,14808,14809,14810,14811,14812,14813,14814,14815,14816,14817,14818,14819,14820,14821,14822,14823,14824,14825,14826,14827,14828,14829,14830,14831,14832,14833,14834,14835,14836,14837,14838,14839,14840,14841,14842,14843,14844,14845,14846,14847,14848,14849,14850,14851,14852,14853,14854,14855,14856,14857,14858,14859,14860,14861,14862,14863,14864,14865,14866,14867,14868,14869,14870,14871,14872,14873,14874,14875,14876,14877,14878,14879,14880,14881,14882,14883,14884,14885,14886,14887,14888,14889,14890,14891,14892,14893,14894,14895,14896,14897,14898,14899,14900,14901,14902,14903,14904,14905,14906,14907,14908,14909,14910,14911,14912,14913,14914,14915,14916,14917,14918,14919,14920,14921,14922,14923,14924,14925,14926,14927,14928,14929,14930,14931,14932,14933,14934,14935,14936,14937,14938,14939,14940,14941,14942,14943,14944,14945,14946,14947,14948,14949,14950,14951,14952,14953,14954,14955,14956,14957,14958,14959,14960,14961,14962,14963,14964,14965,14966,14967,14968,14969,14970,14971,14972,14973,14974,14975,14976,14977,14978,14979,14980,14981,14982,14983,14984,14985,14986,14987,14988,14989,14990,14991,14992,14993,14994,14995,14996,14997,14998,14999,15000,15001,15002,15003,15004,15005,15006,15007,15008,15009,15010,15011,15012,15013,15014,15015,15016,15017,15018,15019,15020,15021,15022,15023,15024,15025,15026,15027,15028,15029,15030,15031,15032,15033,15034,15035,15036,15037,15038,15039,15040,15041,15042,15043,15044,15045,15046,15047,15048,15049,15050,15051,15052,15053,15054,15055,15056,15057,15058,15059,15060,15061,15062,15063,15064,15065,15066,15067,15068,15069,15070,15071,15072,15073,15074,15075,15076,15077,15078,15079,15080,15081,15082,15083,15084,15085,15086,15087,15088,15089,15090,15091,15092,15093,15094,15095,15096,15097,15098,15099,15100,15101,15102,15103,15104,15105,15106,15107,15108,15109</t>
+  </si>
+  <si>
+    <t>Profile_field</t>
+  </si>
+  <si>
+    <t>empty_coord</t>
+  </si>
+  <si>
+    <t>Latitude_field</t>
+  </si>
+  <si>
+    <t>Latitude_unit</t>
+  </si>
+  <si>
+    <t>Longitude_field</t>
+  </si>
+  <si>
+    <t>Longitude_unit</t>
+  </si>
+  <si>
+    <t>Depth_min_field</t>
+  </si>
+  <si>
+    <t>Depth_min_unit</t>
+  </si>
+  <si>
+    <t>Depth_max_field</t>
+  </si>
+  <si>
+    <t>Depth_max_unit</t>
+  </si>
+  <si>
+    <t>Volume_analyzed_field</t>
+  </si>
+  <si>
+    <t>Volume_analyzed_unit</t>
+  </si>
+  <si>
+    <t>Dilution_field</t>
+  </si>
+  <si>
+    <t>ESD_field</t>
+  </si>
+  <si>
+    <t>ESD_unit</t>
+  </si>
+  <si>
+    <t>Biovolume_field</t>
+  </si>
+  <si>
+    <t>Biovolume_unit</t>
+  </si>
+  <si>
+    <t>Area_field</t>
+  </si>
+  <si>
+    <t>Area_unit</t>
+  </si>
+  <si>
+    <t>Pixel_field</t>
+  </si>
+  <si>
+    <t>Pixel_unit</t>
+  </si>
+  <si>
+    <t>Category_field</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62
+0,264254,264255,264256,264257,264258,264259,264260,264261,264262,264263,264264,264265,264266,264267,264268,264269,264270,264271,264272,264273,264274,264275,264276,264277,264278,264279,264280,264281,264282,264283,264284,264285,264286,264287,264288,264289,264290,264291,264292,264293,264294,264295,264296,264297,264298,264299,264300,264301,264302,264303,264304,264305,264306,264307,264308,264309,264310,264311,264312,264313,264314,264315,264316</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54
+0,7288,7289,7290,7291,7292,7293,7294,7295,7296,7297,7298,7299,7300,7301,7302,7303,7304,7305,7306,7307,7308,7309,7310,7311,7312,7313,7314,7315,7316,7317,7318,7319,7320,7321,7322,7323,7324,7325,7326,7327,7328,7329,7330,7331,7332,7333,7334,7335,7336,7337,7338,7339,7340,7341,7342</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169,170,171,172,173,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,233,234,235,236,237,238,239,240,241,242,243,244,245,246,247,248,249,250,251,252,253,254,255,256,257,258,259,260,261,262,263,264,265,266,267,268,269,270,271,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,288,289,290,291,292,293,294,295,296,297,298,299,300,301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,330,331,332,333,334,335,336,337,338,339,340,341,342,343,344,345,346,347,348,349,350,351,352,353,354,355,356,357,358,359,360,361,362,363,364,365,366,367,368,369,370,371,372,373,374,375,376,377,378,379,380,381,382,383,384,385,386,387,388,389,390,391,392,393,394,395,396,397,398,399,400,401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,444,445,446,447,448,449,450,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,467,468,469,470,471,472,473,474,475,476,477,478,479,480,481,482,483,484,485,486,487,488,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,504,505,506,507,508,509,510,511,512,513,514,515,516,517,518,519,520,521,522,523,524,525,526,527,528,529,530,531,532,533,534,535,536,537,538,539,540,541,542,543,544,545,546,547,548,549,550,551,552,553,554,555,556,557,558,559,560,561,562,563,564,565,566,567,568,569,570,571,572,573,574,575,576,577,578,579,580,581,582,583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,598,599,600,601,602,603,604,605,606,607,608,609,610,611,612
+0,0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169,170,171,172,173,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,233,234,235,236,237,238,239,240,241,242,243,244,245,246,247,248,249,250,251,252,253,254,255,256,257,258,259,260,261,262,263,264,265,266,267,268,269,270,271,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,288,289,290,291,292,293,294,295,296,297,298,299,300,301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,330,331,332,333,334,335,336,337,338,339,340,341,342,343,344,345,346,347,348,349,350,351,352,353,354,355,356,357,358,359,360,361,362,363,364,365,366,367,368,369,370,371,372,373,374,375,376,377,378,379,380,381,382,383,384,385,386,387,388,389,390,391,392,393,394,395,396,397,398,399,400,401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,444,445,446,447,448,449,450,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,467,468,469,470,471,472,473,474,475,476,477,478,479,480,481,482,483,484,485,486,487,488,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,504,505,506,507,508,509,510,511,512,513,514,515,516,517,518,519,520,521,522,523,524,525,526,527,528,529,530,531,532,533,534,535,536,537,538,539,540,541,542,543,544,545,546,547,548,549,550,551,552,553,554,555,556,557,558,559,560,561,562,563,564,565,566,567,568,569,570,571,572,573,574,575,576,577,578,579,580,581,582,583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,598,599,600,601,602,603,604,605,606,607,608,609,610,611,612</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13
+0,12350,12351,12352,12353,12354,12355,12356,12468,12469,12470,12471,12472,12473,12474</t>
+  </si>
+  <si>
+    <t>0,3538,3539,3540,3541,3542,3543,3544,3545,3546,3547,3548,3549,3550,3551,3552,3553,3554,3555,3556,3557,3558,3559,3560,3561,3562,3563,3564,3565,3566,3567,3568,3569,3570,3571,3572,3573,3574,3575,3576,3577,3578,3579,3580,3581,3582,3583,3584,3585,3586,3587,3588,3589,3590,3591,3592,3593,3594,3595,3596,3597,3598,3599,3600,3601,3602,3603,3604,3605,3606,3607,3608,3609,3610,3611,3612,3613,3614,3615,3616,3617,3618,3619,3620,3621,3622,3623,3624,3625,3626,3627,3628,3629,3630,3631,3632,3633,3634,3635,3636,3637,3638,3639,3640,3641,3642,3643,3644,3645,3646,3647,3648,3649,3650,3651,3652,3653,3654,3655,3656,3657,3658,3659,3660,3661,3662,3663,3664,3665,3666,3667,3668,3669,3670,3671,3672,3673,3674,3675,3676,3677,3678,3679,3680,3681,3682,3683,3684,3685,3686,3687,3688,3689,3690,3691,3692,3693,3694,3695,3696,3697,3698,3699,3700,3701,3702,3703,3704,3705,3706,3707,3708,3709,3710,3711,3712,3713,3714,3715,3716,3717,3718,3719,3720,3721,3722,3723,3724,3725,3726,3727,3728,3729,3730,3731,3732,3733,3734,3735,3736,3737,3738,3739,3740,3741,3742,3743,3744,3745,3746,3747,3748,3749,3750,3751,3752,3753,3754,3755,3756,3757,3758,3759,3760,3761,3762,3763,3764,3765,3766,3767,3768,3769,3770,3771,3772,3773,3774,3775,3776,3777,3778,3779,3780,3781,3782,3783,3784,3785,3786,3787,3788,3789,3790,3791,3792,3793,3794,3795,3796,3797,3798,3799,3800,3801,3802,3803,3804,3805,3806,3807,3808,3809,3810,3811,3812,3813,3814,3815,3816,3817,3818,3819,3820,3821,3822,3823,3824,3825,3826,3827,3828,3829,3830,3831,3832,3833,3834,3835,3836,3837,3838,3839,3840,3841,3842,3843,3844,3845,3846,3847,3848,3849,3850,3851,3852,3853,3854,3855,3856,3857,3858,3859,3860,3861,3862,3863,3864,3865,3866,3867,3868,3869,3870,3871,3872,3873,3874,3875,3876,3877,3878,3879,3880,3881,3882,3883,3884,3885,3886,3887,3888,3889,3890,3891,3892,3893,3894,3895,3896,3897,3898,3899,3900,3901,3902,3903,3904,3905,3906,3907,3908,3909,3910,3911,3912,3913,3914,3915,3916,3917,3918,3919,3920,3921,3922,3923,3924,3925,3926,3927,3928,3929,3930,3931,3932,3933,3934,3935,3936,3937,3938,3939,3940,3941,3942,3943,3944,3945,3946,3947,3948,3949,3950,3951,3952,3953,3954,3955,3956,3957,3958,3959,3960,3961,3962,3963,3964,3965,3966,3967,3968,3969,3970,3971,3972,3973,3974,3975,3976,3977,3978,3979,3980,3981,3982,3983,3984,3985,3986,3987,3988,3989,3990,3991,3992,3993,3994,3995,3996,3997,3998,3999,4000,4001,4002,4003,4004,4005,4006,4007,4008,4009,4010,4011,4012,4013,4014,4015,4016,4017,4018,4019,4020,4021,4022,4023,4024,4025,4026,4027,4028,4029,4030,4031,4032,4033,4034,4035,4036,4037,4038,4039,4040,4041,4042,4043,4044,4045,4046,4047,4048,4049,4050,4051,4052,4053,4054,4055,4056,4057,4058,4059,4060,4061,4062,4063,4064,4065,4066,4067,4068,4069,4070,4071,4072,4073,4074,4075,4076,4077,4078,4079,4080,4081,4082,4083,4084,4085,4086,4087,4088,4089,4090,4091,4092,4093,4094,4095,4096,4097,4098,4099,4100,4101,4102,4103,4104,4105,4106,4107,4108,4109,4110,4111,4112,4113,4114,4115,4116,4117,4118,4119,4120,4121,4122,4123,4124,4125,4126,4127,4128,4129,4130,4131,4132,4133,4134,4135,4136,4137,4138,4139,4140,4141,4142,4143,4144,4145,4146,4147,4148,4149,4150,4151,4152,4153,4154,4155,4156,4157,4158,4159,4160,4161,4162,4163,4164,4165,4166,4167,4168,4169,4170,4171,4172,4173,4174,4175,4176,4177,4178,4179,4180,4181,4182,4183,4184,4185,4186,4187,4188,4189,4190,4191,4192,4193,4194,4195,4196,4197,4198,4199,4200,4201,4202,4203,4204,4205,4206,4207,4208,4209,4210,4211,4212,4213,4214,4215,4216,4217,4218,4219,4220,4221,4222,4223,4224,4225,4226,4227,4228,4229,4230,4231,4232,4233,4234,4235,4236,4237,4238,4239,4240,4241,4242,4243,4244,4245,4246,4247,4248,4249,4250,4251,4252,4253,4254,4255,4256,4257,4258,4259,4260,4261,4262,4263,4264,4265,4266,4267,4268,4269,4270,4271,4272,4273,4274,4275,4276,4277,4278,4279,4280,4281,4282,4283,4284,4285,4286,4287,4288,4289,4290,4291,4292,4293,4294,4295,4296,4297,4298,4299,4300,4301,4302,4303,4304,4305,4306,4307,4308,4309,4310,4311,4312,4313,4314,4315,4316,4317,4318,4319,4320,4321,4322,4323,4324,4325,4326,4327,4328,4329,4330,4331,4332,4333,4334,4335,4336,4337,4338,4339,4340,4341,4342,4343,4344,4345,4346,4347,4348,4349,4350,4351,4352,4353,4354,4355,4356,4357,4358,4359,4360,4361,4362,4363,4364,4365,4366,4367,4368,4369,4370,4371,4372,4373,4374,4375,4376,4377,4378,4379,4380,4381,4382,4383,4384,4385,4386,4387,4388,4389,4390,4391,4392,4393,4394,4395,4396,4397,4398,4399,4400,4401,4402,4403,4404,4405,4406,4407,4408,4409,4410,4411,4412,4413,4414,4415,4416,4417,4418,4419,4420,4421,4422,4423,4424,4425,4426,4427,4428,4429,4430,4431,4432,4433,4434,4435,4436,4437,4438,4439,4440,4441,4442,4443,4444,4445,4446,4447,4448,4449,4450,4451,4452,4453,4454,4455,4456,4457,4458,4459,4460,4461,4462,4463,4464,4465,4466,4467,4468,4469,4470,4471,4472,4473,4474,4475,4476,4477,4478,4479,4480,4481,4482,4483,4484,4485,4486,4487,4488,4489,4490,4491,4492,4493,4494,4495,4496,4497,4498,4499,4500,4501,4502,4503,4504,4505,4506,4507,4508,4509,4510,4511,4512,4513,4514,4515,4516,4517,4518,4519,4520,4521,4522,4523,4524,4525,4526,4527,4528,4529,4530,4531,4532,4533,4534,4535,4536,4537,4538,4539,4540,4541,4542,4543,4544,4545,4546,4547,4548,4549,4550,4551,4552,4553,4554,4555,4556,4557,4558,4559,4560,4561,4562,4563,4564,4565,4566,4567,4568,4569,4570,4571,4572,4573,4574,4575,4576,4577,4578,4579,4580,4581,4582,4583,4584,4585,4586,4587,4588,4589,4590,4591,4592,4593,4594,4595,4596,4597,4598,4599,4600,4601,4602,4603,4604,4605,4606,4607,4608,4609,4610,4611,4612,4613,4614,4615,4616,4617,4618,4619,4620,4621,4622,4623,4624,4625,4626,4627,4628,4629,4630,4631,4632,4633,4634,4635,4636,4637,4638,4639,4640,4641,4642,4643,4644,4645,4646,4647,4648,4649,4650,4651,4652,4653,4654,4655,4656,4657,4658,4659,4660,4661,4662,4663,4664,4665,4666,4667,4668,4669,4670,4671,4672,4673,4674,4675,4676,4677,4678,4679,4680,4681,4682,4683,4684,4685,4686,4687,4688,4689,4690,4691,4692,4693,4694,4695,4696,4697,4698,4699,4700,4701,4702,4703,4704,4705,4706,4707,4708,4709,4710,4711,4712,4713,4714,4715,4716,4717,4718,4719,4720,4721,4722,4723,4724,4725,4726,4727,4728,4729,4730,4731,4732,4733,4734,4735,4736,4737,4738,4739,4740,4741,4742,4743,4744,4745,4746,4747,4748,4749,4750,4751,4752,4753,4754,4755,4756,4757,4758,4759,4760,4761,4762,4763,4764,4765,4766,4767,4768,4769,4770,4771,4772,4773,4774,4775,4776,4777,4778,4779,4780,4781,4782,4783,4784,4785,4786,4787,4788,4789,4790,4791,4792,4793,4794,4795,4796,4797,4798,4799,4800,4801,4802,4803,4804,4805,4806,4807,4808,4809,4810,4811,4812,4813,4814,4815,4816,4817,4818,4819,4820,4821,4822,4823,4824,4825,4826,4827,4828,4829,4830,4831,4832,4833,4834,4835,4836,4837,4838,4839,4840,4841,4842,4843,4844,4845,4846,4847,4848,4849,4850,4851,4852,4853,4854,4855,4856,4857,4858,4859,4860,4861,4862,4863,4864,4865,4866,4867,4868,4869,4870,4871,4872,4873,4874,4875,4876,4877,4878,4879,4880,4881,4882,4883,4884,4885,4886,4887,4888,4889,4890,4891,4892,4893,4894,4895,4896,4897,4898,4899,4900,4901,4902,4903,4904,4905,4906,4907,4908,4909,4910,4911,4912,4913,4914,4915,4916,4917,4918,4919,4920,4921,4922,4923,4924,4925,4926,4927,4928,4929,4930,4931,4932,4933,4934,4935,4936,4937,4938,4939,4940,4941,4942,4943,4944,4945,4946,4947,4948,4949,4950,4951,4952,4953,4954,4955,4956,4957,4958,4959,4960,4961,4962,4963,4964,4965,4966,4967,4968,4969,4970,4971,4972,4973,4974,4975,4976,4977,4978,4979,4980,4981,4982,4983,4984,4985,4986,4987,4988,4989,4990,4991,4992,4993,4994,4995,4996,4997,4998,4999,5000,5001,5002,5003,5004,5005,5006,5007,5008,5009,5010,5011,5012,5013,5014,5015,5016,5017,5018,5019,5020,5021,5022,5023,5024,5025,5026,5027,5028,5029,5030,5031,5032,5033,5034,5035,5036,5037,5038,5039,5040,5041,5042,5043,5044,5045,5046,5047,5048,5049,5050,5051,5052,5053,5054,5055,5056,5057,5058,5059,5060,5061,5062,5063,5064,5065,5066,5067,5068,5069,5070,5071,5072,5073,5074,5075,5076,5077,5078,5079,5080,5081,5082,5083,5084,5085,5086,5087,5088,5089,5090,5091,5092,5093,5094,5095,5096,5097,5098,5099,5100,5101,5102,5103,5104,5105,5106,5107,5108,5109,5110,5111,5112,5113,5114,5115,5116,5117,5118,5119,5120,5121,5122,5123,5124,5125,5126,5127,5128,5129,5130,5131,5132,5133,5134,5135,5136,5137,5138,5139,5140,5141,5142,5143,5144,5145,5146,5147,5148,5149,5150,5151,5152,5153,5154,5155,5156,5157,5158,5159,5160,5161,5162,5163</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146,147,148,149,150,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169,170,171,172,173,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,222,223,224,225,226,227,228,229,230,231,232,233,234,235,236,237,238,239,240,241,242,243,244,245,246,247,248,249,250,251,252,253,254,255,256,257,258,259,260,261,262,263,264,265,266,267,268,269,270,271,272,273,274,275,276,277,278,279,280,281,282,283,284,285,286,287,288,289,290,291,292,293,294,295,296,297,298,299,300,301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,319,320,321,322,323,324,325,326,327,328,329,330,331,332,333,334,335,336,337,338,339,340,341,342,343,344,345,346,347,348,349,350,351,352,353,354,355,356,357,358,359,360,361,362,363,364,365,366,367,368,369,370,371,372,373,374,375,376,377,378,379,380,381,382,383,384,385,386,387,388,389,390,391,392,393,394,395,396,397,398,399,400,401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,444,445,446,447,448,449,450,451,452,453,454,455,456,457,458,459,460,461,462,463,464,465,466,467,468,469,470,471,472,473,474,475,476,477,478,479,480,481,482,483,484,485,486,487,488,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,504,505,506,507,508,509,510,511,512,513,514,515,516,517,518,519,520,521,522,523,524,525,526,527,528,529,530,531,532,533,534,535,536,537,538,539,540,541,542,543,544,545,546,547,548,549,550,551,552,553,554,555,556,557,558,559,560,561,562,563,564,565,566,567,568,569,570,571,572,573,574,575,576,577,578,579,580,581,582,583,584,585,586,587,588,589,590,591,592,593,594,595,596,597,598,599,600,601,602,603,604,605,606,607,608,609,610,611,612,613,614,615,616,617,618,619,620,621,622,623,624,625,626,627,628,629,630,631,632,633,634,635,636,637,638,639,640,641,642,643,644,645,646,647,648,649,650,651,652,653,654,655,656,657,658,659,660,661,662,663,664,665,666,667,668,669,670,671,672,673,674,675,676,677,678,679,680,681,682,683,684,685,686,687,688,689,690,691,692,693,694,695,696,697,698,699,700,701,702,703,704,705,706,707,708,709,710,711,712,713,714,715,716,717,718,719,720,721,722,723,724,725,726,727,728,729,730,731,732,733,734,735,736,737,738,739,740,741,742,743,744,745,746,747,748,749,750,751,752,753,754,755,756,757,758,759,760,761,762,763,764,765,766,767,768,769,770,771,772,773,774,775,776,777,778,779,780,781,782,783,784,785,786,787,788,789,790,791,792,793,794,795,796,797,798,799,800,801,802,803,804,805,806,807,808,809,810,811,812,813,814,815,816,817,818,819,820,821,822,823,824,825,826,827,828,829,830,831,832,833,834,835,836,837,838,839,840,841,842,843,844,845,846,847,848,849,850,851,852,853,854,855,856,857,858,859,860,861,862,863,864,865,866,867,868,869,870,871,872,873,874,875,876,877,878,879,880,881,882,883,884,885,886,887,888,889,890,891,892,893,894,895,896,897,898,899,900,901,902,903,904,905,906,907,908,909,910,911,912,913,914,915,916,917,918,919,920,921,922,923,924,925,926,927,928,929,930,931,932,933,934,935,936,937,938,939,940,941,942,943,944,945,946,947,948,949,950,951,952,953,954,955,956,957,958,959,960,961,962,963,964,965,966,967,968,969,970,971,972,973,974,975,976,977,978,979,980,981,982,983,984,985,986,987,988,989,990,991,992,993,994,995,996,997,998,999,1000,1001,1002,1003,1004,1005,1006,1007,1008,1009,1010,1011,1012,1013,1014,1015,1016,1017,1018,1019,1020,1021,1022,1023,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1041,1042,1043,1044,1045,1046,1047,1048,1049,1050,1051,1052,1053,1054,1055,1056,1057,1058,1059,1060,1061,1062,1063,1064,1065,1066,1067,1068,1069,1070,1071,1072,1073,1074,1075,1076,1077,1078,1079,1080,1081,1082,1083,1084,1085,1086,1087,1088,1089,1090,1091,1092,1093,1094,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106,1107,1108,1109,1110,1111,1112,1113,1114,1115,1116,1117,1118,1119,1120,1121,1122,1123,1124,1125,1126,1127,1128,1129,1130,1131,1132,1133,1134,1135,1136,1137,1138,1139,1140,1141,1142,1143,1144,1145,1146,1147,1148,1149,1150,1151,1152,1153,1154,1155,1156,1157,1158,1159,1160,1161,1162,1163,1164,1165,1166,1167,1168,1169,1170,1171,1172,1173,1174,1175,1176,1177,1178,1179,1180,1181,1182,1183,1184,1185,1186,1187,1188,1189,1190,1191,1192,1193,1194,1195,1196,1197,1198,1199,1200,1201,1202,1203,1204,1205,1206,1207,1208,1209,1210,1211,1212,1213,1214,1215,1216,1217,1218,1219,1220,1221,1222,1223,1224,1225,1226,1227,1228,1229,1230,1231,1232,1233,1234,1235,1236,1237,1238,1239,1240,1241,1242,1243,1244,1245,1246,1247,1248,1249,1250,1251,1252,1253,1254,1255,1256,1257,1258,1259,1260,1261,1262,1263,1264,1265,1266,1267,1268,1269,1270,1271,1272,1273,1274,1275,1276,1277,1278,1279,1280,1281,1282,1283,1284,1285,1286,1287,1288,1289,1290,1291,1292,1293,1294,1295,1296,1297,1298,1299,1300,1301,1302,1303,1304,1305,1306,1307,1308,1309,1310,1311,1312,1313,1314,1315,1316,1317,1318,1319,1320,1321,1322,1323,1324,1325,1326,1327,1328,1329,1330,1331,1332,1333,1334,1335,1336,1337,1338,1339,1340,1341,1342,1343,1344,1345,1346,1347,1348,1349,1350,1351,1352,1353,1354,1355,1356,1357,1358,1359,1360,1361,1362,1363,1364,1365,1366,1367,1368,1369,1370,1371,1372,1373,1374,1375,1376,1377,1378,1379,1380,1381,1382,1383,1384,1385,1386,1387,1388,1389,1390,1391,1392,1393,1394,1395,1396,1397,1398,1399,1400,1401,1402,1403,1404,1405,1406,1407,1408,1409,1410,1411,1412,1413,1414,1415,1416,1417,1418,1419,1420,1421,1422,1423,1424,1425,1426,1427,1428,1429,1430,1431,1432,1433,1434,1435,1436,1437,1438,1439,1440,1441,1442,1443,1444,1445,1446,1447,1448,1449,1450,1451,1452,1453,1454,1455,1456,1457,1458,1459,1460,1461,1462,1463,1464,1465,1466,1467,1468,1469,1470,1471,1472,1473,1474,1475,1476,1477,1478,1479,1480,1481,1482,1483,1484,1485,1486,1487,1488,1489,1490,1491,1492,1493,1494,1495,1496,1497,1498,1499,1500,1501,1502,1503,1504,1505,1506,1507,1508,1509,1510,1511,1512,1513,1514,1515,1516,1517,1518,1519,1520,1521,1522,1523,1524,1525,1526,1527,1528,1529,1530,1531,1532,1533,1534,1535,1536,1537,1538,1539,1540,1541,1542,1543,1544,1545,1546,1547,1548,1549,1550,1551,1552,1553,1554,1555,1556,1557,1558,1559,1560,1561,1562,1563,1564,1565,1566,1567,1568,1569,1570,1571,1572,1573,1574,1575,1576,1577,1578,1579,1580,1581,1582,1583,1584,1585,1586,1587,1588,1589,1590,1591,1592,1593,1594,1595,1596,1597,1598,1599,1600,1601,1602,1603,1604,1605,1606,1607,1608,1609,1610,1611,1612,1613,1614,1615,1616,1617,1618,1619,1620,1621,1622,1623,1624,1625
+0,3538,3539,3540,3541,3542,3543,3544,3545,3546,3547,3548,3549,3550,3551,3552,3553,3554,3555,3556,3557,3558,3559,3560,3561,3562,3563,3564,3565,3566,3567,3568,3569,3570,3571,3572,3573,3574,3575,3576,3577,3578,3579,3580,3581,3582,3583,3584,3585,3586,3587,3588,3589,3590,3591,3592,3593,3594,3595,3596,3597,3598,3599,3600,3601,3602,3603,3604,3605,3606,3607,3608,3609,3610,3611,3612,3613,3614,3615,3616,3617,3618,3619,3620,3621,3622,3623,3624,3625,3626,3627,3628,3629,3630,3631,3632,3633,3634,3635,3636,3637,3638,3639,3640,3641,3642,3643,3644,3645,3646,3647,3648,3649,3650,3651,3652,3653,3654,3655,3656,3657,3658,3659,3660,3661,3662,3663,3664,3665,3666,3667,3668,3669,3670,3671,3672,3673,3674,3675,3676,3677,3678,3679,3680,3681,3682,3683,3684,3685,3686,3687,3688,3689,3690,3691,3692,3693,3694,3695,3696,3697,3698,3699,3700,3701,3702,3703,3704,3705,3706,3707,3708,3709,3710,3711,3712,3713,3714,3715,3716,3717,3718,3719,3720,3721,3722,3723,3724,3725,3726,3727,3728,3729,3730,3731,3732,3733,3734,3735,3736,3737,3738,3739,3740,3741,3742,3743,3744,3745,3746,3747,3748,3749,3750,3751,3752,3753,3754,3755,3756,3757,3758,3759,3760,3761,3762,3763,3764,3765,3766,3767,3768,3769,3770,3771,3772,3773,3774,3775,3776,3777,3778,3779,3780,3781,3782,3783,3784,3785,3786,3787,3788,3789,3790,3791,3792,3793,3794,3795,3796,3797,3798,3799,3800,3801,3802,3803,3804,3805,3806,3807,3808,3809,3810,3811,3812,3813,3814,3815,3816,3817,3818,3819,3820,3821,3822,3823,3824,3825,3826,3827,3828,3829,3830,3831,3832,3833,3834,3835,3836,3837,3838,3839,3840,3841,3842,3843,3844,3845,3846,3847,3848,3849,3850,3851,3852,3853,3854,3855,3856,3857,3858,3859,3860,3861,3862,3863,3864,3865,3866,3867,3868,3869,3870,3871,3872,3873,3874,3875,3876,3877,3878,3879,3880,3881,3882,3883,3884,3885,3886,3887,3888,3889,3890,3891,3892,3893,3894,3895,3896,3897,3898,3899,3900,3901,3902,3903,3904,3905,3906,3907,3908,3909,3910,3911,3912,3913,3914,3915,3916,3917,3918,3919,3920,3921,3922,3923,3924,3925,3926,3927,3928,3929,3930,3931,3932,3933,3934,3935,3936,3937,3938,3939,3940,3941,3942,3943,3944,3945,3946,3947,3948,3949,3950,3951,3952,3953,3954,3955,3956,3957,3958,3959,3960,3961,3962,3963,3964,3965,3966,3967,3968,3969,3970,3971,3972,3973,3974,3975,3976,3977,3978,3979,3980,3981,3982,3983,3984,3985,3986,3987,3988,3989,3990,3991,3992,3993,3994,3995,3996,3997,3998,3999,4000,4001,4002,4003,4004,4005,4006,4007,4008,4009,4010,4011,4012,4013,4014,4015,4016,4017,4018,4019,4020,4021,4022,4023,4024,4025,4026,4027,4028,4029,4030,4031,4032,4033,4034,4035,4036,4037,4038,4039,4040,4041,4042,4043,4044,4045,4046,4047,4048,4049,4050,4051,4052,4053,4054,4055,4056,4057,4058,4059,4060,4061,4062,4063,4064,4065,4066,4067,4068,4069,4070,4071,4072,4073,4074,4075,4076,4077,4078,4079,4080,4081,4082,4083,4084,4085,4086,4087,4088,4089,4090,4091,4092,4093,4094,4095,4096,4097,4098,4099,4100,4101,4102,4103,4104,4105,4106,4107,4108,4109,4110,4111,4112,4113,4114,4115,4116,4117,4118,4119,4120,4121,4122,4123,4124,4125,4126,4127,4128,4129,4130,4131,4132,4133,4134,4135,4136,4137,4138,4139,4140,4141,4142,4143,4144,4145,4146,4147,4148,4149,4150,4151,4152,4153,4154,4155,4156,4157,4158,4159,4160,4161,4162,4163,4164,4165,4166,4167,4168,4169,4170,4171,4172,4173,4174,4175,4176,4177,4178,4179,4180,4181,4182,4183,4184,4185,4186,4187,4188,4189,4190,4191,4192,4193,4194,4195,4196,4197,4198,4199,4200,4201,4202,4203,4204,4205,4206,4207,4208,4209,4210,4211,4212,4213,4214,4215,4216,4217,4218,4219,4220,4221,4222,4223,4224,4225,4226,4227,4228,4229,4230,4231,4232,4233,4234,4235,4236,4237,4238,4239,4240,4241,4242,4243,4244,4245,4246,4247,4248,4249,4250,4251,4252,4253,4254,4255,4256,4257,4258,4259,4260,4261,4262,4263,4264,4265,4266,4267,4268,4269,4270,4271,4272,4273,4274,4275,4276,4277,4278,4279,4280,4281,4282,4283,4284,4285,4286,4287,4288,4289,4290,4291,4292,4293,4294,4295,4296,4297,4298,4299,4300,4301,4302,4303,4304,4305,4306,4307,4308,4309,4310,4311,4312,4313,4314,4315,4316,4317,4318,4319,4320,4321,4322,4323,4324,4325,4326,4327,4328,4329,4330,4331,4332,4333,4334,4335,4336,4337,4338,4339,4340,4341,4342,4343,4344,4345,4346,4347,4348,4349,4350,4351,4352,4353,4354,4355,4356,4357,4358,4359,4360,4361,4362,4363,4364,4365,4366,4367,4368,4369,4370,4371,4372,4373,4374,4375,4376,4377,4378,4379,4380,4381,4382,4383,4384,4385,4386,4387,4388,4389,4390,4391,4392,4393,4394,4395,4396,4397,4398,4399,4400,4401,4402,4403,4404,4405,4406,4407,4408,4409,4410,4411,4412,4413,4414,4415,4416,4417,4418,4419,4420,4421,4422,4423,4424,4425,4426,4427,4428,4429,4430,4431,4432,4433,4434,4435,4436,4437,4438,4439,4440,4441,4442,4443,4444,4445,4446,4447,4448,4449,4450,4451,4452,4453,4454,4455,4456,4457,4458,4459,4460,4461,4462,4463,4464,4465,4466,4467,4468,4469,4470,4471,4472,4473,4474,4475,4476,4477,4478,4479,4480,4481,4482,4483,4484,4485,4486,4487,4488,4489,4490,4491,4492,4493,4494,4495,4496,4497,4498,4499,4500,4501,4502,4503,4504,4505,4506,4507,4508,4509,4510,4511,4512,4513,4514,4515,4516,4517,4518,4519,4520,4521,4522,4523,4524,4525,4526,4527,4528,4529,4530,4531,4532,4533,4534,4535,4536,4537,4538,4539,4540,4541,4542,4543,4544,4545,4546,4547,4548,4549,4550,4551,4552,4553,4554,4555,4556,4557,4558,4559,4560,4561,4562,4563,4564,4565,4566,4567,4568,4569,4570,4571,4572,4573,4574,4575,4576,4577,4578,4579,4580,4581,4582,4583,4584,4585,4586,4587,4588,4589,4590,4591,4592,4593,4594,4595,4596,4597,4598,4599,4600,4601,4602,4603,4604,4605,4606,4607,4608,4609,4610,4611,4612,4613,4614,4615,4616,4617,4618,4619,4620,4621,4622,4623,4624,4625,4626,4627,4628,4629,4630,4631,4632,4633,4634,4635,4636,4637,4638,4639,4640,4641,4642,4643,4644,4645,4646,4647,4648,4649,4650,4651,4652,4653,4654,4655,4656,4657,4658,4659,4660,4661,4662,4663,4664,4665,4666,4667,4668,4669,4670,4671,4672,4673,4674,4675,4676,4677,4678,4679,4680,4681,4682,4683,4684,4685,4686,4687,4688,4689,4690,4691,4692,4693,4694,4695,4696,4697,4698,4699,4700,4701,4702,4703,4704,4705,4706,4707,4708,4709,4710,4711,4712,4713,4714,4715,4716,4717,4718,4719,4720,4721,4722,4723,4724,4725,4726,4727,4728,4729,4730,4731,4732,4733,4734,4735,4736,4737,4738,4739,4740,4741,4742,4743,4744,4745,4746,4747,4748,4749,4750,4751,4752,4753,4754,4755,4756,4757,4758,4759,4760,4761,4762,4763,4764,4765,4766,4767,4768,4769,4770,4771,4772,4773,4774,4775,4776,4777,4778,4779,4780,4781,4782,4783,4784,4785,4786,4787,4788,4789,4790,4791,4792,4793,4794,4795,4796,4797,4798,4799,4800,4801,4802,4803,4804,4805,4806,4807,4808,4809,4810,4811,4812,4813,4814,4815,4816,4817,4818,4819,4820,4821,4822,4823,4824,4825,4826,4827,4828,4829,4830,4831,4832,4833,4834,4835,4836,4837,4838,4839,4840,4841,4842,4843,4844,4845,4846,4847,4848,4849,4850,4851,4852,4853,4854,4855,4856,4857,4858,4859,4860,4861,4862,4863,4864,4865,4866,4867,4868,4869,4870,4871,4872,4873,4874,4875,4876,4877,4878,4879,4880,4881,4882,4883,4884,4885,4886,4887,4888,4889,4890,4891,4892,4893,4894,4895,4896,4897,4898,4899,4900,4901,4902,4903,4904,4905,4906,4907,4908,4909,4910,4911,4912,4913,4914,4915,4916,4917,4918,4919,4920,4921,4922,4923,4924,4925,4926,4927,4928,4929,4930,4931,4932,4933,4934,4935,4936,4937,4938,4939,4940,4941,4942,4943,4944,4945,4946,4947,4948,4949,4950,4951,4952,4953,4954,4955,4956,4957,4958,4959,4960,4961,4962,4963,4964,4965,4966,4967,4968,4969,4970,4971,4972,4973,4974,4975,4976,4977,4978,4979,4980,4981,4982,4983,4984,4985,4986,4987,4988,4989,4990,4991,4992,4993,4994,4995,4996,4997,4998,4999,5000,5001,5002,5003,5004,5005,5006,5007,5008,5009,5010,5011,5012,5013,5014,5015,5016,5017,5018,5019,5020,5021,5022,5023,5024,5025,5026,5027,5028,5029,5030,5031,5032,5033,5034,5035,5036,5037,5038,5039,5040,5041,5042,5043,5044,5045,5046,5047,5048,5049,5050,5051,5052,5053,5054,5055,5056,5057,5058,5059,5060,5061,5062,5063,5064,5065,5066,5067,5068,5069,5070,5071,5072,5073,5074,5075,5076,5077,5078,5079,5080,5081,5082,5083,5084,5085,5086,5087,5088,5089,5090,5091,5092,5093,5094,5095,5096,5097,5098,5099,5100,5101,5102,5103,5104,5105,5106,5107,5108,5109,5110,5111,5112,5113,5114,5115,5116,5117,5118,5119,5120,5121,5122,5123,5124,5125,5126,5127,5128,5129,5130,5131,5132,5133,5134,5135,5136,5137,5138,5139,5140,5141,5142,5143,5144,5145,5146,5147,5148,5149,5150,5151,5152,5153,5154,5155,5156,5157,5158,5159,5160,5161,5162,5163</t>
+  </si>
+  <si>
+    <t>row numbers with empty lat &amp; lon</t>
   </si>
 </sst>
 </file>
@@ -316,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -350,19 +368,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -375,14 +380,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,32 +729,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="Q1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,4088 +761,3673 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="V1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>159</v>
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="W2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>160</v>
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="W3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>167</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>155</v>
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3292</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>156</v>
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W6" t="s">
+        <v>55</v>
       </c>
       <c r="X6" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3293</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>157</v>
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V7" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W7" t="s">
+        <v>55</v>
       </c>
       <c r="X7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3294</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>158</v>
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>55</v>
       </c>
       <c r="X8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3295</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>161</v>
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V9" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
       </c>
       <c r="X9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y9" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3296</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>162</v>
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S10" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V10" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W10" t="s">
+        <v>55</v>
       </c>
       <c r="X10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y10" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3297</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>163</v>
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S11" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W11" t="s">
+        <v>55</v>
       </c>
       <c r="X11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y11" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3298</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>68</v>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W12" t="s">
+        <v>55</v>
       </c>
       <c r="X12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y12" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3299</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q13" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S13" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U13" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W13" t="s">
+        <v>55</v>
       </c>
       <c r="X13" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y13" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3300</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>165</v>
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S14" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V14" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W14" t="s">
+        <v>55</v>
       </c>
       <c r="X14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y14" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3301</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>166</v>
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S15" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>65</v>
-      </c>
-      <c r="U15" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W15" t="s">
+        <v>55</v>
       </c>
       <c r="X15" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y15" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3302</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>168</v>
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q16" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
-      </c>
-      <c r="U16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V16" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W16" t="s">
+        <v>55</v>
       </c>
       <c r="X16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3303</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>169</v>
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q17" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S17" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>65</v>
-      </c>
-      <c r="U17" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V17" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W17" t="s">
+        <v>55</v>
       </c>
       <c r="X17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y17" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3304</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>170</v>
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L18" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q18" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>65</v>
-      </c>
-      <c r="U18" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V18" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W18" t="s">
+        <v>55</v>
       </c>
       <c r="X18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y18" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3305</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>171</v>
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>65</v>
-      </c>
-      <c r="U19" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V19" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W19" t="s">
+        <v>55</v>
       </c>
       <c r="X19" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y19" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3306</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>172</v>
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N20" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q20" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S20" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>65</v>
-      </c>
-      <c r="U20" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W20" t="s">
+        <v>55</v>
       </c>
       <c r="X20" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y20" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3307</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>173</v>
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N21" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q21" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R21" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S21" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>65</v>
-      </c>
-      <c r="U21" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V21" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W21" t="s">
+        <v>55</v>
       </c>
       <c r="X21" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y21" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3308</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>174</v>
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M22" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N22" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O22" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q22" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R22" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S22" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>65</v>
-      </c>
-      <c r="U22" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W22" t="s">
+        <v>55</v>
       </c>
       <c r="X22" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y22" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3309</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>175</v>
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L23" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M23" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O23" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q23" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R23" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S23" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>65</v>
-      </c>
-      <c r="U23" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V23" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W23" t="s">
+        <v>55</v>
       </c>
       <c r="X23" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y23" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3310</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>176</v>
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N24" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O24" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q24" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S24" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>65</v>
-      </c>
-      <c r="U24" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V24" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W24" t="s">
+        <v>55</v>
       </c>
       <c r="X24" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y24" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3311</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>177</v>
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M25" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N25" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q25" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S25" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>65</v>
-      </c>
-      <c r="U25" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V25" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W25" t="s">
+        <v>55</v>
       </c>
       <c r="X25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y25" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3312</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>178</v>
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M26" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N26" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q26" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R26" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S26" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>65</v>
-      </c>
-      <c r="U26" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V26" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W26" t="s">
+        <v>55</v>
       </c>
       <c r="X26" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y26" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="192" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3313</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>29</v>
-      </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M27" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N27" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q27" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S27" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T27" t="s">
-        <v>65</v>
-      </c>
-      <c r="U27" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W27" t="s">
+        <v>55</v>
       </c>
       <c r="X27" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y27" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3314</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>3315</v>
+      </c>
+      <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" t="s">
-        <v>68</v>
-      </c>
-      <c r="S28" t="s">
-        <v>68</v>
-      </c>
-      <c r="T28" t="s">
-        <v>65</v>
-      </c>
-      <c r="U28" t="s">
-        <v>70</v>
-      </c>
-      <c r="V28" t="s">
-        <v>32</v>
-      </c>
-      <c r="X28" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>3315</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" t="s">
+        <v>55</v>
+      </c>
+      <c r="T29" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>3318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
         <v>3</v>
       </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" t="s">
-        <v>69</v>
-      </c>
-      <c r="M29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>68</v>
-      </c>
-      <c r="R29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S29" t="s">
-        <v>68</v>
-      </c>
-      <c r="T29" t="s">
-        <v>65</v>
-      </c>
-      <c r="U29" t="s">
-        <v>70</v>
-      </c>
-      <c r="V29" t="s">
-        <v>32</v>
-      </c>
-      <c r="X29" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>3318</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
       <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N30" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O30" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q30" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S30" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U30" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V30" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W30" t="s">
+        <v>55</v>
       </c>
       <c r="X30" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y30" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z30" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3320</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
         <v>5</v>
       </c>
-      <c r="F31">
-        <v>205</v>
-      </c>
-      <c r="G31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>80</v>
+      <c r="H31" t="s">
+        <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N31" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O31" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q31" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R31" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S31" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>65</v>
-      </c>
-      <c r="U31" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V31" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W31" t="s">
+        <v>55</v>
       </c>
       <c r="X31" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y31" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3321</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
         <v>5</v>
       </c>
-      <c r="F32">
-        <v>206</v>
-      </c>
-      <c r="G32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>80</v>
+      <c r="H32" t="s">
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L32" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M32" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N32" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q32" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R32" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S32" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T32" t="s">
-        <v>65</v>
-      </c>
-      <c r="U32" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V32" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W32" t="s">
+        <v>55</v>
       </c>
       <c r="X32" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y32" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3322</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
         <v>5</v>
       </c>
-      <c r="F33">
-        <v>207</v>
-      </c>
-      <c r="G33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>80</v>
+      <c r="H33" t="s">
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K33" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L33" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M33" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O33" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q33" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R33" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S33" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>65</v>
-      </c>
-      <c r="U33" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V33" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W33" t="s">
+        <v>55</v>
       </c>
       <c r="X33" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y33" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3323</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" t="s">
         <v>6</v>
       </c>
-      <c r="F34">
-        <v>208</v>
-      </c>
-      <c r="G34" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" t="s">
-        <v>28</v>
-      </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K34" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L34" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M34" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O34" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R34" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S34" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>65</v>
-      </c>
-      <c r="U34" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V34" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W34" t="s">
+        <v>55</v>
       </c>
       <c r="X34" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y34" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z34" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3324</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
         <v>6</v>
       </c>
-      <c r="F35">
-        <v>209</v>
-      </c>
-      <c r="G35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" t="s">
-        <v>28</v>
-      </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K35" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L35" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M35" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N35" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O35" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q35" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R35" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S35" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>65</v>
-      </c>
-      <c r="U35" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V35" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W35" t="s">
+        <v>55</v>
       </c>
       <c r="X35" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y35" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z35" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3325</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
         <v>6</v>
       </c>
-      <c r="F36">
-        <v>210</v>
-      </c>
-      <c r="G36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
-        <v>28</v>
-      </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K36" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M36" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N36" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O36" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q36" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R36" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S36" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T36" t="s">
-        <v>65</v>
-      </c>
-      <c r="U36" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V36" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W36" t="s">
+        <v>55</v>
       </c>
       <c r="X36" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y36" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z36" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>3326</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K37" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M37" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N37" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O37" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q37" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R37" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S37" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T37" t="s">
-        <v>65</v>
-      </c>
-      <c r="U37" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V37" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W37" t="s">
+        <v>55</v>
       </c>
       <c r="X37" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y37" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3331</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>182</v>
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N38" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O38" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q38" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R38" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S38" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T38" t="s">
-        <v>65</v>
-      </c>
-      <c r="U38" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V38" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W38" t="s">
+        <v>55</v>
       </c>
       <c r="X38" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y38" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z38" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3332</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>186</v>
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K39" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L39" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M39" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N39" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O39" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q39" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R39" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S39" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T39" t="s">
-        <v>65</v>
-      </c>
-      <c r="U39" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V39" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W39" t="s">
+        <v>55</v>
       </c>
       <c r="X39" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y39" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z39" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3333</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>187</v>
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>56</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K40" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L40" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M40" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N40" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q40" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R40" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S40" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>65</v>
-      </c>
-      <c r="U40" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V40" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W40" t="s">
+        <v>55</v>
       </c>
       <c r="X40" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y40" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z40" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3334</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>188</v>
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K41" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L41" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M41" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N41" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O41" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q41" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R41" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S41" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T41" t="s">
-        <v>65</v>
-      </c>
-      <c r="U41" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V41" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W41" t="s">
+        <v>55</v>
       </c>
       <c r="X41" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y41" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z41" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3335</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>189</v>
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K42" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L42" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N42" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O42" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q42" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R42" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S42" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T42" t="s">
-        <v>65</v>
-      </c>
-      <c r="U42" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V42" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W42" t="s">
+        <v>55</v>
       </c>
       <c r="X42" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y42" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z42" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3337</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43">
         <v>4</v>
       </c>
-      <c r="F43">
-        <v>194</v>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K43" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L43" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M43" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N43" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O43" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q43" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R43" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T43" t="s">
-        <v>65</v>
-      </c>
-      <c r="U43" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V43" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W43" t="s">
+        <v>55</v>
       </c>
       <c r="X43" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y43" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z43" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3338</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44">
         <v>4</v>
       </c>
-      <c r="F44">
-        <v>195</v>
+      <c r="E44" t="s">
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K44" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L44" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M44" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N44" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q44" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R44" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S44" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T44" t="s">
-        <v>65</v>
-      </c>
-      <c r="U44" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V44" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W44" t="s">
+        <v>55</v>
       </c>
       <c r="X44" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y44" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z44" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3339</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45">
-        <v>196</v>
+      <c r="E45" t="s">
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J45" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L45" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M45" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N45" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O45" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q45" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R45" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S45" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T45" t="s">
-        <v>65</v>
-      </c>
-      <c r="U45" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V45" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W45" t="s">
+        <v>55</v>
       </c>
       <c r="X45" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y45" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z45" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3340</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46">
         <v>4</v>
       </c>
-      <c r="F46">
-        <v>197</v>
+      <c r="E46" t="s">
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
       </c>
       <c r="I46" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K46" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L46" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M46" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N46" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O46" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q46" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R46" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S46" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T46" t="s">
-        <v>65</v>
-      </c>
-      <c r="U46" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V46" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W46" t="s">
+        <v>55</v>
       </c>
       <c r="X46" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y46" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z46" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3341</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47">
         <v>4</v>
       </c>
-      <c r="F47">
-        <v>198</v>
+      <c r="E47" t="s">
+        <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>56</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J47" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K47" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L47" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M47" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N47" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O47" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q47" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R47" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S47" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T47" t="s">
-        <v>65</v>
-      </c>
-      <c r="U47" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V47" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W47" t="s">
+        <v>55</v>
       </c>
       <c r="X47" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y47" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z47" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3342</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48">
         <v>4</v>
       </c>
-      <c r="F48">
-        <v>199</v>
+      <c r="E48" t="s">
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>56</v>
       </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K48" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L48" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M48" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N48" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O48" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q48" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R48" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S48" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T48" t="s">
-        <v>65</v>
-      </c>
-      <c r="U48" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V48" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W48" t="s">
+        <v>55</v>
       </c>
       <c r="X48" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y48" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3343</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" t="s">
         <v>5</v>
       </c>
-      <c r="F49">
-        <v>202</v>
-      </c>
-      <c r="G49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>80</v>
+      <c r="H49" t="s">
+        <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K49" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L49" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M49" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="N49" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="O49" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q49" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R49" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S49" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="T49" t="s">
-        <v>65</v>
-      </c>
-      <c r="U49" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="V49" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="W49" t="s">
+        <v>55</v>
       </c>
       <c r="X49" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Y49" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="Z49" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA49" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4847,16 +4438,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4864,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4875,302 +4466,291 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
+      <c r="A8" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C523D7A-DFBB-F543-A7B7-793039EFDFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A9AD8C-CD8D-6947-A884-9A3CB6C8EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="520" windowWidth="37300" windowHeight="18500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="93">
   <si>
     <t>Project_ID</t>
   </si>
@@ -38,9 +38,6 @@
     <t>sample_cruise</t>
   </si>
   <si>
-    <t>object_orientation</t>
-  </si>
-  <si>
     <t>object_lat</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>object_depth_max</t>
   </si>
   <si>
-    <t>object_biovolume</t>
-  </si>
-  <si>
-    <t>object_area</t>
-  </si>
-  <si>
     <t>object_annotation_category</t>
   </si>
   <si>
@@ -156,24 +147,6 @@
   </si>
   <si>
     <t>process_pixel_to_micron</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>pixels^3</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>There is a column called 'object_summedbiovolume'</t>
-  </si>
-  <si>
-    <t>pixels/um</t>
-  </si>
-  <si>
-    <t>listed as 'object orientation'. Some IFCB projects represent only one station</t>
   </si>
   <si>
     <t>bool</t>
@@ -297,13 +270,52 @@
   </si>
   <si>
     <t>row numbers with empty lat &amp; lon</t>
+  </si>
+  <si>
+    <t>pixel_per_micron</t>
+  </si>
+  <si>
+    <t>square_pixel</t>
+  </si>
+  <si>
+    <t>cubic_pixel</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Empty field. Assuming 5 mL</t>
+  </si>
+  <si>
+    <t>object_area,object_summedarea</t>
+  </si>
+  <si>
+    <t>Extracting 'object_biovolume' (largest blob biovolume for multi-blob roi) and 'object_summedbiovolume' (sum of the blob biovolume for multi-blob roi)</t>
+  </si>
+  <si>
+    <t>Extracting 'object_area' (largest blob surface area for multi-blob roi) and 'object_summedarea' (sum of the blob surface area for multi-blob roi)</t>
+  </si>
+  <si>
+    <t>Minor_axis_field</t>
+  </si>
+  <si>
+    <t>Minor_axis_unit</t>
+  </si>
+  <si>
+    <t>Name of the minor ellipsoidal axis column in project export file</t>
+  </si>
+  <si>
+    <t>Unit of the minor ellipsoidal axis column in project export file</t>
+  </si>
+  <si>
+    <t>object_minoraxislength</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +330,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -391,6 +409,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -751,9 +770,15 @@
     <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,80 +786,85 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -844,74 +874,65 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="V2" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -921,74 +942,65 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -998,74 +1010,65 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1075,74 +1078,68 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U5" t="s">
+        <v>82</v>
       </c>
       <c r="V5" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3292</v>
       </c>
@@ -1152,71 +1149,65 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U6" t="s">
+        <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3293</v>
       </c>
@@ -1226,71 +1217,65 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U7" t="s">
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W7" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3294</v>
       </c>
@@ -1300,71 +1285,65 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T8" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U8" t="s">
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W8" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3295</v>
       </c>
@@ -1374,71 +1353,65 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U9" t="s">
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W9" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3296</v>
       </c>
@@ -1448,71 +1421,65 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T10" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U10" t="s">
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W10" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3297</v>
       </c>
@@ -1522,74 +1489,68 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U11" t="s">
+        <v>82</v>
       </c>
       <c r="V11" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3298</v>
       </c>
@@ -1599,74 +1560,68 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T12" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U12" t="s">
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W12" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3299</v>
       </c>
@@ -1676,74 +1631,68 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U13" t="s">
+        <v>82</v>
       </c>
       <c r="V13" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W13" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3300</v>
       </c>
@@ -1753,71 +1702,65 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T14" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U14" t="s">
+        <v>82</v>
       </c>
       <c r="V14" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W14" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3301</v>
       </c>
@@ -1827,71 +1770,65 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T15" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U15" t="s">
+        <v>82</v>
       </c>
       <c r="V15" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3302</v>
       </c>
@@ -1901,71 +1838,65 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>54</v>
-      </c>
-      <c r="O16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T16" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U16" t="s">
+        <v>82</v>
       </c>
       <c r="V16" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W16" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3303</v>
       </c>
@@ -1975,71 +1906,65 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T17" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U17" t="s">
+        <v>82</v>
       </c>
       <c r="V17" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W17" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3304</v>
       </c>
@@ -2049,71 +1974,65 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" t="s">
-        <v>44</v>
-      </c>
-      <c r="P18" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U18" t="s">
+        <v>82</v>
       </c>
       <c r="V18" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W18" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3305</v>
       </c>
@@ -2123,71 +2042,65 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N19" t="s">
-        <v>54</v>
-      </c>
-      <c r="O19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T19" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U19" t="s">
+        <v>82</v>
       </c>
       <c r="V19" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W19" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3306</v>
       </c>
@@ -2197,71 +2110,65 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T20" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U20" t="s">
+        <v>82</v>
       </c>
       <c r="V20" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W20" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3307</v>
       </c>
@@ -2271,71 +2178,65 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U21" t="s">
+        <v>82</v>
       </c>
       <c r="V21" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W21" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3308</v>
       </c>
@@ -2345,71 +2246,65 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T22" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U22" t="s">
+        <v>82</v>
       </c>
       <c r="V22" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W22" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3309</v>
       </c>
@@ -2419,71 +2314,65 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N23" t="s">
-        <v>54</v>
-      </c>
-      <c r="O23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T23" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U23" t="s">
+        <v>82</v>
       </c>
       <c r="V23" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W23" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3310</v>
       </c>
@@ -2493,71 +2382,65 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O24" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U24" t="s">
+        <v>82</v>
       </c>
       <c r="V24" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W24" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3311</v>
       </c>
@@ -2567,71 +2450,65 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>54</v>
-      </c>
-      <c r="O25" t="s">
-        <v>44</v>
-      </c>
-      <c r="P25" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T25" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U25" t="s">
+        <v>82</v>
       </c>
       <c r="V25" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W25" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3312</v>
       </c>
@@ -2641,71 +2518,65 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T26" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U26" t="s">
+        <v>82</v>
       </c>
       <c r="V26" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W26" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="192" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3313</v>
       </c>
@@ -2715,74 +2586,68 @@
       <c r="C27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
       <c r="F27" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>54</v>
-      </c>
-      <c r="O27" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U27" t="s">
+        <v>82</v>
       </c>
       <c r="V27" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W27" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3314</v>
       </c>
@@ -2792,71 +2657,65 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N28" t="s">
-        <v>54</v>
-      </c>
-      <c r="O28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T28" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U28" t="s">
+        <v>82</v>
       </c>
       <c r="V28" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W28" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3315</v>
       </c>
@@ -2866,71 +2725,65 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N29" t="s">
-        <v>54</v>
-      </c>
-      <c r="O29" t="s">
-        <v>44</v>
-      </c>
-      <c r="P29" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T29" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U29" t="s">
+        <v>82</v>
       </c>
       <c r="V29" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3318</v>
       </c>
@@ -2940,71 +2793,65 @@
       <c r="C30" t="s">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N30" t="s">
-        <v>54</v>
-      </c>
-      <c r="O30" t="s">
-        <v>44</v>
-      </c>
-      <c r="P30" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T30" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U30" t="s">
+        <v>82</v>
       </c>
       <c r="V30" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W30" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3320</v>
       </c>
@@ -3014,71 +2861,65 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N31" t="s">
-        <v>54</v>
-      </c>
-      <c r="O31" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T31" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U31" t="s">
+        <v>82</v>
       </c>
       <c r="V31" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W31" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3321</v>
       </c>
@@ -3088,71 +2929,65 @@
       <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L32" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O32" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T32" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U32" t="s">
+        <v>82</v>
       </c>
       <c r="V32" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W32" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3322</v>
       </c>
@@ -3162,71 +2997,65 @@
       <c r="C33" t="s">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N33" t="s">
-        <v>54</v>
-      </c>
-      <c r="O33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P33" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T33" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U33" t="s">
+        <v>82</v>
       </c>
       <c r="V33" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W33" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y33" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3323</v>
       </c>
@@ -3236,71 +3065,65 @@
       <c r="C34" t="s">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
       <c r="G34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N34" t="s">
-        <v>54</v>
-      </c>
-      <c r="O34" t="s">
-        <v>44</v>
-      </c>
-      <c r="P34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T34" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U34" t="s">
+        <v>82</v>
       </c>
       <c r="V34" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W34" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3324</v>
       </c>
@@ -3310,71 +3133,65 @@
       <c r="C35" t="s">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
       <c r="G35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N35" t="s">
-        <v>54</v>
-      </c>
-      <c r="O35" t="s">
-        <v>44</v>
-      </c>
-      <c r="P35" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T35" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U35" t="s">
+        <v>82</v>
       </c>
       <c r="V35" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W35" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3325</v>
       </c>
@@ -3384,71 +3201,65 @@
       <c r="C36" t="s">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
       <c r="G36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L36" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N36" t="s">
-        <v>54</v>
-      </c>
-      <c r="O36" t="s">
-        <v>44</v>
-      </c>
-      <c r="P36" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T36" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U36" t="s">
+        <v>82</v>
       </c>
       <c r="V36" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W36" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>3326</v>
       </c>
@@ -3458,71 +3269,65 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
       <c r="G37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L37" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N37" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37" t="s">
-        <v>44</v>
-      </c>
-      <c r="P37" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T37" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U37" t="s">
+        <v>82</v>
       </c>
       <c r="V37" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W37" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3331</v>
       </c>
@@ -3532,71 +3337,65 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
       <c r="G38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L38" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N38" t="s">
-        <v>54</v>
-      </c>
-      <c r="O38" t="s">
-        <v>44</v>
-      </c>
-      <c r="P38" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T38" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U38" t="s">
+        <v>82</v>
       </c>
       <c r="V38" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W38" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3332</v>
       </c>
@@ -3606,71 +3405,65 @@
       <c r="C39" t="s">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
       <c r="G39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L39" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N39" t="s">
-        <v>54</v>
-      </c>
-      <c r="O39" t="s">
-        <v>44</v>
-      </c>
-      <c r="P39" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T39" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U39" t="s">
+        <v>82</v>
       </c>
       <c r="V39" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W39" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3333</v>
       </c>
@@ -3680,71 +3473,65 @@
       <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
       <c r="G40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L40" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O40" t="s">
-        <v>44</v>
-      </c>
-      <c r="P40" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T40" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U40" t="s">
+        <v>82</v>
       </c>
       <c r="V40" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W40" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y40" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3334</v>
       </c>
@@ -3754,71 +3541,65 @@
       <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
       <c r="G41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L41" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N41" t="s">
-        <v>54</v>
-      </c>
-      <c r="O41" t="s">
-        <v>44</v>
-      </c>
-      <c r="P41" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T41" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U41" t="s">
+        <v>82</v>
       </c>
       <c r="V41" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W41" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="409.6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3335</v>
       </c>
@@ -3828,74 +3609,68 @@
       <c r="C42" t="s">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
       <c r="F42" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L42" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O42" t="s">
-        <v>44</v>
-      </c>
-      <c r="P42" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T42" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U42" t="s">
+        <v>82</v>
       </c>
       <c r="V42" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W42" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3337</v>
       </c>
@@ -3905,74 +3680,68 @@
       <c r="C43" t="s">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
       <c r="F43" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L43" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N43" t="s">
-        <v>54</v>
-      </c>
-      <c r="O43" t="s">
-        <v>44</v>
-      </c>
-      <c r="P43" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T43" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U43" t="s">
+        <v>82</v>
       </c>
       <c r="V43" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W43" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3338</v>
       </c>
@@ -3982,71 +3751,65 @@
       <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>44</v>
-      </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J44" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L44" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N44" t="s">
-        <v>54</v>
-      </c>
-      <c r="O44" t="s">
-        <v>44</v>
-      </c>
-      <c r="P44" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T44" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U44" t="s">
+        <v>82</v>
       </c>
       <c r="V44" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W44" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y44" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3339</v>
       </c>
@@ -4056,71 +3819,65 @@
       <c r="C45" t="s">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>44</v>
-      </c>
       <c r="G45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N45" t="s">
-        <v>54</v>
-      </c>
-      <c r="O45" t="s">
-        <v>44</v>
-      </c>
-      <c r="P45" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T45" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U45" t="s">
+        <v>82</v>
       </c>
       <c r="V45" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W45" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y45" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3340</v>
       </c>
@@ -4130,71 +3887,65 @@
       <c r="C46" t="s">
         <v>3</v>
       </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
       <c r="G46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J46" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L46" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N46" t="s">
-        <v>54</v>
-      </c>
-      <c r="O46" t="s">
-        <v>44</v>
-      </c>
-      <c r="P46" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S46" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T46" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U46" t="s">
+        <v>82</v>
       </c>
       <c r="V46" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W46" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y46" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3341</v>
       </c>
@@ -4204,71 +3955,65 @@
       <c r="C47" t="s">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>44</v>
-      </c>
       <c r="G47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L47" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N47" t="s">
-        <v>54</v>
-      </c>
-      <c r="O47" t="s">
-        <v>44</v>
-      </c>
-      <c r="P47" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S47" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T47" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U47" t="s">
+        <v>82</v>
       </c>
       <c r="V47" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W47" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3342</v>
       </c>
@@ -4278,71 +4023,65 @@
       <c r="C48" t="s">
         <v>3</v>
       </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>44</v>
-      </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L48" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>54</v>
-      </c>
-      <c r="O48" t="s">
-        <v>44</v>
-      </c>
-      <c r="P48" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T48" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U48" t="s">
+        <v>82</v>
       </c>
       <c r="V48" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W48" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y48" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3343</v>
       </c>
@@ -4352,102 +4091,97 @@
       <c r="C49" t="s">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L49" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O49" t="s">
-        <v>44</v>
-      </c>
-      <c r="P49" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S49" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T49" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="U49" t="s">
+        <v>82</v>
       </c>
       <c r="V49" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="W49" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="AA49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA49" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4455,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4466,291 +4200,316 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A9AD8C-CD8D-6947-A884-9A3CB6C8EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45880E8-F631-BC4E-943C-0E8C9D0B2F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="1560" windowWidth="30240" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AA$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AC$49</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="100">
   <si>
     <t>Project_ID</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>degree</t>
-  </si>
-  <si>
-    <t>object_biovolume, object_summed_biovolume</t>
   </si>
   <si>
     <t>missing_index</t>
@@ -309,13 +306,37 @@
   </si>
   <si>
     <t>object_minoraxislength</t>
+  </si>
+  <si>
+    <t>Missing_index</t>
+  </si>
+  <si>
+    <t>object_biovolume,object_summedbiovolume</t>
+  </si>
+  <si>
+    <t>Sampling_date_field</t>
+  </si>
+  <si>
+    <t>Sampling_time_field</t>
+  </si>
+  <si>
+    <t>object_date</t>
+  </si>
+  <si>
+    <t>object_time</t>
+  </si>
+  <si>
+    <t>Name of the sampling date (yyyymmdd in UTC) column in project export file</t>
+  </si>
+  <si>
+    <t>Name of the sampling time (hhmmss in UTC) column in project export file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +358,21 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -352,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -386,11 +422,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -410,6 +459,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T49"/>
+    <sheetView topLeftCell="F1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -766,19 +822,20 @@
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,79 +849,85 @@
         <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -898,41 +961,47 @@
       <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="R2" t="s">
+      <c r="O2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" t="s">
-        <v>48</v>
-      </c>
       <c r="U2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W2" t="s">
         <v>81</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y2" t="s">
         <v>80</v>
       </c>
       <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -966,41 +1035,47 @@
       <c r="N3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" t="s">
+      <c r="O3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" t="s">
         <v>39</v>
       </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" t="s">
-        <v>48</v>
-      </c>
       <c r="U3" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W3" t="s">
         <v>81</v>
       </c>
       <c r="X3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="s">
         <v>80</v>
       </c>
       <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1034,41 +1109,47 @@
       <c r="N4" t="s">
         <v>45</v>
       </c>
-      <c r="R4" t="s">
+      <c r="O4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" t="s">
         <v>39</v>
       </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" t="s">
-        <v>48</v>
-      </c>
       <c r="U4" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W4" t="s">
         <v>81</v>
       </c>
       <c r="X4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y4" t="s">
         <v>80</v>
       </c>
       <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1079,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -1105,41 +1186,47 @@
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="R5" t="s">
+      <c r="O5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" t="s">
         <v>39</v>
       </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" t="s">
-        <v>48</v>
-      </c>
       <c r="U5" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W5" t="s">
         <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
         <v>80</v>
       </c>
       <c r="Z5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s">
         <v>8</v>
       </c>
-      <c r="AA5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3292</v>
       </c>
@@ -1173,41 +1260,47 @@
       <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="R6" t="s">
+      <c r="O6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
         <v>39</v>
       </c>
-      <c r="S6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" t="s">
-        <v>48</v>
-      </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W6" t="s">
         <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
         <v>80</v>
       </c>
       <c r="Z6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s">
         <v>8</v>
       </c>
-      <c r="AA6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3293</v>
       </c>
@@ -1241,41 +1334,47 @@
       <c r="N7" t="s">
         <v>45</v>
       </c>
-      <c r="R7" t="s">
+      <c r="O7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" t="s">
         <v>39</v>
       </c>
-      <c r="S7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" t="s">
-        <v>48</v>
-      </c>
       <c r="U7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W7" t="s">
         <v>81</v>
       </c>
       <c r="X7" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s">
         <v>80</v>
       </c>
       <c r="Z7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7" t="s">
         <v>8</v>
       </c>
-      <c r="AA7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3294</v>
       </c>
@@ -1309,41 +1408,47 @@
       <c r="N8" t="s">
         <v>45</v>
       </c>
-      <c r="R8" t="s">
+      <c r="O8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" t="s">
         <v>39</v>
       </c>
-      <c r="S8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" t="s">
-        <v>48</v>
-      </c>
       <c r="U8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
       </c>
       <c r="X8" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s">
         <v>80</v>
       </c>
       <c r="Z8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3295</v>
       </c>
@@ -1377,41 +1482,47 @@
       <c r="N9" t="s">
         <v>45</v>
       </c>
-      <c r="R9" t="s">
+      <c r="O9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" t="s">
         <v>39</v>
       </c>
-      <c r="S9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" t="s">
-        <v>48</v>
-      </c>
       <c r="U9" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
       </c>
       <c r="X9" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s">
         <v>80</v>
       </c>
       <c r="Z9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB9" t="s">
         <v>8</v>
       </c>
-      <c r="AA9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3296</v>
       </c>
@@ -1445,41 +1556,47 @@
       <c r="N10" t="s">
         <v>45</v>
       </c>
-      <c r="R10" t="s">
+      <c r="O10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" t="s">
         <v>39</v>
       </c>
-      <c r="S10" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" t="s">
-        <v>48</v>
-      </c>
       <c r="U10" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="s">
         <v>80</v>
       </c>
       <c r="Z10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB10" t="s">
         <v>8</v>
       </c>
-      <c r="AA10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3297</v>
       </c>
@@ -1490,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -1516,41 +1633,47 @@
       <c r="N11" t="s">
         <v>45</v>
       </c>
-      <c r="R11" t="s">
+      <c r="O11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" t="s">
         <v>39</v>
       </c>
-      <c r="S11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" t="s">
-        <v>48</v>
-      </c>
       <c r="U11" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V11" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y11" t="s">
         <v>80</v>
       </c>
       <c r="Z11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB11" t="s">
         <v>8</v>
       </c>
-      <c r="AA11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3298</v>
       </c>
@@ -1561,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -1587,41 +1710,47 @@
       <c r="N12" t="s">
         <v>45</v>
       </c>
-      <c r="R12" t="s">
+      <c r="O12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" t="s">
         <v>39</v>
       </c>
-      <c r="S12" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12" t="s">
-        <v>48</v>
-      </c>
       <c r="U12" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y12" t="s">
         <v>80</v>
       </c>
       <c r="Z12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3299</v>
       </c>
@@ -1632,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
@@ -1658,41 +1787,47 @@
       <c r="N13" t="s">
         <v>45</v>
       </c>
-      <c r="R13" t="s">
+      <c r="O13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
         <v>39</v>
       </c>
-      <c r="S13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s">
-        <v>48</v>
-      </c>
       <c r="U13" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="s">
         <v>80</v>
       </c>
       <c r="Z13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s">
         <v>8</v>
       </c>
-      <c r="AA13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3300</v>
       </c>
@@ -1726,41 +1861,47 @@
       <c r="N14" t="s">
         <v>45</v>
       </c>
-      <c r="R14" t="s">
+      <c r="O14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" t="s">
         <v>39</v>
       </c>
-      <c r="S14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" t="s">
-        <v>48</v>
-      </c>
       <c r="U14" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W14" t="s">
         <v>81</v>
       </c>
       <c r="X14" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y14" t="s">
         <v>80</v>
       </c>
       <c r="Z14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3301</v>
       </c>
@@ -1794,41 +1935,47 @@
       <c r="N15" t="s">
         <v>45</v>
       </c>
-      <c r="R15" t="s">
+      <c r="O15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" t="s">
         <v>39</v>
       </c>
-      <c r="S15" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" t="s">
-        <v>48</v>
-      </c>
       <c r="U15" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W15" t="s">
         <v>81</v>
       </c>
       <c r="X15" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y15" t="s">
         <v>80</v>
       </c>
       <c r="Z15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3302</v>
       </c>
@@ -1862,41 +2009,47 @@
       <c r="N16" t="s">
         <v>45</v>
       </c>
-      <c r="R16" t="s">
+      <c r="O16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" t="s">
         <v>39</v>
       </c>
-      <c r="S16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" t="s">
-        <v>48</v>
-      </c>
       <c r="U16" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W16" t="s">
         <v>81</v>
       </c>
       <c r="X16" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y16" t="s">
         <v>80</v>
       </c>
       <c r="Z16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s">
         <v>8</v>
       </c>
-      <c r="AA16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3303</v>
       </c>
@@ -1930,41 +2083,47 @@
       <c r="N17" t="s">
         <v>45</v>
       </c>
-      <c r="R17" t="s">
+      <c r="O17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T17" t="s">
         <v>39</v>
       </c>
-      <c r="S17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" t="s">
-        <v>48</v>
-      </c>
       <c r="U17" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W17" t="s">
         <v>81</v>
       </c>
       <c r="X17" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y17" t="s">
         <v>80</v>
       </c>
       <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s">
         <v>8</v>
       </c>
-      <c r="AA17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3304</v>
       </c>
@@ -1998,41 +2157,47 @@
       <c r="N18" t="s">
         <v>45</v>
       </c>
-      <c r="R18" t="s">
+      <c r="O18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18" t="s">
         <v>39</v>
       </c>
-      <c r="S18" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" t="s">
-        <v>48</v>
-      </c>
       <c r="U18" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V18" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W18" t="s">
         <v>81</v>
       </c>
       <c r="X18" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y18" t="s">
         <v>80</v>
       </c>
       <c r="Z18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s">
         <v>8</v>
       </c>
-      <c r="AA18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3305</v>
       </c>
@@ -2066,41 +2231,47 @@
       <c r="N19" t="s">
         <v>45</v>
       </c>
-      <c r="R19" t="s">
+      <c r="O19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" t="s">
         <v>39</v>
       </c>
-      <c r="S19" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19" t="s">
-        <v>48</v>
-      </c>
       <c r="U19" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W19" t="s">
         <v>81</v>
       </c>
       <c r="X19" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y19" t="s">
         <v>80</v>
       </c>
       <c r="Z19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s">
         <v>8</v>
       </c>
-      <c r="AA19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3306</v>
       </c>
@@ -2134,41 +2305,47 @@
       <c r="N20" t="s">
         <v>45</v>
       </c>
-      <c r="R20" t="s">
+      <c r="O20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T20" t="s">
         <v>39</v>
       </c>
-      <c r="S20" t="s">
-        <v>46</v>
-      </c>
-      <c r="T20" t="s">
-        <v>48</v>
-      </c>
       <c r="U20" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W20" t="s">
         <v>81</v>
       </c>
       <c r="X20" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y20" t="s">
         <v>80</v>
       </c>
       <c r="Z20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s">
         <v>8</v>
       </c>
-      <c r="AA20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3307</v>
       </c>
@@ -2202,41 +2379,47 @@
       <c r="N21" t="s">
         <v>45</v>
       </c>
-      <c r="R21" t="s">
+      <c r="O21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T21" t="s">
         <v>39</v>
       </c>
-      <c r="S21" t="s">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s">
-        <v>48</v>
-      </c>
       <c r="U21" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V21" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W21" t="s">
         <v>81</v>
       </c>
       <c r="X21" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y21" t="s">
         <v>80</v>
       </c>
       <c r="Z21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3308</v>
       </c>
@@ -2270,41 +2453,47 @@
       <c r="N22" t="s">
         <v>45</v>
       </c>
-      <c r="R22" t="s">
+      <c r="O22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T22" t="s">
         <v>39</v>
       </c>
-      <c r="S22" t="s">
-        <v>46</v>
-      </c>
-      <c r="T22" t="s">
-        <v>48</v>
-      </c>
       <c r="U22" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W22" t="s">
         <v>81</v>
       </c>
       <c r="X22" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y22" t="s">
         <v>80</v>
       </c>
       <c r="Z22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s">
         <v>8</v>
       </c>
-      <c r="AA22" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3309</v>
       </c>
@@ -2338,41 +2527,47 @@
       <c r="N23" t="s">
         <v>45</v>
       </c>
-      <c r="R23" t="s">
+      <c r="O23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" t="s">
         <v>39</v>
       </c>
-      <c r="S23" t="s">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s">
-        <v>48</v>
-      </c>
       <c r="U23" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V23" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W23" t="s">
         <v>81</v>
       </c>
       <c r="X23" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y23" t="s">
         <v>80</v>
       </c>
       <c r="Z23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s">
         <v>8</v>
       </c>
-      <c r="AA23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3310</v>
       </c>
@@ -2406,41 +2601,47 @@
       <c r="N24" t="s">
         <v>45</v>
       </c>
-      <c r="R24" t="s">
+      <c r="O24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" t="s">
         <v>39</v>
       </c>
-      <c r="S24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T24" t="s">
-        <v>48</v>
-      </c>
       <c r="U24" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V24" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W24" t="s">
         <v>81</v>
       </c>
       <c r="X24" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y24" t="s">
         <v>80</v>
       </c>
       <c r="Z24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s">
         <v>8</v>
       </c>
-      <c r="AA24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3311</v>
       </c>
@@ -2474,41 +2675,47 @@
       <c r="N25" t="s">
         <v>45</v>
       </c>
-      <c r="R25" t="s">
+      <c r="O25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T25" t="s">
         <v>39</v>
       </c>
-      <c r="S25" t="s">
-        <v>46</v>
-      </c>
-      <c r="T25" t="s">
-        <v>48</v>
-      </c>
       <c r="U25" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V25" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W25" t="s">
         <v>81</v>
       </c>
       <c r="X25" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y25" t="s">
         <v>80</v>
       </c>
       <c r="Z25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s">
         <v>8</v>
       </c>
-      <c r="AA25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3312</v>
       </c>
@@ -2542,41 +2749,47 @@
       <c r="N26" t="s">
         <v>45</v>
       </c>
-      <c r="R26" t="s">
+      <c r="O26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" t="s">
         <v>39</v>
       </c>
-      <c r="S26" t="s">
-        <v>46</v>
-      </c>
-      <c r="T26" t="s">
-        <v>48</v>
-      </c>
       <c r="U26" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V26" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W26" t="s">
         <v>81</v>
       </c>
       <c r="X26" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
         <v>80</v>
       </c>
       <c r="Z26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s">
         <v>8</v>
       </c>
-      <c r="AA26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3313</v>
       </c>
@@ -2587,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s">
         <v>4</v>
@@ -2613,41 +2826,47 @@
       <c r="N27" t="s">
         <v>45</v>
       </c>
-      <c r="R27" t="s">
+      <c r="O27" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T27" t="s">
         <v>39</v>
       </c>
-      <c r="S27" t="s">
-        <v>46</v>
-      </c>
-      <c r="T27" t="s">
-        <v>48</v>
-      </c>
       <c r="U27" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V27" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W27" t="s">
         <v>81</v>
       </c>
       <c r="X27" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y27" t="s">
         <v>80</v>
       </c>
       <c r="Z27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s">
         <v>8</v>
       </c>
-      <c r="AA27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3314</v>
       </c>
@@ -2681,41 +2900,47 @@
       <c r="N28" t="s">
         <v>45</v>
       </c>
-      <c r="R28" t="s">
+      <c r="O28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28" t="s">
         <v>39</v>
       </c>
-      <c r="S28" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" t="s">
-        <v>48</v>
-      </c>
       <c r="U28" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W28" t="s">
         <v>81</v>
       </c>
       <c r="X28" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y28" t="s">
         <v>80</v>
       </c>
       <c r="Z28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s">
         <v>8</v>
       </c>
-      <c r="AA28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3315</v>
       </c>
@@ -2749,41 +2974,47 @@
       <c r="N29" t="s">
         <v>45</v>
       </c>
-      <c r="R29" t="s">
+      <c r="O29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T29" t="s">
         <v>39</v>
       </c>
-      <c r="S29" t="s">
-        <v>46</v>
-      </c>
-      <c r="T29" t="s">
-        <v>48</v>
-      </c>
       <c r="U29" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V29" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W29" t="s">
         <v>81</v>
       </c>
       <c r="X29" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y29" t="s">
         <v>80</v>
       </c>
       <c r="Z29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3318</v>
       </c>
@@ -2817,41 +3048,47 @@
       <c r="N30" t="s">
         <v>45</v>
       </c>
-      <c r="R30" t="s">
+      <c r="O30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30" t="s">
         <v>39</v>
       </c>
-      <c r="S30" t="s">
-        <v>46</v>
-      </c>
-      <c r="T30" t="s">
-        <v>48</v>
-      </c>
       <c r="U30" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V30" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W30" t="s">
         <v>81</v>
       </c>
       <c r="X30" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y30" t="s">
         <v>80</v>
       </c>
       <c r="Z30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s">
         <v>8</v>
       </c>
-      <c r="AA30" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3320</v>
       </c>
@@ -2885,41 +3122,47 @@
       <c r="N31" t="s">
         <v>45</v>
       </c>
-      <c r="R31" t="s">
+      <c r="O31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T31" t="s">
         <v>39</v>
       </c>
-      <c r="S31" t="s">
-        <v>46</v>
-      </c>
-      <c r="T31" t="s">
-        <v>48</v>
-      </c>
       <c r="U31" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V31" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W31" t="s">
         <v>81</v>
       </c>
       <c r="X31" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y31" t="s">
         <v>80</v>
       </c>
       <c r="Z31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s">
         <v>8</v>
       </c>
-      <c r="AA31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3321</v>
       </c>
@@ -2953,41 +3196,47 @@
       <c r="N32" t="s">
         <v>45</v>
       </c>
-      <c r="R32" t="s">
+      <c r="O32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T32" t="s">
         <v>39</v>
       </c>
-      <c r="S32" t="s">
-        <v>46</v>
-      </c>
-      <c r="T32" t="s">
-        <v>48</v>
-      </c>
       <c r="U32" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V32" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W32" t="s">
         <v>81</v>
       </c>
       <c r="X32" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y32" t="s">
         <v>80</v>
       </c>
       <c r="Z32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s">
         <v>8</v>
       </c>
-      <c r="AA32" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3322</v>
       </c>
@@ -3021,41 +3270,47 @@
       <c r="N33" t="s">
         <v>45</v>
       </c>
-      <c r="R33" t="s">
+      <c r="O33" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T33" t="s">
         <v>39</v>
       </c>
-      <c r="S33" t="s">
-        <v>46</v>
-      </c>
-      <c r="T33" t="s">
-        <v>48</v>
-      </c>
       <c r="U33" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V33" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W33" t="s">
         <v>81</v>
       </c>
       <c r="X33" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y33" t="s">
         <v>80</v>
       </c>
       <c r="Z33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s">
         <v>8</v>
       </c>
-      <c r="AA33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3323</v>
       </c>
@@ -3089,41 +3344,47 @@
       <c r="N34" t="s">
         <v>45</v>
       </c>
-      <c r="R34" t="s">
+      <c r="O34" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T34" t="s">
         <v>39</v>
       </c>
-      <c r="S34" t="s">
-        <v>46</v>
-      </c>
-      <c r="T34" t="s">
-        <v>48</v>
-      </c>
       <c r="U34" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V34" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W34" t="s">
         <v>81</v>
       </c>
       <c r="X34" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y34" t="s">
         <v>80</v>
       </c>
       <c r="Z34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s">
         <v>8</v>
       </c>
-      <c r="AA34" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3324</v>
       </c>
@@ -3157,41 +3418,47 @@
       <c r="N35" t="s">
         <v>45</v>
       </c>
-      <c r="R35" t="s">
+      <c r="O35" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T35" t="s">
         <v>39</v>
       </c>
-      <c r="S35" t="s">
-        <v>46</v>
-      </c>
-      <c r="T35" t="s">
-        <v>48</v>
-      </c>
       <c r="U35" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W35" t="s">
         <v>81</v>
       </c>
       <c r="X35" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y35" t="s">
         <v>80</v>
       </c>
       <c r="Z35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s">
         <v>8</v>
       </c>
-      <c r="AA35" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3325</v>
       </c>
@@ -3225,41 +3492,47 @@
       <c r="N36" t="s">
         <v>45</v>
       </c>
-      <c r="R36" t="s">
+      <c r="O36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T36" t="s">
         <v>39</v>
       </c>
-      <c r="S36" t="s">
-        <v>46</v>
-      </c>
-      <c r="T36" t="s">
-        <v>48</v>
-      </c>
       <c r="U36" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V36" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W36" t="s">
         <v>81</v>
       </c>
       <c r="X36" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y36" t="s">
         <v>80</v>
       </c>
       <c r="Z36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s">
         <v>8</v>
       </c>
-      <c r="AA36" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>3326</v>
       </c>
@@ -3293,41 +3566,47 @@
       <c r="N37" t="s">
         <v>45</v>
       </c>
-      <c r="R37" t="s">
+      <c r="O37" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T37" t="s">
         <v>39</v>
       </c>
-      <c r="S37" t="s">
-        <v>46</v>
-      </c>
-      <c r="T37" t="s">
-        <v>48</v>
-      </c>
       <c r="U37" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V37" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W37" t="s">
         <v>81</v>
       </c>
       <c r="X37" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y37" t="s">
         <v>80</v>
       </c>
       <c r="Z37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s">
         <v>8</v>
       </c>
-      <c r="AA37" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3331</v>
       </c>
@@ -3361,41 +3640,47 @@
       <c r="N38" t="s">
         <v>45</v>
       </c>
-      <c r="R38" t="s">
+      <c r="O38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T38" t="s">
         <v>39</v>
       </c>
-      <c r="S38" t="s">
-        <v>46</v>
-      </c>
-      <c r="T38" t="s">
-        <v>48</v>
-      </c>
       <c r="U38" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V38" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W38" t="s">
         <v>81</v>
       </c>
       <c r="X38" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y38" t="s">
         <v>80</v>
       </c>
       <c r="Z38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s">
         <v>8</v>
       </c>
-      <c r="AA38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3332</v>
       </c>
@@ -3429,41 +3714,47 @@
       <c r="N39" t="s">
         <v>45</v>
       </c>
-      <c r="R39" t="s">
+      <c r="O39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T39" t="s">
         <v>39</v>
       </c>
-      <c r="S39" t="s">
-        <v>46</v>
-      </c>
-      <c r="T39" t="s">
-        <v>48</v>
-      </c>
       <c r="U39" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V39" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W39" t="s">
         <v>81</v>
       </c>
       <c r="X39" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y39" t="s">
         <v>80</v>
       </c>
       <c r="Z39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s">
         <v>8</v>
       </c>
-      <c r="AA39" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3333</v>
       </c>
@@ -3497,41 +3788,47 @@
       <c r="N40" t="s">
         <v>45</v>
       </c>
-      <c r="R40" t="s">
+      <c r="O40" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" t="s">
         <v>39</v>
       </c>
-      <c r="S40" t="s">
-        <v>46</v>
-      </c>
-      <c r="T40" t="s">
-        <v>48</v>
-      </c>
       <c r="U40" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V40" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W40" t="s">
         <v>81</v>
       </c>
       <c r="X40" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y40" t="s">
         <v>80</v>
       </c>
       <c r="Z40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s">
         <v>8</v>
       </c>
-      <c r="AA40" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3334</v>
       </c>
@@ -3565,41 +3862,47 @@
       <c r="N41" t="s">
         <v>45</v>
       </c>
-      <c r="R41" t="s">
+      <c r="O41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T41" t="s">
         <v>39</v>
       </c>
-      <c r="S41" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41" t="s">
-        <v>48</v>
-      </c>
       <c r="U41" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V41" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W41" t="s">
         <v>81</v>
       </c>
       <c r="X41" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y41" t="s">
         <v>80</v>
       </c>
       <c r="Z41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s">
         <v>8</v>
       </c>
-      <c r="AA41" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3335</v>
       </c>
@@ -3610,7 +3913,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
         <v>4</v>
@@ -3636,41 +3939,47 @@
       <c r="N42" t="s">
         <v>45</v>
       </c>
-      <c r="R42" t="s">
+      <c r="O42" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T42" t="s">
         <v>39</v>
       </c>
-      <c r="S42" t="s">
-        <v>46</v>
-      </c>
-      <c r="T42" t="s">
-        <v>48</v>
-      </c>
       <c r="U42" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V42" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W42" t="s">
         <v>81</v>
       </c>
       <c r="X42" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y42" t="s">
         <v>80</v>
       </c>
       <c r="Z42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s">
         <v>8</v>
       </c>
-      <c r="AA42" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3337</v>
       </c>
@@ -3681,7 +3990,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
         <v>4</v>
@@ -3707,41 +4016,47 @@
       <c r="N43" t="s">
         <v>45</v>
       </c>
-      <c r="R43" t="s">
+      <c r="O43" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T43" t="s">
         <v>39</v>
       </c>
-      <c r="S43" t="s">
-        <v>46</v>
-      </c>
-      <c r="T43" t="s">
-        <v>48</v>
-      </c>
       <c r="U43" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V43" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W43" t="s">
         <v>81</v>
       </c>
       <c r="X43" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y43" t="s">
         <v>80</v>
       </c>
       <c r="Z43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s">
         <v>8</v>
       </c>
-      <c r="AA43" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3338</v>
       </c>
@@ -3775,41 +4090,47 @@
       <c r="N44" t="s">
         <v>45</v>
       </c>
-      <c r="R44" t="s">
+      <c r="O44" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T44" t="s">
         <v>39</v>
       </c>
-      <c r="S44" t="s">
-        <v>46</v>
-      </c>
-      <c r="T44" t="s">
-        <v>48</v>
-      </c>
       <c r="U44" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V44" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W44" t="s">
         <v>81</v>
       </c>
       <c r="X44" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y44" t="s">
         <v>80</v>
       </c>
       <c r="Z44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s">
         <v>8</v>
       </c>
-      <c r="AA44" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3339</v>
       </c>
@@ -3843,41 +4164,47 @@
       <c r="N45" t="s">
         <v>45</v>
       </c>
-      <c r="R45" t="s">
+      <c r="O45" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T45" t="s">
         <v>39</v>
       </c>
-      <c r="S45" t="s">
-        <v>46</v>
-      </c>
-      <c r="T45" t="s">
-        <v>48</v>
-      </c>
       <c r="U45" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V45" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W45" t="s">
         <v>81</v>
       </c>
       <c r="X45" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y45" t="s">
         <v>80</v>
       </c>
       <c r="Z45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s">
         <v>8</v>
       </c>
-      <c r="AA45" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3340</v>
       </c>
@@ -3911,41 +4238,47 @@
       <c r="N46" t="s">
         <v>45</v>
       </c>
-      <c r="R46" t="s">
+      <c r="O46" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T46" t="s">
         <v>39</v>
       </c>
-      <c r="S46" t="s">
-        <v>46</v>
-      </c>
-      <c r="T46" t="s">
-        <v>48</v>
-      </c>
       <c r="U46" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V46" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W46" t="s">
         <v>81</v>
       </c>
       <c r="X46" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y46" t="s">
         <v>80</v>
       </c>
       <c r="Z46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s">
         <v>8</v>
       </c>
-      <c r="AA46" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3341</v>
       </c>
@@ -3979,41 +4312,47 @@
       <c r="N47" t="s">
         <v>45</v>
       </c>
-      <c r="R47" t="s">
+      <c r="O47" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T47" t="s">
         <v>39</v>
       </c>
-      <c r="S47" t="s">
-        <v>46</v>
-      </c>
-      <c r="T47" t="s">
-        <v>48</v>
-      </c>
       <c r="U47" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V47" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W47" t="s">
         <v>81</v>
       </c>
       <c r="X47" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y47" t="s">
         <v>80</v>
       </c>
       <c r="Z47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3342</v>
       </c>
@@ -4047,41 +4386,47 @@
       <c r="N48" t="s">
         <v>45</v>
       </c>
-      <c r="R48" t="s">
+      <c r="O48" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T48" t="s">
         <v>39</v>
       </c>
-      <c r="S48" t="s">
-        <v>46</v>
-      </c>
-      <c r="T48" t="s">
-        <v>48</v>
-      </c>
       <c r="U48" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V48" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W48" t="s">
         <v>81</v>
       </c>
       <c r="X48" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y48" t="s">
         <v>80</v>
       </c>
       <c r="Z48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s">
         <v>8</v>
       </c>
-      <c r="AA48" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3343</v>
       </c>
@@ -4115,37 +4460,43 @@
       <c r="N49" t="s">
         <v>45</v>
       </c>
-      <c r="R49" t="s">
+      <c r="O49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T49" t="s">
         <v>39</v>
       </c>
-      <c r="S49" t="s">
-        <v>46</v>
-      </c>
-      <c r="T49" t="s">
-        <v>48</v>
-      </c>
       <c r="U49" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="V49" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W49" t="s">
         <v>81</v>
       </c>
       <c r="X49" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="Y49" t="s">
         <v>80</v>
       </c>
       <c r="Z49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s">
         <v>8</v>
       </c>
-      <c r="AA49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB49" t="s">
+      <c r="AC49" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD49" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4156,17 +4507,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="89.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4181,7 +4532,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4230,7 +4581,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -4241,7 +4592,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -4252,18 +4603,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -4274,7 +4625,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -4285,7 +4636,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -4296,7 +4647,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -4307,7 +4658,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -4318,7 +4669,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -4329,7 +4680,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -4340,7 +4691,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -4351,165 +4702,187 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb_LOV_orga/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F0794-E9F6-B043-8B92-B54BB3BAD6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-34820" yWindow="-700" windowWidth="30020" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="166">
   <si>
     <t>Project_ID</t>
   </si>
@@ -363,9 +369,6 @@
   </si>
   <si>
     <t>object_annotation_status</t>
-  </si>
-  <si>
-    <t>acq_instrument</t>
   </si>
   <si>
     <t>Variables</t>
@@ -521,8 +524,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +601,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -644,7 +655,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,9 +687,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -710,6 +739,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -885,14 +932,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -1117,11 +1212,8 @@
       <c r="AJ2" t="s">
         <v>115</v>
       </c>
-      <c r="AN2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -1209,11 +1301,8 @@
       <c r="AJ3" t="s">
         <v>115</v>
       </c>
-      <c r="AN3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1301,11 +1390,8 @@
       <c r="AJ4" t="s">
         <v>115</v>
       </c>
-      <c r="AN4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1393,11 +1479,8 @@
       <c r="AJ5" t="s">
         <v>115</v>
       </c>
-      <c r="AN5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -1485,11 +1568,8 @@
       <c r="AJ6" t="s">
         <v>115</v>
       </c>
-      <c r="AN6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -1577,11 +1657,8 @@
       <c r="AJ7" t="s">
         <v>115</v>
       </c>
-      <c r="AN7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -1669,11 +1746,8 @@
       <c r="AJ8" t="s">
         <v>115</v>
       </c>
-      <c r="AN8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -1761,11 +1835,8 @@
       <c r="AJ9" t="s">
         <v>115</v>
       </c>
-      <c r="AN9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -1853,11 +1924,8 @@
       <c r="AJ10" t="s">
         <v>115</v>
       </c>
-      <c r="AN10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -1945,11 +2013,8 @@
       <c r="AJ11" t="s">
         <v>115</v>
       </c>
-      <c r="AN11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -2037,11 +2102,8 @@
       <c r="AJ12" t="s">
         <v>115</v>
       </c>
-      <c r="AN12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -2129,11 +2191,8 @@
       <c r="AJ13" t="s">
         <v>115</v>
       </c>
-      <c r="AN13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -2221,11 +2280,8 @@
       <c r="AJ14" t="s">
         <v>115</v>
       </c>
-      <c r="AN14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -2313,11 +2369,8 @@
       <c r="AJ15" t="s">
         <v>115</v>
       </c>
-      <c r="AN15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -2405,11 +2458,8 @@
       <c r="AJ16" t="s">
         <v>115</v>
       </c>
-      <c r="AN16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40">
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2497,11 +2547,8 @@
       <c r="AJ17" t="s">
         <v>115</v>
       </c>
-      <c r="AN17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -2589,11 +2636,8 @@
       <c r="AJ18" t="s">
         <v>115</v>
       </c>
-      <c r="AN18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40">
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -2681,11 +2725,8 @@
       <c r="AJ19" t="s">
         <v>115</v>
       </c>
-      <c r="AN19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40">
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -2773,11 +2814,8 @@
       <c r="AJ20" t="s">
         <v>115</v>
       </c>
-      <c r="AN20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -2865,11 +2903,8 @@
       <c r="AJ21" t="s">
         <v>115</v>
       </c>
-      <c r="AN21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40">
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -2957,11 +2992,8 @@
       <c r="AJ22" t="s">
         <v>115</v>
       </c>
-      <c r="AN22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -3049,11 +3081,8 @@
       <c r="AJ23" t="s">
         <v>115</v>
       </c>
-      <c r="AN23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3141,11 +3170,8 @@
       <c r="AJ24" t="s">
         <v>115</v>
       </c>
-      <c r="AN24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40">
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3233,11 +3259,8 @@
       <c r="AJ25" t="s">
         <v>115</v>
       </c>
-      <c r="AN25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3325,11 +3348,8 @@
       <c r="AJ26" t="s">
         <v>115</v>
       </c>
-      <c r="AN26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3417,11 +3437,8 @@
       <c r="AJ27" t="s">
         <v>115</v>
       </c>
-      <c r="AN27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40">
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3509,11 +3526,8 @@
       <c r="AJ28" t="s">
         <v>115</v>
       </c>
-      <c r="AN28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40">
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -3601,11 +3615,8 @@
       <c r="AJ29" t="s">
         <v>115</v>
       </c>
-      <c r="AN29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40">
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -3693,11 +3704,8 @@
       <c r="AJ30" t="s">
         <v>115</v>
       </c>
-      <c r="AN30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40">
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -3785,11 +3793,8 @@
       <c r="AJ31" t="s">
         <v>115</v>
       </c>
-      <c r="AN31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40">
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -3877,11 +3882,8 @@
       <c r="AJ32" t="s">
         <v>115</v>
       </c>
-      <c r="AN32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40">
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -3969,11 +3971,8 @@
       <c r="AJ33" t="s">
         <v>115</v>
       </c>
-      <c r="AN33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40">
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -4061,11 +4060,8 @@
       <c r="AJ34" t="s">
         <v>115</v>
       </c>
-      <c r="AN34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40">
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4153,11 +4149,8 @@
       <c r="AJ35" t="s">
         <v>115</v>
       </c>
-      <c r="AN35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40">
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4245,11 +4238,8 @@
       <c r="AJ36" t="s">
         <v>115</v>
       </c>
-      <c r="AN36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40">
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4337,11 +4327,8 @@
       <c r="AJ37" t="s">
         <v>115</v>
       </c>
-      <c r="AN37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40">
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4429,11 +4416,8 @@
       <c r="AJ38" t="s">
         <v>115</v>
       </c>
-      <c r="AN38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40">
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4521,11 +4505,8 @@
       <c r="AJ39" t="s">
         <v>115</v>
       </c>
-      <c r="AN39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40">
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -4613,11 +4594,8 @@
       <c r="AJ40" t="s">
         <v>115</v>
       </c>
-      <c r="AN40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40">
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -4705,11 +4683,8 @@
       <c r="AJ41" t="s">
         <v>115</v>
       </c>
-      <c r="AN41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40">
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -4797,11 +4772,8 @@
       <c r="AJ42" t="s">
         <v>115</v>
       </c>
-      <c r="AN42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40">
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -4889,11 +4861,8 @@
       <c r="AJ43" t="s">
         <v>115</v>
       </c>
-      <c r="AN43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40">
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -4981,11 +4950,8 @@
       <c r="AJ44" t="s">
         <v>115</v>
       </c>
-      <c r="AN44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40">
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -5073,11 +5039,8 @@
       <c r="AJ45" t="s">
         <v>115</v>
       </c>
-      <c r="AN45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40">
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5165,11 +5128,8 @@
       <c r="AJ46" t="s">
         <v>115</v>
       </c>
-      <c r="AN46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40">
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5257,575 +5217,572 @@
       <c r="AJ47" t="s">
         <v>115</v>
       </c>
-      <c r="AN47" t="s">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb_LOV_orga/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F0794-E9F6-B043-8B92-B54BB3BAD6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDEF707-72B9-514B-9561-A5160E58A3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34820" yWindow="-700" windowWidth="30020" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,9 +296,6 @@
     <t>https://ecotaxa.obs-vlfr.fr/prj/3343</t>
   </si>
   <si>
-    <t>~/GIT/PSSdb_LOV_orga/Data/API/IFCB</t>
-  </si>
-  <si>
     <t>IFCB</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/API/IFCB</t>
   </si>
 </sst>
 </file>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AK47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1132,85 +1132,85 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>93</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
       <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
         <v>96</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
         <v>97</v>
       </c>
-      <c r="L2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" t="s">
-        <v>98</v>
-      </c>
       <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
         <v>99</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" t="s">
         <v>100</v>
       </c>
-      <c r="P2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>101</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>102</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>103</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>104</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>105</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>108</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>110</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>111</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
@@ -1221,85 +1221,85 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
       <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
         <v>96</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" t="s">
         <v>97</v>
       </c>
-      <c r="L3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
       <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
         <v>99</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" t="s">
         <v>100</v>
       </c>
-      <c r="P3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>101</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>102</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>103</v>
       </c>
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>104</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>105</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>106</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>108</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>110</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>111</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>113</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
@@ -1310,85 +1310,85 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>93</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>94</v>
       </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
       <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s">
         <v>96</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" t="s">
         <v>97</v>
       </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>98</v>
-      </c>
       <c r="N4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" t="s">
         <v>99</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" t="s">
         <v>100</v>
       </c>
-      <c r="P4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>101</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>102</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>103</v>
       </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>104</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>106</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>107</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>108</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>109</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>110</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>111</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>112</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>113</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
@@ -1399,85 +1399,85 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>93</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>94</v>
       </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
       <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s">
         <v>96</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s">
         <v>97</v>
       </c>
-      <c r="L5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
       <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" t="s">
         <v>99</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" t="s">
         <v>100</v>
       </c>
-      <c r="P5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>101</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>102</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>103</v>
       </c>
-      <c r="T5" t="s">
+      <c r="X5" t="s">
         <v>104</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>105</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>106</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>107</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>108</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>109</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>110</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>111</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>112</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>113</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
@@ -1488,85 +1488,85 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>93</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>94</v>
       </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
       <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" t="s">
         <v>96</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" t="s">
         <v>97</v>
       </c>
-      <c r="L6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" t="s">
-        <v>98</v>
-      </c>
       <c r="N6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" t="s">
         <v>99</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" t="s">
         <v>100</v>
       </c>
-      <c r="P6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>101</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>102</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>103</v>
       </c>
-      <c r="T6" t="s">
+      <c r="X6" t="s">
         <v>104</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>105</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>106</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>108</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>109</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>110</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>111</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>112</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>113</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
@@ -1577,85 +1577,85 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>92</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>93</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
       <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
         <v>97</v>
       </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" t="s">
-        <v>98</v>
-      </c>
       <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
         <v>99</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" t="s">
         <v>100</v>
       </c>
-      <c r="P7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>101</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>102</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>103</v>
       </c>
-      <c r="T7" t="s">
+      <c r="X7" t="s">
         <v>104</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>105</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>106</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>107</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>108</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>109</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>110</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>112</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>113</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
@@ -1666,85 +1666,85 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>93</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>94</v>
       </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
       <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" t="s">
-        <v>98</v>
-      </c>
       <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
         <v>99</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" t="s">
         <v>100</v>
       </c>
-      <c r="P8" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>101</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>102</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>103</v>
       </c>
-      <c r="T8" t="s">
+      <c r="X8" t="s">
         <v>104</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>106</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>107</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>108</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>109</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>110</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>111</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>112</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>113</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
@@ -1755,85 +1755,85 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>93</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>94</v>
       </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
       <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="s">
         <v>97</v>
       </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="s">
-        <v>98</v>
-      </c>
       <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
         <v>99</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" t="s">
         <v>100</v>
       </c>
-      <c r="P9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>101</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>102</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>103</v>
       </c>
-      <c r="T9" t="s">
+      <c r="X9" t="s">
         <v>104</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>105</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>106</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>107</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>108</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>109</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>110</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>111</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>112</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>113</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
@@ -1844,85 +1844,85 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" t="s">
-        <v>95</v>
-      </c>
       <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
         <v>96</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="s">
         <v>97</v>
       </c>
-      <c r="L10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" t="s">
-        <v>98</v>
-      </c>
       <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
         <v>99</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" t="s">
         <v>100</v>
       </c>
-      <c r="P10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>101</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>102</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>103</v>
       </c>
-      <c r="T10" t="s">
+      <c r="X10" t="s">
         <v>104</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AA10" t="s">
         <v>105</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>106</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>107</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>108</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>109</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>110</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>111</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>112</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>113</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
@@ -1933,85 +1933,85 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>93</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>94</v>
       </c>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
       <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
         <v>96</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" t="s">
-        <v>98</v>
-      </c>
       <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
         <v>99</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" t="s">
         <v>100</v>
       </c>
-      <c r="P11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>101</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>102</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>103</v>
       </c>
-      <c r="T11" t="s">
+      <c r="X11" t="s">
         <v>104</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
         <v>105</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>106</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>107</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>108</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>109</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>110</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>111</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>112</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>113</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
@@ -2022,85 +2022,85 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>93</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>94</v>
       </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
       <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
         <v>96</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
         <v>97</v>
       </c>
-      <c r="L12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" t="s">
-        <v>98</v>
-      </c>
       <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
         <v>99</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" t="s">
         <v>100</v>
       </c>
-      <c r="P12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>101</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>102</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>103</v>
       </c>
-      <c r="T12" t="s">
+      <c r="X12" t="s">
         <v>104</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AA12" t="s">
         <v>105</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>106</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>107</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>108</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>109</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>110</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>111</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>112</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>113</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
@@ -2111,85 +2111,85 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>92</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>93</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>94</v>
       </c>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
       <c r="J13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s">
         <v>96</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" t="s">
         <v>97</v>
       </c>
-      <c r="L13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" t="s">
-        <v>98</v>
-      </c>
       <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
         <v>99</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" t="s">
         <v>100</v>
       </c>
-      <c r="P13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>101</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>102</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>103</v>
       </c>
-      <c r="T13" t="s">
+      <c r="X13" t="s">
         <v>104</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AA13" t="s">
         <v>105</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>106</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>107</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>108</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>109</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>110</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>111</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>112</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>113</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
@@ -2200,85 +2200,85 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" t="s">
         <v>91</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>93</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
       <c r="J14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" t="s">
         <v>96</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" t="s">
         <v>97</v>
       </c>
-      <c r="L14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" t="s">
-        <v>98</v>
-      </c>
       <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
         <v>99</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" t="s">
         <v>100</v>
       </c>
-      <c r="P14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>101</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>102</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>103</v>
       </c>
-      <c r="T14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AA14" t="s">
         <v>105</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>106</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>107</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>108</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>109</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>110</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>111</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>112</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>113</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
@@ -2289,85 +2289,85 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>93</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>94</v>
       </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
       <c r="J15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" t="s">
         <v>96</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" t="s">
         <v>97</v>
       </c>
-      <c r="L15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" t="s">
-        <v>98</v>
-      </c>
       <c r="N15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" t="s">
         <v>99</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" t="s">
         <v>100</v>
       </c>
-      <c r="P15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>101</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>102</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>103</v>
       </c>
-      <c r="T15" t="s">
+      <c r="X15" t="s">
         <v>104</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AA15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>106</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>107</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>108</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>109</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>110</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>111</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>112</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>113</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
@@ -2378,85 +2378,85 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>93</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>94</v>
       </c>
-      <c r="I16" t="s">
-        <v>95</v>
-      </c>
       <c r="J16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" t="s">
         <v>96</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
         <v>97</v>
       </c>
-      <c r="L16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" t="s">
-        <v>98</v>
-      </c>
       <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
         <v>99</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" t="s">
         <v>100</v>
       </c>
-      <c r="P16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>101</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>102</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>103</v>
       </c>
-      <c r="T16" t="s">
+      <c r="X16" t="s">
         <v>104</v>
       </c>
-      <c r="X16" t="s">
+      <c r="AA16" t="s">
         <v>105</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>106</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>107</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>108</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>109</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>110</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>111</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>112</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>113</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
@@ -2467,85 +2467,85 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>93</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
       <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" t="s">
         <v>96</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" t="s">
         <v>97</v>
       </c>
-      <c r="L17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" t="s">
-        <v>98</v>
-      </c>
       <c r="N17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" t="s">
         <v>99</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" t="s">
         <v>100</v>
       </c>
-      <c r="P17" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>101</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>102</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>103</v>
       </c>
-      <c r="T17" t="s">
+      <c r="X17" t="s">
         <v>104</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AA17" t="s">
         <v>105</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>106</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>107</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>108</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>109</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>110</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>111</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>112</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>113</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
@@ -2556,85 +2556,85 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
         <v>91</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>93</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>94</v>
       </c>
-      <c r="I18" t="s">
-        <v>95</v>
-      </c>
       <c r="J18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" t="s">
         <v>96</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" t="s">
         <v>97</v>
       </c>
-      <c r="L18" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" t="s">
-        <v>98</v>
-      </c>
       <c r="N18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" t="s">
         <v>99</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" t="s">
         <v>100</v>
       </c>
-      <c r="P18" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>101</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>102</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>103</v>
       </c>
-      <c r="T18" t="s">
+      <c r="X18" t="s">
         <v>104</v>
       </c>
-      <c r="X18" t="s">
+      <c r="AA18" t="s">
         <v>105</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>106</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>107</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>108</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>109</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>110</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>111</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>112</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>113</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -2645,85 +2645,85 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>93</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>94</v>
       </c>
-      <c r="I19" t="s">
-        <v>95</v>
-      </c>
       <c r="J19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" t="s">
         <v>96</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" t="s">
         <v>97</v>
       </c>
-      <c r="L19" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" t="s">
-        <v>98</v>
-      </c>
       <c r="N19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" t="s">
         <v>99</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" t="s">
         <v>100</v>
       </c>
-      <c r="P19" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>101</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>102</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>103</v>
       </c>
-      <c r="T19" t="s">
+      <c r="X19" t="s">
         <v>104</v>
       </c>
-      <c r="X19" t="s">
+      <c r="AA19" t="s">
         <v>105</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>106</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>108</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>109</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>110</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>111</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>112</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>113</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -2734,85 +2734,85 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>92</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>93</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>94</v>
       </c>
-      <c r="I20" t="s">
-        <v>95</v>
-      </c>
       <c r="J20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" t="s">
         <v>96</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" t="s">
         <v>97</v>
       </c>
-      <c r="L20" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" t="s">
-        <v>98</v>
-      </c>
       <c r="N20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" t="s">
         <v>99</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" t="s">
         <v>100</v>
       </c>
-      <c r="P20" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>101</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>102</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>103</v>
       </c>
-      <c r="T20" t="s">
+      <c r="X20" t="s">
         <v>104</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AA20" t="s">
         <v>105</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>106</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>107</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>109</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>110</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>111</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>112</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>113</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -2823,85 +2823,85 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>93</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>94</v>
       </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
       <c r="J21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s">
         <v>96</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" t="s">
         <v>97</v>
       </c>
-      <c r="L21" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" t="s">
-        <v>98</v>
-      </c>
       <c r="N21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" t="s">
         <v>99</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21" t="s">
         <v>100</v>
       </c>
-      <c r="P21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>101</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>102</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>103</v>
       </c>
-      <c r="T21" t="s">
+      <c r="X21" t="s">
         <v>104</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AA21" t="s">
         <v>105</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>106</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>108</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>110</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>111</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>112</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>113</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
@@ -2912,85 +2912,85 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>94</v>
       </c>
-      <c r="I22" t="s">
-        <v>95</v>
-      </c>
       <c r="J22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" t="s">
         <v>96</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" t="s">
         <v>97</v>
       </c>
-      <c r="L22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" t="s">
-        <v>98</v>
-      </c>
       <c r="N22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" t="s">
         <v>99</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" t="s">
         <v>100</v>
       </c>
-      <c r="P22" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>101</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>102</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>103</v>
       </c>
-      <c r="T22" t="s">
+      <c r="X22" t="s">
         <v>104</v>
       </c>
-      <c r="X22" t="s">
+      <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>107</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>108</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>109</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>110</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>111</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>112</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>113</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
@@ -3001,85 +3001,85 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>93</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>94</v>
       </c>
-      <c r="I23" t="s">
-        <v>95</v>
-      </c>
       <c r="J23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" t="s">
         <v>96</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" t="s">
         <v>97</v>
       </c>
-      <c r="L23" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" t="s">
-        <v>98</v>
-      </c>
       <c r="N23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" t="s">
         <v>99</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" t="s">
         <v>100</v>
       </c>
-      <c r="P23" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>101</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>102</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>103</v>
       </c>
-      <c r="T23" t="s">
+      <c r="X23" t="s">
         <v>104</v>
       </c>
-      <c r="X23" t="s">
+      <c r="AA23" t="s">
         <v>105</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>106</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>107</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>109</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>110</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>111</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>112</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>113</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
@@ -3090,85 +3090,85 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>93</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>94</v>
       </c>
-      <c r="I24" t="s">
-        <v>95</v>
-      </c>
       <c r="J24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" t="s">
         <v>96</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" t="s">
         <v>97</v>
       </c>
-      <c r="L24" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" t="s">
-        <v>98</v>
-      </c>
       <c r="N24" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" t="s">
         <v>99</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q24" t="s">
         <v>100</v>
       </c>
-      <c r="P24" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>101</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>102</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>103</v>
       </c>
-      <c r="T24" t="s">
+      <c r="X24" t="s">
         <v>104</v>
       </c>
-      <c r="X24" t="s">
+      <c r="AA24" t="s">
         <v>105</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>106</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>107</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>108</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>110</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>111</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>112</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>113</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
@@ -3179,85 +3179,85 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" t="s">
         <v>91</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>92</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>93</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>94</v>
       </c>
-      <c r="I25" t="s">
-        <v>95</v>
-      </c>
       <c r="J25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" t="s">
         <v>96</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="L25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M25" t="s">
-        <v>98</v>
-      </c>
       <c r="N25" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" t="s">
         <v>99</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" t="s">
         <v>100</v>
       </c>
-      <c r="P25" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>101</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>102</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>103</v>
       </c>
-      <c r="T25" t="s">
+      <c r="X25" t="s">
         <v>104</v>
       </c>
-      <c r="X25" t="s">
+      <c r="AA25" t="s">
         <v>105</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>107</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>108</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>109</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>110</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>111</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>112</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>113</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
@@ -3268,85 +3268,85 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
         <v>91</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>92</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>93</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>94</v>
       </c>
-      <c r="I26" t="s">
-        <v>95</v>
-      </c>
       <c r="J26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" t="s">
         <v>96</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" t="s">
         <v>97</v>
       </c>
-      <c r="L26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" t="s">
-        <v>98</v>
-      </c>
       <c r="N26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" t="s">
         <v>99</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" t="s">
         <v>100</v>
       </c>
-      <c r="P26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>101</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>102</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>103</v>
       </c>
-      <c r="T26" t="s">
+      <c r="X26" t="s">
         <v>104</v>
       </c>
-      <c r="X26" t="s">
+      <c r="AA26" t="s">
         <v>105</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>106</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>107</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>110</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>111</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>112</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>113</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
@@ -3357,85 +3357,85 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>93</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" t="s">
-        <v>95</v>
-      </c>
       <c r="J27" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" t="s">
         <v>96</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" t="s">
         <v>97</v>
       </c>
-      <c r="L27" t="s">
-        <v>96</v>
-      </c>
-      <c r="M27" t="s">
-        <v>98</v>
-      </c>
       <c r="N27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" t="s">
         <v>99</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q27" t="s">
         <v>100</v>
       </c>
-      <c r="P27" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>101</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>102</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>103</v>
       </c>
-      <c r="T27" t="s">
+      <c r="X27" t="s">
         <v>104</v>
       </c>
-      <c r="X27" t="s">
+      <c r="AA27" t="s">
         <v>105</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>106</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>107</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>108</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>109</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>110</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>111</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>112</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>113</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
@@ -3446,85 +3446,85 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
         <v>91</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>93</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>94</v>
       </c>
-      <c r="I28" t="s">
-        <v>95</v>
-      </c>
       <c r="J28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" t="s">
         <v>96</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" t="s">
         <v>97</v>
       </c>
-      <c r="L28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M28" t="s">
-        <v>98</v>
-      </c>
       <c r="N28" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" t="s">
         <v>99</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" t="s">
         <v>100</v>
       </c>
-      <c r="P28" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>101</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>102</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>103</v>
       </c>
-      <c r="T28" t="s">
+      <c r="X28" t="s">
         <v>104</v>
       </c>
-      <c r="X28" t="s">
+      <c r="AA28" t="s">
         <v>105</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>106</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>107</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>108</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>109</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>110</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>111</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>112</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>113</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
@@ -3535,85 +3535,85 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>92</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>93</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>94</v>
       </c>
-      <c r="I29" t="s">
-        <v>95</v>
-      </c>
       <c r="J29" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" t="s">
         <v>96</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29" t="s">
         <v>97</v>
       </c>
-      <c r="L29" t="s">
-        <v>96</v>
-      </c>
-      <c r="M29" t="s">
-        <v>98</v>
-      </c>
       <c r="N29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" t="s">
         <v>99</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" t="s">
         <v>100</v>
       </c>
-      <c r="P29" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>101</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>102</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>103</v>
       </c>
-      <c r="T29" t="s">
+      <c r="X29" t="s">
         <v>104</v>
       </c>
-      <c r="X29" t="s">
+      <c r="AA29" t="s">
         <v>105</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>106</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>107</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>108</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>109</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>110</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>111</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>112</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
         <v>113</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AJ29" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
@@ -3624,85 +3624,85 @@
         <v>73</v>
       </c>
       <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>93</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>94</v>
       </c>
-      <c r="I30" t="s">
-        <v>95</v>
-      </c>
       <c r="J30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" t="s">
         <v>96</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M30" t="s">
         <v>97</v>
       </c>
-      <c r="L30" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" t="s">
-        <v>98</v>
-      </c>
       <c r="N30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" t="s">
         <v>99</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" t="s">
         <v>100</v>
       </c>
-      <c r="P30" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>101</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>102</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>103</v>
       </c>
-      <c r="T30" t="s">
+      <c r="X30" t="s">
         <v>104</v>
       </c>
-      <c r="X30" t="s">
+      <c r="AA30" t="s">
         <v>105</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>106</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>107</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>108</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>109</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>110</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>111</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AH30" t="s">
         <v>112</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AI30" t="s">
         <v>113</v>
       </c>
-      <c r="AI30" t="s">
+      <c r="AJ30" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
@@ -3713,85 +3713,85 @@
         <v>74</v>
       </c>
       <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" t="s">
         <v>91</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>93</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>94</v>
       </c>
-      <c r="I31" t="s">
-        <v>95</v>
-      </c>
       <c r="J31" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" t="s">
         <v>96</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" t="s">
         <v>97</v>
       </c>
-      <c r="L31" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" t="s">
-        <v>98</v>
-      </c>
       <c r="N31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O31" t="s">
         <v>99</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31" t="s">
         <v>100</v>
       </c>
-      <c r="P31" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>101</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>102</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>103</v>
       </c>
-      <c r="T31" t="s">
+      <c r="X31" t="s">
         <v>104</v>
       </c>
-      <c r="X31" t="s">
+      <c r="AA31" t="s">
         <v>105</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>106</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>107</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>108</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>109</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AF31" t="s">
         <v>110</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>111</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AH31" t="s">
         <v>112</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
         <v>113</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AJ31" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
@@ -3802,85 +3802,85 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" t="s">
         <v>91</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>92</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>93</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>94</v>
       </c>
-      <c r="I32" t="s">
-        <v>95</v>
-      </c>
       <c r="J32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s">
         <v>96</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" t="s">
         <v>97</v>
       </c>
-      <c r="L32" t="s">
-        <v>96</v>
-      </c>
-      <c r="M32" t="s">
-        <v>98</v>
-      </c>
       <c r="N32" t="s">
+        <v>98</v>
+      </c>
+      <c r="O32" t="s">
         <v>99</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q32" t="s">
         <v>100</v>
       </c>
-      <c r="P32" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>101</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>102</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>103</v>
       </c>
-      <c r="T32" t="s">
+      <c r="X32" t="s">
         <v>104</v>
       </c>
-      <c r="X32" t="s">
+      <c r="AA32" t="s">
         <v>105</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>106</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>107</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>108</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>109</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>110</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>111</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
         <v>112</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="AI32" t="s">
         <v>113</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AJ32" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
@@ -3891,85 +3891,85 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>92</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>93</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>94</v>
       </c>
-      <c r="I33" t="s">
-        <v>95</v>
-      </c>
       <c r="J33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" t="s">
         <v>96</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" t="s">
         <v>97</v>
       </c>
-      <c r="L33" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" t="s">
-        <v>98</v>
-      </c>
       <c r="N33" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" t="s">
         <v>99</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" t="s">
         <v>100</v>
       </c>
-      <c r="P33" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>101</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>102</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>103</v>
       </c>
-      <c r="T33" t="s">
+      <c r="X33" t="s">
         <v>104</v>
       </c>
-      <c r="X33" t="s">
+      <c r="AA33" t="s">
         <v>105</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>106</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>107</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>108</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>109</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>110</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
         <v>112</v>
       </c>
-      <c r="AH33" t="s">
+      <c r="AI33" t="s">
         <v>113</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AJ33" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
@@ -3980,85 +3980,85 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>92</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>93</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>94</v>
       </c>
-      <c r="I34" t="s">
-        <v>95</v>
-      </c>
       <c r="J34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" t="s">
         <v>96</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" t="s">
         <v>97</v>
       </c>
-      <c r="L34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" t="s">
-        <v>98</v>
-      </c>
       <c r="N34" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" t="s">
         <v>99</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" t="s">
         <v>100</v>
       </c>
-      <c r="P34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>101</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>102</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>103</v>
       </c>
-      <c r="T34" t="s">
+      <c r="X34" t="s">
         <v>104</v>
       </c>
-      <c r="X34" t="s">
+      <c r="AA34" t="s">
         <v>105</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>106</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>107</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>108</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>109</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>110</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AH34" t="s">
         <v>112</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AI34" t="s">
         <v>113</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AJ34" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
@@ -4069,85 +4069,85 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>92</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>93</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>94</v>
       </c>
-      <c r="I35" t="s">
-        <v>95</v>
-      </c>
       <c r="J35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" t="s">
         <v>96</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M35" t="s">
         <v>97</v>
       </c>
-      <c r="L35" t="s">
-        <v>96</v>
-      </c>
-      <c r="M35" t="s">
-        <v>98</v>
-      </c>
       <c r="N35" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" t="s">
         <v>99</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" t="s">
         <v>100</v>
       </c>
-      <c r="P35" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>101</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>102</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>103</v>
       </c>
-      <c r="T35" t="s">
+      <c r="X35" t="s">
         <v>104</v>
       </c>
-      <c r="X35" t="s">
+      <c r="AA35" t="s">
         <v>105</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>106</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>107</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>108</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>109</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>110</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>111</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AH35" t="s">
         <v>112</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
         <v>113</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AJ35" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
@@ -4158,85 +4158,85 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>92</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>93</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>94</v>
       </c>
-      <c r="I36" t="s">
-        <v>95</v>
-      </c>
       <c r="J36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" t="s">
         <v>96</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
+        <v>95</v>
+      </c>
+      <c r="M36" t="s">
         <v>97</v>
       </c>
-      <c r="L36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M36" t="s">
-        <v>98</v>
-      </c>
       <c r="N36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" t="s">
         <v>99</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q36" t="s">
         <v>100</v>
       </c>
-      <c r="P36" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>101</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>102</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>103</v>
       </c>
-      <c r="T36" t="s">
+      <c r="X36" t="s">
         <v>104</v>
       </c>
-      <c r="X36" t="s">
+      <c r="AA36" t="s">
         <v>105</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
         <v>106</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>107</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>108</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>109</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
         <v>110</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AH36" t="s">
         <v>112</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AI36" t="s">
         <v>113</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AJ36" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
@@ -4247,85 +4247,85 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" t="s">
         <v>91</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>92</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>93</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>94</v>
       </c>
-      <c r="I37" t="s">
-        <v>95</v>
-      </c>
       <c r="J37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" t="s">
         <v>96</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
+        <v>95</v>
+      </c>
+      <c r="M37" t="s">
         <v>97</v>
       </c>
-      <c r="L37" t="s">
-        <v>96</v>
-      </c>
-      <c r="M37" t="s">
-        <v>98</v>
-      </c>
       <c r="N37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O37" t="s">
         <v>99</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37" t="s">
         <v>100</v>
       </c>
-      <c r="P37" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>101</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>102</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>103</v>
       </c>
-      <c r="T37" t="s">
+      <c r="X37" t="s">
         <v>104</v>
       </c>
-      <c r="X37" t="s">
+      <c r="AA37" t="s">
         <v>105</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>106</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>107</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>108</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>109</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AF37" t="s">
         <v>110</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>111</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AH37" t="s">
         <v>112</v>
       </c>
-      <c r="AH37" t="s">
+      <c r="AI37" t="s">
         <v>113</v>
       </c>
-      <c r="AI37" t="s">
+      <c r="AJ37" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
@@ -4336,85 +4336,85 @@
         <v>81</v>
       </c>
       <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
         <v>91</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>92</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>93</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>94</v>
       </c>
-      <c r="I38" t="s">
-        <v>95</v>
-      </c>
       <c r="J38" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38" t="s">
         <v>96</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>95</v>
+      </c>
+      <c r="M38" t="s">
         <v>97</v>
       </c>
-      <c r="L38" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" t="s">
-        <v>98</v>
-      </c>
       <c r="N38" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" t="s">
         <v>99</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" t="s">
         <v>100</v>
       </c>
-      <c r="P38" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>101</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>102</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>103</v>
       </c>
-      <c r="T38" t="s">
+      <c r="X38" t="s">
         <v>104</v>
       </c>
-      <c r="X38" t="s">
+      <c r="AA38" t="s">
         <v>105</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>106</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>107</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>108</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>109</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AF38" t="s">
         <v>110</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
         <v>111</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AH38" t="s">
         <v>112</v>
       </c>
-      <c r="AH38" t="s">
+      <c r="AI38" t="s">
         <v>113</v>
       </c>
-      <c r="AI38" t="s">
+      <c r="AJ38" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
@@ -4425,85 +4425,85 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" t="s">
         <v>91</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>92</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>93</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>94</v>
       </c>
-      <c r="I39" t="s">
-        <v>95</v>
-      </c>
       <c r="J39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" t="s">
         <v>96</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
+        <v>95</v>
+      </c>
+      <c r="M39" t="s">
         <v>97</v>
       </c>
-      <c r="L39" t="s">
-        <v>96</v>
-      </c>
-      <c r="M39" t="s">
-        <v>98</v>
-      </c>
       <c r="N39" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" t="s">
         <v>99</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" t="s">
         <v>100</v>
       </c>
-      <c r="P39" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>101</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>102</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>103</v>
       </c>
-      <c r="T39" t="s">
+      <c r="X39" t="s">
         <v>104</v>
       </c>
-      <c r="X39" t="s">
+      <c r="AA39" t="s">
         <v>105</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>106</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>107</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>108</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>109</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
         <v>110</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AG39" t="s">
         <v>111</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AH39" t="s">
         <v>112</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AI39" t="s">
         <v>113</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AJ39" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
@@ -4514,85 +4514,85 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" t="s">
         <v>91</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>92</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>93</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>94</v>
       </c>
-      <c r="I40" t="s">
-        <v>95</v>
-      </c>
       <c r="J40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" t="s">
         <v>96</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M40" t="s">
         <v>97</v>
       </c>
-      <c r="L40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" t="s">
-        <v>98</v>
-      </c>
       <c r="N40" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" t="s">
         <v>99</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40" t="s">
         <v>100</v>
       </c>
-      <c r="P40" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>101</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>102</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>103</v>
       </c>
-      <c r="T40" t="s">
+      <c r="X40" t="s">
         <v>104</v>
       </c>
-      <c r="X40" t="s">
+      <c r="AA40" t="s">
         <v>105</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>106</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>107</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD40" t="s">
         <v>108</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>109</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
         <v>110</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AG40" t="s">
         <v>111</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AH40" t="s">
         <v>112</v>
       </c>
-      <c r="AH40" t="s">
+      <c r="AI40" t="s">
         <v>113</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AJ40" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
@@ -4603,85 +4603,85 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" t="s">
         <v>91</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>92</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>93</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>94</v>
       </c>
-      <c r="I41" t="s">
-        <v>95</v>
-      </c>
       <c r="J41" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" t="s">
         <v>96</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" t="s">
         <v>97</v>
       </c>
-      <c r="L41" t="s">
-        <v>96</v>
-      </c>
-      <c r="M41" t="s">
-        <v>98</v>
-      </c>
       <c r="N41" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" t="s">
         <v>99</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41" t="s">
         <v>100</v>
       </c>
-      <c r="P41" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>101</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>102</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>103</v>
       </c>
-      <c r="T41" t="s">
+      <c r="X41" t="s">
         <v>104</v>
       </c>
-      <c r="X41" t="s">
+      <c r="AA41" t="s">
         <v>105</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>106</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>107</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AD41" t="s">
         <v>108</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AE41" t="s">
         <v>109</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AF41" t="s">
         <v>110</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AG41" t="s">
         <v>111</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AH41" t="s">
         <v>112</v>
       </c>
-      <c r="AH41" t="s">
+      <c r="AI41" t="s">
         <v>113</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="AJ41" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
@@ -4692,85 +4692,85 @@
         <v>85</v>
       </c>
       <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
         <v>91</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>92</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>93</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>94</v>
       </c>
-      <c r="I42" t="s">
-        <v>95</v>
-      </c>
       <c r="J42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K42" t="s">
         <v>96</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M42" t="s">
         <v>97</v>
       </c>
-      <c r="L42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42" t="s">
-        <v>98</v>
-      </c>
       <c r="N42" t="s">
+        <v>98</v>
+      </c>
+      <c r="O42" t="s">
         <v>99</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q42" t="s">
         <v>100</v>
       </c>
-      <c r="P42" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>101</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>102</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>103</v>
       </c>
-      <c r="T42" t="s">
+      <c r="X42" t="s">
         <v>104</v>
       </c>
-      <c r="X42" t="s">
+      <c r="AA42" t="s">
         <v>105</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>106</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>107</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>108</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>109</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
         <v>110</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AG42" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AH42" t="s">
         <v>112</v>
       </c>
-      <c r="AH42" t="s">
+      <c r="AI42" t="s">
         <v>113</v>
       </c>
-      <c r="AI42" t="s">
+      <c r="AJ42" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
@@ -4781,85 +4781,85 @@
         <v>86</v>
       </c>
       <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>92</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>93</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>94</v>
       </c>
-      <c r="I43" t="s">
-        <v>95</v>
-      </c>
       <c r="J43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43" t="s">
         <v>96</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>95</v>
+      </c>
+      <c r="M43" t="s">
         <v>97</v>
       </c>
-      <c r="L43" t="s">
-        <v>96</v>
-      </c>
-      <c r="M43" t="s">
-        <v>98</v>
-      </c>
       <c r="N43" t="s">
+        <v>98</v>
+      </c>
+      <c r="O43" t="s">
         <v>99</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q43" t="s">
         <v>100</v>
       </c>
-      <c r="P43" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>101</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>102</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>103</v>
       </c>
-      <c r="T43" t="s">
+      <c r="X43" t="s">
         <v>104</v>
       </c>
-      <c r="X43" t="s">
+      <c r="AA43" t="s">
         <v>105</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>106</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>107</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD43" t="s">
         <v>108</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AF43" t="s">
         <v>110</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AG43" t="s">
         <v>111</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AH43" t="s">
         <v>112</v>
       </c>
-      <c r="AH43" t="s">
+      <c r="AI43" t="s">
         <v>113</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="AJ43" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
@@ -4870,85 +4870,85 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>92</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>93</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>94</v>
       </c>
-      <c r="I44" t="s">
-        <v>95</v>
-      </c>
       <c r="J44" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" t="s">
         <v>96</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M44" t="s">
         <v>97</v>
       </c>
-      <c r="L44" t="s">
-        <v>96</v>
-      </c>
-      <c r="M44" t="s">
-        <v>98</v>
-      </c>
       <c r="N44" t="s">
+        <v>98</v>
+      </c>
+      <c r="O44" t="s">
         <v>99</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q44" t="s">
         <v>100</v>
       </c>
-      <c r="P44" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>101</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>102</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>103</v>
       </c>
-      <c r="T44" t="s">
+      <c r="X44" t="s">
         <v>104</v>
       </c>
-      <c r="X44" t="s">
+      <c r="AA44" t="s">
         <v>105</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>106</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AC44" t="s">
         <v>107</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AD44" t="s">
         <v>108</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>109</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
         <v>110</v>
       </c>
-      <c r="AF44" t="s">
+      <c r="AG44" t="s">
         <v>111</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AH44" t="s">
         <v>112</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AI44" t="s">
         <v>113</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AJ44" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
@@ -4959,85 +4959,85 @@
         <v>88</v>
       </c>
       <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
         <v>91</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>92</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>93</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>94</v>
       </c>
-      <c r="I45" t="s">
-        <v>95</v>
-      </c>
       <c r="J45" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45" t="s">
         <v>96</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M45" t="s">
         <v>97</v>
       </c>
-      <c r="L45" t="s">
-        <v>96</v>
-      </c>
-      <c r="M45" t="s">
-        <v>98</v>
-      </c>
       <c r="N45" t="s">
+        <v>98</v>
+      </c>
+      <c r="O45" t="s">
         <v>99</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q45" t="s">
         <v>100</v>
       </c>
-      <c r="P45" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>101</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>102</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>103</v>
       </c>
-      <c r="T45" t="s">
+      <c r="X45" t="s">
         <v>104</v>
       </c>
-      <c r="X45" t="s">
+      <c r="AA45" t="s">
         <v>105</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>106</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AC45" t="s">
         <v>107</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AD45" t="s">
         <v>108</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" t="s">
         <v>109</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
         <v>110</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AG45" t="s">
         <v>111</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AH45" t="s">
         <v>112</v>
       </c>
-      <c r="AH45" t="s">
+      <c r="AI45" t="s">
         <v>113</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AJ45" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
@@ -5048,85 +5048,85 @@
         <v>89</v>
       </c>
       <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
         <v>91</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>92</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>93</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>94</v>
       </c>
-      <c r="I46" t="s">
-        <v>95</v>
-      </c>
       <c r="J46" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46" t="s">
         <v>96</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
+        <v>95</v>
+      </c>
+      <c r="M46" t="s">
         <v>97</v>
       </c>
-      <c r="L46" t="s">
-        <v>96</v>
-      </c>
-      <c r="M46" t="s">
-        <v>98</v>
-      </c>
       <c r="N46" t="s">
+        <v>98</v>
+      </c>
+      <c r="O46" t="s">
         <v>99</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q46" t="s">
         <v>100</v>
       </c>
-      <c r="P46" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>101</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>102</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>103</v>
       </c>
-      <c r="T46" t="s">
+      <c r="X46" t="s">
         <v>104</v>
       </c>
-      <c r="X46" t="s">
+      <c r="AA46" t="s">
         <v>105</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>106</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AC46" t="s">
         <v>107</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AD46" t="s">
         <v>108</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>109</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>110</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AG46" t="s">
         <v>111</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AH46" t="s">
         <v>112</v>
       </c>
-      <c r="AH46" t="s">
+      <c r="AI46" t="s">
         <v>113</v>
       </c>
-      <c r="AI46" t="s">
+      <c r="AJ46" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
@@ -5137,85 +5137,85 @@
         <v>90</v>
       </c>
       <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>92</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>93</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>94</v>
       </c>
-      <c r="I47" t="s">
-        <v>95</v>
-      </c>
       <c r="J47" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" t="s">
         <v>96</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>95</v>
+      </c>
+      <c r="M47" t="s">
         <v>97</v>
       </c>
-      <c r="L47" t="s">
-        <v>96</v>
-      </c>
-      <c r="M47" t="s">
-        <v>98</v>
-      </c>
       <c r="N47" t="s">
+        <v>98</v>
+      </c>
+      <c r="O47" t="s">
         <v>99</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q47" t="s">
         <v>100</v>
       </c>
-      <c r="P47" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>101</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>102</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>103</v>
       </c>
-      <c r="T47" t="s">
+      <c r="X47" t="s">
         <v>104</v>
       </c>
-      <c r="X47" t="s">
+      <c r="AA47" t="s">
         <v>105</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>106</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" t="s">
         <v>107</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AD47" t="s">
         <v>108</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AE47" t="s">
         <v>109</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AF47" t="s">
         <v>110</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AG47" t="s">
         <v>111</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AH47" t="s">
         <v>112</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AI47" t="s">
         <v>113</v>
       </c>
-      <c r="AI47" t="s">
+      <c r="AJ47" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5281,13 +5281,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5295,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5306,10 +5306,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5317,10 +5317,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5328,10 +5328,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5339,10 +5339,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5350,10 +5350,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5361,10 +5361,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5372,10 +5372,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5383,10 +5383,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5394,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5405,10 +5405,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5416,10 +5416,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5427,10 +5427,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5438,10 +5438,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5449,10 +5449,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5460,10 +5460,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5471,10 +5471,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5482,10 +5482,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5493,10 +5493,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5504,10 +5504,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5515,10 +5515,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5526,10 +5526,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5537,10 +5537,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5548,10 +5548,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5559,10 +5559,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5570,10 +5570,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5581,10 +5581,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5592,10 +5592,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5603,10 +5603,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5614,10 +5614,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5625,10 +5625,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5636,10 +5636,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5647,10 +5647,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5658,10 +5658,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -5669,10 +5669,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5680,10 +5680,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5691,10 +5691,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -5702,10 +5702,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5713,10 +5713,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -5724,10 +5724,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5735,10 +5735,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -5746,10 +5746,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -5757,10 +5757,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -5768,10 +5768,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -5779,10 +5779,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDEF707-72B9-514B-9561-A5160E58A3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A5E6A-FFF3-C442-8243-AC273F201EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34820" yWindow="-700" windowWidth="30020" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="24200" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
     <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
   </si>
   <si>
-    <t>~/GIT/PSSdb/raw/API/IFCB</t>
+    <t>~/GIT/PSSdb/raw/ecotaxa/IFCB</t>
   </si>
 </sst>
 </file>
@@ -935,56 +935,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C47"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A5E6A-FFF3-C442-8243-AC273F201EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="24200" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="192">
   <si>
     <t>Project_ID</t>
   </si>
@@ -296,6 +290,9 @@
     <t>https://ecotaxa.obs-vlfr.fr/prj/3343</t>
   </si>
   <si>
+    <t>~/GIT/PSSdb/raw/ecotaxa/IFCB</t>
+  </si>
+  <si>
     <t>IFCB</t>
   </si>
   <si>
@@ -368,6 +365,84 @@
     <t>object_annotation_status</t>
   </si>
   <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_2248_20220829_1556_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3147_20220829_1606_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3289_20220829_1608_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3290_20220829_1608_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3294_20220829_1610_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3295_20220829_1615_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3296_20220829_1615_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3297_20220829_1616_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3298_20220829_1705_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3313_20220829_1805_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3314_20220829_1808_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3315_20220609_1352_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3318_20220610_0723_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3320_20220829_1815_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3321_20220829_1816_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3322_20220829_1818_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3323_20220829_1818_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3324_20220829_1819_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3325_20220829_1821_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3337_20220829_1824_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3338_20220829_1824_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3339_20220829_1825_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3340_20220829_1825_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3341_20220829_1825_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3342_20220829_1825_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3343_20220829_1825_flags.tsv</t>
+  </si>
+  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -516,16 +591,13 @@
   </si>
   <si>
     <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/ecotaxa/IFCB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,14 +673,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -655,7 +719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,27 +751,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,24 +785,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -932,21 +960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AM23" sqref="AM23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -1091,88 +1112,91 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -1180,88 +1204,91 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1269,88 +1296,91 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1358,88 +1388,91 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -1447,88 +1480,91 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -1536,88 +1572,91 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -1625,88 +1664,91 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -1714,88 +1756,91 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -1803,88 +1848,91 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -1892,88 +1940,88 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -1981,88 +2029,88 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -2070,88 +2118,88 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -2159,88 +2207,88 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -2248,88 +2296,88 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -2337,88 +2385,88 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2426,88 +2474,88 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -2515,88 +2563,88 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -2604,88 +2652,88 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -2693,88 +2741,88 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -2782,88 +2830,88 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -2871,88 +2919,88 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -2960,88 +3008,88 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3049,88 +3097,88 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3138,88 +3186,91 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3227,88 +3278,91 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3316,88 +3370,91 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3405,88 +3462,91 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -3494,88 +3554,91 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -3583,88 +3646,91 @@
         <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -3672,88 +3738,91 @@
         <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -3761,88 +3830,91 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -3850,88 +3922,91 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -3939,88 +4014,91 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4028,88 +4106,88 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4117,88 +4195,88 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4206,88 +4284,88 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4295,88 +4373,88 @@
         <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4384,88 +4462,88 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -4473,88 +4551,88 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -4562,88 +4640,91 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -4651,88 +4732,91 @@
         <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K42" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -4740,88 +4824,91 @@
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -4829,88 +4916,91 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -4918,88 +5008,91 @@
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5007,88 +5100,91 @@
         <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5096,652 +5192,655 @@
         <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AH47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ47" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF900CC-D729-9648-B3DB-873CF0E81163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="166">
   <si>
     <t>Project_ID</t>
   </si>
@@ -363,84 +369,6 @@
   </si>
   <si>
     <t>object_annotation_status</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_2248_20220829_1556_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3147_20220829_1606_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3289_20220829_1608_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3290_20220829_1608_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3294_20220829_1610_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3295_20220829_1615_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3296_20220829_1615_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3297_20220829_1616_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3298_20220829_1705_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3313_20220829_1805_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3314_20220829_1808_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3315_20220609_1352_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3318_20220610_0723_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3320_20220829_1815_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3321_20220829_1816_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3322_20220829_1818_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3323_20220829_1818_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3324_20220829_1819_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3325_20220829_1821_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3337_20220829_1824_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3338_20220829_1824_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3339_20220829_1825_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3340_20220829_1825_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3341_20220829_1825_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3342_20220829_1825_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/IFCB/ecotaxa_export_3343_20220829_1825_flags.tsv</t>
   </si>
   <si>
     <t>Variables</t>
@@ -596,8 +524,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +601,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -719,7 +655,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,9 +687,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,6 +739,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -960,14 +932,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -1192,11 +1166,8 @@
       <c r="AJ2" t="s">
         <v>115</v>
       </c>
-      <c r="AK2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -1284,11 +1255,8 @@
       <c r="AJ3" t="s">
         <v>115</v>
       </c>
-      <c r="AK3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1376,11 +1344,8 @@
       <c r="AJ4" t="s">
         <v>115</v>
       </c>
-      <c r="AK4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1468,11 +1433,8 @@
       <c r="AJ5" t="s">
         <v>115</v>
       </c>
-      <c r="AK5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -1560,11 +1522,8 @@
       <c r="AJ6" t="s">
         <v>115</v>
       </c>
-      <c r="AK6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -1652,11 +1611,8 @@
       <c r="AJ7" t="s">
         <v>115</v>
       </c>
-      <c r="AK7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -1744,11 +1700,8 @@
       <c r="AJ8" t="s">
         <v>115</v>
       </c>
-      <c r="AK8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -1836,11 +1789,8 @@
       <c r="AJ9" t="s">
         <v>115</v>
       </c>
-      <c r="AK9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -1928,11 +1878,8 @@
       <c r="AJ10" t="s">
         <v>115</v>
       </c>
-      <c r="AK10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -2021,7 +1968,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -2110,7 +2057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -2199,7 +2146,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -2288,7 +2235,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -2377,7 +2324,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -2466,7 +2413,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2555,7 +2502,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -2644,7 +2591,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -2733,7 +2680,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -2822,7 +2769,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -2911,7 +2858,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -3000,7 +2947,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -3089,7 +3036,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3178,7 +3125,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3266,11 +3213,8 @@
       <c r="AJ25" t="s">
         <v>115</v>
       </c>
-      <c r="AK25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37">
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3358,11 +3302,8 @@
       <c r="AJ26" t="s">
         <v>115</v>
       </c>
-      <c r="AK26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3450,11 +3391,8 @@
       <c r="AJ27" t="s">
         <v>115</v>
       </c>
-      <c r="AK27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37">
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3542,11 +3480,8 @@
       <c r="AJ28" t="s">
         <v>115</v>
       </c>
-      <c r="AK28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37">
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -3634,11 +3569,8 @@
       <c r="AJ29" t="s">
         <v>115</v>
       </c>
-      <c r="AK29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37">
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -3726,11 +3658,8 @@
       <c r="AJ30" t="s">
         <v>115</v>
       </c>
-      <c r="AK30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37">
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -3818,11 +3747,8 @@
       <c r="AJ31" t="s">
         <v>115</v>
       </c>
-      <c r="AK31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37">
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -3910,11 +3836,8 @@
       <c r="AJ32" t="s">
         <v>115</v>
       </c>
-      <c r="AK32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37">
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -4002,11 +3925,8 @@
       <c r="AJ33" t="s">
         <v>115</v>
       </c>
-      <c r="AK33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37">
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -4094,11 +4014,8 @@
       <c r="AJ34" t="s">
         <v>115</v>
       </c>
-      <c r="AK34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37">
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4187,7 +4104,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4276,7 +4193,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4365,7 +4282,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4454,7 +4371,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4543,7 +4460,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -4632,7 +4549,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -4720,11 +4637,8 @@
       <c r="AJ41" t="s">
         <v>115</v>
       </c>
-      <c r="AK41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37">
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -4812,11 +4726,8 @@
       <c r="AJ42" t="s">
         <v>115</v>
       </c>
-      <c r="AK42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37">
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -4904,11 +4815,8 @@
       <c r="AJ43" t="s">
         <v>115</v>
       </c>
-      <c r="AK43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37">
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -4996,11 +4904,8 @@
       <c r="AJ44" t="s">
         <v>115</v>
       </c>
-      <c r="AK44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37">
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -5088,11 +4993,8 @@
       <c r="AJ45" t="s">
         <v>115</v>
       </c>
-      <c r="AK45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37">
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5180,11 +5082,8 @@
       <c r="AJ46" t="s">
         <v>115</v>
       </c>
-      <c r="AK46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37">
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5272,575 +5171,572 @@
       <c r="AJ47" t="s">
         <v>115</v>
       </c>
-      <c r="AK47" t="s">
-        <v>141</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
         <v>146</v>
       </c>
-      <c r="C27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF900CC-D729-9648-B3DB-873CF0E81163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B1412-2113-9548-A077-C7EE18E61E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="25040" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -296,229 +296,229 @@
     <t>https://ecotaxa.obs-vlfr.fr/prj/3343</t>
   </si>
   <si>
+    <t>IFCB</t>
+  </si>
+  <si>
+    <t>sample_cruise</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>object_lat</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>object_lon</t>
+  </si>
+  <si>
+    <t>object_depth_min</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>object_depth_max</t>
+  </si>
+  <si>
+    <t>object_date</t>
+  </si>
+  <si>
+    <t>%Y%m%d</t>
+  </si>
+  <si>
+    <t>object_time</t>
+  </si>
+  <si>
+    <t>%H%M%S</t>
+  </si>
+  <si>
+    <t>object_id</t>
+  </si>
+  <si>
+    <t>object_summedbiovolume</t>
+  </si>
+  <si>
+    <t>cubic_pixel</t>
+  </si>
+  <si>
+    <t>object_summedarea</t>
+  </si>
+  <si>
+    <t>square_pixel</t>
+  </si>
+  <si>
+    <t>object_summedminoraxislength</t>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>process_pixel_to_micron</t>
+  </si>
+  <si>
+    <t>pixel_per_micron</t>
+  </si>
+  <si>
+    <t>object_annotation_category</t>
+  </si>
+  <si>
+    <t>object_annotation_status</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Variable_types</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Unique Project ID (e.g EcoTaxa ID or cruise ID)</t>
+  </si>
+  <si>
+    <t>URL of project data source</t>
+  </si>
+  <si>
+    <t>Local path of directory where project native datafile is stored</t>
+  </si>
+  <si>
+    <t>Project instrument</t>
+  </si>
+  <si>
+    <t>Name of the cruise ID column in project file</t>
+  </si>
+  <si>
+    <t>Name of the station ID column in project file</t>
+  </si>
+  <si>
+    <t>Name of the profile ID column in project file</t>
+  </si>
+  <si>
+    <t>Name of the sample ID column in project file</t>
+  </si>
+  <si>
+    <t>Name of the latitude column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the latitude column in project file</t>
+  </si>
+  <si>
+    <t>Name of the longitude column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the longitude column in project file</t>
+  </si>
+  <si>
+    <t>Name of the minimum depth column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the minimum depth column in project file</t>
+  </si>
+  <si>
+    <t>Name of the maximum depth column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the maximum depth column in project file</t>
+  </si>
+  <si>
+    <t>Name of the sampling date (UTC) column in project file</t>
+  </si>
+  <si>
+    <t>Format of the sampling date (UTC) column in project file  (e.g. yyyymmdd)</t>
+  </si>
+  <si>
+    <t>Name of the sampling time (UTC) column in project file</t>
+  </si>
+  <si>
+    <t>Format of the sampling time (UTC) column in project file (e.g. hhmmss)</t>
+  </si>
+  <si>
+    <t>Name of the sample volume analyzed column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the sample volume analyzed column in project file</t>
+  </si>
+  <si>
+    <t>Name of the dilution factor column in project file</t>
+  </si>
+  <si>
+    <t>Name of the region of interest (ROI) ID column in project file</t>
+  </si>
+  <si>
+    <t>Name of the equivalent spherical diameter column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the equivalent spherical diameter column in project file</t>
+  </si>
+  <si>
+    <t>Name of the biovolume column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the biovolume column in project file</t>
+  </si>
+  <si>
+    <t>Name of the area column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the area column in project file</t>
+  </si>
+  <si>
+    <t>Name of the minor ellipsoidal axis column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the minor ellipsoidal axis column in project file</t>
+  </si>
+  <si>
+    <t>Name of the pixel conversion factor column in project file</t>
+  </si>
+  <si>
+    <t>Unit of the pixel conversion factor column in project file</t>
+  </si>
+  <si>
+    <t>Name of the category ID column in project file</t>
+  </si>
+  <si>
+    <t>Name of the annotation status column in project file (e.g predicted, validated)</t>
+  </si>
+  <si>
+    <t>Path of the file containing the ID of flagged samples to be removed from standardized project. Automatic flagging available in funcs_project_standardizer.py</t>
+  </si>
+  <si>
+    <t>Character for missing values</t>
+  </si>
+  <si>
+    <t>ID of corresponding EcoPart project(s) (*UVP-only). Use comma to separate multiple projects</t>
+  </si>
+  <si>
+    <t>Name of the sampling type column in project file (e.g. platform, gear, strategy). Used to describe the sampling method</t>
+  </si>
+  <si>
+    <t>Name of the smallest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
+  </si>
+  <si>
+    <t>Unit of the smallest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
+  </si>
+  <si>
+    <t>Name of the largest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
+  </si>
+  <si>
+    <t>Unit of the largest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
+  </si>
+  <si>
+    <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
+  </si>
+  <si>
     <t>~/GIT/PSSdb/raw/ecotaxa/IFCB</t>
-  </si>
-  <si>
-    <t>IFCB</t>
-  </si>
-  <si>
-    <t>sample_cruise</t>
-  </si>
-  <si>
-    <t>sample_id</t>
-  </si>
-  <si>
-    <t>object_lat</t>
-  </si>
-  <si>
-    <t>degree</t>
-  </si>
-  <si>
-    <t>object_lon</t>
-  </si>
-  <si>
-    <t>object_depth_min</t>
-  </si>
-  <si>
-    <t>meter</t>
-  </si>
-  <si>
-    <t>object_depth_max</t>
-  </si>
-  <si>
-    <t>object_date</t>
-  </si>
-  <si>
-    <t>%Y%m%d</t>
-  </si>
-  <si>
-    <t>object_time</t>
-  </si>
-  <si>
-    <t>%H%M%S</t>
-  </si>
-  <si>
-    <t>object_id</t>
-  </si>
-  <si>
-    <t>object_summedbiovolume</t>
-  </si>
-  <si>
-    <t>cubic_pixel</t>
-  </si>
-  <si>
-    <t>object_summedarea</t>
-  </si>
-  <si>
-    <t>square_pixel</t>
-  </si>
-  <si>
-    <t>object_summedminoraxislength</t>
-  </si>
-  <si>
-    <t>pixel</t>
-  </si>
-  <si>
-    <t>process_pixel_to_micron</t>
-  </si>
-  <si>
-    <t>pixel_per_micron</t>
-  </si>
-  <si>
-    <t>object_annotation_category</t>
-  </si>
-  <si>
-    <t>object_annotation_status</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Variable_types</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>int64</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>Unique Project ID (e.g EcoTaxa ID or cruise ID)</t>
-  </si>
-  <si>
-    <t>URL of project data source</t>
-  </si>
-  <si>
-    <t>Local path of directory where project native datafile is stored</t>
-  </si>
-  <si>
-    <t>Project instrument</t>
-  </si>
-  <si>
-    <t>Name of the cruise ID column in project file</t>
-  </si>
-  <si>
-    <t>Name of the station ID column in project file</t>
-  </si>
-  <si>
-    <t>Name of the profile ID column in project file</t>
-  </si>
-  <si>
-    <t>Name of the sample ID column in project file</t>
-  </si>
-  <si>
-    <t>Name of the latitude column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the latitude column in project file</t>
-  </si>
-  <si>
-    <t>Name of the longitude column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the longitude column in project file</t>
-  </si>
-  <si>
-    <t>Name of the minimum depth column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the minimum depth column in project file</t>
-  </si>
-  <si>
-    <t>Name of the maximum depth column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the maximum depth column in project file</t>
-  </si>
-  <si>
-    <t>Name of the sampling date (UTC) column in project file</t>
-  </si>
-  <si>
-    <t>Format of the sampling date (UTC) column in project file  (e.g. yyyymmdd)</t>
-  </si>
-  <si>
-    <t>Name of the sampling time (UTC) column in project file</t>
-  </si>
-  <si>
-    <t>Format of the sampling time (UTC) column in project file (e.g. hhmmss)</t>
-  </si>
-  <si>
-    <t>Name of the sample volume analyzed column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the sample volume analyzed column in project file</t>
-  </si>
-  <si>
-    <t>Name of the dilution factor column in project file</t>
-  </si>
-  <si>
-    <t>Name of the region of interest (ROI) ID column in project file</t>
-  </si>
-  <si>
-    <t>Name of the equivalent spherical diameter column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the equivalent spherical diameter column in project file</t>
-  </si>
-  <si>
-    <t>Name of the biovolume column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the biovolume column in project file</t>
-  </si>
-  <si>
-    <t>Name of the area column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the area column in project file</t>
-  </si>
-  <si>
-    <t>Name of the minor ellipsoidal axis column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the minor ellipsoidal axis column in project file</t>
-  </si>
-  <si>
-    <t>Name of the pixel conversion factor column in project file</t>
-  </si>
-  <si>
-    <t>Unit of the pixel conversion factor column in project file</t>
-  </si>
-  <si>
-    <t>Name of the category ID column in project file</t>
-  </si>
-  <si>
-    <t>Name of the annotation status column in project file (e.g predicted, validated)</t>
-  </si>
-  <si>
-    <t>Path of the file containing the ID of flagged samples to be removed from standardized project. Automatic flagging available in funcs_project_standardizer.py</t>
-  </si>
-  <si>
-    <t>Character for missing values</t>
-  </si>
-  <si>
-    <t>ID of corresponding EcoPart project(s) (*UVP-only). Use comma to separate multiple projects</t>
-  </si>
-  <si>
-    <t>Name of the sampling type column in project file (e.g. platform, gear, strategy). Used to describe the sampling method</t>
-  </si>
-  <si>
-    <t>Name of the smallest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
-  </si>
-  <si>
-    <t>Unit of the smallest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
-  </si>
-  <si>
-    <t>Name of the largest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
-  </si>
-  <si>
-    <t>Unit of the largest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
-  </si>
-  <si>
-    <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
   </si>
 </sst>
 </file>
@@ -935,11 +935,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AK47"/>
+    <sheetView tabSelected="1" topLeftCell="AE32" workbookViewId="0">
+      <selection activeCell="AK47" sqref="AK2:AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="50" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1086,85 +1132,85 @@
         <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>93</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
       <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" t="s">
         <v>96</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
         <v>97</v>
       </c>
-      <c r="L2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" t="s">
-        <v>98</v>
-      </c>
       <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
         <v>99</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" t="s">
         <v>100</v>
       </c>
-      <c r="P2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>101</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>102</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>103</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>104</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>105</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>106</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>108</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>110</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>111</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>113</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
@@ -1175,85 +1221,85 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
       <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
         <v>96</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" t="s">
         <v>97</v>
       </c>
-      <c r="L3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
       <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
         <v>99</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" t="s">
         <v>100</v>
       </c>
-      <c r="P3" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>101</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>102</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>103</v>
       </c>
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>104</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>105</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>106</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>108</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>110</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>111</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>113</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.2">
@@ -1264,85 +1310,85 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>93</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>94</v>
       </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
       <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s">
         <v>96</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" t="s">
         <v>97</v>
       </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>98</v>
-      </c>
       <c r="N4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" t="s">
         <v>99</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" t="s">
         <v>100</v>
       </c>
-      <c r="P4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>101</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>102</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>103</v>
       </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>104</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>106</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>107</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>108</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>109</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>110</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>111</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>112</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>113</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
@@ -1353,85 +1399,85 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>93</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>94</v>
       </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
       <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s">
         <v>96</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s">
         <v>97</v>
       </c>
-      <c r="L5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
       <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" t="s">
         <v>99</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" t="s">
         <v>100</v>
       </c>
-      <c r="P5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>101</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>102</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>103</v>
       </c>
-      <c r="T5" t="s">
+      <c r="X5" t="s">
         <v>104</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>105</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>106</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>107</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>108</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>109</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>110</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>111</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>112</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>113</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.2">
@@ -1442,85 +1488,85 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>93</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>94</v>
       </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
       <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" t="s">
         <v>96</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" t="s">
         <v>97</v>
       </c>
-      <c r="L6" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" t="s">
-        <v>98</v>
-      </c>
       <c r="N6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" t="s">
         <v>99</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" t="s">
         <v>100</v>
       </c>
-      <c r="P6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>101</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>102</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>103</v>
       </c>
-      <c r="T6" t="s">
+      <c r="X6" t="s">
         <v>104</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>105</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>106</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>107</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>108</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>109</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>110</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>111</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>112</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>113</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
@@ -1531,85 +1577,85 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>92</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>93</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
       <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
         <v>97</v>
       </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" t="s">
-        <v>98</v>
-      </c>
       <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
         <v>99</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" t="s">
         <v>100</v>
       </c>
-      <c r="P7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>101</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>102</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>103</v>
       </c>
-      <c r="T7" t="s">
+      <c r="X7" t="s">
         <v>104</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>105</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>106</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>107</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>108</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>109</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>110</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>111</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>112</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>113</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
@@ -1620,85 +1666,85 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>93</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>94</v>
       </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
       <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" t="s">
-        <v>98</v>
-      </c>
       <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
         <v>99</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" t="s">
         <v>100</v>
       </c>
-      <c r="P8" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>101</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>102</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>103</v>
       </c>
-      <c r="T8" t="s">
+      <c r="X8" t="s">
         <v>104</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>106</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>107</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>108</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>109</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>110</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>111</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>112</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>113</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
@@ -1709,85 +1755,85 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>93</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>94</v>
       </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
       <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="s">
         <v>97</v>
       </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="s">
-        <v>98</v>
-      </c>
       <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
         <v>99</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" t="s">
         <v>100</v>
       </c>
-      <c r="P9" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>101</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>102</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>103</v>
       </c>
-      <c r="T9" t="s">
+      <c r="X9" t="s">
         <v>104</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>105</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>106</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>107</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>108</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>109</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>110</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>111</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>112</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>113</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
@@ -1798,85 +1844,85 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>93</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" t="s">
-        <v>95</v>
-      </c>
       <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
         <v>96</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="s">
         <v>97</v>
       </c>
-      <c r="L10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" t="s">
-        <v>98</v>
-      </c>
       <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
         <v>99</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" t="s">
         <v>100</v>
       </c>
-      <c r="P10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>101</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>102</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>103</v>
       </c>
-      <c r="T10" t="s">
+      <c r="X10" t="s">
         <v>104</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AA10" t="s">
         <v>105</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>106</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>107</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>108</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>109</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>110</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>111</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>112</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>113</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
@@ -1887,85 +1933,85 @@
         <v>54</v>
       </c>
       <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>93</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>94</v>
       </c>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
       <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
         <v>96</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" t="s">
         <v>97</v>
       </c>
-      <c r="L11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" t="s">
-        <v>98</v>
-      </c>
       <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
         <v>99</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" t="s">
         <v>100</v>
       </c>
-      <c r="P11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>101</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>102</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>103</v>
       </c>
-      <c r="T11" t="s">
+      <c r="X11" t="s">
         <v>104</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
         <v>105</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>106</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>107</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>108</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>109</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>110</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>111</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>112</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>113</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
@@ -1976,85 +2022,85 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>93</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>94</v>
       </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
       <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
         <v>96</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
         <v>97</v>
       </c>
-      <c r="L12" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" t="s">
-        <v>98</v>
-      </c>
       <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
         <v>99</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" t="s">
         <v>100</v>
       </c>
-      <c r="P12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>101</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>102</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>103</v>
       </c>
-      <c r="T12" t="s">
+      <c r="X12" t="s">
         <v>104</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AA12" t="s">
         <v>105</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>106</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>107</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>108</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>109</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>110</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>111</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>112</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>113</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.2">
@@ -2065,85 +2111,85 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>92</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>93</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>94</v>
       </c>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
       <c r="J13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" t="s">
         <v>96</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" t="s">
         <v>97</v>
       </c>
-      <c r="L13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" t="s">
-        <v>98</v>
-      </c>
       <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
         <v>99</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" t="s">
         <v>100</v>
       </c>
-      <c r="P13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>101</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>102</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>103</v>
       </c>
-      <c r="T13" t="s">
+      <c r="X13" t="s">
         <v>104</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AA13" t="s">
         <v>105</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>106</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>107</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>108</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>109</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>110</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>111</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>112</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>113</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.2">
@@ -2154,85 +2200,85 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" t="s">
         <v>91</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>93</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
       <c r="J14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" t="s">
         <v>96</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" t="s">
         <v>97</v>
       </c>
-      <c r="L14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" t="s">
-        <v>98</v>
-      </c>
       <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
         <v>99</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" t="s">
         <v>100</v>
       </c>
-      <c r="P14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>101</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>102</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>103</v>
       </c>
-      <c r="T14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AA14" t="s">
         <v>105</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>106</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>107</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>108</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>109</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>110</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>111</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>112</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>113</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
@@ -2243,85 +2289,85 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>93</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>94</v>
       </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
       <c r="J15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" t="s">
         <v>96</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" t="s">
         <v>97</v>
       </c>
-      <c r="L15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" t="s">
-        <v>98</v>
-      </c>
       <c r="N15" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" t="s">
         <v>99</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" t="s">
         <v>100</v>
       </c>
-      <c r="P15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>101</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>102</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>103</v>
       </c>
-      <c r="T15" t="s">
+      <c r="X15" t="s">
         <v>104</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AA15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>106</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>107</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>108</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>109</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>110</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>111</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>112</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>113</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
@@ -2332,85 +2378,85 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>93</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>94</v>
       </c>
-      <c r="I16" t="s">
-        <v>95</v>
-      </c>
       <c r="J16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" t="s">
         <v>96</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
         <v>97</v>
       </c>
-      <c r="L16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" t="s">
-        <v>98</v>
-      </c>
       <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
         <v>99</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" t="s">
         <v>100</v>
       </c>
-      <c r="P16" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>101</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>102</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>103</v>
       </c>
-      <c r="T16" t="s">
+      <c r="X16" t="s">
         <v>104</v>
       </c>
-      <c r="X16" t="s">
+      <c r="AA16" t="s">
         <v>105</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>106</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>107</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>108</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>109</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>110</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>111</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>112</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>113</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
@@ -2421,85 +2467,85 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>93</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
       <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" t="s">
         <v>96</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" t="s">
         <v>97</v>
       </c>
-      <c r="L17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" t="s">
-        <v>98</v>
-      </c>
       <c r="N17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" t="s">
         <v>99</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" t="s">
         <v>100</v>
       </c>
-      <c r="P17" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>101</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>102</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>103</v>
       </c>
-      <c r="T17" t="s">
+      <c r="X17" t="s">
         <v>104</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AA17" t="s">
         <v>105</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>106</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>107</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>108</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>109</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>110</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>111</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>112</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>113</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.2">
@@ -2510,85 +2556,85 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
         <v>91</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>92</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>93</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>94</v>
       </c>
-      <c r="I18" t="s">
-        <v>95</v>
-      </c>
       <c r="J18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" t="s">
         <v>96</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" t="s">
         <v>97</v>
       </c>
-      <c r="L18" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" t="s">
-        <v>98</v>
-      </c>
       <c r="N18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" t="s">
         <v>99</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" t="s">
         <v>100</v>
       </c>
-      <c r="P18" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>101</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>102</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>103</v>
       </c>
-      <c r="T18" t="s">
+      <c r="X18" t="s">
         <v>104</v>
       </c>
-      <c r="X18" t="s">
+      <c r="AA18" t="s">
         <v>105</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>106</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>107</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>108</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>109</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>110</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>111</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>112</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>113</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -2599,85 +2645,85 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>93</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>94</v>
       </c>
-      <c r="I19" t="s">
-        <v>95</v>
-      </c>
       <c r="J19" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" t="s">
         <v>96</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" t="s">
         <v>97</v>
       </c>
-      <c r="L19" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" t="s">
-        <v>98</v>
-      </c>
       <c r="N19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" t="s">
         <v>99</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" t="s">
         <v>100</v>
       </c>
-      <c r="P19" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>101</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>102</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>103</v>
       </c>
-      <c r="T19" t="s">
+      <c r="X19" t="s">
         <v>104</v>
       </c>
-      <c r="X19" t="s">
+      <c r="AA19" t="s">
         <v>105</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>106</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>108</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>109</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>110</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>111</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>112</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>113</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.2">
@@ -2688,85 +2734,85 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>92</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>93</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>94</v>
       </c>
-      <c r="I20" t="s">
-        <v>95</v>
-      </c>
       <c r="J20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" t="s">
         <v>96</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" t="s">
         <v>97</v>
       </c>
-      <c r="L20" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" t="s">
-        <v>98</v>
-      </c>
       <c r="N20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" t="s">
         <v>99</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" t="s">
         <v>100</v>
       </c>
-      <c r="P20" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>101</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>102</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>103</v>
       </c>
-      <c r="T20" t="s">
+      <c r="X20" t="s">
         <v>104</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AA20" t="s">
         <v>105</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>106</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>107</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>109</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>110</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>111</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>112</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>113</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.2">
@@ -2777,85 +2823,85 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>93</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>94</v>
       </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
       <c r="J21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s">
         <v>96</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21" t="s">
         <v>97</v>
       </c>
-      <c r="L21" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" t="s">
-        <v>98</v>
-      </c>
       <c r="N21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" t="s">
         <v>99</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21" t="s">
         <v>100</v>
       </c>
-      <c r="P21" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>101</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>102</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>103</v>
       </c>
-      <c r="T21" t="s">
+      <c r="X21" t="s">
         <v>104</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AA21" t="s">
         <v>105</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>106</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>108</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>110</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>111</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>112</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>113</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
@@ -2866,85 +2912,85 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>94</v>
       </c>
-      <c r="I22" t="s">
-        <v>95</v>
-      </c>
       <c r="J22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" t="s">
         <v>96</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" t="s">
         <v>97</v>
       </c>
-      <c r="L22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" t="s">
-        <v>98</v>
-      </c>
       <c r="N22" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" t="s">
         <v>99</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" t="s">
         <v>100</v>
       </c>
-      <c r="P22" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>101</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>102</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>103</v>
       </c>
-      <c r="T22" t="s">
+      <c r="X22" t="s">
         <v>104</v>
       </c>
-      <c r="X22" t="s">
+      <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>107</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>108</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>109</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>110</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>111</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>112</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>113</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.2">
@@ -2955,85 +3001,85 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>93</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>94</v>
       </c>
-      <c r="I23" t="s">
-        <v>95</v>
-      </c>
       <c r="J23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" t="s">
         <v>96</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" t="s">
         <v>97</v>
       </c>
-      <c r="L23" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" t="s">
-        <v>98</v>
-      </c>
       <c r="N23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" t="s">
         <v>99</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" t="s">
         <v>100</v>
       </c>
-      <c r="P23" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>101</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>102</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>103</v>
       </c>
-      <c r="T23" t="s">
+      <c r="X23" t="s">
         <v>104</v>
       </c>
-      <c r="X23" t="s">
+      <c r="AA23" t="s">
         <v>105</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>106</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>107</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>109</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>110</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>111</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>112</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>113</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.2">
@@ -3044,85 +3090,85 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>93</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>94</v>
       </c>
-      <c r="I24" t="s">
-        <v>95</v>
-      </c>
       <c r="J24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24" t="s">
         <v>96</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" t="s">
         <v>97</v>
       </c>
-      <c r="L24" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" t="s">
-        <v>98</v>
-      </c>
       <c r="N24" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" t="s">
         <v>99</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q24" t="s">
         <v>100</v>
       </c>
-      <c r="P24" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>101</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>102</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>103</v>
       </c>
-      <c r="T24" t="s">
+      <c r="X24" t="s">
         <v>104</v>
       </c>
-      <c r="X24" t="s">
+      <c r="AA24" t="s">
         <v>105</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>106</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>107</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>108</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>109</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>110</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>111</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>112</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>113</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.2">
@@ -3133,85 +3179,85 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" t="s">
         <v>91</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>92</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>93</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>94</v>
       </c>
-      <c r="I25" t="s">
-        <v>95</v>
-      </c>
       <c r="J25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" t="s">
         <v>96</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="L25" t="s">
-        <v>96</v>
-      </c>
-      <c r="M25" t="s">
-        <v>98</v>
-      </c>
       <c r="N25" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" t="s">
         <v>99</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" t="s">
         <v>100</v>
       </c>
-      <c r="P25" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>101</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>102</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>103</v>
       </c>
-      <c r="T25" t="s">
+      <c r="X25" t="s">
         <v>104</v>
       </c>
-      <c r="X25" t="s">
+      <c r="AA25" t="s">
         <v>105</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>107</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>108</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>109</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>110</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>111</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>112</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>113</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.2">
@@ -3222,85 +3268,85 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
         <v>91</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>92</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>93</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>94</v>
       </c>
-      <c r="I26" t="s">
-        <v>95</v>
-      </c>
       <c r="J26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" t="s">
         <v>96</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" t="s">
         <v>97</v>
       </c>
-      <c r="L26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" t="s">
-        <v>98</v>
-      </c>
       <c r="N26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" t="s">
         <v>99</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" t="s">
         <v>100</v>
       </c>
-      <c r="P26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>101</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>102</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>103</v>
       </c>
-      <c r="T26" t="s">
+      <c r="X26" t="s">
         <v>104</v>
       </c>
-      <c r="X26" t="s">
+      <c r="AA26" t="s">
         <v>105</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>106</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>107</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>110</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>111</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>112</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>113</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
@@ -3311,85 +3357,85 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
         <v>91</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>92</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>93</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" t="s">
-        <v>95</v>
-      </c>
       <c r="J27" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" t="s">
         <v>96</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" t="s">
         <v>97</v>
       </c>
-      <c r="L27" t="s">
-        <v>96</v>
-      </c>
-      <c r="M27" t="s">
-        <v>98</v>
-      </c>
       <c r="N27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" t="s">
         <v>99</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q27" t="s">
         <v>100</v>
       </c>
-      <c r="P27" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>101</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>102</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>103</v>
       </c>
-      <c r="T27" t="s">
+      <c r="X27" t="s">
         <v>104</v>
       </c>
-      <c r="X27" t="s">
+      <c r="AA27" t="s">
         <v>105</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>106</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>107</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>108</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>109</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>110</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>111</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>112</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>113</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
@@ -3400,85 +3446,85 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
         <v>91</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>93</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>94</v>
       </c>
-      <c r="I28" t="s">
-        <v>95</v>
-      </c>
       <c r="J28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28" t="s">
         <v>96</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" t="s">
         <v>97</v>
       </c>
-      <c r="L28" t="s">
-        <v>96</v>
-      </c>
-      <c r="M28" t="s">
-        <v>98</v>
-      </c>
       <c r="N28" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" t="s">
         <v>99</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" t="s">
         <v>100</v>
       </c>
-      <c r="P28" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>101</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>102</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>103</v>
       </c>
-      <c r="T28" t="s">
+      <c r="X28" t="s">
         <v>104</v>
       </c>
-      <c r="X28" t="s">
+      <c r="AA28" t="s">
         <v>105</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>106</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>107</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>108</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>109</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>110</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>111</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>112</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>113</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
@@ -3489,85 +3535,85 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>92</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>93</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>94</v>
       </c>
-      <c r="I29" t="s">
-        <v>95</v>
-      </c>
       <c r="J29" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" t="s">
         <v>96</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29" t="s">
         <v>97</v>
       </c>
-      <c r="L29" t="s">
-        <v>96</v>
-      </c>
-      <c r="M29" t="s">
-        <v>98</v>
-      </c>
       <c r="N29" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" t="s">
         <v>99</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" t="s">
         <v>100</v>
       </c>
-      <c r="P29" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>101</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>102</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>103</v>
       </c>
-      <c r="T29" t="s">
+      <c r="X29" t="s">
         <v>104</v>
       </c>
-      <c r="X29" t="s">
+      <c r="AA29" t="s">
         <v>105</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>106</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>107</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>108</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>109</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>110</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>111</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>112</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
         <v>113</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AJ29" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.2">
@@ -3578,85 +3624,85 @@
         <v>73</v>
       </c>
       <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>93</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>94</v>
       </c>
-      <c r="I30" t="s">
-        <v>95</v>
-      </c>
       <c r="J30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" t="s">
         <v>96</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M30" t="s">
         <v>97</v>
       </c>
-      <c r="L30" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" t="s">
-        <v>98</v>
-      </c>
       <c r="N30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" t="s">
         <v>99</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" t="s">
         <v>100</v>
       </c>
-      <c r="P30" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>101</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>102</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>103</v>
       </c>
-      <c r="T30" t="s">
+      <c r="X30" t="s">
         <v>104</v>
       </c>
-      <c r="X30" t="s">
+      <c r="AA30" t="s">
         <v>105</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>106</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>107</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>108</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>109</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>110</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>111</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AH30" t="s">
         <v>112</v>
       </c>
-      <c r="AH30" t="s">
+      <c r="AI30" t="s">
         <v>113</v>
       </c>
-      <c r="AI30" t="s">
+      <c r="AJ30" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
@@ -3667,85 +3713,85 @@
         <v>74</v>
       </c>
       <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" t="s">
         <v>91</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>93</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>94</v>
       </c>
-      <c r="I31" t="s">
-        <v>95</v>
-      </c>
       <c r="J31" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" t="s">
         <v>96</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" t="s">
         <v>97</v>
       </c>
-      <c r="L31" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" t="s">
-        <v>98</v>
-      </c>
       <c r="N31" t="s">
+        <v>98</v>
+      </c>
+      <c r="O31" t="s">
         <v>99</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31" t="s">
         <v>100</v>
       </c>
-      <c r="P31" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>101</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>102</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>103</v>
       </c>
-      <c r="T31" t="s">
+      <c r="X31" t="s">
         <v>104</v>
       </c>
-      <c r="X31" t="s">
+      <c r="AA31" t="s">
         <v>105</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>106</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>107</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>108</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>109</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AF31" t="s">
         <v>110</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>111</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AH31" t="s">
         <v>112</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
         <v>113</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AJ31" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
@@ -3756,85 +3802,85 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" t="s">
         <v>91</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>92</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>93</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>94</v>
       </c>
-      <c r="I32" t="s">
-        <v>95</v>
-      </c>
       <c r="J32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s">
         <v>96</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" t="s">
         <v>97</v>
       </c>
-      <c r="L32" t="s">
-        <v>96</v>
-      </c>
-      <c r="M32" t="s">
-        <v>98</v>
-      </c>
       <c r="N32" t="s">
+        <v>98</v>
+      </c>
+      <c r="O32" t="s">
         <v>99</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q32" t="s">
         <v>100</v>
       </c>
-      <c r="P32" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>101</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>102</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>103</v>
       </c>
-      <c r="T32" t="s">
+      <c r="X32" t="s">
         <v>104</v>
       </c>
-      <c r="X32" t="s">
+      <c r="AA32" t="s">
         <v>105</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>106</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>107</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>108</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>109</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>110</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>111</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
         <v>112</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="AI32" t="s">
         <v>113</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AJ32" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
@@ -3845,85 +3891,85 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>92</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>93</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>94</v>
       </c>
-      <c r="I33" t="s">
-        <v>95</v>
-      </c>
       <c r="J33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" t="s">
         <v>96</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
+        <v>95</v>
+      </c>
+      <c r="M33" t="s">
         <v>97</v>
       </c>
-      <c r="L33" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" t="s">
-        <v>98</v>
-      </c>
       <c r="N33" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" t="s">
         <v>99</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" t="s">
         <v>100</v>
       </c>
-      <c r="P33" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>101</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>102</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>103</v>
       </c>
-      <c r="T33" t="s">
+      <c r="X33" t="s">
         <v>104</v>
       </c>
-      <c r="X33" t="s">
+      <c r="AA33" t="s">
         <v>105</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>106</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>107</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>108</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>109</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>110</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
         <v>112</v>
       </c>
-      <c r="AH33" t="s">
+      <c r="AI33" t="s">
         <v>113</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AJ33" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
@@ -3934,85 +3980,85 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>92</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>93</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>94</v>
       </c>
-      <c r="I34" t="s">
-        <v>95</v>
-      </c>
       <c r="J34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" t="s">
         <v>96</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" t="s">
         <v>97</v>
       </c>
-      <c r="L34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" t="s">
-        <v>98</v>
-      </c>
       <c r="N34" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" t="s">
         <v>99</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" t="s">
         <v>100</v>
       </c>
-      <c r="P34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>101</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>102</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>103</v>
       </c>
-      <c r="T34" t="s">
+      <c r="X34" t="s">
         <v>104</v>
       </c>
-      <c r="X34" t="s">
+      <c r="AA34" t="s">
         <v>105</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>106</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>107</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>108</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>109</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>110</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AH34" t="s">
         <v>112</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AI34" t="s">
         <v>113</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AJ34" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.2">
@@ -4023,85 +4069,85 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>92</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>93</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>94</v>
       </c>
-      <c r="I35" t="s">
-        <v>95</v>
-      </c>
       <c r="J35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" t="s">
         <v>96</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M35" t="s">
         <v>97</v>
       </c>
-      <c r="L35" t="s">
-        <v>96</v>
-      </c>
-      <c r="M35" t="s">
-        <v>98</v>
-      </c>
       <c r="N35" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" t="s">
         <v>99</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" t="s">
         <v>100</v>
       </c>
-      <c r="P35" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>101</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>102</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>103</v>
       </c>
-      <c r="T35" t="s">
+      <c r="X35" t="s">
         <v>104</v>
       </c>
-      <c r="X35" t="s">
+      <c r="AA35" t="s">
         <v>105</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>106</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>107</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>108</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>109</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>110</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>111</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AH35" t="s">
         <v>112</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
         <v>113</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AJ35" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.2">
@@ -4112,85 +4158,85 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" t="s">
         <v>91</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>92</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>93</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>94</v>
       </c>
-      <c r="I36" t="s">
-        <v>95</v>
-      </c>
       <c r="J36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" t="s">
         <v>96</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
+        <v>95</v>
+      </c>
+      <c r="M36" t="s">
         <v>97</v>
       </c>
-      <c r="L36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M36" t="s">
-        <v>98</v>
-      </c>
       <c r="N36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" t="s">
         <v>99</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q36" t="s">
         <v>100</v>
       </c>
-      <c r="P36" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>101</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>102</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>103</v>
       </c>
-      <c r="T36" t="s">
+      <c r="X36" t="s">
         <v>104</v>
       </c>
-      <c r="X36" t="s">
+      <c r="AA36" t="s">
         <v>105</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
         <v>106</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>107</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>108</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>109</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
         <v>110</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AH36" t="s">
         <v>112</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AI36" t="s">
         <v>113</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AJ36" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.2">
@@ -4201,85 +4247,85 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" t="s">
         <v>91</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>92</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>93</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>94</v>
       </c>
-      <c r="I37" t="s">
-        <v>95</v>
-      </c>
       <c r="J37" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" t="s">
         <v>96</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
+        <v>95</v>
+      </c>
+      <c r="M37" t="s">
         <v>97</v>
       </c>
-      <c r="L37" t="s">
-        <v>96</v>
-      </c>
-      <c r="M37" t="s">
-        <v>98</v>
-      </c>
       <c r="N37" t="s">
+        <v>98</v>
+      </c>
+      <c r="O37" t="s">
         <v>99</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37" t="s">
         <v>100</v>
       </c>
-      <c r="P37" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>101</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>102</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>103</v>
       </c>
-      <c r="T37" t="s">
+      <c r="X37" t="s">
         <v>104</v>
       </c>
-      <c r="X37" t="s">
+      <c r="AA37" t="s">
         <v>105</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>106</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>107</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>108</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>109</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AF37" t="s">
         <v>110</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>111</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AH37" t="s">
         <v>112</v>
       </c>
-      <c r="AH37" t="s">
+      <c r="AI37" t="s">
         <v>113</v>
       </c>
-      <c r="AI37" t="s">
+      <c r="AJ37" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
@@ -4290,85 +4336,85 @@
         <v>81</v>
       </c>
       <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
         <v>91</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>92</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>93</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>94</v>
       </c>
-      <c r="I38" t="s">
-        <v>95</v>
-      </c>
       <c r="J38" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38" t="s">
         <v>96</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>95</v>
+      </c>
+      <c r="M38" t="s">
         <v>97</v>
       </c>
-      <c r="L38" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" t="s">
-        <v>98</v>
-      </c>
       <c r="N38" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" t="s">
         <v>99</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" t="s">
         <v>100</v>
       </c>
-      <c r="P38" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>101</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>102</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>103</v>
       </c>
-      <c r="T38" t="s">
+      <c r="X38" t="s">
         <v>104</v>
       </c>
-      <c r="X38" t="s">
+      <c r="AA38" t="s">
         <v>105</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>106</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>107</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>108</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>109</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AF38" t="s">
         <v>110</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
         <v>111</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AH38" t="s">
         <v>112</v>
       </c>
-      <c r="AH38" t="s">
+      <c r="AI38" t="s">
         <v>113</v>
       </c>
-      <c r="AI38" t="s">
+      <c r="AJ38" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
@@ -4379,85 +4425,85 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" t="s">
         <v>91</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>92</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>93</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>94</v>
       </c>
-      <c r="I39" t="s">
-        <v>95</v>
-      </c>
       <c r="J39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39" t="s">
         <v>96</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
+        <v>95</v>
+      </c>
+      <c r="M39" t="s">
         <v>97</v>
       </c>
-      <c r="L39" t="s">
-        <v>96</v>
-      </c>
-      <c r="M39" t="s">
-        <v>98</v>
-      </c>
       <c r="N39" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" t="s">
         <v>99</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" t="s">
         <v>100</v>
       </c>
-      <c r="P39" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>101</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>102</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>103</v>
       </c>
-      <c r="T39" t="s">
+      <c r="X39" t="s">
         <v>104</v>
       </c>
-      <c r="X39" t="s">
+      <c r="AA39" t="s">
         <v>105</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>106</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>107</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>108</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>109</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
         <v>110</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AG39" t="s">
         <v>111</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AH39" t="s">
         <v>112</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AI39" t="s">
         <v>113</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AJ39" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.2">
@@ -4468,85 +4514,85 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" t="s">
         <v>91</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>92</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>93</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>94</v>
       </c>
-      <c r="I40" t="s">
-        <v>95</v>
-      </c>
       <c r="J40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" t="s">
         <v>96</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>95</v>
+      </c>
+      <c r="M40" t="s">
         <v>97</v>
       </c>
-      <c r="L40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" t="s">
-        <v>98</v>
-      </c>
       <c r="N40" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" t="s">
         <v>99</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40" t="s">
         <v>100</v>
       </c>
-      <c r="P40" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>101</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>102</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>103</v>
       </c>
-      <c r="T40" t="s">
+      <c r="X40" t="s">
         <v>104</v>
       </c>
-      <c r="X40" t="s">
+      <c r="AA40" t="s">
         <v>105</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>106</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>107</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD40" t="s">
         <v>108</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>109</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
         <v>110</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AG40" t="s">
         <v>111</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AH40" t="s">
         <v>112</v>
       </c>
-      <c r="AH40" t="s">
+      <c r="AI40" t="s">
         <v>113</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AJ40" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
@@ -4557,85 +4603,85 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" t="s">
         <v>91</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>92</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>93</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>94</v>
       </c>
-      <c r="I41" t="s">
-        <v>95</v>
-      </c>
       <c r="J41" t="s">
+        <v>95</v>
+      </c>
+      <c r="K41" t="s">
         <v>96</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" t="s">
         <v>97</v>
       </c>
-      <c r="L41" t="s">
-        <v>96</v>
-      </c>
-      <c r="M41" t="s">
-        <v>98</v>
-      </c>
       <c r="N41" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" t="s">
         <v>99</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41" t="s">
         <v>100</v>
       </c>
-      <c r="P41" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>101</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>102</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>103</v>
       </c>
-      <c r="T41" t="s">
+      <c r="X41" t="s">
         <v>104</v>
       </c>
-      <c r="X41" t="s">
+      <c r="AA41" t="s">
         <v>105</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>106</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>107</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AD41" t="s">
         <v>108</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AE41" t="s">
         <v>109</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AF41" t="s">
         <v>110</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AG41" t="s">
         <v>111</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AH41" t="s">
         <v>112</v>
       </c>
-      <c r="AH41" t="s">
+      <c r="AI41" t="s">
         <v>113</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="AJ41" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
@@ -4646,85 +4692,85 @@
         <v>85</v>
       </c>
       <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
         <v>91</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>92</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>93</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>94</v>
       </c>
-      <c r="I42" t="s">
-        <v>95</v>
-      </c>
       <c r="J42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K42" t="s">
         <v>96</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M42" t="s">
         <v>97</v>
       </c>
-      <c r="L42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42" t="s">
-        <v>98</v>
-      </c>
       <c r="N42" t="s">
+        <v>98</v>
+      </c>
+      <c r="O42" t="s">
         <v>99</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q42" t="s">
         <v>100</v>
       </c>
-      <c r="P42" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>101</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>102</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>103</v>
       </c>
-      <c r="T42" t="s">
+      <c r="X42" t="s">
         <v>104</v>
       </c>
-      <c r="X42" t="s">
+      <c r="AA42" t="s">
         <v>105</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>106</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>107</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>108</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>109</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
         <v>110</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AG42" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AH42" t="s">
         <v>112</v>
       </c>
-      <c r="AH42" t="s">
+      <c r="AI42" t="s">
         <v>113</v>
       </c>
-      <c r="AI42" t="s">
+      <c r="AJ42" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
@@ -4735,85 +4781,85 @@
         <v>86</v>
       </c>
       <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>92</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>93</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>94</v>
       </c>
-      <c r="I43" t="s">
-        <v>95</v>
-      </c>
       <c r="J43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43" t="s">
         <v>96</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>95</v>
+      </c>
+      <c r="M43" t="s">
         <v>97</v>
       </c>
-      <c r="L43" t="s">
-        <v>96</v>
-      </c>
-      <c r="M43" t="s">
-        <v>98</v>
-      </c>
       <c r="N43" t="s">
+        <v>98</v>
+      </c>
+      <c r="O43" t="s">
         <v>99</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q43" t="s">
         <v>100</v>
       </c>
-      <c r="P43" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>101</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>102</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>103</v>
       </c>
-      <c r="T43" t="s">
+      <c r="X43" t="s">
         <v>104</v>
       </c>
-      <c r="X43" t="s">
+      <c r="AA43" t="s">
         <v>105</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>106</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>107</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD43" t="s">
         <v>108</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AF43" t="s">
         <v>110</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AG43" t="s">
         <v>111</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AH43" t="s">
         <v>112</v>
       </c>
-      <c r="AH43" t="s">
+      <c r="AI43" t="s">
         <v>113</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="AJ43" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
@@ -4824,85 +4870,85 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>92</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>93</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>94</v>
       </c>
-      <c r="I44" t="s">
-        <v>95</v>
-      </c>
       <c r="J44" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" t="s">
         <v>96</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M44" t="s">
         <v>97</v>
       </c>
-      <c r="L44" t="s">
-        <v>96</v>
-      </c>
-      <c r="M44" t="s">
-        <v>98</v>
-      </c>
       <c r="N44" t="s">
+        <v>98</v>
+      </c>
+      <c r="O44" t="s">
         <v>99</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q44" t="s">
         <v>100</v>
       </c>
-      <c r="P44" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>101</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>102</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>103</v>
       </c>
-      <c r="T44" t="s">
+      <c r="X44" t="s">
         <v>104</v>
       </c>
-      <c r="X44" t="s">
+      <c r="AA44" t="s">
         <v>105</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>106</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AC44" t="s">
         <v>107</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AD44" t="s">
         <v>108</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>109</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
         <v>110</v>
       </c>
-      <c r="AF44" t="s">
+      <c r="AG44" t="s">
         <v>111</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AH44" t="s">
         <v>112</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AI44" t="s">
         <v>113</v>
       </c>
-      <c r="AI44" t="s">
+      <c r="AJ44" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
@@ -4913,85 +4959,85 @@
         <v>88</v>
       </c>
       <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
         <v>91</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>92</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>93</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>94</v>
       </c>
-      <c r="I45" t="s">
-        <v>95</v>
-      </c>
       <c r="J45" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45" t="s">
         <v>96</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M45" t="s">
         <v>97</v>
       </c>
-      <c r="L45" t="s">
-        <v>96</v>
-      </c>
-      <c r="M45" t="s">
-        <v>98</v>
-      </c>
       <c r="N45" t="s">
+        <v>98</v>
+      </c>
+      <c r="O45" t="s">
         <v>99</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q45" t="s">
         <v>100</v>
       </c>
-      <c r="P45" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>101</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>102</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>103</v>
       </c>
-      <c r="T45" t="s">
+      <c r="X45" t="s">
         <v>104</v>
       </c>
-      <c r="X45" t="s">
+      <c r="AA45" t="s">
         <v>105</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>106</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AC45" t="s">
         <v>107</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AD45" t="s">
         <v>108</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" t="s">
         <v>109</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
         <v>110</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AG45" t="s">
         <v>111</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AH45" t="s">
         <v>112</v>
       </c>
-      <c r="AH45" t="s">
+      <c r="AI45" t="s">
         <v>113</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AJ45" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
@@ -5002,85 +5048,85 @@
         <v>89</v>
       </c>
       <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
         <v>91</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>92</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>93</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>94</v>
       </c>
-      <c r="I46" t="s">
-        <v>95</v>
-      </c>
       <c r="J46" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46" t="s">
         <v>96</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
+        <v>95</v>
+      </c>
+      <c r="M46" t="s">
         <v>97</v>
       </c>
-      <c r="L46" t="s">
-        <v>96</v>
-      </c>
-      <c r="M46" t="s">
-        <v>98</v>
-      </c>
       <c r="N46" t="s">
+        <v>98</v>
+      </c>
+      <c r="O46" t="s">
         <v>99</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q46" t="s">
         <v>100</v>
       </c>
-      <c r="P46" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>101</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>102</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>103</v>
       </c>
-      <c r="T46" t="s">
+      <c r="X46" t="s">
         <v>104</v>
       </c>
-      <c r="X46" t="s">
+      <c r="AA46" t="s">
         <v>105</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>106</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AC46" t="s">
         <v>107</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AD46" t="s">
         <v>108</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>109</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>110</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AG46" t="s">
         <v>111</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AH46" t="s">
         <v>112</v>
       </c>
-      <c r="AH46" t="s">
+      <c r="AI46" t="s">
         <v>113</v>
       </c>
-      <c r="AI46" t="s">
+      <c r="AJ46" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.2">
@@ -5091,88 +5137,91 @@
         <v>90</v>
       </c>
       <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>92</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>93</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>94</v>
       </c>
-      <c r="I47" t="s">
-        <v>95</v>
-      </c>
       <c r="J47" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" t="s">
         <v>96</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>95</v>
+      </c>
+      <c r="M47" t="s">
         <v>97</v>
       </c>
-      <c r="L47" t="s">
-        <v>96</v>
-      </c>
-      <c r="M47" t="s">
-        <v>98</v>
-      </c>
       <c r="N47" t="s">
+        <v>98</v>
+      </c>
+      <c r="O47" t="s">
         <v>99</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q47" t="s">
         <v>100</v>
       </c>
-      <c r="P47" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>101</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>102</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>103</v>
       </c>
-      <c r="T47" t="s">
+      <c r="X47" t="s">
         <v>104</v>
       </c>
-      <c r="X47" t="s">
+      <c r="AA47" t="s">
         <v>105</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>106</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" t="s">
         <v>107</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AD47" t="s">
         <v>108</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AE47" t="s">
         <v>109</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AF47" t="s">
         <v>110</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AG47" t="s">
         <v>111</v>
       </c>
-      <c r="AG47" t="s">
+      <c r="AH47" t="s">
         <v>112</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AI47" t="s">
         <v>113</v>
       </c>
-      <c r="AI47" t="s">
+      <c r="AJ47" t="s">
         <v>114</v>
       </c>
-      <c r="AJ47" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AS47">
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -5235,13 +5284,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5249,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5260,10 +5309,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5271,10 +5320,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5282,10 +5331,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5293,10 +5342,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5304,10 +5353,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5315,10 +5364,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5326,10 +5375,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5337,10 +5386,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5348,10 +5397,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5359,10 +5408,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5370,10 +5419,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5381,10 +5430,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5392,10 +5441,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5403,10 +5452,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5414,10 +5463,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5425,10 +5474,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5436,10 +5485,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5447,10 +5496,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5458,10 +5507,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5469,10 +5518,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5480,10 +5529,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5491,10 +5540,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5502,10 +5551,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5513,10 +5562,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5524,10 +5573,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5535,10 +5584,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5546,10 +5595,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5557,10 +5606,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5568,10 +5617,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5579,10 +5628,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5590,10 +5639,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5601,10 +5650,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5612,10 +5661,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -5623,10 +5672,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5634,10 +5683,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5645,10 +5694,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -5656,10 +5705,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5667,10 +5716,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -5678,10 +5727,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5689,10 +5738,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -5700,10 +5749,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -5711,10 +5760,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -5722,10 +5771,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -5733,10 +5782,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35B1412-2113-9548-A077-C7EE18E61E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453BCA87-3B91-434D-A7F9-C6469E7F59D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="25040" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="3780" windowWidth="25040" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="228">
   <si>
     <t>Project_ID</t>
   </si>
@@ -519,13 +519,199 @@
   </si>
   <si>
     <t>~/GIT/PSSdb/raw/ecotaxa/IFCB</t>
+  </si>
+  <si>
+    <t>SPIROPA</t>
+  </si>
+  <si>
+    <t>WHOI_dock</t>
+  </si>
+  <si>
+    <t>EXPORTS</t>
+  </si>
+  <si>
+    <t>NAAMES</t>
+  </si>
+  <si>
+    <t>NESLTER_transect</t>
+  </si>
+  <si>
+    <t>arctic</t>
+  </si>
+  <si>
+    <t>SIO_Delmar_mooring</t>
+  </si>
+  <si>
+    <t>NESLTER_broadscale</t>
+  </si>
+  <si>
+    <t>IFCB14_dock_WHOI</t>
+  </si>
+  <si>
+    <t>gsodock</t>
+  </si>
+  <si>
+    <t>fiddlers</t>
+  </si>
+  <si>
+    <t>OTZ_Atlantic</t>
+  </si>
+  <si>
+    <t>mvco</t>
+  </si>
+  <si>
+    <t>NBP2202</t>
+  </si>
+  <si>
+    <t>san-francisco-pier-17</t>
+  </si>
+  <si>
+    <t>santa-cruz-municipal-wharf</t>
+  </si>
+  <si>
+    <t>scripps-pier</t>
+  </si>
+  <si>
+    <t>mbari-power-buoy</t>
+  </si>
+  <si>
+    <t>newport-beach-pier</t>
+  </si>
+  <si>
+    <t>stearns-wharf</t>
+  </si>
+  <si>
+    <t>del-mar-mooring</t>
+  </si>
+  <si>
+    <t>bodega-marine-lab</t>
+  </si>
+  <si>
+    <t>cal-poly-humboldt-hioc</t>
+  </si>
+  <si>
+    <t>https://ifcb-data.whoi.edu</t>
+  </si>
+  <si>
+    <t>https://ifcb.caloos.org/</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/SPIROPA</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/WHOI_dock</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/EXPORTS</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/NAAMES</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/NESLTER_transect</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/arctic</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/SIO_Delmar_mooring</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/NESLTER_broadscale</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/IFCB14_dock_WHOI</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/gsodock</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/fiddlers</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/OTZ_Atlantic</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/mvco</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/NBP2202</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/san-francisco-pier-17</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/santa-cruz-municipal-wharf</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/scripps-pier</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/mbari-power-buoy</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/newport-beach-pier</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/stearns-wharf</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/del-mar-mooring</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/bodega-marine-lab</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/cal-poly-humboldt-hioc</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>vol_analyzed</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>roi_number</t>
+  </si>
+  <si>
+    <t>EquivDiameter</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>Biovolume</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>MinorAxisLength</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +732,19 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -588,12 +787,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -933,17 +1138,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS47"/>
+  <dimension ref="A1:AS70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE32" workbookViewId="0">
-      <selection activeCell="AK47" sqref="AK2:AK47"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -5216,6 +5421,2260 @@
       </c>
       <c r="AJ47" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" t="s">
+        <v>214</v>
+      </c>
+      <c r="J48" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48" t="s">
+        <v>215</v>
+      </c>
+      <c r="L48" t="s">
+        <v>95</v>
+      </c>
+      <c r="M48" t="s">
+        <v>216</v>
+      </c>
+      <c r="N48" t="s">
+        <v>98</v>
+      </c>
+      <c r="O48" t="s">
+        <v>216</v>
+      </c>
+      <c r="P48" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>226</v>
+      </c>
+      <c r="R48" t="s">
+        <v>101</v>
+      </c>
+      <c r="S48" t="s">
+        <v>227</v>
+      </c>
+      <c r="T48" t="s">
+        <v>103</v>
+      </c>
+      <c r="U48" t="s">
+        <v>217</v>
+      </c>
+      <c r="V48" t="s">
+        <v>218</v>
+      </c>
+      <c r="X48" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE48" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" t="s">
+        <v>214</v>
+      </c>
+      <c r="J49" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49" t="s">
+        <v>215</v>
+      </c>
+      <c r="L49" t="s">
+        <v>95</v>
+      </c>
+      <c r="M49" t="s">
+        <v>216</v>
+      </c>
+      <c r="N49" t="s">
+        <v>98</v>
+      </c>
+      <c r="O49" t="s">
+        <v>216</v>
+      </c>
+      <c r="P49" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>226</v>
+      </c>
+      <c r="R49" t="s">
+        <v>101</v>
+      </c>
+      <c r="S49" t="s">
+        <v>227</v>
+      </c>
+      <c r="T49" t="s">
+        <v>103</v>
+      </c>
+      <c r="U49" t="s">
+        <v>217</v>
+      </c>
+      <c r="V49" t="s">
+        <v>218</v>
+      </c>
+      <c r="X49" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE49" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" t="s">
+        <v>214</v>
+      </c>
+      <c r="J50" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50" t="s">
+        <v>215</v>
+      </c>
+      <c r="L50" t="s">
+        <v>95</v>
+      </c>
+      <c r="M50" t="s">
+        <v>216</v>
+      </c>
+      <c r="N50" t="s">
+        <v>98</v>
+      </c>
+      <c r="O50" t="s">
+        <v>216</v>
+      </c>
+      <c r="P50" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>226</v>
+      </c>
+      <c r="R50" t="s">
+        <v>101</v>
+      </c>
+      <c r="S50" t="s">
+        <v>227</v>
+      </c>
+      <c r="T50" t="s">
+        <v>103</v>
+      </c>
+      <c r="U50" t="s">
+        <v>217</v>
+      </c>
+      <c r="V50" t="s">
+        <v>218</v>
+      </c>
+      <c r="X50" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y50" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE50" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51" t="s">
+        <v>214</v>
+      </c>
+      <c r="J51" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51" t="s">
+        <v>215</v>
+      </c>
+      <c r="L51" t="s">
+        <v>95</v>
+      </c>
+      <c r="M51" t="s">
+        <v>216</v>
+      </c>
+      <c r="N51" t="s">
+        <v>98</v>
+      </c>
+      <c r="O51" t="s">
+        <v>216</v>
+      </c>
+      <c r="P51" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>226</v>
+      </c>
+      <c r="R51" t="s">
+        <v>101</v>
+      </c>
+      <c r="S51" t="s">
+        <v>227</v>
+      </c>
+      <c r="T51" t="s">
+        <v>103</v>
+      </c>
+      <c r="U51" t="s">
+        <v>217</v>
+      </c>
+      <c r="V51" t="s">
+        <v>218</v>
+      </c>
+      <c r="X51" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE51" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K52" t="s">
+        <v>215</v>
+      </c>
+      <c r="L52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M52" t="s">
+        <v>216</v>
+      </c>
+      <c r="N52" t="s">
+        <v>98</v>
+      </c>
+      <c r="O52" t="s">
+        <v>216</v>
+      </c>
+      <c r="P52" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>226</v>
+      </c>
+      <c r="R52" t="s">
+        <v>101</v>
+      </c>
+      <c r="S52" t="s">
+        <v>227</v>
+      </c>
+      <c r="T52" t="s">
+        <v>103</v>
+      </c>
+      <c r="U52" t="s">
+        <v>217</v>
+      </c>
+      <c r="V52" t="s">
+        <v>218</v>
+      </c>
+      <c r="X52" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y52" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE52" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" t="s">
+        <v>214</v>
+      </c>
+      <c r="J53" t="s">
+        <v>95</v>
+      </c>
+      <c r="K53" t="s">
+        <v>215</v>
+      </c>
+      <c r="L53" t="s">
+        <v>95</v>
+      </c>
+      <c r="M53" t="s">
+        <v>216</v>
+      </c>
+      <c r="N53" t="s">
+        <v>98</v>
+      </c>
+      <c r="O53" t="s">
+        <v>216</v>
+      </c>
+      <c r="P53" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>226</v>
+      </c>
+      <c r="R53" t="s">
+        <v>101</v>
+      </c>
+      <c r="S53" t="s">
+        <v>227</v>
+      </c>
+      <c r="T53" t="s">
+        <v>103</v>
+      </c>
+      <c r="U53" t="s">
+        <v>217</v>
+      </c>
+      <c r="V53" t="s">
+        <v>218</v>
+      </c>
+      <c r="X53" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE53" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" t="s">
+        <v>214</v>
+      </c>
+      <c r="J54" t="s">
+        <v>95</v>
+      </c>
+      <c r="K54" t="s">
+        <v>215</v>
+      </c>
+      <c r="L54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M54" t="s">
+        <v>216</v>
+      </c>
+      <c r="N54" t="s">
+        <v>98</v>
+      </c>
+      <c r="O54" t="s">
+        <v>216</v>
+      </c>
+      <c r="P54" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>226</v>
+      </c>
+      <c r="R54" t="s">
+        <v>101</v>
+      </c>
+      <c r="S54" t="s">
+        <v>227</v>
+      </c>
+      <c r="T54" t="s">
+        <v>103</v>
+      </c>
+      <c r="U54" t="s">
+        <v>217</v>
+      </c>
+      <c r="V54" t="s">
+        <v>218</v>
+      </c>
+      <c r="X54" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55" t="s">
+        <v>214</v>
+      </c>
+      <c r="J55" t="s">
+        <v>95</v>
+      </c>
+      <c r="K55" t="s">
+        <v>215</v>
+      </c>
+      <c r="L55" t="s">
+        <v>95</v>
+      </c>
+      <c r="M55" t="s">
+        <v>216</v>
+      </c>
+      <c r="N55" t="s">
+        <v>98</v>
+      </c>
+      <c r="O55" t="s">
+        <v>216</v>
+      </c>
+      <c r="P55" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>226</v>
+      </c>
+      <c r="R55" t="s">
+        <v>101</v>
+      </c>
+      <c r="S55" t="s">
+        <v>227</v>
+      </c>
+      <c r="T55" t="s">
+        <v>103</v>
+      </c>
+      <c r="U55" t="s">
+        <v>217</v>
+      </c>
+      <c r="V55" t="s">
+        <v>218</v>
+      </c>
+      <c r="X55" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE55" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" t="s">
+        <v>214</v>
+      </c>
+      <c r="J56" t="s">
+        <v>95</v>
+      </c>
+      <c r="K56" t="s">
+        <v>215</v>
+      </c>
+      <c r="L56" t="s">
+        <v>95</v>
+      </c>
+      <c r="M56" t="s">
+        <v>216</v>
+      </c>
+      <c r="N56" t="s">
+        <v>98</v>
+      </c>
+      <c r="O56" t="s">
+        <v>216</v>
+      </c>
+      <c r="P56" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>226</v>
+      </c>
+      <c r="R56" t="s">
+        <v>101</v>
+      </c>
+      <c r="S56" t="s">
+        <v>227</v>
+      </c>
+      <c r="T56" t="s">
+        <v>103</v>
+      </c>
+      <c r="U56" t="s">
+        <v>217</v>
+      </c>
+      <c r="V56" t="s">
+        <v>218</v>
+      </c>
+      <c r="X56" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y56" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE56" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57" t="s">
+        <v>214</v>
+      </c>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+      <c r="K57" t="s">
+        <v>215</v>
+      </c>
+      <c r="L57" t="s">
+        <v>95</v>
+      </c>
+      <c r="M57" t="s">
+        <v>216</v>
+      </c>
+      <c r="N57" t="s">
+        <v>98</v>
+      </c>
+      <c r="O57" t="s">
+        <v>216</v>
+      </c>
+      <c r="P57" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>226</v>
+      </c>
+      <c r="R57" t="s">
+        <v>101</v>
+      </c>
+      <c r="S57" t="s">
+        <v>227</v>
+      </c>
+      <c r="T57" t="s">
+        <v>103</v>
+      </c>
+      <c r="U57" t="s">
+        <v>217</v>
+      </c>
+      <c r="V57" t="s">
+        <v>218</v>
+      </c>
+      <c r="X57" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE57" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58" t="s">
+        <v>214</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+      <c r="K58" t="s">
+        <v>215</v>
+      </c>
+      <c r="L58" t="s">
+        <v>95</v>
+      </c>
+      <c r="M58" t="s">
+        <v>216</v>
+      </c>
+      <c r="N58" t="s">
+        <v>98</v>
+      </c>
+      <c r="O58" t="s">
+        <v>216</v>
+      </c>
+      <c r="P58" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>226</v>
+      </c>
+      <c r="R58" t="s">
+        <v>101</v>
+      </c>
+      <c r="S58" t="s">
+        <v>227</v>
+      </c>
+      <c r="T58" t="s">
+        <v>103</v>
+      </c>
+      <c r="U58" t="s">
+        <v>217</v>
+      </c>
+      <c r="V58" t="s">
+        <v>218</v>
+      </c>
+      <c r="X58" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" t="s">
+        <v>214</v>
+      </c>
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+      <c r="K59" t="s">
+        <v>215</v>
+      </c>
+      <c r="L59" t="s">
+        <v>95</v>
+      </c>
+      <c r="M59" t="s">
+        <v>216</v>
+      </c>
+      <c r="N59" t="s">
+        <v>98</v>
+      </c>
+      <c r="O59" t="s">
+        <v>216</v>
+      </c>
+      <c r="P59" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>226</v>
+      </c>
+      <c r="R59" t="s">
+        <v>101</v>
+      </c>
+      <c r="S59" t="s">
+        <v>227</v>
+      </c>
+      <c r="T59" t="s">
+        <v>103</v>
+      </c>
+      <c r="U59" t="s">
+        <v>217</v>
+      </c>
+      <c r="V59" t="s">
+        <v>218</v>
+      </c>
+      <c r="X59" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE59" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" t="s">
+        <v>93</v>
+      </c>
+      <c r="I60" t="s">
+        <v>214</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60" t="s">
+        <v>215</v>
+      </c>
+      <c r="L60" t="s">
+        <v>95</v>
+      </c>
+      <c r="M60" t="s">
+        <v>216</v>
+      </c>
+      <c r="N60" t="s">
+        <v>98</v>
+      </c>
+      <c r="O60" t="s">
+        <v>216</v>
+      </c>
+      <c r="P60" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>226</v>
+      </c>
+      <c r="R60" t="s">
+        <v>101</v>
+      </c>
+      <c r="S60" t="s">
+        <v>227</v>
+      </c>
+      <c r="T60" t="s">
+        <v>103</v>
+      </c>
+      <c r="U60" t="s">
+        <v>217</v>
+      </c>
+      <c r="V60" t="s">
+        <v>218</v>
+      </c>
+      <c r="X60" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE60" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I61" t="s">
+        <v>214</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61" t="s">
+        <v>215</v>
+      </c>
+      <c r="L61" t="s">
+        <v>95</v>
+      </c>
+      <c r="M61" t="s">
+        <v>216</v>
+      </c>
+      <c r="N61" t="s">
+        <v>98</v>
+      </c>
+      <c r="O61" t="s">
+        <v>216</v>
+      </c>
+      <c r="P61" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>226</v>
+      </c>
+      <c r="R61" t="s">
+        <v>101</v>
+      </c>
+      <c r="S61" t="s">
+        <v>227</v>
+      </c>
+      <c r="T61" t="s">
+        <v>103</v>
+      </c>
+      <c r="U61" t="s">
+        <v>217</v>
+      </c>
+      <c r="V61" t="s">
+        <v>218</v>
+      </c>
+      <c r="X61" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE61" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" t="s">
+        <v>92</v>
+      </c>
+      <c r="H62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62" t="s">
+        <v>214</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+      <c r="K62" t="s">
+        <v>215</v>
+      </c>
+      <c r="L62" t="s">
+        <v>95</v>
+      </c>
+      <c r="M62" t="s">
+        <v>216</v>
+      </c>
+      <c r="N62" t="s">
+        <v>98</v>
+      </c>
+      <c r="O62" t="s">
+        <v>216</v>
+      </c>
+      <c r="P62" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>226</v>
+      </c>
+      <c r="R62" t="s">
+        <v>101</v>
+      </c>
+      <c r="S62" t="s">
+        <v>227</v>
+      </c>
+      <c r="T62" t="s">
+        <v>103</v>
+      </c>
+      <c r="U62" t="s">
+        <v>217</v>
+      </c>
+      <c r="V62" t="s">
+        <v>218</v>
+      </c>
+      <c r="X62" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE62" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I63" t="s">
+        <v>214</v>
+      </c>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63" t="s">
+        <v>215</v>
+      </c>
+      <c r="L63" t="s">
+        <v>95</v>
+      </c>
+      <c r="M63" t="s">
+        <v>216</v>
+      </c>
+      <c r="N63" t="s">
+        <v>98</v>
+      </c>
+      <c r="O63" t="s">
+        <v>216</v>
+      </c>
+      <c r="P63" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>226</v>
+      </c>
+      <c r="R63" t="s">
+        <v>101</v>
+      </c>
+      <c r="S63" t="s">
+        <v>227</v>
+      </c>
+      <c r="T63" t="s">
+        <v>103</v>
+      </c>
+      <c r="U63" t="s">
+        <v>217</v>
+      </c>
+      <c r="V63" t="s">
+        <v>218</v>
+      </c>
+      <c r="X63" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y63" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE63" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I64" t="s">
+        <v>214</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+      <c r="K64" t="s">
+        <v>215</v>
+      </c>
+      <c r="L64" t="s">
+        <v>95</v>
+      </c>
+      <c r="M64" t="s">
+        <v>216</v>
+      </c>
+      <c r="N64" t="s">
+        <v>98</v>
+      </c>
+      <c r="O64" t="s">
+        <v>216</v>
+      </c>
+      <c r="P64" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>226</v>
+      </c>
+      <c r="R64" t="s">
+        <v>101</v>
+      </c>
+      <c r="S64" t="s">
+        <v>227</v>
+      </c>
+      <c r="T64" t="s">
+        <v>103</v>
+      </c>
+      <c r="U64" t="s">
+        <v>217</v>
+      </c>
+      <c r="V64" t="s">
+        <v>218</v>
+      </c>
+      <c r="X64" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y64" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE64" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s">
+        <v>93</v>
+      </c>
+      <c r="I65" t="s">
+        <v>214</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" t="s">
+        <v>215</v>
+      </c>
+      <c r="L65" t="s">
+        <v>95</v>
+      </c>
+      <c r="M65" t="s">
+        <v>216</v>
+      </c>
+      <c r="N65" t="s">
+        <v>98</v>
+      </c>
+      <c r="O65" t="s">
+        <v>216</v>
+      </c>
+      <c r="P65" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>226</v>
+      </c>
+      <c r="R65" t="s">
+        <v>101</v>
+      </c>
+      <c r="S65" t="s">
+        <v>227</v>
+      </c>
+      <c r="T65" t="s">
+        <v>103</v>
+      </c>
+      <c r="U65" t="s">
+        <v>217</v>
+      </c>
+      <c r="V65" t="s">
+        <v>218</v>
+      </c>
+      <c r="X65" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y65" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE65" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" t="s">
+        <v>93</v>
+      </c>
+      <c r="I66" t="s">
+        <v>214</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+      <c r="K66" t="s">
+        <v>215</v>
+      </c>
+      <c r="L66" t="s">
+        <v>95</v>
+      </c>
+      <c r="M66" t="s">
+        <v>216</v>
+      </c>
+      <c r="N66" t="s">
+        <v>98</v>
+      </c>
+      <c r="O66" t="s">
+        <v>216</v>
+      </c>
+      <c r="P66" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>226</v>
+      </c>
+      <c r="R66" t="s">
+        <v>101</v>
+      </c>
+      <c r="S66" t="s">
+        <v>227</v>
+      </c>
+      <c r="T66" t="s">
+        <v>103</v>
+      </c>
+      <c r="U66" t="s">
+        <v>217</v>
+      </c>
+      <c r="V66" t="s">
+        <v>218</v>
+      </c>
+      <c r="X66" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y66" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE66" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" t="s">
+        <v>93</v>
+      </c>
+      <c r="I67" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+      <c r="K67" t="s">
+        <v>215</v>
+      </c>
+      <c r="L67" t="s">
+        <v>95</v>
+      </c>
+      <c r="M67" t="s">
+        <v>216</v>
+      </c>
+      <c r="N67" t="s">
+        <v>98</v>
+      </c>
+      <c r="O67" t="s">
+        <v>216</v>
+      </c>
+      <c r="P67" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>226</v>
+      </c>
+      <c r="R67" t="s">
+        <v>101</v>
+      </c>
+      <c r="S67" t="s">
+        <v>227</v>
+      </c>
+      <c r="T67" t="s">
+        <v>103</v>
+      </c>
+      <c r="U67" t="s">
+        <v>217</v>
+      </c>
+      <c r="V67" t="s">
+        <v>218</v>
+      </c>
+      <c r="X67" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y67" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE67" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" t="s">
+        <v>214</v>
+      </c>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+      <c r="K68" t="s">
+        <v>215</v>
+      </c>
+      <c r="L68" t="s">
+        <v>95</v>
+      </c>
+      <c r="M68" t="s">
+        <v>216</v>
+      </c>
+      <c r="N68" t="s">
+        <v>98</v>
+      </c>
+      <c r="O68" t="s">
+        <v>216</v>
+      </c>
+      <c r="P68" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>226</v>
+      </c>
+      <c r="R68" t="s">
+        <v>101</v>
+      </c>
+      <c r="S68" t="s">
+        <v>227</v>
+      </c>
+      <c r="T68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U68" t="s">
+        <v>217</v>
+      </c>
+      <c r="V68" t="s">
+        <v>218</v>
+      </c>
+      <c r="X68" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y68" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE68" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" t="s">
+        <v>93</v>
+      </c>
+      <c r="I69" t="s">
+        <v>214</v>
+      </c>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+      <c r="K69" t="s">
+        <v>215</v>
+      </c>
+      <c r="L69" t="s">
+        <v>95</v>
+      </c>
+      <c r="M69" t="s">
+        <v>216</v>
+      </c>
+      <c r="N69" t="s">
+        <v>98</v>
+      </c>
+      <c r="O69" t="s">
+        <v>216</v>
+      </c>
+      <c r="P69" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>226</v>
+      </c>
+      <c r="R69" t="s">
+        <v>101</v>
+      </c>
+      <c r="S69" t="s">
+        <v>227</v>
+      </c>
+      <c r="T69" t="s">
+        <v>103</v>
+      </c>
+      <c r="U69" t="s">
+        <v>217</v>
+      </c>
+      <c r="V69" t="s">
+        <v>218</v>
+      </c>
+      <c r="X69" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y69" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE69" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="X70" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y70" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z70" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA70" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB70" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC70" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD70" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE70" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF70" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG70" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH70" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI70" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5269,6 +7728,8 @@
     <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{815F655D-2B61-C943-8EE4-8EF7E5CA0661}"/>
+    <hyperlink ref="B49:B61" r:id="rId48" display="https://ifcb-data.whoi.edu" xr:uid="{774C7D73-E849-6C4D-AEE5-D15B86527BD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5278,7 +7739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453BCA87-3B91-434D-A7F9-C6469E7F59D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300BE314-D2DF-9A4E-AD29-AF925938ECB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="3780" windowWidth="25040" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6799,7 +6799,7 @@
       <c r="A62" t="s">
         <v>180</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C62" t="s">
@@ -7730,6 +7730,7 @@
     <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="B48" r:id="rId47" xr:uid="{815F655D-2B61-C943-8EE4-8EF7E5CA0661}"/>
     <hyperlink ref="B49:B61" r:id="rId48" display="https://ifcb-data.whoi.edu" xr:uid="{774C7D73-E849-6C4D-AEE5-D15B86527BD1}"/>
+    <hyperlink ref="B62" r:id="rId49" xr:uid="{EEFF5638-0C6D-B347-889D-065733E9DFB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC720F4-BDC6-3241-A4A9-2BD1ACEC62C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4460" yWindow="5060" windowWidth="40340" windowHeight="22800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="229">
   <si>
     <t>Project_ID</t>
   </si>
@@ -449,18 +455,12 @@
     <t>object_lat</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
     <t>object_lon</t>
   </si>
   <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>object_depth_min</t>
   </si>
   <si>
@@ -476,63 +476,39 @@
     <t>object_date</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>%Y%m%d</t>
   </si>
   <si>
     <t>object_time</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>%H%M%S</t>
   </si>
   <si>
     <t>vol_analyzed</t>
   </si>
   <si>
-    <t>ml</t>
-  </si>
-  <si>
     <t>object_id</t>
   </si>
   <si>
-    <t>roi_number</t>
-  </si>
-  <si>
-    <t>EquivDiameter</t>
-  </si>
-  <si>
     <t>pixels</t>
   </si>
   <si>
     <t>object_summedbiovolume</t>
   </si>
   <si>
-    <t>Biovolume</t>
-  </si>
-  <si>
     <t>cubic_pixel</t>
   </si>
   <si>
     <t>object_summedarea</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
     <t>square_pixel</t>
   </si>
   <si>
     <t>object_summedminoraxislength</t>
   </si>
   <si>
-    <t>MinorAxisLength</t>
-  </si>
-  <si>
     <t>pixel</t>
   </si>
   <si>
@@ -699,13 +675,46 @@
   </si>
   <si>
     <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>%Y%m%d %H:%M:%S %z</t>
+  </si>
+  <si>
+    <t>milliliters</t>
+  </si>
+  <si>
+    <t>roi_id</t>
+  </si>
+  <si>
+    <t>equiv_diameter</t>
+  </si>
+  <si>
+    <t>biovolume</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>minor_axis_length</t>
+  </si>
+  <si>
+    <t>pixel_to_micron</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,6 +790,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -827,7 +844,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,9 +876,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,6 +928,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1068,14 +1121,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT1" sqref="AT1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -1235,73 +1297,73 @@
         <v>143</v>
       </c>
       <c r="J2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" t="s">
         <v>145</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" t="s">
         <v>146</v>
       </c>
-      <c r="L2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" t="s">
-        <v>148</v>
-      </c>
       <c r="N2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" t="s">
         <v>150</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>151</v>
       </c>
-      <c r="P2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>152</v>
       </c>
-      <c r="R2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X2" t="s">
         <v>155</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AA2" t="s">
         <v>157</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH2" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AI2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>167</v>
       </c>
-      <c r="AD2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -1324,73 +1386,73 @@
         <v>143</v>
       </c>
       <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" t="s">
         <v>145</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" t="s">
         <v>146</v>
       </c>
-      <c r="L3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M3" t="s">
-        <v>148</v>
-      </c>
       <c r="N3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" t="s">
         <v>150</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>151</v>
       </c>
-      <c r="P3" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>152</v>
       </c>
-      <c r="R3" t="s">
-        <v>154</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X3" t="s">
         <v>155</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AA3" t="s">
         <v>157</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD3" t="s">
         <v>160</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AE3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH3" t="s">
         <v>164</v>
       </c>
-      <c r="AB3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AI3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>167</v>
       </c>
-      <c r="AD3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1413,73 +1475,73 @@
         <v>143</v>
       </c>
       <c r="J4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" t="s">
         <v>145</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" t="s">
         <v>146</v>
       </c>
-      <c r="L4" t="s">
-        <v>145</v>
-      </c>
-      <c r="M4" t="s">
-        <v>148</v>
-      </c>
       <c r="N4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q4" t="s">
         <v>150</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
         <v>151</v>
       </c>
-      <c r="P4" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>152</v>
       </c>
-      <c r="R4" t="s">
-        <v>154</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" t="s">
         <v>155</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AA4" t="s">
         <v>157</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AB4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD4" t="s">
         <v>160</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH4" t="s">
         <v>164</v>
       </c>
-      <c r="AB4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AI4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>167</v>
       </c>
-      <c r="AD4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1502,73 +1564,73 @@
         <v>143</v>
       </c>
       <c r="J5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" t="s">
         <v>145</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" t="s">
         <v>146</v>
       </c>
-      <c r="L5" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" t="s">
-        <v>148</v>
-      </c>
       <c r="N5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q5" t="s">
         <v>150</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>151</v>
       </c>
-      <c r="P5" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>152</v>
       </c>
-      <c r="R5" t="s">
-        <v>154</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
+        <v>153</v>
+      </c>
+      <c r="X5" t="s">
         <v>155</v>
       </c>
-      <c r="T5" t="s">
+      <c r="AA5" t="s">
         <v>157</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AB5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD5" t="s">
         <v>160</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH5" t="s">
         <v>164</v>
       </c>
-      <c r="AB5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AI5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>167</v>
       </c>
-      <c r="AD5" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -1591,73 +1653,73 @@
         <v>143</v>
       </c>
       <c r="J6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" t="s">
         <v>145</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" t="s">
         <v>146</v>
       </c>
-      <c r="L6" t="s">
-        <v>145</v>
-      </c>
-      <c r="M6" t="s">
-        <v>148</v>
-      </c>
       <c r="N6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" t="s">
         <v>150</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
         <v>151</v>
       </c>
-      <c r="P6" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>152</v>
       </c>
-      <c r="R6" t="s">
-        <v>154</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
+        <v>153</v>
+      </c>
+      <c r="X6" t="s">
         <v>155</v>
       </c>
-      <c r="T6" t="s">
+      <c r="AA6" t="s">
         <v>157</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AB6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD6" t="s">
         <v>160</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AE6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH6" t="s">
         <v>164</v>
       </c>
-      <c r="AB6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AI6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>167</v>
       </c>
-      <c r="AD6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -1680,73 +1742,73 @@
         <v>143</v>
       </c>
       <c r="J7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" t="s">
         <v>145</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" t="s">
         <v>146</v>
       </c>
-      <c r="L7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M7" t="s">
-        <v>148</v>
-      </c>
       <c r="N7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" t="s">
         <v>150</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>151</v>
       </c>
-      <c r="P7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>152</v>
       </c>
-      <c r="R7" t="s">
-        <v>154</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X7" t="s">
         <v>155</v>
       </c>
-      <c r="T7" t="s">
+      <c r="AA7" t="s">
         <v>157</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AB7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD7" t="s">
         <v>160</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AE7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH7" t="s">
         <v>164</v>
       </c>
-      <c r="AB7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AI7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>167</v>
       </c>
-      <c r="AD7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -1769,73 +1831,73 @@
         <v>143</v>
       </c>
       <c r="J8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" t="s">
         <v>145</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" t="s">
         <v>146</v>
       </c>
-      <c r="L8" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" t="s">
-        <v>148</v>
-      </c>
       <c r="N8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q8" t="s">
         <v>150</v>
       </c>
-      <c r="O8" t="s">
+      <c r="R8" t="s">
         <v>151</v>
       </c>
-      <c r="P8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>152</v>
       </c>
-      <c r="R8" t="s">
-        <v>154</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
+        <v>153</v>
+      </c>
+      <c r="X8" t="s">
         <v>155</v>
       </c>
-      <c r="T8" t="s">
+      <c r="AA8" t="s">
         <v>157</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AB8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD8" t="s">
         <v>160</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AE8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH8" t="s">
         <v>164</v>
       </c>
-      <c r="AB8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AI8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>167</v>
       </c>
-      <c r="AD8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -1858,73 +1920,73 @@
         <v>143</v>
       </c>
       <c r="J9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" t="s">
         <v>145</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" t="s">
         <v>146</v>
       </c>
-      <c r="L9" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" t="s">
-        <v>148</v>
-      </c>
       <c r="N9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" t="s">
         <v>150</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" t="s">
         <v>151</v>
       </c>
-      <c r="P9" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>152</v>
       </c>
-      <c r="R9" t="s">
-        <v>154</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
+        <v>153</v>
+      </c>
+      <c r="X9" t="s">
         <v>155</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AA9" t="s">
         <v>157</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AB9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD9" t="s">
         <v>160</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AE9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH9" t="s">
         <v>164</v>
       </c>
-      <c r="AB9" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AI9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>167</v>
       </c>
-      <c r="AD9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -1947,73 +2009,73 @@
         <v>143</v>
       </c>
       <c r="J10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" t="s">
         <v>145</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s">
         <v>146</v>
       </c>
-      <c r="L10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" t="s">
-        <v>148</v>
-      </c>
       <c r="N10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" t="s">
         <v>150</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" t="s">
         <v>151</v>
       </c>
-      <c r="P10" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>152</v>
       </c>
-      <c r="R10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
+        <v>153</v>
+      </c>
+      <c r="X10" t="s">
         <v>155</v>
       </c>
-      <c r="T10" t="s">
+      <c r="AA10" t="s">
         <v>157</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AB10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD10" t="s">
         <v>160</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AE10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH10" t="s">
         <v>164</v>
       </c>
-      <c r="AB10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AI10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>167</v>
       </c>
-      <c r="AD10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -2036,73 +2098,73 @@
         <v>143</v>
       </c>
       <c r="J11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s">
         <v>145</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" t="s">
         <v>146</v>
       </c>
-      <c r="L11" t="s">
-        <v>145</v>
-      </c>
-      <c r="M11" t="s">
-        <v>148</v>
-      </c>
       <c r="N11" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q11" t="s">
         <v>150</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R11" t="s">
         <v>151</v>
       </c>
-      <c r="P11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>152</v>
       </c>
-      <c r="R11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
+        <v>153</v>
+      </c>
+      <c r="X11" t="s">
         <v>155</v>
       </c>
-      <c r="T11" t="s">
+      <c r="AA11" t="s">
         <v>157</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AB11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD11" t="s">
         <v>160</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AE11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH11" t="s">
         <v>164</v>
       </c>
-      <c r="AB11" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AI11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>167</v>
       </c>
-      <c r="AD11" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -2125,73 +2187,73 @@
         <v>143</v>
       </c>
       <c r="J12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" t="s">
         <v>145</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="s">
         <v>146</v>
       </c>
-      <c r="L12" t="s">
-        <v>145</v>
-      </c>
-      <c r="M12" t="s">
-        <v>148</v>
-      </c>
       <c r="N12" t="s">
+        <v>148</v>
+      </c>
+      <c r="O12" t="s">
+        <v>149</v>
+      </c>
+      <c r="P12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" t="s">
         <v>150</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" t="s">
         <v>151</v>
       </c>
-      <c r="P12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>152</v>
       </c>
-      <c r="R12" t="s">
-        <v>154</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>153</v>
+      </c>
+      <c r="X12" t="s">
         <v>155</v>
       </c>
-      <c r="T12" t="s">
+      <c r="AA12" t="s">
         <v>157</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AB12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD12" t="s">
         <v>160</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AE12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH12" t="s">
         <v>164</v>
       </c>
-      <c r="AB12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AI12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>167</v>
       </c>
-      <c r="AD12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -2214,73 +2276,73 @@
         <v>143</v>
       </c>
       <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
         <v>145</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="s">
         <v>146</v>
       </c>
-      <c r="L13" t="s">
-        <v>145</v>
-      </c>
-      <c r="M13" t="s">
-        <v>148</v>
-      </c>
       <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" t="s">
         <v>150</v>
       </c>
-      <c r="O13" t="s">
+      <c r="R13" t="s">
         <v>151</v>
       </c>
-      <c r="P13" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>152</v>
       </c>
-      <c r="R13" t="s">
-        <v>154</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
         <v>155</v>
       </c>
-      <c r="T13" t="s">
+      <c r="AA13" t="s">
         <v>157</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AB13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD13" t="s">
         <v>160</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AE13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH13" t="s">
         <v>164</v>
       </c>
-      <c r="AB13" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AI13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>167</v>
       </c>
-      <c r="AD13" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -2303,73 +2365,73 @@
         <v>143</v>
       </c>
       <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
         <v>145</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="s">
         <v>146</v>
       </c>
-      <c r="L14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M14" t="s">
-        <v>148</v>
-      </c>
       <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" t="s">
         <v>150</v>
       </c>
-      <c r="O14" t="s">
+      <c r="R14" t="s">
         <v>151</v>
       </c>
-      <c r="P14" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>152</v>
       </c>
-      <c r="R14" t="s">
-        <v>154</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
         <v>155</v>
       </c>
-      <c r="T14" t="s">
+      <c r="AA14" t="s">
         <v>157</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AB14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD14" t="s">
         <v>160</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AE14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH14" t="s">
         <v>164</v>
       </c>
-      <c r="AB14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC14" t="s">
+      <c r="AI14" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>167</v>
       </c>
-      <c r="AD14" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -2392,73 +2454,73 @@
         <v>143</v>
       </c>
       <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
         <v>145</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="s">
         <v>146</v>
       </c>
-      <c r="L15" t="s">
-        <v>145</v>
-      </c>
-      <c r="M15" t="s">
-        <v>148</v>
-      </c>
       <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" t="s">
         <v>150</v>
       </c>
-      <c r="O15" t="s">
+      <c r="R15" t="s">
         <v>151</v>
       </c>
-      <c r="P15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>152</v>
       </c>
-      <c r="R15" t="s">
-        <v>154</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
         <v>155</v>
       </c>
-      <c r="T15" t="s">
+      <c r="AA15" t="s">
         <v>157</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AB15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD15" t="s">
         <v>160</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AE15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH15" t="s">
         <v>164</v>
       </c>
-      <c r="AB15" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AI15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>167</v>
       </c>
-      <c r="AD15" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -2481,73 +2543,73 @@
         <v>143</v>
       </c>
       <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
         <v>145</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="s">
         <v>146</v>
       </c>
-      <c r="L16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" t="s">
-        <v>148</v>
-      </c>
       <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" t="s">
         <v>150</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" t="s">
         <v>151</v>
       </c>
-      <c r="P16" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>152</v>
       </c>
-      <c r="R16" t="s">
-        <v>154</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
         <v>155</v>
       </c>
-      <c r="T16" t="s">
+      <c r="AA16" t="s">
         <v>157</v>
       </c>
-      <c r="X16" t="s">
+      <c r="AB16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD16" t="s">
         <v>160</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AE16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH16" t="s">
         <v>164</v>
       </c>
-      <c r="AB16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC16" t="s">
+      <c r="AI16" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>167</v>
       </c>
-      <c r="AD16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2570,73 +2632,73 @@
         <v>143</v>
       </c>
       <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
         <v>145</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="s">
         <v>146</v>
       </c>
-      <c r="L17" t="s">
-        <v>145</v>
-      </c>
-      <c r="M17" t="s">
-        <v>148</v>
-      </c>
       <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q17" t="s">
         <v>150</v>
       </c>
-      <c r="O17" t="s">
+      <c r="R17" t="s">
         <v>151</v>
       </c>
-      <c r="P17" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>152</v>
       </c>
-      <c r="R17" t="s">
-        <v>154</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
         <v>155</v>
       </c>
-      <c r="T17" t="s">
+      <c r="AA17" t="s">
         <v>157</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AB17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD17" t="s">
         <v>160</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AE17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH17" t="s">
         <v>164</v>
       </c>
-      <c r="AB17" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="AI17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>167</v>
       </c>
-      <c r="AD17" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -2659,73 +2721,73 @@
         <v>143</v>
       </c>
       <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
         <v>145</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="s">
         <v>146</v>
       </c>
-      <c r="L18" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" t="s">
-        <v>148</v>
-      </c>
       <c r="N18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s">
+        <v>149</v>
+      </c>
+      <c r="P18" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q18" t="s">
         <v>150</v>
       </c>
-      <c r="O18" t="s">
+      <c r="R18" t="s">
         <v>151</v>
       </c>
-      <c r="P18" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>152</v>
       </c>
-      <c r="R18" t="s">
-        <v>154</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18" t="s">
         <v>155</v>
       </c>
-      <c r="T18" t="s">
+      <c r="AA18" t="s">
         <v>157</v>
       </c>
-      <c r="X18" t="s">
+      <c r="AB18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD18" t="s">
         <v>160</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AE18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH18" t="s">
         <v>164</v>
       </c>
-      <c r="AB18" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC18" t="s">
+      <c r="AI18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>167</v>
       </c>
-      <c r="AD18" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -2748,73 +2810,73 @@
         <v>143</v>
       </c>
       <c r="J19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" t="s">
         <v>145</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" t="s">
         <v>146</v>
       </c>
-      <c r="L19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" t="s">
-        <v>148</v>
-      </c>
       <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q19" t="s">
         <v>150</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" t="s">
         <v>151</v>
       </c>
-      <c r="P19" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>152</v>
       </c>
-      <c r="R19" t="s">
-        <v>154</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
+        <v>153</v>
+      </c>
+      <c r="X19" t="s">
         <v>155</v>
       </c>
-      <c r="T19" t="s">
+      <c r="AA19" t="s">
         <v>157</v>
       </c>
-      <c r="X19" t="s">
+      <c r="AB19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD19" t="s">
         <v>160</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AE19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH19" t="s">
         <v>164</v>
       </c>
-      <c r="AB19" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC19" t="s">
+      <c r="AI19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>167</v>
       </c>
-      <c r="AD19" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -2837,73 +2899,73 @@
         <v>143</v>
       </c>
       <c r="J20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" t="s">
         <v>145</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" t="s">
         <v>146</v>
       </c>
-      <c r="L20" t="s">
-        <v>145</v>
-      </c>
-      <c r="M20" t="s">
-        <v>148</v>
-      </c>
       <c r="N20" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" t="s">
         <v>150</v>
       </c>
-      <c r="O20" t="s">
+      <c r="R20" t="s">
         <v>151</v>
       </c>
-      <c r="P20" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>152</v>
       </c>
-      <c r="R20" t="s">
-        <v>154</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
+        <v>153</v>
+      </c>
+      <c r="X20" t="s">
         <v>155</v>
       </c>
-      <c r="T20" t="s">
+      <c r="AA20" t="s">
         <v>157</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AB20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD20" t="s">
         <v>160</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AE20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH20" t="s">
         <v>164</v>
       </c>
-      <c r="AB20" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC20" t="s">
+      <c r="AI20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>167</v>
       </c>
-      <c r="AD20" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36">
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -2926,73 +2988,73 @@
         <v>143</v>
       </c>
       <c r="J21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" t="s">
         <v>145</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" t="s">
         <v>146</v>
       </c>
-      <c r="L21" t="s">
-        <v>145</v>
-      </c>
-      <c r="M21" t="s">
-        <v>148</v>
-      </c>
       <c r="N21" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" t="s">
         <v>150</v>
       </c>
-      <c r="O21" t="s">
+      <c r="R21" t="s">
         <v>151</v>
       </c>
-      <c r="P21" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>152</v>
       </c>
-      <c r="R21" t="s">
-        <v>154</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
+        <v>153</v>
+      </c>
+      <c r="X21" t="s">
         <v>155</v>
       </c>
-      <c r="T21" t="s">
+      <c r="AA21" t="s">
         <v>157</v>
       </c>
-      <c r="X21" t="s">
+      <c r="AB21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD21" t="s">
         <v>160</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AE21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH21" t="s">
         <v>164</v>
       </c>
-      <c r="AB21" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AI21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>167</v>
       </c>
-      <c r="AD21" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36">
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -3015,73 +3077,73 @@
         <v>143</v>
       </c>
       <c r="J22" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" t="s">
         <v>145</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" t="s">
         <v>146</v>
       </c>
-      <c r="L22" t="s">
-        <v>145</v>
-      </c>
-      <c r="M22" t="s">
-        <v>148</v>
-      </c>
       <c r="N22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O22" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" t="s">
         <v>150</v>
       </c>
-      <c r="O22" t="s">
+      <c r="R22" t="s">
         <v>151</v>
       </c>
-      <c r="P22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>152</v>
       </c>
-      <c r="R22" t="s">
-        <v>154</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
+        <v>153</v>
+      </c>
+      <c r="X22" t="s">
         <v>155</v>
       </c>
-      <c r="T22" t="s">
+      <c r="AA22" t="s">
         <v>157</v>
       </c>
-      <c r="X22" t="s">
+      <c r="AB22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD22" t="s">
         <v>160</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AE22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH22" t="s">
         <v>164</v>
       </c>
-      <c r="AB22" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC22" t="s">
+      <c r="AI22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>167</v>
       </c>
-      <c r="AD22" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36">
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -3104,73 +3166,73 @@
         <v>143</v>
       </c>
       <c r="J23" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" t="s">
         <v>145</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" t="s">
         <v>146</v>
       </c>
-      <c r="L23" t="s">
-        <v>145</v>
-      </c>
-      <c r="M23" t="s">
-        <v>148</v>
-      </c>
       <c r="N23" t="s">
+        <v>148</v>
+      </c>
+      <c r="O23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q23" t="s">
         <v>150</v>
       </c>
-      <c r="O23" t="s">
+      <c r="R23" t="s">
         <v>151</v>
       </c>
-      <c r="P23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>152</v>
       </c>
-      <c r="R23" t="s">
-        <v>154</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
+        <v>153</v>
+      </c>
+      <c r="X23" t="s">
         <v>155</v>
       </c>
-      <c r="T23" t="s">
+      <c r="AA23" t="s">
         <v>157</v>
       </c>
-      <c r="X23" t="s">
+      <c r="AB23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD23" t="s">
         <v>160</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AE23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH23" t="s">
         <v>164</v>
       </c>
-      <c r="AB23" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AI23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>167</v>
       </c>
-      <c r="AD23" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36">
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3193,73 +3255,73 @@
         <v>143</v>
       </c>
       <c r="J24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" t="s">
         <v>145</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
+        <v>144</v>
+      </c>
+      <c r="M24" t="s">
         <v>146</v>
       </c>
-      <c r="L24" t="s">
-        <v>145</v>
-      </c>
-      <c r="M24" t="s">
-        <v>148</v>
-      </c>
       <c r="N24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O24" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24" t="s">
         <v>150</v>
       </c>
-      <c r="O24" t="s">
+      <c r="R24" t="s">
         <v>151</v>
       </c>
-      <c r="P24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>152</v>
       </c>
-      <c r="R24" t="s">
-        <v>154</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
+        <v>153</v>
+      </c>
+      <c r="X24" t="s">
         <v>155</v>
       </c>
-      <c r="T24" t="s">
+      <c r="AA24" t="s">
         <v>157</v>
       </c>
-      <c r="X24" t="s">
+      <c r="AB24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD24" t="s">
         <v>160</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AE24" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH24" t="s">
         <v>164</v>
       </c>
-      <c r="AB24" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC24" t="s">
+      <c r="AI24" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>167</v>
       </c>
-      <c r="AD24" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36">
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3282,73 +3344,73 @@
         <v>143</v>
       </c>
       <c r="J25" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" t="s">
         <v>145</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" t="s">
         <v>146</v>
       </c>
-      <c r="L25" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" t="s">
-        <v>148</v>
-      </c>
       <c r="N25" t="s">
+        <v>148</v>
+      </c>
+      <c r="O25" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" t="s">
         <v>150</v>
       </c>
-      <c r="O25" t="s">
+      <c r="R25" t="s">
         <v>151</v>
       </c>
-      <c r="P25" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>152</v>
       </c>
-      <c r="R25" t="s">
-        <v>154</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
+        <v>153</v>
+      </c>
+      <c r="X25" t="s">
         <v>155</v>
       </c>
-      <c r="T25" t="s">
+      <c r="AA25" t="s">
         <v>157</v>
       </c>
-      <c r="X25" t="s">
+      <c r="AB25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD25" t="s">
         <v>160</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AE25" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH25" t="s">
         <v>164</v>
       </c>
-      <c r="AB25" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC25" t="s">
+      <c r="AI25" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>167</v>
       </c>
-      <c r="AD25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36">
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3371,73 +3433,73 @@
         <v>143</v>
       </c>
       <c r="J26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" t="s">
         <v>145</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" t="s">
         <v>146</v>
       </c>
-      <c r="L26" t="s">
-        <v>145</v>
-      </c>
-      <c r="M26" t="s">
-        <v>148</v>
-      </c>
       <c r="N26" t="s">
+        <v>148</v>
+      </c>
+      <c r="O26" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q26" t="s">
         <v>150</v>
       </c>
-      <c r="O26" t="s">
+      <c r="R26" t="s">
         <v>151</v>
       </c>
-      <c r="P26" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>152</v>
       </c>
-      <c r="R26" t="s">
-        <v>154</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
+        <v>153</v>
+      </c>
+      <c r="X26" t="s">
         <v>155</v>
       </c>
-      <c r="T26" t="s">
+      <c r="AA26" t="s">
         <v>157</v>
       </c>
-      <c r="X26" t="s">
+      <c r="AB26" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD26" t="s">
         <v>160</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AE26" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH26" t="s">
         <v>164</v>
       </c>
-      <c r="AB26" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC26" t="s">
+      <c r="AI26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>167</v>
       </c>
-      <c r="AD26" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3460,73 +3522,73 @@
         <v>143</v>
       </c>
       <c r="J27" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" t="s">
         <v>145</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" t="s">
         <v>146</v>
       </c>
-      <c r="L27" t="s">
-        <v>145</v>
-      </c>
-      <c r="M27" t="s">
-        <v>148</v>
-      </c>
       <c r="N27" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" t="s">
         <v>150</v>
       </c>
-      <c r="O27" t="s">
+      <c r="R27" t="s">
         <v>151</v>
       </c>
-      <c r="P27" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>152</v>
       </c>
-      <c r="R27" t="s">
-        <v>154</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
+        <v>153</v>
+      </c>
+      <c r="X27" t="s">
         <v>155</v>
       </c>
-      <c r="T27" t="s">
+      <c r="AA27" t="s">
         <v>157</v>
       </c>
-      <c r="X27" t="s">
+      <c r="AB27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD27" t="s">
         <v>160</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AE27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH27" t="s">
         <v>164</v>
       </c>
-      <c r="AB27" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC27" t="s">
+      <c r="AI27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>167</v>
       </c>
-      <c r="AD27" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36">
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3549,73 +3611,73 @@
         <v>143</v>
       </c>
       <c r="J28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" t="s">
         <v>145</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" t="s">
         <v>146</v>
       </c>
-      <c r="L28" t="s">
-        <v>145</v>
-      </c>
-      <c r="M28" t="s">
-        <v>148</v>
-      </c>
       <c r="N28" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" t="s">
+        <v>149</v>
+      </c>
+      <c r="P28" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q28" t="s">
         <v>150</v>
       </c>
-      <c r="O28" t="s">
+      <c r="R28" t="s">
         <v>151</v>
       </c>
-      <c r="P28" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>152</v>
       </c>
-      <c r="R28" t="s">
-        <v>154</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
+        <v>153</v>
+      </c>
+      <c r="X28" t="s">
         <v>155</v>
       </c>
-      <c r="T28" t="s">
+      <c r="AA28" t="s">
         <v>157</v>
       </c>
-      <c r="X28" t="s">
+      <c r="AB28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD28" t="s">
         <v>160</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AE28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH28" t="s">
         <v>164</v>
       </c>
-      <c r="AB28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC28" t="s">
+      <c r="AI28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>167</v>
       </c>
-      <c r="AD28" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36">
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -3638,73 +3700,73 @@
         <v>143</v>
       </c>
       <c r="J29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" t="s">
         <v>145</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" t="s">
         <v>146</v>
       </c>
-      <c r="L29" t="s">
-        <v>145</v>
-      </c>
-      <c r="M29" t="s">
-        <v>148</v>
-      </c>
       <c r="N29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O29" t="s">
+        <v>149</v>
+      </c>
+      <c r="P29" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q29" t="s">
         <v>150</v>
       </c>
-      <c r="O29" t="s">
+      <c r="R29" t="s">
         <v>151</v>
       </c>
-      <c r="P29" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="S29" t="s">
         <v>152</v>
       </c>
-      <c r="R29" t="s">
-        <v>154</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
+        <v>153</v>
+      </c>
+      <c r="X29" t="s">
         <v>155</v>
       </c>
-      <c r="T29" t="s">
+      <c r="AA29" t="s">
         <v>157</v>
       </c>
-      <c r="X29" t="s">
+      <c r="AB29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD29" t="s">
         <v>160</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AE29" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH29" t="s">
         <v>164</v>
       </c>
-      <c r="AB29" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC29" t="s">
+      <c r="AI29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>167</v>
       </c>
-      <c r="AD29" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36">
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -3727,73 +3789,73 @@
         <v>143</v>
       </c>
       <c r="J30" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" t="s">
         <v>145</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" t="s">
         <v>146</v>
       </c>
-      <c r="L30" t="s">
-        <v>145</v>
-      </c>
-      <c r="M30" t="s">
-        <v>148</v>
-      </c>
       <c r="N30" t="s">
+        <v>148</v>
+      </c>
+      <c r="O30" t="s">
+        <v>149</v>
+      </c>
+      <c r="P30" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q30" t="s">
         <v>150</v>
       </c>
-      <c r="O30" t="s">
+      <c r="R30" t="s">
         <v>151</v>
       </c>
-      <c r="P30" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="S30" t="s">
         <v>152</v>
       </c>
-      <c r="R30" t="s">
-        <v>154</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
+        <v>153</v>
+      </c>
+      <c r="X30" t="s">
         <v>155</v>
       </c>
-      <c r="T30" t="s">
+      <c r="AA30" t="s">
         <v>157</v>
       </c>
-      <c r="X30" t="s">
+      <c r="AB30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD30" t="s">
         <v>160</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AE30" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH30" t="s">
         <v>164</v>
       </c>
-      <c r="AB30" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC30" t="s">
+      <c r="AI30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>167</v>
       </c>
-      <c r="AD30" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36">
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -3816,73 +3878,73 @@
         <v>143</v>
       </c>
       <c r="J31" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" t="s">
         <v>145</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>144</v>
+      </c>
+      <c r="M31" t="s">
         <v>146</v>
       </c>
-      <c r="L31" t="s">
-        <v>145</v>
-      </c>
-      <c r="M31" t="s">
-        <v>148</v>
-      </c>
       <c r="N31" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31" t="s">
+        <v>149</v>
+      </c>
+      <c r="P31" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q31" t="s">
         <v>150</v>
       </c>
-      <c r="O31" t="s">
+      <c r="R31" t="s">
         <v>151</v>
       </c>
-      <c r="P31" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>152</v>
       </c>
-      <c r="R31" t="s">
-        <v>154</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
+        <v>153</v>
+      </c>
+      <c r="X31" t="s">
         <v>155</v>
       </c>
-      <c r="T31" t="s">
+      <c r="AA31" t="s">
         <v>157</v>
       </c>
-      <c r="X31" t="s">
+      <c r="AB31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD31" t="s">
         <v>160</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AE31" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH31" t="s">
         <v>164</v>
       </c>
-      <c r="AB31" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC31" t="s">
+      <c r="AI31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>167</v>
       </c>
-      <c r="AD31" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36">
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -3905,73 +3967,73 @@
         <v>143</v>
       </c>
       <c r="J32" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" t="s">
         <v>145</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" t="s">
         <v>146</v>
       </c>
-      <c r="L32" t="s">
-        <v>145</v>
-      </c>
-      <c r="M32" t="s">
-        <v>148</v>
-      </c>
       <c r="N32" t="s">
+        <v>148</v>
+      </c>
+      <c r="O32" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32" t="s">
         <v>150</v>
       </c>
-      <c r="O32" t="s">
+      <c r="R32" t="s">
         <v>151</v>
       </c>
-      <c r="P32" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="S32" t="s">
         <v>152</v>
       </c>
-      <c r="R32" t="s">
-        <v>154</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
+        <v>153</v>
+      </c>
+      <c r="X32" t="s">
         <v>155</v>
       </c>
-      <c r="T32" t="s">
+      <c r="AA32" t="s">
         <v>157</v>
       </c>
-      <c r="X32" t="s">
+      <c r="AB32" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD32" t="s">
         <v>160</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AE32" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH32" t="s">
         <v>164</v>
       </c>
-      <c r="AB32" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC32" t="s">
+      <c r="AI32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>167</v>
       </c>
-      <c r="AD32" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36">
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -3994,73 +4056,73 @@
         <v>143</v>
       </c>
       <c r="J33" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" t="s">
         <v>145</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M33" t="s">
         <v>146</v>
       </c>
-      <c r="L33" t="s">
-        <v>145</v>
-      </c>
-      <c r="M33" t="s">
-        <v>148</v>
-      </c>
       <c r="N33" t="s">
+        <v>148</v>
+      </c>
+      <c r="O33" t="s">
+        <v>149</v>
+      </c>
+      <c r="P33" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q33" t="s">
         <v>150</v>
       </c>
-      <c r="O33" t="s">
+      <c r="R33" t="s">
         <v>151</v>
       </c>
-      <c r="P33" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>152</v>
       </c>
-      <c r="R33" t="s">
-        <v>154</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
+        <v>153</v>
+      </c>
+      <c r="X33" t="s">
         <v>155</v>
       </c>
-      <c r="T33" t="s">
+      <c r="AA33" t="s">
         <v>157</v>
       </c>
-      <c r="X33" t="s">
+      <c r="AB33" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD33" t="s">
         <v>160</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AE33" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH33" t="s">
         <v>164</v>
       </c>
-      <c r="AB33" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC33" t="s">
+      <c r="AI33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>167</v>
       </c>
-      <c r="AD33" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36">
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -4083,73 +4145,73 @@
         <v>143</v>
       </c>
       <c r="J34" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" t="s">
         <v>145</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" t="s">
         <v>146</v>
       </c>
-      <c r="L34" t="s">
-        <v>145</v>
-      </c>
-      <c r="M34" t="s">
-        <v>148</v>
-      </c>
       <c r="N34" t="s">
+        <v>148</v>
+      </c>
+      <c r="O34" t="s">
+        <v>149</v>
+      </c>
+      <c r="P34" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q34" t="s">
         <v>150</v>
       </c>
-      <c r="O34" t="s">
+      <c r="R34" t="s">
         <v>151</v>
       </c>
-      <c r="P34" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="S34" t="s">
         <v>152</v>
       </c>
-      <c r="R34" t="s">
-        <v>154</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
+        <v>153</v>
+      </c>
+      <c r="X34" t="s">
         <v>155</v>
       </c>
-      <c r="T34" t="s">
+      <c r="AA34" t="s">
         <v>157</v>
       </c>
-      <c r="X34" t="s">
+      <c r="AB34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD34" t="s">
         <v>160</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AE34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH34" t="s">
         <v>164</v>
       </c>
-      <c r="AB34" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC34" t="s">
+      <c r="AI34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>167</v>
       </c>
-      <c r="AD34" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36">
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4172,73 +4234,73 @@
         <v>143</v>
       </c>
       <c r="J35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" t="s">
         <v>145</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" t="s">
         <v>146</v>
       </c>
-      <c r="L35" t="s">
-        <v>145</v>
-      </c>
-      <c r="M35" t="s">
-        <v>148</v>
-      </c>
       <c r="N35" t="s">
+        <v>148</v>
+      </c>
+      <c r="O35" t="s">
+        <v>149</v>
+      </c>
+      <c r="P35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q35" t="s">
         <v>150</v>
       </c>
-      <c r="O35" t="s">
+      <c r="R35" t="s">
         <v>151</v>
       </c>
-      <c r="P35" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
         <v>152</v>
       </c>
-      <c r="R35" t="s">
-        <v>154</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
+        <v>153</v>
+      </c>
+      <c r="X35" t="s">
         <v>155</v>
       </c>
-      <c r="T35" t="s">
+      <c r="AA35" t="s">
         <v>157</v>
       </c>
-      <c r="X35" t="s">
+      <c r="AB35" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD35" t="s">
         <v>160</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AE35" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH35" t="s">
         <v>164</v>
       </c>
-      <c r="AB35" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC35" t="s">
+      <c r="AI35" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>167</v>
       </c>
-      <c r="AD35" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36">
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4261,73 +4323,73 @@
         <v>143</v>
       </c>
       <c r="J36" t="s">
+        <v>144</v>
+      </c>
+      <c r="K36" t="s">
         <v>145</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" t="s">
         <v>146</v>
       </c>
-      <c r="L36" t="s">
-        <v>145</v>
-      </c>
-      <c r="M36" t="s">
-        <v>148</v>
-      </c>
       <c r="N36" t="s">
+        <v>148</v>
+      </c>
+      <c r="O36" t="s">
+        <v>149</v>
+      </c>
+      <c r="P36" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q36" t="s">
         <v>150</v>
       </c>
-      <c r="O36" t="s">
+      <c r="R36" t="s">
         <v>151</v>
       </c>
-      <c r="P36" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q36" t="s">
+      <c r="S36" t="s">
         <v>152</v>
       </c>
-      <c r="R36" t="s">
-        <v>154</v>
-      </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
+        <v>153</v>
+      </c>
+      <c r="X36" t="s">
         <v>155</v>
       </c>
-      <c r="T36" t="s">
+      <c r="AA36" t="s">
         <v>157</v>
       </c>
-      <c r="X36" t="s">
+      <c r="AB36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD36" t="s">
         <v>160</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AE36" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH36" t="s">
         <v>164</v>
       </c>
-      <c r="AB36" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC36" t="s">
+      <c r="AI36" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>167</v>
       </c>
-      <c r="AD36" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36">
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4350,73 +4412,73 @@
         <v>143</v>
       </c>
       <c r="J37" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" t="s">
         <v>145</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" t="s">
         <v>146</v>
       </c>
-      <c r="L37" t="s">
-        <v>145</v>
-      </c>
-      <c r="M37" t="s">
-        <v>148</v>
-      </c>
       <c r="N37" t="s">
+        <v>148</v>
+      </c>
+      <c r="O37" t="s">
+        <v>149</v>
+      </c>
+      <c r="P37" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q37" t="s">
         <v>150</v>
       </c>
-      <c r="O37" t="s">
+      <c r="R37" t="s">
         <v>151</v>
       </c>
-      <c r="P37" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>152</v>
       </c>
-      <c r="R37" t="s">
-        <v>154</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
+        <v>153</v>
+      </c>
+      <c r="X37" t="s">
         <v>155</v>
       </c>
-      <c r="T37" t="s">
+      <c r="AA37" t="s">
         <v>157</v>
       </c>
-      <c r="X37" t="s">
+      <c r="AB37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD37" t="s">
         <v>160</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AE37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH37" t="s">
         <v>164</v>
       </c>
-      <c r="AB37" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC37" t="s">
+      <c r="AI37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>167</v>
       </c>
-      <c r="AD37" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36">
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4439,73 +4501,73 @@
         <v>143</v>
       </c>
       <c r="J38" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" t="s">
         <v>145</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" t="s">
         <v>146</v>
       </c>
-      <c r="L38" t="s">
-        <v>145</v>
-      </c>
-      <c r="M38" t="s">
-        <v>148</v>
-      </c>
       <c r="N38" t="s">
+        <v>148</v>
+      </c>
+      <c r="O38" t="s">
+        <v>149</v>
+      </c>
+      <c r="P38" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q38" t="s">
         <v>150</v>
       </c>
-      <c r="O38" t="s">
+      <c r="R38" t="s">
         <v>151</v>
       </c>
-      <c r="P38" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>152</v>
       </c>
-      <c r="R38" t="s">
-        <v>154</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
+        <v>153</v>
+      </c>
+      <c r="X38" t="s">
         <v>155</v>
       </c>
-      <c r="T38" t="s">
+      <c r="AA38" t="s">
         <v>157</v>
       </c>
-      <c r="X38" t="s">
+      <c r="AB38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD38" t="s">
         <v>160</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AE38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH38" t="s">
         <v>164</v>
       </c>
-      <c r="AB38" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC38" t="s">
+      <c r="AI38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>167</v>
       </c>
-      <c r="AD38" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36">
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4528,73 +4590,73 @@
         <v>143</v>
       </c>
       <c r="J39" t="s">
+        <v>144</v>
+      </c>
+      <c r="K39" t="s">
         <v>145</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" t="s">
         <v>146</v>
       </c>
-      <c r="L39" t="s">
-        <v>145</v>
-      </c>
-      <c r="M39" t="s">
-        <v>148</v>
-      </c>
       <c r="N39" t="s">
+        <v>148</v>
+      </c>
+      <c r="O39" t="s">
+        <v>149</v>
+      </c>
+      <c r="P39" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q39" t="s">
         <v>150</v>
       </c>
-      <c r="O39" t="s">
+      <c r="R39" t="s">
         <v>151</v>
       </c>
-      <c r="P39" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
         <v>152</v>
       </c>
-      <c r="R39" t="s">
-        <v>154</v>
-      </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
+        <v>153</v>
+      </c>
+      <c r="X39" t="s">
         <v>155</v>
       </c>
-      <c r="T39" t="s">
+      <c r="AA39" t="s">
         <v>157</v>
       </c>
-      <c r="X39" t="s">
+      <c r="AB39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD39" t="s">
         <v>160</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AE39" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH39" t="s">
         <v>164</v>
       </c>
-      <c r="AB39" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC39" t="s">
+      <c r="AI39" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ39" t="s">
         <v>167</v>
       </c>
-      <c r="AD39" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36">
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -4617,73 +4679,73 @@
         <v>143</v>
       </c>
       <c r="J40" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" t="s">
         <v>145</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M40" t="s">
         <v>146</v>
       </c>
-      <c r="L40" t="s">
-        <v>145</v>
-      </c>
-      <c r="M40" t="s">
-        <v>148</v>
-      </c>
       <c r="N40" t="s">
+        <v>148</v>
+      </c>
+      <c r="O40" t="s">
+        <v>149</v>
+      </c>
+      <c r="P40" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q40" t="s">
         <v>150</v>
       </c>
-      <c r="O40" t="s">
+      <c r="R40" t="s">
         <v>151</v>
       </c>
-      <c r="P40" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q40" t="s">
+      <c r="S40" t="s">
         <v>152</v>
       </c>
-      <c r="R40" t="s">
-        <v>154</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
+        <v>153</v>
+      </c>
+      <c r="X40" t="s">
         <v>155</v>
       </c>
-      <c r="T40" t="s">
+      <c r="AA40" t="s">
         <v>157</v>
       </c>
-      <c r="X40" t="s">
+      <c r="AB40" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD40" t="s">
         <v>160</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AE40" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH40" t="s">
         <v>164</v>
       </c>
-      <c r="AB40" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC40" t="s">
+      <c r="AI40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>167</v>
       </c>
-      <c r="AD40" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36">
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -4706,73 +4768,73 @@
         <v>143</v>
       </c>
       <c r="J41" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41" t="s">
         <v>145</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>144</v>
+      </c>
+      <c r="M41" t="s">
         <v>146</v>
       </c>
-      <c r="L41" t="s">
-        <v>145</v>
-      </c>
-      <c r="M41" t="s">
-        <v>148</v>
-      </c>
       <c r="N41" t="s">
+        <v>148</v>
+      </c>
+      <c r="O41" t="s">
+        <v>149</v>
+      </c>
+      <c r="P41" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q41" t="s">
         <v>150</v>
       </c>
-      <c r="O41" t="s">
+      <c r="R41" t="s">
         <v>151</v>
       </c>
-      <c r="P41" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="S41" t="s">
         <v>152</v>
       </c>
-      <c r="R41" t="s">
-        <v>154</v>
-      </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
+        <v>153</v>
+      </c>
+      <c r="X41" t="s">
         <v>155</v>
       </c>
-      <c r="T41" t="s">
+      <c r="AA41" t="s">
         <v>157</v>
       </c>
-      <c r="X41" t="s">
+      <c r="AB41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD41" t="s">
         <v>160</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AE41" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH41" t="s">
         <v>164</v>
       </c>
-      <c r="AB41" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC41" t="s">
+      <c r="AI41" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ41" t="s">
         <v>167</v>
       </c>
-      <c r="AD41" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36">
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -4795,73 +4857,73 @@
         <v>143</v>
       </c>
       <c r="J42" t="s">
+        <v>144</v>
+      </c>
+      <c r="K42" t="s">
         <v>145</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M42" t="s">
         <v>146</v>
       </c>
-      <c r="L42" t="s">
-        <v>145</v>
-      </c>
-      <c r="M42" t="s">
-        <v>148</v>
-      </c>
       <c r="N42" t="s">
+        <v>148</v>
+      </c>
+      <c r="O42" t="s">
+        <v>149</v>
+      </c>
+      <c r="P42" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q42" t="s">
         <v>150</v>
       </c>
-      <c r="O42" t="s">
+      <c r="R42" t="s">
         <v>151</v>
       </c>
-      <c r="P42" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q42" t="s">
+      <c r="S42" t="s">
         <v>152</v>
       </c>
-      <c r="R42" t="s">
-        <v>154</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
+        <v>153</v>
+      </c>
+      <c r="X42" t="s">
         <v>155</v>
       </c>
-      <c r="T42" t="s">
+      <c r="AA42" t="s">
         <v>157</v>
       </c>
-      <c r="X42" t="s">
+      <c r="AB42" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD42" t="s">
         <v>160</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AE42" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH42" t="s">
         <v>164</v>
       </c>
-      <c r="AB42" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC42" t="s">
+      <c r="AI42" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>167</v>
       </c>
-      <c r="AD42" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36">
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -4884,73 +4946,73 @@
         <v>143</v>
       </c>
       <c r="J43" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43" t="s">
         <v>145</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>144</v>
+      </c>
+      <c r="M43" t="s">
         <v>146</v>
       </c>
-      <c r="L43" t="s">
-        <v>145</v>
-      </c>
-      <c r="M43" t="s">
-        <v>148</v>
-      </c>
       <c r="N43" t="s">
+        <v>148</v>
+      </c>
+      <c r="O43" t="s">
+        <v>149</v>
+      </c>
+      <c r="P43" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q43" t="s">
         <v>150</v>
       </c>
-      <c r="O43" t="s">
+      <c r="R43" t="s">
         <v>151</v>
       </c>
-      <c r="P43" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="S43" t="s">
         <v>152</v>
       </c>
-      <c r="R43" t="s">
-        <v>154</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
+        <v>153</v>
+      </c>
+      <c r="X43" t="s">
         <v>155</v>
       </c>
-      <c r="T43" t="s">
+      <c r="AA43" t="s">
         <v>157</v>
       </c>
-      <c r="X43" t="s">
+      <c r="AB43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD43" t="s">
         <v>160</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AE43" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH43" t="s">
         <v>164</v>
       </c>
-      <c r="AB43" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC43" t="s">
+      <c r="AI43" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ43" t="s">
         <v>167</v>
       </c>
-      <c r="AD43" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36">
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -4973,73 +5035,73 @@
         <v>143</v>
       </c>
       <c r="J44" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44" t="s">
         <v>145</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
+        <v>144</v>
+      </c>
+      <c r="M44" t="s">
         <v>146</v>
       </c>
-      <c r="L44" t="s">
-        <v>145</v>
-      </c>
-      <c r="M44" t="s">
-        <v>148</v>
-      </c>
       <c r="N44" t="s">
+        <v>148</v>
+      </c>
+      <c r="O44" t="s">
+        <v>149</v>
+      </c>
+      <c r="P44" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q44" t="s">
         <v>150</v>
       </c>
-      <c r="O44" t="s">
+      <c r="R44" t="s">
         <v>151</v>
       </c>
-      <c r="P44" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="S44" t="s">
         <v>152</v>
       </c>
-      <c r="R44" t="s">
-        <v>154</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
+        <v>153</v>
+      </c>
+      <c r="X44" t="s">
         <v>155</v>
       </c>
-      <c r="T44" t="s">
+      <c r="AA44" t="s">
         <v>157</v>
       </c>
-      <c r="X44" t="s">
+      <c r="AB44" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD44" t="s">
         <v>160</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AE44" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH44" t="s">
         <v>164</v>
       </c>
-      <c r="AB44" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC44" t="s">
+      <c r="AI44" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ44" t="s">
         <v>167</v>
       </c>
-      <c r="AD44" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36">
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -5062,73 +5124,73 @@
         <v>143</v>
       </c>
       <c r="J45" t="s">
+        <v>144</v>
+      </c>
+      <c r="K45" t="s">
         <v>145</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
+        <v>144</v>
+      </c>
+      <c r="M45" t="s">
         <v>146</v>
       </c>
-      <c r="L45" t="s">
-        <v>145</v>
-      </c>
-      <c r="M45" t="s">
-        <v>148</v>
-      </c>
       <c r="N45" t="s">
+        <v>148</v>
+      </c>
+      <c r="O45" t="s">
+        <v>149</v>
+      </c>
+      <c r="P45" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q45" t="s">
         <v>150</v>
       </c>
-      <c r="O45" t="s">
+      <c r="R45" t="s">
         <v>151</v>
       </c>
-      <c r="P45" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>152</v>
       </c>
-      <c r="R45" t="s">
-        <v>154</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
+        <v>153</v>
+      </c>
+      <c r="X45" t="s">
         <v>155</v>
       </c>
-      <c r="T45" t="s">
+      <c r="AA45" t="s">
         <v>157</v>
       </c>
-      <c r="X45" t="s">
+      <c r="AB45" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD45" t="s">
         <v>160</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AE45" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH45" t="s">
         <v>164</v>
       </c>
-      <c r="AB45" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC45" t="s">
+      <c r="AI45" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ45" t="s">
         <v>167</v>
       </c>
-      <c r="AD45" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36">
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5151,73 +5213,73 @@
         <v>143</v>
       </c>
       <c r="J46" t="s">
+        <v>144</v>
+      </c>
+      <c r="K46" t="s">
         <v>145</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
+        <v>144</v>
+      </c>
+      <c r="M46" t="s">
         <v>146</v>
       </c>
-      <c r="L46" t="s">
-        <v>145</v>
-      </c>
-      <c r="M46" t="s">
-        <v>148</v>
-      </c>
       <c r="N46" t="s">
+        <v>148</v>
+      </c>
+      <c r="O46" t="s">
+        <v>149</v>
+      </c>
+      <c r="P46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q46" t="s">
         <v>150</v>
       </c>
-      <c r="O46" t="s">
+      <c r="R46" t="s">
         <v>151</v>
       </c>
-      <c r="P46" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>152</v>
       </c>
-      <c r="R46" t="s">
-        <v>154</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
+        <v>153</v>
+      </c>
+      <c r="X46" t="s">
         <v>155</v>
       </c>
-      <c r="T46" t="s">
+      <c r="AA46" t="s">
         <v>157</v>
       </c>
-      <c r="X46" t="s">
+      <c r="AB46" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD46" t="s">
         <v>160</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AE46" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH46" t="s">
         <v>164</v>
       </c>
-      <c r="AB46" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC46" t="s">
+      <c r="AI46" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ46" t="s">
         <v>167</v>
       </c>
-      <c r="AD46" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36">
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5240,73 +5302,73 @@
         <v>143</v>
       </c>
       <c r="J47" t="s">
+        <v>144</v>
+      </c>
+      <c r="K47" t="s">
         <v>145</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>144</v>
+      </c>
+      <c r="M47" t="s">
         <v>146</v>
       </c>
-      <c r="L47" t="s">
-        <v>145</v>
-      </c>
-      <c r="M47" t="s">
-        <v>148</v>
-      </c>
       <c r="N47" t="s">
+        <v>148</v>
+      </c>
+      <c r="O47" t="s">
+        <v>149</v>
+      </c>
+      <c r="P47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q47" t="s">
         <v>150</v>
       </c>
-      <c r="O47" t="s">
+      <c r="R47" t="s">
         <v>151</v>
       </c>
-      <c r="P47" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="S47" t="s">
         <v>152</v>
       </c>
-      <c r="R47" t="s">
-        <v>154</v>
-      </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
+        <v>153</v>
+      </c>
+      <c r="X47" t="s">
         <v>155</v>
       </c>
-      <c r="T47" t="s">
+      <c r="AA47" t="s">
         <v>157</v>
       </c>
-      <c r="X47" t="s">
+      <c r="AB47" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD47" t="s">
         <v>160</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AE47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH47" t="s">
         <v>164</v>
       </c>
-      <c r="AB47" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC47" t="s">
+      <c r="AI47" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>167</v>
       </c>
-      <c r="AD47" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36">
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5326,85 +5388,85 @@
         <v>142</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K48" t="s">
+        <v>219</v>
+      </c>
+      <c r="L48" t="s">
+        <v>144</v>
+      </c>
+      <c r="M48" t="s">
         <v>147</v>
       </c>
-      <c r="L48" t="s">
-        <v>145</v>
-      </c>
-      <c r="M48" t="s">
-        <v>149</v>
-      </c>
       <c r="N48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q48" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R48" t="s">
+        <v>221</v>
+      </c>
+      <c r="S48" t="s">
+        <v>220</v>
+      </c>
+      <c r="T48" t="s">
+        <v>221</v>
+      </c>
+      <c r="U48" t="s">
         <v>154</v>
       </c>
-      <c r="S48" t="s">
+      <c r="V48" t="s">
+        <v>222</v>
+      </c>
+      <c r="X48" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z48" t="s">
         <v>156</v>
       </c>
-      <c r="T48" t="s">
-        <v>157</v>
-      </c>
-      <c r="U48" t="s">
+      <c r="AA48" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB48" t="s">
         <v>158</v>
       </c>
-      <c r="V48" t="s">
-        <v>159</v>
-      </c>
-      <c r="X48" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y48" t="s">
+      <c r="AC48" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF48" t="s">
         <v>162</v>
       </c>
-      <c r="Z48" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB48" t="s">
+      <c r="AG48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI48" t="s">
         <v>166</v>
       </c>
-      <c r="AC48" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35">
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -5424,85 +5486,85 @@
         <v>142</v>
       </c>
       <c r="I49" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K49" t="s">
+        <v>219</v>
+      </c>
+      <c r="L49" t="s">
+        <v>144</v>
+      </c>
+      <c r="M49" t="s">
         <v>147</v>
       </c>
-      <c r="L49" t="s">
-        <v>145</v>
-      </c>
-      <c r="M49" t="s">
-        <v>149</v>
-      </c>
       <c r="N49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q49" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R49" t="s">
+        <v>221</v>
+      </c>
+      <c r="S49" t="s">
+        <v>220</v>
+      </c>
+      <c r="T49" t="s">
+        <v>221</v>
+      </c>
+      <c r="U49" t="s">
         <v>154</v>
       </c>
-      <c r="S49" t="s">
+      <c r="V49" t="s">
+        <v>222</v>
+      </c>
+      <c r="X49" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z49" t="s">
         <v>156</v>
       </c>
-      <c r="T49" t="s">
-        <v>157</v>
-      </c>
-      <c r="U49" t="s">
+      <c r="AA49" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB49" t="s">
         <v>158</v>
       </c>
-      <c r="V49" t="s">
-        <v>159</v>
-      </c>
-      <c r="X49" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y49" t="s">
+      <c r="AC49" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF49" t="s">
         <v>162</v>
       </c>
-      <c r="Z49" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB49" t="s">
+      <c r="AG49" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI49" t="s">
         <v>166</v>
       </c>
-      <c r="AC49" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35">
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -5522,85 +5584,85 @@
         <v>142</v>
       </c>
       <c r="I50" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K50" t="s">
+        <v>219</v>
+      </c>
+      <c r="L50" t="s">
+        <v>144</v>
+      </c>
+      <c r="M50" t="s">
         <v>147</v>
       </c>
-      <c r="L50" t="s">
-        <v>145</v>
-      </c>
-      <c r="M50" t="s">
-        <v>149</v>
-      </c>
       <c r="N50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q50" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R50" t="s">
+        <v>221</v>
+      </c>
+      <c r="S50" t="s">
+        <v>220</v>
+      </c>
+      <c r="T50" t="s">
+        <v>221</v>
+      </c>
+      <c r="U50" t="s">
         <v>154</v>
       </c>
-      <c r="S50" t="s">
+      <c r="V50" t="s">
+        <v>222</v>
+      </c>
+      <c r="X50" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z50" t="s">
         <v>156</v>
       </c>
-      <c r="T50" t="s">
-        <v>157</v>
-      </c>
-      <c r="U50" t="s">
+      <c r="AA50" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB50" t="s">
         <v>158</v>
       </c>
-      <c r="V50" t="s">
-        <v>159</v>
-      </c>
-      <c r="X50" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y50" t="s">
+      <c r="AC50" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF50" t="s">
         <v>162</v>
       </c>
-      <c r="Z50" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB50" t="s">
+      <c r="AG50" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI50" t="s">
         <v>166</v>
       </c>
-      <c r="AC50" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35">
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -5620,85 +5682,85 @@
         <v>142</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K51" t="s">
+        <v>219</v>
+      </c>
+      <c r="L51" t="s">
+        <v>144</v>
+      </c>
+      <c r="M51" t="s">
         <v>147</v>
       </c>
-      <c r="L51" t="s">
-        <v>145</v>
-      </c>
-      <c r="M51" t="s">
-        <v>149</v>
-      </c>
       <c r="N51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q51" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R51" t="s">
+        <v>221</v>
+      </c>
+      <c r="S51" t="s">
+        <v>220</v>
+      </c>
+      <c r="T51" t="s">
+        <v>221</v>
+      </c>
+      <c r="U51" t="s">
         <v>154</v>
       </c>
-      <c r="S51" t="s">
+      <c r="V51" t="s">
+        <v>222</v>
+      </c>
+      <c r="X51" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z51" t="s">
         <v>156</v>
       </c>
-      <c r="T51" t="s">
-        <v>157</v>
-      </c>
-      <c r="U51" t="s">
+      <c r="AA51" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB51" t="s">
         <v>158</v>
       </c>
-      <c r="V51" t="s">
-        <v>159</v>
-      </c>
-      <c r="X51" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y51" t="s">
+      <c r="AC51" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF51" t="s">
         <v>162</v>
       </c>
-      <c r="Z51" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB51" t="s">
+      <c r="AG51" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI51" t="s">
         <v>166</v>
       </c>
-      <c r="AC51" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35">
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -5718,85 +5780,85 @@
         <v>142</v>
       </c>
       <c r="I52" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K52" t="s">
+        <v>219</v>
+      </c>
+      <c r="L52" t="s">
+        <v>144</v>
+      </c>
+      <c r="M52" t="s">
         <v>147</v>
       </c>
-      <c r="L52" t="s">
-        <v>145</v>
-      </c>
-      <c r="M52" t="s">
-        <v>149</v>
-      </c>
       <c r="N52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q52" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R52" t="s">
+        <v>221</v>
+      </c>
+      <c r="S52" t="s">
+        <v>220</v>
+      </c>
+      <c r="T52" t="s">
+        <v>221</v>
+      </c>
+      <c r="U52" t="s">
         <v>154</v>
       </c>
-      <c r="S52" t="s">
+      <c r="V52" t="s">
+        <v>222</v>
+      </c>
+      <c r="X52" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z52" t="s">
         <v>156</v>
       </c>
-      <c r="T52" t="s">
-        <v>157</v>
-      </c>
-      <c r="U52" t="s">
+      <c r="AA52" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB52" t="s">
         <v>158</v>
       </c>
-      <c r="V52" t="s">
-        <v>159</v>
-      </c>
-      <c r="X52" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y52" t="s">
+      <c r="AC52" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF52" t="s">
         <v>162</v>
       </c>
-      <c r="Z52" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB52" t="s">
+      <c r="AG52" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI52" t="s">
         <v>166</v>
       </c>
-      <c r="AC52" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35">
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -5816,85 +5878,85 @@
         <v>142</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K53" t="s">
+        <v>219</v>
+      </c>
+      <c r="L53" t="s">
+        <v>144</v>
+      </c>
+      <c r="M53" t="s">
         <v>147</v>
       </c>
-      <c r="L53" t="s">
-        <v>145</v>
-      </c>
-      <c r="M53" t="s">
-        <v>149</v>
-      </c>
       <c r="N53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q53" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R53" t="s">
+        <v>221</v>
+      </c>
+      <c r="S53" t="s">
+        <v>220</v>
+      </c>
+      <c r="T53" t="s">
+        <v>221</v>
+      </c>
+      <c r="U53" t="s">
         <v>154</v>
       </c>
-      <c r="S53" t="s">
+      <c r="V53" t="s">
+        <v>222</v>
+      </c>
+      <c r="X53" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z53" t="s">
         <v>156</v>
       </c>
-      <c r="T53" t="s">
-        <v>157</v>
-      </c>
-      <c r="U53" t="s">
+      <c r="AA53" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB53" t="s">
         <v>158</v>
       </c>
-      <c r="V53" t="s">
-        <v>159</v>
-      </c>
-      <c r="X53" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y53" t="s">
+      <c r="AC53" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF53" t="s">
         <v>162</v>
       </c>
-      <c r="Z53" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB53" t="s">
+      <c r="AG53" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI53" t="s">
         <v>166</v>
       </c>
-      <c r="AC53" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35">
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -5914,85 +5976,85 @@
         <v>142</v>
       </c>
       <c r="I54" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K54" t="s">
+        <v>219</v>
+      </c>
+      <c r="L54" t="s">
+        <v>144</v>
+      </c>
+      <c r="M54" t="s">
         <v>147</v>
       </c>
-      <c r="L54" t="s">
-        <v>145</v>
-      </c>
-      <c r="M54" t="s">
-        <v>149</v>
-      </c>
       <c r="N54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q54" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R54" t="s">
+        <v>221</v>
+      </c>
+      <c r="S54" t="s">
+        <v>220</v>
+      </c>
+      <c r="T54" t="s">
+        <v>221</v>
+      </c>
+      <c r="U54" t="s">
         <v>154</v>
       </c>
-      <c r="S54" t="s">
+      <c r="V54" t="s">
+        <v>222</v>
+      </c>
+      <c r="X54" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z54" t="s">
         <v>156</v>
       </c>
-      <c r="T54" t="s">
-        <v>157</v>
-      </c>
-      <c r="U54" t="s">
+      <c r="AA54" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB54" t="s">
         <v>158</v>
       </c>
-      <c r="V54" t="s">
-        <v>159</v>
-      </c>
-      <c r="X54" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y54" t="s">
+      <c r="AC54" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF54" t="s">
         <v>162</v>
       </c>
-      <c r="Z54" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB54" t="s">
+      <c r="AG54" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI54" t="s">
         <v>166</v>
       </c>
-      <c r="AC54" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35">
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -6012,85 +6074,85 @@
         <v>142</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K55" t="s">
+        <v>219</v>
+      </c>
+      <c r="L55" t="s">
+        <v>144</v>
+      </c>
+      <c r="M55" t="s">
         <v>147</v>
       </c>
-      <c r="L55" t="s">
-        <v>145</v>
-      </c>
-      <c r="M55" t="s">
-        <v>149</v>
-      </c>
       <c r="N55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q55" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R55" t="s">
+        <v>221</v>
+      </c>
+      <c r="S55" t="s">
+        <v>220</v>
+      </c>
+      <c r="T55" t="s">
+        <v>221</v>
+      </c>
+      <c r="U55" t="s">
         <v>154</v>
       </c>
-      <c r="S55" t="s">
+      <c r="V55" t="s">
+        <v>222</v>
+      </c>
+      <c r="X55" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z55" t="s">
         <v>156</v>
       </c>
-      <c r="T55" t="s">
-        <v>157</v>
-      </c>
-      <c r="U55" t="s">
+      <c r="AA55" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB55" t="s">
         <v>158</v>
       </c>
-      <c r="V55" t="s">
-        <v>159</v>
-      </c>
-      <c r="X55" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y55" t="s">
+      <c r="AC55" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF55" t="s">
         <v>162</v>
       </c>
-      <c r="Z55" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB55" t="s">
+      <c r="AG55" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI55" t="s">
         <v>166</v>
       </c>
-      <c r="AC55" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35">
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -6110,85 +6172,85 @@
         <v>142</v>
       </c>
       <c r="I56" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K56" t="s">
+        <v>219</v>
+      </c>
+      <c r="L56" t="s">
+        <v>144</v>
+      </c>
+      <c r="M56" t="s">
         <v>147</v>
       </c>
-      <c r="L56" t="s">
-        <v>145</v>
-      </c>
-      <c r="M56" t="s">
-        <v>149</v>
-      </c>
       <c r="N56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q56" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R56" t="s">
+        <v>221</v>
+      </c>
+      <c r="S56" t="s">
+        <v>220</v>
+      </c>
+      <c r="T56" t="s">
+        <v>221</v>
+      </c>
+      <c r="U56" t="s">
         <v>154</v>
       </c>
-      <c r="S56" t="s">
+      <c r="V56" t="s">
+        <v>222</v>
+      </c>
+      <c r="X56" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z56" t="s">
         <v>156</v>
       </c>
-      <c r="T56" t="s">
-        <v>157</v>
-      </c>
-      <c r="U56" t="s">
+      <c r="AA56" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB56" t="s">
         <v>158</v>
       </c>
-      <c r="V56" t="s">
-        <v>159</v>
-      </c>
-      <c r="X56" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y56" t="s">
+      <c r="AC56" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF56" t="s">
         <v>162</v>
       </c>
-      <c r="Z56" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB56" t="s">
+      <c r="AG56" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI56" t="s">
         <v>166</v>
       </c>
-      <c r="AC56" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35">
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -6208,85 +6270,85 @@
         <v>142</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K57" t="s">
+        <v>219</v>
+      </c>
+      <c r="L57" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" t="s">
         <v>147</v>
       </c>
-      <c r="L57" t="s">
-        <v>145</v>
-      </c>
-      <c r="M57" t="s">
-        <v>149</v>
-      </c>
       <c r="N57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q57" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R57" t="s">
+        <v>221</v>
+      </c>
+      <c r="S57" t="s">
+        <v>220</v>
+      </c>
+      <c r="T57" t="s">
+        <v>221</v>
+      </c>
+      <c r="U57" t="s">
         <v>154</v>
       </c>
-      <c r="S57" t="s">
+      <c r="V57" t="s">
+        <v>222</v>
+      </c>
+      <c r="X57" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z57" t="s">
         <v>156</v>
       </c>
-      <c r="T57" t="s">
-        <v>157</v>
-      </c>
-      <c r="U57" t="s">
+      <c r="AA57" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB57" t="s">
         <v>158</v>
       </c>
-      <c r="V57" t="s">
-        <v>159</v>
-      </c>
-      <c r="X57" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y57" t="s">
+      <c r="AC57" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF57" t="s">
         <v>162</v>
       </c>
-      <c r="Z57" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB57" t="s">
+      <c r="AG57" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI57" t="s">
         <v>166</v>
       </c>
-      <c r="AC57" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35">
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6306,85 +6368,85 @@
         <v>142</v>
       </c>
       <c r="I58" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K58" t="s">
+        <v>219</v>
+      </c>
+      <c r="L58" t="s">
+        <v>144</v>
+      </c>
+      <c r="M58" t="s">
         <v>147</v>
       </c>
-      <c r="L58" t="s">
-        <v>145</v>
-      </c>
-      <c r="M58" t="s">
-        <v>149</v>
-      </c>
       <c r="N58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q58" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R58" t="s">
+        <v>221</v>
+      </c>
+      <c r="S58" t="s">
+        <v>220</v>
+      </c>
+      <c r="T58" t="s">
+        <v>221</v>
+      </c>
+      <c r="U58" t="s">
         <v>154</v>
       </c>
-      <c r="S58" t="s">
+      <c r="V58" t="s">
+        <v>222</v>
+      </c>
+      <c r="X58" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z58" t="s">
         <v>156</v>
       </c>
-      <c r="T58" t="s">
-        <v>157</v>
-      </c>
-      <c r="U58" t="s">
+      <c r="AA58" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB58" t="s">
         <v>158</v>
       </c>
-      <c r="V58" t="s">
-        <v>159</v>
-      </c>
-      <c r="X58" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y58" t="s">
+      <c r="AC58" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF58" t="s">
         <v>162</v>
       </c>
-      <c r="Z58" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB58" t="s">
+      <c r="AG58" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI58" t="s">
         <v>166</v>
       </c>
-      <c r="AC58" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -6404,85 +6466,85 @@
         <v>142</v>
       </c>
       <c r="I59" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K59" t="s">
+        <v>219</v>
+      </c>
+      <c r="L59" t="s">
+        <v>144</v>
+      </c>
+      <c r="M59" t="s">
         <v>147</v>
       </c>
-      <c r="L59" t="s">
-        <v>145</v>
-      </c>
-      <c r="M59" t="s">
-        <v>149</v>
-      </c>
       <c r="N59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q59" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R59" t="s">
+        <v>221</v>
+      </c>
+      <c r="S59" t="s">
+        <v>220</v>
+      </c>
+      <c r="T59" t="s">
+        <v>221</v>
+      </c>
+      <c r="U59" t="s">
         <v>154</v>
       </c>
-      <c r="S59" t="s">
+      <c r="V59" t="s">
+        <v>222</v>
+      </c>
+      <c r="X59" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z59" t="s">
         <v>156</v>
       </c>
-      <c r="T59" t="s">
-        <v>157</v>
-      </c>
-      <c r="U59" t="s">
+      <c r="AA59" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB59" t="s">
         <v>158</v>
       </c>
-      <c r="V59" t="s">
-        <v>159</v>
-      </c>
-      <c r="X59" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y59" t="s">
+      <c r="AC59" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF59" t="s">
         <v>162</v>
       </c>
-      <c r="Z59" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB59" t="s">
+      <c r="AG59" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI59" t="s">
         <v>166</v>
       </c>
-      <c r="AC59" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -6502,85 +6564,85 @@
         <v>142</v>
       </c>
       <c r="I60" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K60" t="s">
+        <v>219</v>
+      </c>
+      <c r="L60" t="s">
+        <v>144</v>
+      </c>
+      <c r="M60" t="s">
         <v>147</v>
       </c>
-      <c r="L60" t="s">
-        <v>145</v>
-      </c>
-      <c r="M60" t="s">
-        <v>149</v>
-      </c>
       <c r="N60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q60" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R60" t="s">
+        <v>221</v>
+      </c>
+      <c r="S60" t="s">
+        <v>220</v>
+      </c>
+      <c r="T60" t="s">
+        <v>221</v>
+      </c>
+      <c r="U60" t="s">
         <v>154</v>
       </c>
-      <c r="S60" t="s">
+      <c r="V60" t="s">
+        <v>222</v>
+      </c>
+      <c r="X60" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z60" t="s">
         <v>156</v>
       </c>
-      <c r="T60" t="s">
-        <v>157</v>
-      </c>
-      <c r="U60" t="s">
+      <c r="AA60" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB60" t="s">
         <v>158</v>
       </c>
-      <c r="V60" t="s">
-        <v>159</v>
-      </c>
-      <c r="X60" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y60" t="s">
+      <c r="AC60" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF60" t="s">
         <v>162</v>
       </c>
-      <c r="Z60" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB60" t="s">
+      <c r="AG60" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI60" t="s">
         <v>166</v>
       </c>
-      <c r="AC60" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35">
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -6600,85 +6662,85 @@
         <v>142</v>
       </c>
       <c r="I61" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L61" t="s">
+        <v>144</v>
+      </c>
+      <c r="M61" t="s">
         <v>147</v>
       </c>
-      <c r="L61" t="s">
-        <v>145</v>
-      </c>
-      <c r="M61" t="s">
-        <v>149</v>
-      </c>
       <c r="N61" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P61" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q61" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R61" t="s">
+        <v>221</v>
+      </c>
+      <c r="S61" t="s">
+        <v>220</v>
+      </c>
+      <c r="T61" t="s">
+        <v>221</v>
+      </c>
+      <c r="U61" t="s">
         <v>154</v>
       </c>
-      <c r="S61" t="s">
+      <c r="V61" t="s">
+        <v>222</v>
+      </c>
+      <c r="X61" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z61" t="s">
         <v>156</v>
       </c>
-      <c r="T61" t="s">
-        <v>157</v>
-      </c>
-      <c r="U61" t="s">
+      <c r="AA61" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB61" t="s">
         <v>158</v>
       </c>
-      <c r="V61" t="s">
-        <v>159</v>
-      </c>
-      <c r="X61" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y61" t="s">
+      <c r="AC61" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF61" t="s">
         <v>162</v>
       </c>
-      <c r="Z61" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB61" t="s">
+      <c r="AG61" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI61" t="s">
         <v>166</v>
       </c>
-      <c r="AC61" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35">
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6698,85 +6760,85 @@
         <v>142</v>
       </c>
       <c r="I62" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K62" t="s">
+        <v>219</v>
+      </c>
+      <c r="L62" t="s">
+        <v>144</v>
+      </c>
+      <c r="M62" t="s">
         <v>147</v>
       </c>
-      <c r="L62" t="s">
-        <v>145</v>
-      </c>
-      <c r="M62" t="s">
-        <v>149</v>
-      </c>
       <c r="N62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q62" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R62" t="s">
+        <v>221</v>
+      </c>
+      <c r="S62" t="s">
+        <v>220</v>
+      </c>
+      <c r="T62" t="s">
+        <v>221</v>
+      </c>
+      <c r="U62" t="s">
         <v>154</v>
       </c>
-      <c r="S62" t="s">
+      <c r="V62" t="s">
+        <v>222</v>
+      </c>
+      <c r="X62" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z62" t="s">
         <v>156</v>
       </c>
-      <c r="T62" t="s">
-        <v>157</v>
-      </c>
-      <c r="U62" t="s">
+      <c r="AA62" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB62" t="s">
         <v>158</v>
       </c>
-      <c r="V62" t="s">
-        <v>159</v>
-      </c>
-      <c r="X62" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y62" t="s">
+      <c r="AC62" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF62" t="s">
         <v>162</v>
       </c>
-      <c r="Z62" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB62" t="s">
+      <c r="AG62" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI62" t="s">
         <v>166</v>
       </c>
-      <c r="AC62" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35">
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6796,85 +6858,85 @@
         <v>142</v>
       </c>
       <c r="I63" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K63" t="s">
+        <v>219</v>
+      </c>
+      <c r="L63" t="s">
+        <v>144</v>
+      </c>
+      <c r="M63" t="s">
         <v>147</v>
       </c>
-      <c r="L63" t="s">
-        <v>145</v>
-      </c>
-      <c r="M63" t="s">
-        <v>149</v>
-      </c>
       <c r="N63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q63" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R63" t="s">
+        <v>221</v>
+      </c>
+      <c r="S63" t="s">
+        <v>220</v>
+      </c>
+      <c r="T63" t="s">
+        <v>221</v>
+      </c>
+      <c r="U63" t="s">
         <v>154</v>
       </c>
-      <c r="S63" t="s">
+      <c r="V63" t="s">
+        <v>222</v>
+      </c>
+      <c r="X63" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z63" t="s">
         <v>156</v>
       </c>
-      <c r="T63" t="s">
-        <v>157</v>
-      </c>
-      <c r="U63" t="s">
+      <c r="AA63" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB63" t="s">
         <v>158</v>
       </c>
-      <c r="V63" t="s">
-        <v>159</v>
-      </c>
-      <c r="X63" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y63" t="s">
+      <c r="AC63" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF63" t="s">
         <v>162</v>
       </c>
-      <c r="Z63" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB63" t="s">
+      <c r="AG63" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI63" t="s">
         <v>166</v>
       </c>
-      <c r="AC63" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -6894,85 +6956,85 @@
         <v>142</v>
       </c>
       <c r="I64" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K64" t="s">
+        <v>219</v>
+      </c>
+      <c r="L64" t="s">
+        <v>144</v>
+      </c>
+      <c r="M64" t="s">
         <v>147</v>
       </c>
-      <c r="L64" t="s">
-        <v>145</v>
-      </c>
-      <c r="M64" t="s">
-        <v>149</v>
-      </c>
       <c r="N64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q64" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R64" t="s">
+        <v>221</v>
+      </c>
+      <c r="S64" t="s">
+        <v>220</v>
+      </c>
+      <c r="T64" t="s">
+        <v>221</v>
+      </c>
+      <c r="U64" t="s">
         <v>154</v>
       </c>
-      <c r="S64" t="s">
+      <c r="V64" t="s">
+        <v>222</v>
+      </c>
+      <c r="X64" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z64" t="s">
         <v>156</v>
       </c>
-      <c r="T64" t="s">
-        <v>157</v>
-      </c>
-      <c r="U64" t="s">
+      <c r="AA64" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB64" t="s">
         <v>158</v>
       </c>
-      <c r="V64" t="s">
-        <v>159</v>
-      </c>
-      <c r="X64" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y64" t="s">
+      <c r="AC64" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF64" t="s">
         <v>162</v>
       </c>
-      <c r="Z64" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB64" t="s">
+      <c r="AG64" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI64" t="s">
         <v>166</v>
       </c>
-      <c r="AC64" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35">
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -6992,85 +7054,85 @@
         <v>142</v>
       </c>
       <c r="I65" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K65" t="s">
+        <v>219</v>
+      </c>
+      <c r="L65" t="s">
+        <v>144</v>
+      </c>
+      <c r="M65" t="s">
         <v>147</v>
       </c>
-      <c r="L65" t="s">
-        <v>145</v>
-      </c>
-      <c r="M65" t="s">
-        <v>149</v>
-      </c>
       <c r="N65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q65" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R65" t="s">
+        <v>221</v>
+      </c>
+      <c r="S65" t="s">
+        <v>220</v>
+      </c>
+      <c r="T65" t="s">
+        <v>221</v>
+      </c>
+      <c r="U65" t="s">
         <v>154</v>
       </c>
-      <c r="S65" t="s">
+      <c r="V65" t="s">
+        <v>222</v>
+      </c>
+      <c r="X65" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z65" t="s">
         <v>156</v>
       </c>
-      <c r="T65" t="s">
-        <v>157</v>
-      </c>
-      <c r="U65" t="s">
+      <c r="AA65" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB65" t="s">
         <v>158</v>
       </c>
-      <c r="V65" t="s">
-        <v>159</v>
-      </c>
-      <c r="X65" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y65" t="s">
+      <c r="AC65" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF65" t="s">
         <v>162</v>
       </c>
-      <c r="Z65" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB65" t="s">
+      <c r="AG65" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI65" t="s">
         <v>166</v>
       </c>
-      <c r="AC65" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35">
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -7090,85 +7152,85 @@
         <v>142</v>
       </c>
       <c r="I66" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K66" t="s">
+        <v>219</v>
+      </c>
+      <c r="L66" t="s">
+        <v>144</v>
+      </c>
+      <c r="M66" t="s">
         <v>147</v>
       </c>
-      <c r="L66" t="s">
-        <v>145</v>
-      </c>
-      <c r="M66" t="s">
-        <v>149</v>
-      </c>
       <c r="N66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q66" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R66" t="s">
+        <v>221</v>
+      </c>
+      <c r="S66" t="s">
+        <v>220</v>
+      </c>
+      <c r="T66" t="s">
+        <v>221</v>
+      </c>
+      <c r="U66" t="s">
         <v>154</v>
       </c>
-      <c r="S66" t="s">
+      <c r="V66" t="s">
+        <v>222</v>
+      </c>
+      <c r="X66" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z66" t="s">
         <v>156</v>
       </c>
-      <c r="T66" t="s">
-        <v>157</v>
-      </c>
-      <c r="U66" t="s">
+      <c r="AA66" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB66" t="s">
         <v>158</v>
       </c>
-      <c r="V66" t="s">
-        <v>159</v>
-      </c>
-      <c r="X66" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y66" t="s">
+      <c r="AC66" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF66" t="s">
         <v>162</v>
       </c>
-      <c r="Z66" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB66" t="s">
+      <c r="AG66" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI66" t="s">
         <v>166</v>
       </c>
-      <c r="AC66" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35">
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -7188,85 +7250,85 @@
         <v>142</v>
       </c>
       <c r="I67" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K67" t="s">
+        <v>219</v>
+      </c>
+      <c r="L67" t="s">
+        <v>144</v>
+      </c>
+      <c r="M67" t="s">
         <v>147</v>
       </c>
-      <c r="L67" t="s">
-        <v>145</v>
-      </c>
-      <c r="M67" t="s">
-        <v>149</v>
-      </c>
       <c r="N67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q67" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R67" t="s">
+        <v>221</v>
+      </c>
+      <c r="S67" t="s">
+        <v>220</v>
+      </c>
+      <c r="T67" t="s">
+        <v>221</v>
+      </c>
+      <c r="U67" t="s">
         <v>154</v>
       </c>
-      <c r="S67" t="s">
+      <c r="V67" t="s">
+        <v>222</v>
+      </c>
+      <c r="X67" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z67" t="s">
         <v>156</v>
       </c>
-      <c r="T67" t="s">
-        <v>157</v>
-      </c>
-      <c r="U67" t="s">
+      <c r="AA67" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB67" t="s">
         <v>158</v>
       </c>
-      <c r="V67" t="s">
-        <v>159</v>
-      </c>
-      <c r="X67" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y67" t="s">
+      <c r="AC67" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF67" t="s">
         <v>162</v>
       </c>
-      <c r="Z67" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB67" t="s">
+      <c r="AG67" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI67" t="s">
         <v>166</v>
       </c>
-      <c r="AC67" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35">
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -7286,85 +7348,85 @@
         <v>142</v>
       </c>
       <c r="I68" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K68" t="s">
+        <v>219</v>
+      </c>
+      <c r="L68" t="s">
+        <v>144</v>
+      </c>
+      <c r="M68" t="s">
         <v>147</v>
       </c>
-      <c r="L68" t="s">
-        <v>145</v>
-      </c>
-      <c r="M68" t="s">
-        <v>149</v>
-      </c>
       <c r="N68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q68" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R68" t="s">
+        <v>221</v>
+      </c>
+      <c r="S68" t="s">
+        <v>220</v>
+      </c>
+      <c r="T68" t="s">
+        <v>221</v>
+      </c>
+      <c r="U68" t="s">
         <v>154</v>
       </c>
-      <c r="S68" t="s">
+      <c r="V68" t="s">
+        <v>222</v>
+      </c>
+      <c r="X68" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z68" t="s">
         <v>156</v>
       </c>
-      <c r="T68" t="s">
-        <v>157</v>
-      </c>
-      <c r="U68" t="s">
+      <c r="AA68" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB68" t="s">
         <v>158</v>
       </c>
-      <c r="V68" t="s">
-        <v>159</v>
-      </c>
-      <c r="X68" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y68" t="s">
+      <c r="AC68" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF68" t="s">
         <v>162</v>
       </c>
-      <c r="Z68" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB68" t="s">
+      <c r="AG68" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI68" t="s">
         <v>166</v>
       </c>
-      <c r="AC68" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35">
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -7384,85 +7446,85 @@
         <v>142</v>
       </c>
       <c r="I69" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K69" t="s">
+        <v>219</v>
+      </c>
+      <c r="L69" t="s">
+        <v>144</v>
+      </c>
+      <c r="M69" t="s">
         <v>147</v>
       </c>
-      <c r="L69" t="s">
-        <v>145</v>
-      </c>
-      <c r="M69" t="s">
-        <v>149</v>
-      </c>
       <c r="N69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q69" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R69" t="s">
+        <v>221</v>
+      </c>
+      <c r="S69" t="s">
+        <v>220</v>
+      </c>
+      <c r="T69" t="s">
+        <v>221</v>
+      </c>
+      <c r="U69" t="s">
         <v>154</v>
       </c>
-      <c r="S69" t="s">
+      <c r="V69" t="s">
+        <v>222</v>
+      </c>
+      <c r="X69" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z69" t="s">
         <v>156</v>
       </c>
-      <c r="T69" t="s">
-        <v>157</v>
-      </c>
-      <c r="U69" t="s">
+      <c r="AA69" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB69" t="s">
         <v>158</v>
       </c>
-      <c r="V69" t="s">
-        <v>159</v>
-      </c>
-      <c r="X69" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y69" t="s">
+      <c r="AC69" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF69" t="s">
         <v>162</v>
       </c>
-      <c r="Z69" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB69" t="s">
+      <c r="AG69" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI69" t="s">
         <v>166</v>
       </c>
-      <c r="AC69" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35">
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -7482,672 +7544,672 @@
         <v>142</v>
       </c>
       <c r="I70" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="J70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K70" t="s">
+        <v>219</v>
+      </c>
+      <c r="L70" t="s">
+        <v>144</v>
+      </c>
+      <c r="M70" t="s">
         <v>147</v>
       </c>
-      <c r="L70" t="s">
-        <v>145</v>
-      </c>
-      <c r="M70" t="s">
-        <v>149</v>
-      </c>
       <c r="N70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q70" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="R70" t="s">
+        <v>221</v>
+      </c>
+      <c r="S70" t="s">
+        <v>220</v>
+      </c>
+      <c r="T70" t="s">
+        <v>221</v>
+      </c>
+      <c r="U70" t="s">
         <v>154</v>
       </c>
-      <c r="S70" t="s">
+      <c r="V70" t="s">
+        <v>222</v>
+      </c>
+      <c r="X70" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z70" t="s">
         <v>156</v>
       </c>
-      <c r="T70" t="s">
-        <v>157</v>
-      </c>
-      <c r="U70" t="s">
+      <c r="AA70" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB70" t="s">
         <v>158</v>
       </c>
-      <c r="V70" t="s">
-        <v>159</v>
-      </c>
-      <c r="X70" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y70" t="s">
+      <c r="AC70" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF70" t="s">
         <v>162</v>
       </c>
-      <c r="Z70" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB70" t="s">
+      <c r="AG70" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI70" t="s">
         <v>166</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
         <v>182</v>
       </c>
-      <c r="C11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC720F4-BDC6-3241-A4A9-2BD1ACEC62C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="5060" windowWidth="40340" windowHeight="22800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -455,12 +449,18 @@
     <t>object_lat</t>
   </si>
   <si>
+    <t>latitude</t>
+  </si>
+  <si>
     <t>degree</t>
   </si>
   <si>
     <t>object_lon</t>
   </si>
   <si>
+    <t>longitude</t>
+  </si>
+  <si>
     <t>object_depth_min</t>
   </si>
   <si>
@@ -476,9 +476,15 @@
     <t>object_date</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>%Y%m%d</t>
   </si>
   <si>
+    <t>%Y%m%d %H:%M:%S %z</t>
+  </si>
+  <si>
     <t>object_time</t>
   </si>
   <si>
@@ -488,33 +494,54 @@
     <t>vol_analyzed</t>
   </si>
   <si>
+    <t>milliliters</t>
+  </si>
+  <si>
     <t>object_id</t>
   </si>
   <si>
+    <t>roi_id</t>
+  </si>
+  <si>
+    <t>equiv_diameter</t>
+  </si>
+  <si>
     <t>pixels</t>
   </si>
   <si>
     <t>object_summedbiovolume</t>
   </si>
   <si>
+    <t>biovolume</t>
+  </si>
+  <si>
     <t>cubic_pixel</t>
   </si>
   <si>
     <t>object_summedarea</t>
   </si>
   <si>
+    <t>area</t>
+  </si>
+  <si>
     <t>square_pixel</t>
   </si>
   <si>
     <t>object_summedminoraxislength</t>
   </si>
   <si>
+    <t>minor_axis_length</t>
+  </si>
+  <si>
     <t>pixel</t>
   </si>
   <si>
     <t>process_pixel_to_micron</t>
   </si>
   <si>
+    <t>pixel_to_micron</t>
+  </si>
+  <si>
     <t>pixel_per_micron</t>
   </si>
   <si>
@@ -674,47 +701,14 @@
     <t>Unit of the largest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
   </si>
   <si>
-    <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>%Y%m%d %H:%M:%S %z</t>
-  </si>
-  <si>
-    <t>milliliters</t>
-  </si>
-  <si>
-    <t>roi_id</t>
-  </si>
-  <si>
-    <t>equiv_diameter</t>
-  </si>
-  <si>
-    <t>biovolume</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>minor_axis_length</t>
-  </si>
-  <si>
-    <t>pixel_to_micron</t>
+    <t>Additional description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,14 +784,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -844,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,27 +862,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,24 +896,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1121,23 +1071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT1" sqref="AT1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -1297,73 +1238,73 @@
         <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -1386,73 +1327,73 @@
         <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1475,73 +1416,73 @@
         <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1564,73 +1505,73 @@
         <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH5" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -1653,73 +1594,73 @@
         <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB6" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC6" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD6" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI6" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -1742,73 +1683,73 @@
         <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -1831,73 +1772,73 @@
         <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH8" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI8" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -1920,73 +1861,73 @@
         <v>143</v>
       </c>
       <c r="J9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA9" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB9" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF9" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH9" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI9" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -2009,73 +1950,73 @@
         <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB10" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC10" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF10" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG10" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH10" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI10" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -2098,73 +2039,73 @@
         <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA11" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC11" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG11" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH11" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI11" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -2187,73 +2128,73 @@
         <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB12" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC12" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD12" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE12" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF12" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH12" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI12" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -2276,73 +2217,73 @@
         <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB13" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC13" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF13" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH13" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI13" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -2365,73 +2306,73 @@
         <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA14" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB14" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC14" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD14" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE14" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH14" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI14" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -2454,73 +2395,73 @@
         <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA15" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB15" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC15" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD15" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE15" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH15" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI15" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -2543,73 +2484,73 @@
         <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB16" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC16" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD16" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI16" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2632,73 +2573,73 @@
         <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X17" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB17" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD17" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG17" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH17" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI17" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -2721,73 +2662,73 @@
         <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA18" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB18" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC18" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD18" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE18" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG18" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH18" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI18" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -2810,73 +2751,73 @@
         <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S19" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X19" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA19" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB19" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC19" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD19" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE19" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH19" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI19" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -2899,73 +2840,73 @@
         <v>143</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X20" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB20" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC20" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD20" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE20" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG20" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH20" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI20" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -2988,73 +2929,73 @@
         <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S21" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T21" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB21" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC21" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD21" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG21" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH21" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI21" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -3077,73 +3018,73 @@
         <v>143</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA22" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB22" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC22" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD22" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE22" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG22" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH22" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI22" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -3166,73 +3107,73 @@
         <v>143</v>
       </c>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T23" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA23" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB23" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC23" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD23" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE23" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF23" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG23" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH23" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI23" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3255,73 +3196,73 @@
         <v>143</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X24" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA24" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB24" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC24" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD24" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE24" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF24" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG24" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH24" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI24" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3344,73 +3285,73 @@
         <v>143</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S25" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T25" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X25" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA25" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB25" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC25" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD25" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE25" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF25" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG25" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH25" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI25" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3433,73 +3374,73 @@
         <v>143</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S26" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T26" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X26" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA26" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB26" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC26" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD26" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE26" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG26" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH26" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI26" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3522,73 +3463,73 @@
         <v>143</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S27" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X27" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA27" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB27" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC27" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD27" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF27" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG27" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH27" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI27" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3611,73 +3552,73 @@
         <v>143</v>
       </c>
       <c r="J28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T28" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X28" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA28" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB28" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC28" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD28" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF28" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG28" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH28" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI28" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -3700,73 +3641,73 @@
         <v>143</v>
       </c>
       <c r="J29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T29" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X29" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA29" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB29" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC29" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD29" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE29" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF29" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG29" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH29" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI29" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -3789,73 +3730,73 @@
         <v>143</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S30" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T30" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB30" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC30" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD30" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE30" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG30" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH30" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI30" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -3878,73 +3819,73 @@
         <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S31" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA31" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB31" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC31" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD31" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE31" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF31" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG31" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH31" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI31" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -3967,73 +3908,73 @@
         <v>143</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S32" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X32" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB32" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC32" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD32" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE32" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF32" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG32" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH32" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI32" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ32" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -4056,73 +3997,73 @@
         <v>143</v>
       </c>
       <c r="J33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T33" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X33" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA33" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB33" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC33" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD33" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE33" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG33" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH33" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI33" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -4145,73 +4086,73 @@
         <v>143</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S34" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T34" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X34" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA34" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB34" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC34" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD34" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE34" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF34" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG34" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH34" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI34" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4234,73 +4175,73 @@
         <v>143</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R35" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S35" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X35" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB35" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC35" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD35" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF35" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH35" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI35" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4323,73 +4264,73 @@
         <v>143</v>
       </c>
       <c r="J36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R36" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S36" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T36" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X36" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA36" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB36" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC36" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD36" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE36" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF36" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG36" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH36" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI36" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4412,73 +4353,73 @@
         <v>143</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R37" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X37" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA37" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB37" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC37" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD37" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE37" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF37" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG37" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH37" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI37" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4501,73 +4442,73 @@
         <v>143</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M38" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S38" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T38" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X38" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA38" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB38" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC38" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD38" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE38" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF38" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG38" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH38" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI38" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4590,73 +4531,73 @@
         <v>143</v>
       </c>
       <c r="J39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S39" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T39" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X39" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA39" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB39" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC39" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD39" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE39" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF39" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG39" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH39" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI39" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -4679,73 +4620,73 @@
         <v>143</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R40" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S40" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T40" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X40" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA40" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB40" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC40" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD40" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE40" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF40" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG40" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH40" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI40" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ40" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -4768,73 +4709,73 @@
         <v>143</v>
       </c>
       <c r="J41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O41" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R41" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S41" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T41" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X41" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA41" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB41" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC41" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD41" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE41" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF41" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG41" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH41" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI41" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -4857,73 +4798,73 @@
         <v>143</v>
       </c>
       <c r="J42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R42" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S42" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X42" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA42" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB42" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC42" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD42" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE42" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG42" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH42" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI42" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -4946,73 +4887,73 @@
         <v>143</v>
       </c>
       <c r="J43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S43" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T43" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X43" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA43" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB43" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC43" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD43" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE43" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF43" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG43" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH43" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI43" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -5035,73 +4976,73 @@
         <v>143</v>
       </c>
       <c r="J44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N44" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA44" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC44" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD44" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE44" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF44" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG44" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH44" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI44" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -5124,73 +5065,73 @@
         <v>143</v>
       </c>
       <c r="J45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R45" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S45" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T45" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X45" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA45" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB45" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC45" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD45" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE45" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF45" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG45" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH45" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI45" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5213,73 +5154,73 @@
         <v>143</v>
       </c>
       <c r="J46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S46" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X46" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA46" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB46" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC46" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD46" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE46" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF46" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG46" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH46" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI46" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5302,73 +5243,73 @@
         <v>143</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R47" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="S47" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="T47" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="X47" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AA47" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AB47" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC47" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AD47" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE47" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AF47" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG47" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AH47" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI47" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AJ47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5388,85 +5329,85 @@
         <v>142</v>
       </c>
       <c r="I48" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K48" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q48" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R48" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S48" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T48" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U48" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V48" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X48" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y48" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z48" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA48" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB48" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC48" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD48" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE48" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF48" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG48" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH48" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -5486,85 +5427,85 @@
         <v>142</v>
       </c>
       <c r="I49" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K49" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q49" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R49" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S49" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T49" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U49" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V49" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X49" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y49" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z49" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA49" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB49" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC49" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD49" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE49" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF49" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG49" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH49" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -5584,85 +5525,85 @@
         <v>142</v>
       </c>
       <c r="I50" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K50" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q50" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R50" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S50" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T50" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U50" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V50" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X50" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y50" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z50" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA50" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB50" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC50" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD50" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE50" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF50" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG50" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH50" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -5682,85 +5623,85 @@
         <v>142</v>
       </c>
       <c r="I51" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K51" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M51" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O51" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q51" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R51" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S51" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T51" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U51" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V51" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X51" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y51" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z51" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA51" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB51" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC51" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD51" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE51" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF51" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG51" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH51" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI51" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -5780,85 +5721,85 @@
         <v>142</v>
       </c>
       <c r="I52" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K52" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q52" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R52" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S52" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T52" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U52" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V52" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X52" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y52" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z52" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA52" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB52" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC52" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD52" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE52" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF52" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG52" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH52" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -5878,85 +5819,85 @@
         <v>142</v>
       </c>
       <c r="I53" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K53" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q53" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R53" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S53" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T53" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U53" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V53" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X53" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y53" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z53" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA53" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB53" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC53" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD53" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE53" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF53" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG53" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH53" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -5976,85 +5917,85 @@
         <v>142</v>
       </c>
       <c r="I54" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K54" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M54" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O54" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q54" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R54" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S54" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T54" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V54" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X54" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y54" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z54" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA54" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB54" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC54" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD54" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE54" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF54" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG54" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH54" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI54" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -6074,85 +6015,85 @@
         <v>142</v>
       </c>
       <c r="I55" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K55" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M55" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N55" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O55" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P55" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q55" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R55" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S55" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T55" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U55" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V55" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X55" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y55" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z55" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA55" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB55" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC55" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD55" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE55" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF55" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG55" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH55" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -6172,85 +6113,85 @@
         <v>142</v>
       </c>
       <c r="I56" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K56" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q56" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R56" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S56" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T56" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U56" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V56" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X56" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y56" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z56" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA56" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB56" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC56" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD56" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE56" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF56" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG56" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH56" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI56" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -6270,85 +6211,85 @@
         <v>142</v>
       </c>
       <c r="I57" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K57" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O57" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q57" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R57" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S57" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T57" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U57" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V57" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X57" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y57" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z57" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA57" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB57" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC57" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD57" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE57" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF57" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG57" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH57" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI57" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6368,85 +6309,85 @@
         <v>142</v>
       </c>
       <c r="I58" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K58" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M58" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O58" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q58" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R58" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S58" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T58" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U58" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V58" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X58" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y58" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z58" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA58" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB58" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC58" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD58" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE58" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF58" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG58" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH58" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -6466,85 +6407,85 @@
         <v>142</v>
       </c>
       <c r="I59" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K59" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M59" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N59" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O59" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P59" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q59" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R59" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S59" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T59" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U59" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V59" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X59" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y59" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z59" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA59" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB59" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC59" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD59" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE59" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF59" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG59" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH59" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -6564,85 +6505,85 @@
         <v>142</v>
       </c>
       <c r="I60" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K60" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M60" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O60" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q60" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R60" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S60" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T60" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U60" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V60" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X60" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y60" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z60" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA60" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB60" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC60" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD60" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE60" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF60" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG60" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH60" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI60" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -6662,85 +6603,85 @@
         <v>142</v>
       </c>
       <c r="I61" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K61" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M61" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N61" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O61" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P61" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q61" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R61" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S61" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T61" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U61" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V61" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X61" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y61" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z61" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA61" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB61" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC61" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD61" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE61" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF61" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG61" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH61" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6760,85 +6701,85 @@
         <v>142</v>
       </c>
       <c r="I62" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K62" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M62" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O62" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q62" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R62" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S62" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T62" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U62" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V62" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X62" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y62" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z62" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA62" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB62" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC62" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD62" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE62" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF62" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG62" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH62" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6858,85 +6799,85 @@
         <v>142</v>
       </c>
       <c r="I63" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K63" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M63" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O63" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q63" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R63" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S63" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T63" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U63" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V63" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X63" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y63" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z63" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA63" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB63" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC63" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD63" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE63" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF63" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG63" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH63" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -6956,85 +6897,85 @@
         <v>142</v>
       </c>
       <c r="I64" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K64" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M64" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N64" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O64" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P64" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q64" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R64" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S64" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T64" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U64" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V64" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X64" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y64" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z64" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA64" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB64" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC64" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD64" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE64" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF64" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG64" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH64" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI64" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7054,85 +6995,85 @@
         <v>142</v>
       </c>
       <c r="I65" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K65" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M65" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N65" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O65" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P65" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q65" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R65" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S65" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T65" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U65" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V65" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X65" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y65" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z65" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA65" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB65" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC65" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD65" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE65" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF65" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG65" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH65" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI65" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -7152,85 +7093,85 @@
         <v>142</v>
       </c>
       <c r="I66" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K66" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M66" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N66" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O66" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P66" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q66" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R66" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S66" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T66" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U66" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V66" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X66" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y66" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z66" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA66" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB66" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC66" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD66" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE66" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF66" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG66" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH66" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI66" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -7250,85 +7191,85 @@
         <v>142</v>
       </c>
       <c r="I67" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K67" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M67" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N67" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O67" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P67" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q67" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R67" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S67" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T67" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U67" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V67" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X67" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y67" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z67" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA67" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB67" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC67" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD67" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE67" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF67" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG67" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH67" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI67" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -7348,85 +7289,85 @@
         <v>142</v>
       </c>
       <c r="I68" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K68" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M68" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N68" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O68" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P68" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q68" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R68" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S68" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T68" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U68" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V68" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X68" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y68" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z68" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA68" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB68" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC68" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD68" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE68" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF68" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG68" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH68" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI68" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -7446,85 +7387,85 @@
         <v>142</v>
       </c>
       <c r="I69" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K69" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M69" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O69" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q69" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R69" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S69" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T69" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U69" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V69" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X69" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y69" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z69" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA69" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB69" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC69" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD69" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE69" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF69" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG69" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH69" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -7544,672 +7485,672 @@
         <v>142</v>
       </c>
       <c r="I70" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="J70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K70" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="L70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M70" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N70" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O70" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P70" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q70" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="R70" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="S70" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="T70" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="U70" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V70" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="X70" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="Y70" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z70" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AA70" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="AB70" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AC70" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AD70" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE70" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="AF70" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AG70" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="AH70" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AI70" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="254">
   <si>
     <t>Project_ID</t>
   </si>
@@ -221,6 +221,42 @@
     <t>cal-poly-humboldt-hioc</t>
   </si>
   <si>
+    <t>san-francisco-bay-cruises</t>
+  </si>
+  <si>
+    <t>scripps-pier-ifcb-183</t>
+  </si>
+  <si>
+    <t>calcofi-cruises-ctd</t>
+  </si>
+  <si>
+    <t>plumes-and-blooms-cruises</t>
+  </si>
+  <si>
+    <t>Attune_size_calibration_July2018</t>
+  </si>
+  <si>
+    <t>Lab_testing</t>
+  </si>
+  <si>
+    <t>harpswell</t>
+  </si>
+  <si>
+    <t>Llopiz_preserved_microzooplankton</t>
+  </si>
+  <si>
+    <t>mdibl</t>
+  </si>
+  <si>
+    <t>nauset</t>
+  </si>
+  <si>
+    <t>Orifices_tests_2022</t>
+  </si>
+  <si>
+    <t>FCB_IFCB_hybrid</t>
+  </si>
+  <si>
     <t>https://ecotaxa.obs-vlfr.fr/prj/2248</t>
   </si>
   <si>
@@ -365,6 +401,42 @@
     <t>https://ifcb.caloos.org/</t>
   </si>
   <si>
+    <t>https://ifcb.caloos.org/timeline?dataset=san-francisco-bay-cruises</t>
+  </si>
+  <si>
+    <t>https://ifcb.caloos.org/timeline?dataset=scripps-pier-ifcb-183</t>
+  </si>
+  <si>
+    <t>https://ifcb.caloos.org/timeline?dataset=calcofi-cruises-ctd</t>
+  </si>
+  <si>
+    <t>https://ifcb.caloos.org/timeline?dataset=plumes-and-blooms-cruises</t>
+  </si>
+  <si>
+    <t>https://ifcb-data.whoi.edu/timeline?dataset=Attune_size_calibration_July2018</t>
+  </si>
+  <si>
+    <t>https://ifcb-data.whoi.edu/timeline?dataset=Lab_testing</t>
+  </si>
+  <si>
+    <t>https://ifcb-data.whoi.edu/timeline?dataset=harpswell</t>
+  </si>
+  <si>
+    <t>https://ifcb-data.whoi.edu/timeline?dataset=Llopiz_preserved_microzooplankton</t>
+  </si>
+  <si>
+    <t>https://ifcb-data.whoi.edu/timeline?dataset=mdibl</t>
+  </si>
+  <si>
+    <t>https://ifcb-data.whoi.edu/timeline?dataset=nauset</t>
+  </si>
+  <si>
+    <t>https://ifcb-data.whoi.edu/timeline?dataset=Orifices_tests_2022</t>
+  </si>
+  <si>
+    <t>https://ifcb-data.whoi.edu/timeline?dataset=FCB_IFCB_hybrid</t>
+  </si>
+  <si>
     <t>~/GIT/PSSdb/raw/ecotaxa/IFCB</t>
   </si>
   <si>
@@ -435,6 +507,9 @@
   </si>
   <si>
     <t>~/GIT/PSSdb/raw/IFCB_dashboard_downloads/cal-poly-humboldt-hioc</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/~/GIT/PSSdb/raw/IFCB_dashboard_downloads</t>
   </si>
   <si>
     <t>IFCB</t>
@@ -1072,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS70"/>
+  <dimension ref="A1:AS82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1220,88 +1295,88 @@
         <v>2248</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O2" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q2" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R2" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S2" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB2" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE2" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH2" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI2" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ2" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1309,88 +1384,88 @@
         <v>3147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O3" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R3" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA3" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB3" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC3" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD3" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE3" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF3" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG3" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH3" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1398,88 +1473,88 @@
         <v>3289</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K4" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L4" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M4" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N4" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O4" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q4" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R4" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S4" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T4" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X4" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA4" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE4" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF4" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG4" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH4" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI4" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ4" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1487,88 +1562,88 @@
         <v>3290</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K5" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L5" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M5" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N5" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O5" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q5" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R5" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S5" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T5" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X5" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA5" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB5" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC5" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD5" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE5" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF5" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG5" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH5" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI5" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ5" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1576,88 +1651,88 @@
         <v>3294</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K6" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L6" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N6" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O6" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q6" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R6" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S6" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T6" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X6" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA6" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB6" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD6" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE6" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF6" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG6" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH6" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI6" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ6" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1665,88 +1740,88 @@
         <v>3295</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N7" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O7" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q7" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R7" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S7" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X7" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA7" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB7" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD7" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF7" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH7" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ7" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1754,88 +1829,88 @@
         <v>3296</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L8" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M8" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N8" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O8" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q8" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R8" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S8" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T8" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X8" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA8" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB8" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC8" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD8" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE8" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF8" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG8" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH8" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI8" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ8" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1843,88 +1918,88 @@
         <v>3297</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L9" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M9" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N9" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O9" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q9" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R9" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S9" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T9" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X9" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA9" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB9" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC9" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD9" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE9" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF9" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG9" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH9" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI9" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ9" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1932,88 +2007,88 @@
         <v>3298</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H10" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L10" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M10" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O10" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q10" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R10" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S10" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T10" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X10" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA10" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB10" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC10" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD10" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE10" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF10" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG10" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH10" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI10" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ10" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2021,88 +2096,88 @@
         <v>3299</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K11" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L11" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M11" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N11" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O11" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q11" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R11" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S11" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T11" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X11" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA11" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB11" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC11" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD11" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE11" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF11" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG11" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH11" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI11" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ11" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -2110,88 +2185,88 @@
         <v>3300</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M12" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N12" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O12" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q12" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R12" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S12" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T12" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X12" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA12" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC12" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE12" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF12" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG12" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH12" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI12" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ12" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2199,88 +2274,88 @@
         <v>3301</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O13" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q13" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R13" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S13" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T13" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X13" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA13" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB13" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC13" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD13" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE13" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF13" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG13" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH13" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI13" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ13" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2288,88 +2363,88 @@
         <v>3302</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O14" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q14" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R14" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S14" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T14" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA14" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB14" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC14" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD14" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE14" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF14" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG14" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH14" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI14" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ14" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2377,88 +2452,88 @@
         <v>3303</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q15" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R15" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S15" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T15" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB15" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC15" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD15" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE15" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF15" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG15" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH15" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI15" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ15" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -2466,88 +2541,88 @@
         <v>3304</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q16" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R16" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S16" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T16" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB16" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC16" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD16" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE16" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF16" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH16" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI16" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ16" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2555,88 +2630,88 @@
         <v>3305</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O17" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q17" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R17" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S17" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T17" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA17" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB17" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC17" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD17" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE17" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH17" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI17" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ17" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2644,88 +2719,88 @@
         <v>3306</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q18" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R18" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S18" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T18" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X18" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA18" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB18" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC18" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD18" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE18" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF18" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH18" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI18" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ18" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2733,88 +2808,88 @@
         <v>3307</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q19" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R19" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S19" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T19" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X19" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA19" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB19" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC19" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD19" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE19" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH19" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI19" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2822,88 +2897,88 @@
         <v>3308</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q20" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R20" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S20" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T20" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA20" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB20" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC20" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD20" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE20" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH20" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI20" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2911,88 +2986,88 @@
         <v>3309</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M21" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q21" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R21" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S21" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T21" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X21" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA21" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB21" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC21" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD21" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE21" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF21" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH21" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI21" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ21" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -3000,88 +3075,88 @@
         <v>3310</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M22" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N22" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q22" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R22" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S22" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T22" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X22" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA22" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB22" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC22" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD22" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE22" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH22" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI22" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ22" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -3089,88 +3164,88 @@
         <v>3311</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M23" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N23" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O23" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q23" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R23" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S23" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T23" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X23" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA23" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB23" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC23" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD23" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE23" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG23" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH23" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI23" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ23" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -3178,88 +3253,88 @@
         <v>3312</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J24" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N24" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q24" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R24" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S24" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T24" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X24" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA24" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB24" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC24" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD24" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE24" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG24" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH24" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI24" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -3267,88 +3342,88 @@
         <v>3313</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M25" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N25" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O25" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q25" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R25" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S25" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T25" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X25" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA25" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB25" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC25" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD25" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE25" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF25" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH25" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI25" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ25" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3356,88 +3431,88 @@
         <v>3314</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I26" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J26" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M26" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N26" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O26" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q26" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R26" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S26" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T26" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X26" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA26" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB26" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC26" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD26" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE26" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF26" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG26" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH26" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI26" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ26" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:36">
@@ -3445,88 +3520,88 @@
         <v>3315</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I27" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J27" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K27" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M27" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N27" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O27" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P27" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q27" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R27" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S27" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T27" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X27" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA27" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB27" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC27" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD27" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE27" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF27" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG27" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH27" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI27" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ27" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3534,88 +3609,88 @@
         <v>3318</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I28" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J28" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K28" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L28" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M28" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O28" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q28" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R28" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S28" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T28" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X28" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA28" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB28" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC28" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD28" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE28" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF28" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG28" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH28" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI28" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ28" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -3623,88 +3698,88 @@
         <v>3320</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I29" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J29" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K29" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M29" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N29" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O29" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q29" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R29" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S29" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T29" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X29" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA29" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB29" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC29" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD29" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE29" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF29" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG29" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH29" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI29" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ29" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -3712,88 +3787,88 @@
         <v>3321</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J30" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N30" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O30" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q30" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R30" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S30" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T30" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X30" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA30" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB30" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC30" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD30" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE30" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG30" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH30" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI30" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ30" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -3801,88 +3876,88 @@
         <v>3322</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J31" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M31" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N31" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O31" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q31" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R31" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S31" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T31" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X31" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA31" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB31" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC31" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD31" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE31" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF31" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG31" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH31" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI31" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ31" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -3890,88 +3965,88 @@
         <v>3323</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I32" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J32" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M32" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N32" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O32" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q32" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R32" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S32" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T32" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X32" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA32" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB32" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC32" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD32" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE32" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF32" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG32" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH32" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI32" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ32" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -3979,88 +4054,88 @@
         <v>3324</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I33" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L33" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M33" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N33" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O33" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q33" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R33" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S33" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T33" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X33" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA33" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB33" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC33" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD33" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE33" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF33" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG33" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH33" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI33" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ33" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -4068,88 +4143,88 @@
         <v>3325</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I34" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K34" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L34" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M34" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N34" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O34" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q34" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R34" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S34" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T34" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X34" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA34" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB34" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC34" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD34" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE34" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF34" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG34" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH34" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI34" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ34" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4157,88 +4232,88 @@
         <v>3326</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J35" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K35" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L35" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M35" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N35" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O35" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q35" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R35" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S35" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T35" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X35" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA35" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB35" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC35" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD35" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE35" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF35" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG35" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH35" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI35" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ35" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4246,88 +4321,88 @@
         <v>3331</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K36" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M36" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N36" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O36" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q36" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R36" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S36" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T36" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X36" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA36" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB36" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC36" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD36" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE36" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF36" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG36" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH36" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI36" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ36" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4335,88 +4410,88 @@
         <v>3332</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I37" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K37" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L37" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M37" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N37" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O37" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q37" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R37" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S37" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T37" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X37" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA37" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB37" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC37" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD37" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE37" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG37" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH37" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI37" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ37" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -4424,88 +4499,88 @@
         <v>3333</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I38" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L38" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M38" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N38" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O38" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q38" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R38" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S38" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T38" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X38" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA38" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB38" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC38" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD38" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE38" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF38" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG38" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH38" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI38" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ38" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -4513,88 +4588,88 @@
         <v>3334</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H39" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I39" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K39" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M39" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N39" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O39" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q39" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R39" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S39" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T39" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X39" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA39" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB39" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC39" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD39" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE39" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF39" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG39" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH39" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI39" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ39" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -4602,88 +4677,88 @@
         <v>3335</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I40" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J40" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L40" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M40" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N40" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O40" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q40" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R40" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S40" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T40" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X40" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA40" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB40" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC40" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD40" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE40" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF40" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG40" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH40" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI40" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ40" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -4691,88 +4766,88 @@
         <v>3337</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H41" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I41" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J41" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K41" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M41" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N41" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O41" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q41" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R41" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S41" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T41" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X41" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA41" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB41" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC41" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD41" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE41" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF41" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG41" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH41" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI41" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ41" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -4780,88 +4855,88 @@
         <v>3338</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I42" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J42" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K42" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N42" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O42" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q42" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R42" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S42" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T42" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X42" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA42" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB42" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC42" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD42" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE42" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF42" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG42" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH42" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI42" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ42" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -4869,88 +4944,88 @@
         <v>3339</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H43" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I43" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J43" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K43" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M43" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N43" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O43" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q43" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R43" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S43" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T43" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X43" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA43" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB43" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC43" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD43" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE43" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF43" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG43" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH43" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI43" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ43" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -4958,88 +5033,88 @@
         <v>3340</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I44" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J44" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K44" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L44" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M44" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N44" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O44" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q44" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R44" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S44" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T44" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X44" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA44" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB44" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC44" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD44" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE44" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF44" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG44" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH44" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI44" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ44" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5047,88 +5122,88 @@
         <v>3341</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J45" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M45" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N45" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O45" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q45" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R45" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S45" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T45" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X45" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA45" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB45" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC45" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD45" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE45" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF45" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG45" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH45" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI45" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ45" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5136,88 +5211,88 @@
         <v>3342</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M46" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N46" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O46" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q46" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R46" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S46" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T46" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X46" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA46" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB46" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC46" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD46" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE46" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF46" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG46" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH46" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI46" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ46" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -5225,88 +5300,88 @@
         <v>3343</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H47" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J47" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M47" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="N47" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O47" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q47" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="R47" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="S47" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="T47" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="X47" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AA47" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB47" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC47" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AD47" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE47" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AF47" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG47" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AH47" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI47" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AJ47" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -5314,97 +5389,97 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H48" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L48" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M48" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N48" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O48" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q48" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R48" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S48" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T48" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U48" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V48" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X48" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y48" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z48" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA48" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB48" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC48" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD48" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE48" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF48" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG48" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH48" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI48" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -5412,97 +5487,97 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H49" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I49" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J49" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K49" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L49" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M49" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N49" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O49" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q49" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R49" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S49" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T49" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U49" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V49" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X49" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y49" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z49" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA49" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB49" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC49" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD49" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE49" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF49" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG49" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH49" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI49" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -5510,97 +5585,97 @@
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I50" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J50" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M50" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N50" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O50" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q50" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R50" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S50" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T50" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U50" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V50" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X50" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y50" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z50" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA50" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB50" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC50" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD50" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE50" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF50" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG50" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH50" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI50" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -5608,97 +5683,97 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H51" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J51" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L51" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M51" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N51" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O51" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q51" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R51" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S51" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T51" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U51" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V51" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X51" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y51" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z51" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA51" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB51" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC51" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD51" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE51" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF51" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG51" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH51" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI51" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -5706,97 +5781,97 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H52" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I52" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K52" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L52" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N52" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P52" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q52" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R52" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S52" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T52" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U52" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V52" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X52" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y52" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z52" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA52" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB52" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC52" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD52" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE52" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF52" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG52" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH52" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI52" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -5804,97 +5879,97 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H53" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K53" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M53" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N53" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O53" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P53" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q53" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R53" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S53" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T53" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U53" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V53" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X53" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y53" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z53" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA53" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB53" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC53" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD53" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE53" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF53" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG53" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH53" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI53" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -5902,97 +5977,97 @@
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H54" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I54" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K54" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L54" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M54" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N54" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O54" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P54" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q54" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R54" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S54" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T54" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U54" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V54" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X54" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y54" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z54" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA54" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB54" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC54" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD54" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE54" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF54" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG54" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH54" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI54" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -6000,97 +6075,97 @@
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H55" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L55" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M55" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N55" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O55" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q55" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R55" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S55" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T55" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U55" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V55" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X55" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y55" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z55" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA55" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB55" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC55" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD55" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE55" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF55" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG55" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH55" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI55" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:35">
@@ -6098,97 +6173,97 @@
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H56" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I56" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J56" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L56" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M56" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N56" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O56" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P56" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q56" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R56" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S56" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T56" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U56" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V56" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X56" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y56" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z56" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA56" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB56" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC56" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD56" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE56" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF56" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG56" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH56" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI56" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -6196,97 +6271,97 @@
         <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H57" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J57" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K57" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L57" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M57" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N57" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O57" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q57" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R57" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S57" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T57" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U57" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V57" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X57" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y57" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z57" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA57" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB57" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC57" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD57" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE57" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF57" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG57" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH57" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI57" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -6294,97 +6369,97 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H58" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I58" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J58" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K58" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M58" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N58" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O58" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P58" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q58" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R58" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S58" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T58" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U58" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V58" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X58" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y58" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z58" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA58" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB58" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC58" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD58" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE58" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF58" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG58" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH58" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI58" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -6392,97 +6467,97 @@
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H59" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I59" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J59" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L59" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M59" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N59" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O59" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P59" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q59" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R59" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S59" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T59" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U59" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V59" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X59" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y59" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z59" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA59" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB59" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC59" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD59" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE59" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF59" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG59" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH59" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI59" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -6490,97 +6565,97 @@
         <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H60" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I60" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J60" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K60" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M60" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N60" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O60" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P60" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q60" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R60" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S60" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T60" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U60" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V60" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X60" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y60" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z60" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA60" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB60" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC60" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD60" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE60" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF60" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG60" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH60" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI60" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -6588,97 +6663,97 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H61" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I61" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J61" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K61" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L61" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M61" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N61" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O61" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P61" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q61" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R61" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S61" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T61" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U61" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V61" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X61" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y61" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z61" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA61" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB61" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC61" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD61" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE61" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF61" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG61" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH61" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI61" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -6686,97 +6761,97 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H62" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J62" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L62" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M62" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N62" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O62" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P62" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q62" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R62" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S62" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T62" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U62" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V62" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X62" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y62" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z62" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA62" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB62" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC62" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD62" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE62" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF62" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG62" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH62" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI62" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -6784,97 +6859,97 @@
         <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H63" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I63" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J63" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L63" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M63" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N63" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O63" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P63" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q63" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R63" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S63" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T63" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U63" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V63" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X63" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y63" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z63" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA63" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB63" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC63" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD63" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE63" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF63" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG63" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH63" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI63" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -6882,97 +6957,97 @@
         <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H64" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I64" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J64" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K64" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L64" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M64" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N64" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O64" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P64" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q64" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R64" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S64" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T64" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U64" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V64" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X64" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y64" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z64" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA64" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB64" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC64" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD64" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE64" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF64" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG64" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH64" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI64" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:35">
@@ -6980,97 +7055,97 @@
         <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E65" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H65" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J65" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K65" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M65" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N65" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O65" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P65" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q65" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R65" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S65" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T65" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U65" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V65" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X65" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y65" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z65" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA65" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB65" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC65" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD65" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE65" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF65" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG65" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH65" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI65" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:35">
@@ -7078,97 +7153,97 @@
         <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H66" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I66" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J66" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L66" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M66" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N66" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O66" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P66" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q66" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R66" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S66" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T66" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U66" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V66" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X66" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y66" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z66" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA66" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB66" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC66" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD66" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE66" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF66" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG66" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH66" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI66" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:35">
@@ -7176,97 +7251,97 @@
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H67" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I67" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J67" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K67" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L67" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M67" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N67" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O67" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P67" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q67" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R67" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S67" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T67" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U67" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V67" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X67" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y67" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z67" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA67" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB67" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC67" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD67" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE67" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF67" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG67" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH67" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI67" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:35">
@@ -7274,97 +7349,97 @@
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H68" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I68" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J68" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K68" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L68" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M68" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N68" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O68" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P68" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q68" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R68" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S68" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T68" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U68" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V68" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X68" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y68" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z68" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA68" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB68" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC68" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD68" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE68" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF68" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG68" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH68" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI68" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:35">
@@ -7372,97 +7447,97 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H69" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I69" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J69" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="K69" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="L69" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="M69" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="N69" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="O69" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="P69" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Q69" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="R69" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="S69" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="T69" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="U69" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V69" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="X69" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y69" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z69" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA69" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AB69" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AC69" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AD69" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AE69" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF69" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG69" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AH69" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI69" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:35">
@@ -7470,97 +7545,265 @@
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" t="s">
+        <v>167</v>
+      </c>
+      <c r="I70" t="s">
+        <v>169</v>
+      </c>
+      <c r="J70" t="s">
+        <v>170</v>
+      </c>
+      <c r="K70" t="s">
+        <v>172</v>
+      </c>
+      <c r="L70" t="s">
+        <v>170</v>
+      </c>
+      <c r="M70" t="s">
+        <v>174</v>
+      </c>
+      <c r="N70" t="s">
+        <v>175</v>
+      </c>
+      <c r="O70" t="s">
+        <v>174</v>
+      </c>
+      <c r="P70" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>178</v>
+      </c>
+      <c r="R70" t="s">
+        <v>180</v>
+      </c>
+      <c r="S70" t="s">
+        <v>178</v>
+      </c>
+      <c r="T70" t="s">
+        <v>180</v>
+      </c>
+      <c r="U70" t="s">
+        <v>183</v>
+      </c>
+      <c r="V70" t="s">
+        <v>184</v>
+      </c>
+      <c r="X70" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D70" t="s">
-        <v>140</v>
-      </c>
-      <c r="E70" t="s">
-        <v>141</v>
-      </c>
-      <c r="H70" t="s">
-        <v>142</v>
-      </c>
-      <c r="I70" t="s">
-        <v>144</v>
-      </c>
-      <c r="J70" t="s">
-        <v>145</v>
-      </c>
-      <c r="K70" t="s">
-        <v>147</v>
-      </c>
-      <c r="L70" t="s">
-        <v>145</v>
-      </c>
-      <c r="M70" t="s">
-        <v>149</v>
-      </c>
-      <c r="N70" t="s">
-        <v>150</v>
-      </c>
-      <c r="O70" t="s">
-        <v>149</v>
-      </c>
-      <c r="P70" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>153</v>
-      </c>
-      <c r="R70" t="s">
-        <v>155</v>
-      </c>
-      <c r="S70" t="s">
-        <v>153</v>
-      </c>
-      <c r="T70" t="s">
-        <v>155</v>
-      </c>
-      <c r="U70" t="s">
-        <v>158</v>
-      </c>
-      <c r="V70" t="s">
-        <v>159</v>
-      </c>
-      <c r="X70" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA70" t="s">
+      <c r="C82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" t="s">
         <v>165</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7634,6 +7877,18 @@
     <hyperlink ref="B68" r:id="rId67"/>
     <hyperlink ref="B69" r:id="rId68"/>
     <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7649,13 +7904,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7663,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7674,10 +7929,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7685,10 +7940,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7696,10 +7951,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7707,10 +7962,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7718,10 +7973,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7729,10 +7984,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7740,10 +7995,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7751,10 +8006,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7762,10 +8017,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7773,10 +8028,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7784,10 +8039,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7795,10 +8050,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7806,10 +8061,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7817,10 +8072,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7828,10 +8083,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7839,10 +8094,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7850,10 +8105,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7861,10 +8116,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7872,10 +8127,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7883,10 +8138,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7894,10 +8149,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7905,10 +8160,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7916,10 +8171,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7927,10 +8182,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7938,10 +8193,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7949,10 +8204,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7960,10 +8215,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7971,10 +8226,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7982,10 +8237,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7993,10 +8248,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8004,10 +8259,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8015,10 +8270,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8026,10 +8281,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8037,10 +8292,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8048,10 +8303,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8059,10 +8314,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8070,10 +8325,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8081,10 +8336,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8092,10 +8347,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8103,10 +8358,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8114,10 +8369,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8125,10 +8380,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C44" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8136,10 +8391,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8147,10 +8402,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A21DB-71FB-E845-94EF-05E266D8F2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7280" yWindow="1340" windowWidth="28340" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="254">
   <si>
     <t>Project_ID</t>
   </si>
@@ -623,9 +629,6 @@
     <t>object_annotation_category</t>
   </si>
   <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>object_annotation_status</t>
   </si>
   <si>
@@ -777,13 +780,16 @@
   </si>
   <si>
     <t>Additional description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
+  </si>
+  <si>
+    <t>class_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,6 +865,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -905,7 +919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,9 +951,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,6 +1003,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1146,14 +1196,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -1376,10 +1431,10 @@
         <v>201</v>
       </c>
       <c r="AJ2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -1465,10 +1520,10 @@
         <v>201</v>
       </c>
       <c r="AJ3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1554,10 +1609,10 @@
         <v>201</v>
       </c>
       <c r="AJ4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1643,10 +1698,10 @@
         <v>201</v>
       </c>
       <c r="AJ5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -1732,10 +1787,10 @@
         <v>201</v>
       </c>
       <c r="AJ6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -1821,10 +1876,10 @@
         <v>201</v>
       </c>
       <c r="AJ7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -1910,10 +1965,10 @@
         <v>201</v>
       </c>
       <c r="AJ8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -1999,10 +2054,10 @@
         <v>201</v>
       </c>
       <c r="AJ9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -2088,10 +2143,10 @@
         <v>201</v>
       </c>
       <c r="AJ10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -2177,10 +2232,10 @@
         <v>201</v>
       </c>
       <c r="AJ11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -2266,10 +2321,10 @@
         <v>201</v>
       </c>
       <c r="AJ12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -2355,10 +2410,10 @@
         <v>201</v>
       </c>
       <c r="AJ13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -2444,10 +2499,10 @@
         <v>201</v>
       </c>
       <c r="AJ14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -2533,10 +2588,10 @@
         <v>201</v>
       </c>
       <c r="AJ15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -2622,10 +2677,10 @@
         <v>201</v>
       </c>
       <c r="AJ16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2711,10 +2766,10 @@
         <v>201</v>
       </c>
       <c r="AJ17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -2800,10 +2855,10 @@
         <v>201</v>
       </c>
       <c r="AJ18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -2889,10 +2944,10 @@
         <v>201</v>
       </c>
       <c r="AJ19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -2978,10 +3033,10 @@
         <v>201</v>
       </c>
       <c r="AJ20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -3067,10 +3122,10 @@
         <v>201</v>
       </c>
       <c r="AJ21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -3156,10 +3211,10 @@
         <v>201</v>
       </c>
       <c r="AJ22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -3245,10 +3300,10 @@
         <v>201</v>
       </c>
       <c r="AJ23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3334,10 +3389,10 @@
         <v>201</v>
       </c>
       <c r="AJ24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3423,10 +3478,10 @@
         <v>201</v>
       </c>
       <c r="AJ25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3512,10 +3567,10 @@
         <v>201</v>
       </c>
       <c r="AJ26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3601,10 +3656,10 @@
         <v>201</v>
       </c>
       <c r="AJ27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3690,10 +3745,10 @@
         <v>201</v>
       </c>
       <c r="AJ28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -3779,10 +3834,10 @@
         <v>201</v>
       </c>
       <c r="AJ29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -3868,10 +3923,10 @@
         <v>201</v>
       </c>
       <c r="AJ30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -3957,10 +4012,10 @@
         <v>201</v>
       </c>
       <c r="AJ31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -4046,10 +4101,10 @@
         <v>201</v>
       </c>
       <c r="AJ32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -4135,10 +4190,10 @@
         <v>201</v>
       </c>
       <c r="AJ33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -4224,10 +4279,10 @@
         <v>201</v>
       </c>
       <c r="AJ34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4313,10 +4368,10 @@
         <v>201</v>
       </c>
       <c r="AJ35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4402,10 +4457,10 @@
         <v>201</v>
       </c>
       <c r="AJ36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4491,10 +4546,10 @@
         <v>201</v>
       </c>
       <c r="AJ37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4580,10 +4635,10 @@
         <v>201</v>
       </c>
       <c r="AJ38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4669,10 +4724,10 @@
         <v>201</v>
       </c>
       <c r="AJ39" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -4758,10 +4813,10 @@
         <v>201</v>
       </c>
       <c r="AJ40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -4847,10 +4902,10 @@
         <v>201</v>
       </c>
       <c r="AJ41" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -4936,10 +4991,10 @@
         <v>201</v>
       </c>
       <c r="AJ42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -5025,10 +5080,10 @@
         <v>201</v>
       </c>
       <c r="AJ43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -5114,10 +5169,10 @@
         <v>201</v>
       </c>
       <c r="AJ44" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -5203,10 +5258,10 @@
         <v>201</v>
       </c>
       <c r="AJ45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5292,10 +5347,10 @@
         <v>201</v>
       </c>
       <c r="AJ46" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5381,10 +5436,10 @@
         <v>201</v>
       </c>
       <c r="AJ47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5479,10 +5534,10 @@
         <v>200</v>
       </c>
       <c r="AI48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -5577,10 +5632,10 @@
         <v>200</v>
       </c>
       <c r="AI49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -5675,10 +5730,10 @@
         <v>200</v>
       </c>
       <c r="AI50" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -5773,10 +5828,10 @@
         <v>200</v>
       </c>
       <c r="AI51" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -5871,10 +5926,10 @@
         <v>200</v>
       </c>
       <c r="AI52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -5969,10 +6024,10 @@
         <v>200</v>
       </c>
       <c r="AI53" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -6067,10 +6122,10 @@
         <v>200</v>
       </c>
       <c r="AI54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -6165,10 +6220,10 @@
         <v>200</v>
       </c>
       <c r="AI55" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -6263,10 +6318,10 @@
         <v>200</v>
       </c>
       <c r="AI56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -6361,10 +6416,10 @@
         <v>200</v>
       </c>
       <c r="AI57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6459,10 +6514,10 @@
         <v>200</v>
       </c>
       <c r="AI58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -6557,10 +6612,10 @@
         <v>200</v>
       </c>
       <c r="AI59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -6655,10 +6710,10 @@
         <v>200</v>
       </c>
       <c r="AI60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -6753,10 +6808,10 @@
         <v>200</v>
       </c>
       <c r="AI61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6851,10 +6906,10 @@
         <v>200</v>
       </c>
       <c r="AI62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -6949,10 +7004,10 @@
         <v>200</v>
       </c>
       <c r="AI63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -7047,10 +7102,10 @@
         <v>200</v>
       </c>
       <c r="AI64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7145,10 +7200,10 @@
         <v>200</v>
       </c>
       <c r="AI65" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -7243,10 +7298,10 @@
         <v>200</v>
       </c>
       <c r="AI66" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -7341,10 +7396,10 @@
         <v>200</v>
       </c>
       <c r="AI67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -7439,10 +7494,10 @@
         <v>200</v>
       </c>
       <c r="AI68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -7537,10 +7592,10 @@
         <v>200</v>
       </c>
       <c r="AI69" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -7635,10 +7690,10 @@
         <v>200</v>
       </c>
       <c r="AI70" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -7651,8 +7706,92 @@
       <c r="D71" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="72" spans="1:35">
+      <c r="E71" t="s">
+        <v>166</v>
+      </c>
+      <c r="H71" t="s">
+        <v>167</v>
+      </c>
+      <c r="I71" t="s">
+        <v>169</v>
+      </c>
+      <c r="J71" t="s">
+        <v>170</v>
+      </c>
+      <c r="K71" t="s">
+        <v>172</v>
+      </c>
+      <c r="L71" t="s">
+        <v>170</v>
+      </c>
+      <c r="M71" t="s">
+        <v>174</v>
+      </c>
+      <c r="N71" t="s">
+        <v>175</v>
+      </c>
+      <c r="O71" t="s">
+        <v>174</v>
+      </c>
+      <c r="P71" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>178</v>
+      </c>
+      <c r="R71" t="s">
+        <v>180</v>
+      </c>
+      <c r="S71" t="s">
+        <v>178</v>
+      </c>
+      <c r="T71" t="s">
+        <v>180</v>
+      </c>
+      <c r="U71" t="s">
+        <v>183</v>
+      </c>
+      <c r="V71" t="s">
+        <v>184</v>
+      </c>
+      <c r="X71" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -7665,8 +7804,92 @@
       <c r="D72" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="73" spans="1:35">
+      <c r="E72" t="s">
+        <v>166</v>
+      </c>
+      <c r="H72" t="s">
+        <v>167</v>
+      </c>
+      <c r="I72" t="s">
+        <v>169</v>
+      </c>
+      <c r="J72" t="s">
+        <v>170</v>
+      </c>
+      <c r="K72" t="s">
+        <v>172</v>
+      </c>
+      <c r="L72" t="s">
+        <v>170</v>
+      </c>
+      <c r="M72" t="s">
+        <v>174</v>
+      </c>
+      <c r="N72" t="s">
+        <v>175</v>
+      </c>
+      <c r="O72" t="s">
+        <v>174</v>
+      </c>
+      <c r="P72" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>178</v>
+      </c>
+      <c r="R72" t="s">
+        <v>180</v>
+      </c>
+      <c r="S72" t="s">
+        <v>178</v>
+      </c>
+      <c r="T72" t="s">
+        <v>180</v>
+      </c>
+      <c r="U72" t="s">
+        <v>183</v>
+      </c>
+      <c r="V72" t="s">
+        <v>184</v>
+      </c>
+      <c r="X72" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -7679,8 +7902,92 @@
       <c r="D73" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="74" spans="1:35">
+      <c r="E73" t="s">
+        <v>166</v>
+      </c>
+      <c r="H73" t="s">
+        <v>167</v>
+      </c>
+      <c r="I73" t="s">
+        <v>169</v>
+      </c>
+      <c r="J73" t="s">
+        <v>170</v>
+      </c>
+      <c r="K73" t="s">
+        <v>172</v>
+      </c>
+      <c r="L73" t="s">
+        <v>170</v>
+      </c>
+      <c r="M73" t="s">
+        <v>174</v>
+      </c>
+      <c r="N73" t="s">
+        <v>175</v>
+      </c>
+      <c r="O73" t="s">
+        <v>174</v>
+      </c>
+      <c r="P73" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>178</v>
+      </c>
+      <c r="R73" t="s">
+        <v>180</v>
+      </c>
+      <c r="S73" t="s">
+        <v>178</v>
+      </c>
+      <c r="T73" t="s">
+        <v>180</v>
+      </c>
+      <c r="U73" t="s">
+        <v>183</v>
+      </c>
+      <c r="V73" t="s">
+        <v>184</v>
+      </c>
+      <c r="X73" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -7693,8 +8000,92 @@
       <c r="D74" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="75" spans="1:35">
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+      <c r="H74" t="s">
+        <v>167</v>
+      </c>
+      <c r="I74" t="s">
+        <v>169</v>
+      </c>
+      <c r="J74" t="s">
+        <v>170</v>
+      </c>
+      <c r="K74" t="s">
+        <v>172</v>
+      </c>
+      <c r="L74" t="s">
+        <v>170</v>
+      </c>
+      <c r="M74" t="s">
+        <v>174</v>
+      </c>
+      <c r="N74" t="s">
+        <v>175</v>
+      </c>
+      <c r="O74" t="s">
+        <v>174</v>
+      </c>
+      <c r="P74" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>178</v>
+      </c>
+      <c r="R74" t="s">
+        <v>180</v>
+      </c>
+      <c r="S74" t="s">
+        <v>178</v>
+      </c>
+      <c r="T74" t="s">
+        <v>180</v>
+      </c>
+      <c r="U74" t="s">
+        <v>183</v>
+      </c>
+      <c r="V74" t="s">
+        <v>184</v>
+      </c>
+      <c r="X74" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -7707,8 +8098,92 @@
       <c r="D75" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="76" spans="1:35">
+      <c r="E75" t="s">
+        <v>166</v>
+      </c>
+      <c r="H75" t="s">
+        <v>167</v>
+      </c>
+      <c r="I75" t="s">
+        <v>169</v>
+      </c>
+      <c r="J75" t="s">
+        <v>170</v>
+      </c>
+      <c r="K75" t="s">
+        <v>172</v>
+      </c>
+      <c r="L75" t="s">
+        <v>170</v>
+      </c>
+      <c r="M75" t="s">
+        <v>174</v>
+      </c>
+      <c r="N75" t="s">
+        <v>175</v>
+      </c>
+      <c r="O75" t="s">
+        <v>174</v>
+      </c>
+      <c r="P75" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>178</v>
+      </c>
+      <c r="R75" t="s">
+        <v>180</v>
+      </c>
+      <c r="S75" t="s">
+        <v>178</v>
+      </c>
+      <c r="T75" t="s">
+        <v>180</v>
+      </c>
+      <c r="U75" t="s">
+        <v>183</v>
+      </c>
+      <c r="V75" t="s">
+        <v>184</v>
+      </c>
+      <c r="X75" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -7721,8 +8196,92 @@
       <c r="D76" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="77" spans="1:35">
+      <c r="E76" t="s">
+        <v>166</v>
+      </c>
+      <c r="H76" t="s">
+        <v>167</v>
+      </c>
+      <c r="I76" t="s">
+        <v>169</v>
+      </c>
+      <c r="J76" t="s">
+        <v>170</v>
+      </c>
+      <c r="K76" t="s">
+        <v>172</v>
+      </c>
+      <c r="L76" t="s">
+        <v>170</v>
+      </c>
+      <c r="M76" t="s">
+        <v>174</v>
+      </c>
+      <c r="N76" t="s">
+        <v>175</v>
+      </c>
+      <c r="O76" t="s">
+        <v>174</v>
+      </c>
+      <c r="P76" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>178</v>
+      </c>
+      <c r="R76" t="s">
+        <v>180</v>
+      </c>
+      <c r="S76" t="s">
+        <v>178</v>
+      </c>
+      <c r="T76" t="s">
+        <v>180</v>
+      </c>
+      <c r="U76" t="s">
+        <v>183</v>
+      </c>
+      <c r="V76" t="s">
+        <v>184</v>
+      </c>
+      <c r="X76" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -7735,8 +8294,92 @@
       <c r="D77" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="78" spans="1:35">
+      <c r="E77" t="s">
+        <v>166</v>
+      </c>
+      <c r="H77" t="s">
+        <v>167</v>
+      </c>
+      <c r="I77" t="s">
+        <v>169</v>
+      </c>
+      <c r="J77" t="s">
+        <v>170</v>
+      </c>
+      <c r="K77" t="s">
+        <v>172</v>
+      </c>
+      <c r="L77" t="s">
+        <v>170</v>
+      </c>
+      <c r="M77" t="s">
+        <v>174</v>
+      </c>
+      <c r="N77" t="s">
+        <v>175</v>
+      </c>
+      <c r="O77" t="s">
+        <v>174</v>
+      </c>
+      <c r="P77" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>178</v>
+      </c>
+      <c r="R77" t="s">
+        <v>180</v>
+      </c>
+      <c r="S77" t="s">
+        <v>178</v>
+      </c>
+      <c r="T77" t="s">
+        <v>180</v>
+      </c>
+      <c r="U77" t="s">
+        <v>183</v>
+      </c>
+      <c r="V77" t="s">
+        <v>184</v>
+      </c>
+      <c r="X77" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -7749,8 +8392,92 @@
       <c r="D78" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="79" spans="1:35">
+      <c r="E78" t="s">
+        <v>166</v>
+      </c>
+      <c r="H78" t="s">
+        <v>167</v>
+      </c>
+      <c r="I78" t="s">
+        <v>169</v>
+      </c>
+      <c r="J78" t="s">
+        <v>170</v>
+      </c>
+      <c r="K78" t="s">
+        <v>172</v>
+      </c>
+      <c r="L78" t="s">
+        <v>170</v>
+      </c>
+      <c r="M78" t="s">
+        <v>174</v>
+      </c>
+      <c r="N78" t="s">
+        <v>175</v>
+      </c>
+      <c r="O78" t="s">
+        <v>174</v>
+      </c>
+      <c r="P78" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>178</v>
+      </c>
+      <c r="R78" t="s">
+        <v>180</v>
+      </c>
+      <c r="S78" t="s">
+        <v>178</v>
+      </c>
+      <c r="T78" t="s">
+        <v>180</v>
+      </c>
+      <c r="U78" t="s">
+        <v>183</v>
+      </c>
+      <c r="V78" t="s">
+        <v>184</v>
+      </c>
+      <c r="X78" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -7763,8 +8490,92 @@
       <c r="D79" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="80" spans="1:35">
+      <c r="E79" t="s">
+        <v>166</v>
+      </c>
+      <c r="H79" t="s">
+        <v>167</v>
+      </c>
+      <c r="I79" t="s">
+        <v>169</v>
+      </c>
+      <c r="J79" t="s">
+        <v>170</v>
+      </c>
+      <c r="K79" t="s">
+        <v>172</v>
+      </c>
+      <c r="L79" t="s">
+        <v>170</v>
+      </c>
+      <c r="M79" t="s">
+        <v>174</v>
+      </c>
+      <c r="N79" t="s">
+        <v>175</v>
+      </c>
+      <c r="O79" t="s">
+        <v>174</v>
+      </c>
+      <c r="P79" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>178</v>
+      </c>
+      <c r="R79" t="s">
+        <v>180</v>
+      </c>
+      <c r="S79" t="s">
+        <v>178</v>
+      </c>
+      <c r="T79" t="s">
+        <v>180</v>
+      </c>
+      <c r="U79" t="s">
+        <v>183</v>
+      </c>
+      <c r="V79" t="s">
+        <v>184</v>
+      </c>
+      <c r="X79" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -7777,8 +8588,92 @@
       <c r="D80" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>166</v>
+      </c>
+      <c r="H80" t="s">
+        <v>167</v>
+      </c>
+      <c r="I80" t="s">
+        <v>169</v>
+      </c>
+      <c r="J80" t="s">
+        <v>170</v>
+      </c>
+      <c r="K80" t="s">
+        <v>172</v>
+      </c>
+      <c r="L80" t="s">
+        <v>170</v>
+      </c>
+      <c r="M80" t="s">
+        <v>174</v>
+      </c>
+      <c r="N80" t="s">
+        <v>175</v>
+      </c>
+      <c r="O80" t="s">
+        <v>174</v>
+      </c>
+      <c r="P80" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>178</v>
+      </c>
+      <c r="R80" t="s">
+        <v>180</v>
+      </c>
+      <c r="S80" t="s">
+        <v>178</v>
+      </c>
+      <c r="T80" t="s">
+        <v>180</v>
+      </c>
+      <c r="U80" t="s">
+        <v>183</v>
+      </c>
+      <c r="V80" t="s">
+        <v>184</v>
+      </c>
+      <c r="X80" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -7791,8 +8686,92 @@
       <c r="D81" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>166</v>
+      </c>
+      <c r="H81" t="s">
+        <v>167</v>
+      </c>
+      <c r="I81" t="s">
+        <v>169</v>
+      </c>
+      <c r="J81" t="s">
+        <v>170</v>
+      </c>
+      <c r="K81" t="s">
+        <v>172</v>
+      </c>
+      <c r="L81" t="s">
+        <v>170</v>
+      </c>
+      <c r="M81" t="s">
+        <v>174</v>
+      </c>
+      <c r="N81" t="s">
+        <v>175</v>
+      </c>
+      <c r="O81" t="s">
+        <v>174</v>
+      </c>
+      <c r="P81" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>178</v>
+      </c>
+      <c r="R81" t="s">
+        <v>180</v>
+      </c>
+      <c r="S81" t="s">
+        <v>178</v>
+      </c>
+      <c r="T81" t="s">
+        <v>180</v>
+      </c>
+      <c r="U81" t="s">
+        <v>183</v>
+      </c>
+      <c r="V81" t="s">
+        <v>184</v>
+      </c>
+      <c r="X81" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -7805,607 +8784,691 @@
       <c r="D82" t="s">
         <v>165</v>
       </c>
+      <c r="E82" t="s">
+        <v>166</v>
+      </c>
+      <c r="H82" t="s">
+        <v>167</v>
+      </c>
+      <c r="I82" t="s">
+        <v>169</v>
+      </c>
+      <c r="J82" t="s">
+        <v>170</v>
+      </c>
+      <c r="K82" t="s">
+        <v>172</v>
+      </c>
+      <c r="L82" t="s">
+        <v>170</v>
+      </c>
+      <c r="M82" t="s">
+        <v>174</v>
+      </c>
+      <c r="N82" t="s">
+        <v>175</v>
+      </c>
+      <c r="O82" t="s">
+        <v>174</v>
+      </c>
+      <c r="P82" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>178</v>
+      </c>
+      <c r="R82" t="s">
+        <v>180</v>
+      </c>
+      <c r="S82" t="s">
+        <v>178</v>
+      </c>
+      <c r="T82" t="s">
+        <v>180</v>
+      </c>
+      <c r="U82" t="s">
+        <v>183</v>
+      </c>
+      <c r="V82" t="s">
+        <v>184</v>
+      </c>
+      <c r="X82" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>253</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A21DB-71FB-E845-94EF-05E266D8F2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="1340" windowWidth="28340" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -629,6 +623,9 @@
     <t>object_annotation_category</t>
   </si>
   <si>
+    <t>class_1</t>
+  </si>
+  <si>
     <t>object_annotation_status</t>
   </si>
   <si>
@@ -780,16 +777,13 @@
   </si>
   <si>
     <t>Additional description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
-  </si>
-  <si>
-    <t>class_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,14 +859,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -919,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,27 +937,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1003,24 +971,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1196,19 +1146,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -1431,10 +1376,10 @@
         <v>201</v>
       </c>
       <c r="AJ2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -1520,10 +1465,10 @@
         <v>201</v>
       </c>
       <c r="AJ3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1609,10 +1554,10 @@
         <v>201</v>
       </c>
       <c r="AJ4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1698,10 +1643,10 @@
         <v>201</v>
       </c>
       <c r="AJ5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -1787,10 +1732,10 @@
         <v>201</v>
       </c>
       <c r="AJ6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -1876,10 +1821,10 @@
         <v>201</v>
       </c>
       <c r="AJ7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -1965,10 +1910,10 @@
         <v>201</v>
       </c>
       <c r="AJ8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -2054,10 +1999,10 @@
         <v>201</v>
       </c>
       <c r="AJ9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -2143,10 +2088,10 @@
         <v>201</v>
       </c>
       <c r="AJ10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -2232,10 +2177,10 @@
         <v>201</v>
       </c>
       <c r="AJ11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -2321,10 +2266,10 @@
         <v>201</v>
       </c>
       <c r="AJ12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -2410,10 +2355,10 @@
         <v>201</v>
       </c>
       <c r="AJ13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -2499,10 +2444,10 @@
         <v>201</v>
       </c>
       <c r="AJ14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -2588,10 +2533,10 @@
         <v>201</v>
       </c>
       <c r="AJ15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -2677,10 +2622,10 @@
         <v>201</v>
       </c>
       <c r="AJ16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2766,10 +2711,10 @@
         <v>201</v>
       </c>
       <c r="AJ17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -2855,10 +2800,10 @@
         <v>201</v>
       </c>
       <c r="AJ18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -2944,10 +2889,10 @@
         <v>201</v>
       </c>
       <c r="AJ19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -3033,10 +2978,10 @@
         <v>201</v>
       </c>
       <c r="AJ20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -3122,10 +3067,10 @@
         <v>201</v>
       </c>
       <c r="AJ21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -3211,10 +3156,10 @@
         <v>201</v>
       </c>
       <c r="AJ22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -3300,10 +3245,10 @@
         <v>201</v>
       </c>
       <c r="AJ23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3389,10 +3334,10 @@
         <v>201</v>
       </c>
       <c r="AJ24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3478,10 +3423,10 @@
         <v>201</v>
       </c>
       <c r="AJ25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3567,10 +3512,10 @@
         <v>201</v>
       </c>
       <c r="AJ26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3656,10 +3601,10 @@
         <v>201</v>
       </c>
       <c r="AJ27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3745,10 +3690,10 @@
         <v>201</v>
       </c>
       <c r="AJ28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -3834,10 +3779,10 @@
         <v>201</v>
       </c>
       <c r="AJ29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -3923,10 +3868,10 @@
         <v>201</v>
       </c>
       <c r="AJ30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -4012,10 +3957,10 @@
         <v>201</v>
       </c>
       <c r="AJ31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -4101,10 +4046,10 @@
         <v>201</v>
       </c>
       <c r="AJ32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -4190,10 +4135,10 @@
         <v>201</v>
       </c>
       <c r="AJ33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -4279,10 +4224,10 @@
         <v>201</v>
       </c>
       <c r="AJ34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4368,10 +4313,10 @@
         <v>201</v>
       </c>
       <c r="AJ35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4457,10 +4402,10 @@
         <v>201</v>
       </c>
       <c r="AJ36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4546,10 +4491,10 @@
         <v>201</v>
       </c>
       <c r="AJ37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4635,10 +4580,10 @@
         <v>201</v>
       </c>
       <c r="AJ38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4724,10 +4669,10 @@
         <v>201</v>
       </c>
       <c r="AJ39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -4813,10 +4758,10 @@
         <v>201</v>
       </c>
       <c r="AJ40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -4902,10 +4847,10 @@
         <v>201</v>
       </c>
       <c r="AJ41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -4991,10 +4936,10 @@
         <v>201</v>
       </c>
       <c r="AJ42" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -5080,10 +5025,10 @@
         <v>201</v>
       </c>
       <c r="AJ43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -5169,10 +5114,10 @@
         <v>201</v>
       </c>
       <c r="AJ44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -5258,10 +5203,10 @@
         <v>201</v>
       </c>
       <c r="AJ45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5347,10 +5292,10 @@
         <v>201</v>
       </c>
       <c r="AJ46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5436,10 +5381,10 @@
         <v>201</v>
       </c>
       <c r="AJ47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5534,10 +5479,10 @@
         <v>200</v>
       </c>
       <c r="AI48" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -5632,10 +5577,10 @@
         <v>200</v>
       </c>
       <c r="AI49" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -5730,10 +5675,10 @@
         <v>200</v>
       </c>
       <c r="AI50" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -5828,10 +5773,10 @@
         <v>200</v>
       </c>
       <c r="AI51" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -5926,10 +5871,10 @@
         <v>200</v>
       </c>
       <c r="AI52" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -6024,10 +5969,10 @@
         <v>200</v>
       </c>
       <c r="AI53" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -6122,10 +6067,10 @@
         <v>200</v>
       </c>
       <c r="AI54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -6220,10 +6165,10 @@
         <v>200</v>
       </c>
       <c r="AI55" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -6318,10 +6263,10 @@
         <v>200</v>
       </c>
       <c r="AI56" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -6416,10 +6361,10 @@
         <v>200</v>
       </c>
       <c r="AI57" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6514,10 +6459,10 @@
         <v>200</v>
       </c>
       <c r="AI58" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -6612,10 +6557,10 @@
         <v>200</v>
       </c>
       <c r="AI59" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -6710,10 +6655,10 @@
         <v>200</v>
       </c>
       <c r="AI60" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -6808,10 +6753,10 @@
         <v>200</v>
       </c>
       <c r="AI61" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -6906,10 +6851,10 @@
         <v>200</v>
       </c>
       <c r="AI62" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -7004,10 +6949,10 @@
         <v>200</v>
       </c>
       <c r="AI63" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -7102,10 +7047,10 @@
         <v>200</v>
       </c>
       <c r="AI64" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7200,10 +7145,10 @@
         <v>200</v>
       </c>
       <c r="AI65" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -7298,10 +7243,10 @@
         <v>200</v>
       </c>
       <c r="AI66" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -7396,10 +7341,10 @@
         <v>200</v>
       </c>
       <c r="AI67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -7494,10 +7439,10 @@
         <v>200</v>
       </c>
       <c r="AI68" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -7592,10 +7537,10 @@
         <v>200</v>
       </c>
       <c r="AI69" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -7690,10 +7635,10 @@
         <v>200</v>
       </c>
       <c r="AI70" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -7788,10 +7733,10 @@
         <v>200</v>
       </c>
       <c r="AI71" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -7886,10 +7831,10 @@
         <v>200</v>
       </c>
       <c r="AI72" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -7984,10 +7929,10 @@
         <v>200</v>
       </c>
       <c r="AI73" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -8082,10 +8027,10 @@
         <v>200</v>
       </c>
       <c r="AI74" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -8180,10 +8125,10 @@
         <v>200</v>
       </c>
       <c r="AI75" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -8278,10 +8223,10 @@
         <v>200</v>
       </c>
       <c r="AI76" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -8376,10 +8321,10 @@
         <v>200</v>
       </c>
       <c r="AI77" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -8474,10 +8419,10 @@
         <v>200</v>
       </c>
       <c r="AI78" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -8572,10 +8517,10 @@
         <v>200</v>
       </c>
       <c r="AI79" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -8670,10 +8615,10 @@
         <v>200</v>
       </c>
       <c r="AI80" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -8768,10 +8713,10 @@
         <v>200</v>
       </c>
       <c r="AI81" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -8866,609 +8811,609 @@
         <v>200</v>
       </c>
       <c r="AI82" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="300">
   <si>
     <t>Project_ID</t>
   </si>
@@ -627,6 +627,144 @@
   </si>
   <si>
     <t>object_annotation_status</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_2248_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3147_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3289_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3290_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3294_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3295_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3296_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3297_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3298_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3299_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3300_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3301_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3302_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3303_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3304_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3305_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3306_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3307_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3308_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3309_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3310_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3311_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3312_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3313_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3314_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3315_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3318_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3320_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3321_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3322_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3323_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3324_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3325_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3326_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3331_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3332_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3333_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3334_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3335_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3337_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3338_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3339_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3340_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3341_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3342_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/IFCB/project_3343_flags.tsv</t>
   </si>
   <si>
     <t>Variables</t>
@@ -1378,6 +1516,9 @@
       <c r="AJ2" t="s">
         <v>203</v>
       </c>
+      <c r="AK2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3">
@@ -1467,6 +1608,9 @@
       <c r="AJ3" t="s">
         <v>203</v>
       </c>
+      <c r="AK3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4">
@@ -1556,6 +1700,9 @@
       <c r="AJ4" t="s">
         <v>203</v>
       </c>
+      <c r="AK4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="5" spans="1:45">
       <c r="A5">
@@ -1645,6 +1792,9 @@
       <c r="AJ5" t="s">
         <v>203</v>
       </c>
+      <c r="AK5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6">
@@ -1734,6 +1884,9 @@
       <c r="AJ6" t="s">
         <v>203</v>
       </c>
+      <c r="AK6" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="7" spans="1:45">
       <c r="A7">
@@ -1823,6 +1976,9 @@
       <c r="AJ7" t="s">
         <v>203</v>
       </c>
+      <c r="AK7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8">
@@ -1912,6 +2068,9 @@
       <c r="AJ8" t="s">
         <v>203</v>
       </c>
+      <c r="AK8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="1:45">
       <c r="A9">
@@ -2001,6 +2160,9 @@
       <c r="AJ9" t="s">
         <v>203</v>
       </c>
+      <c r="AK9" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10">
@@ -2090,6 +2252,9 @@
       <c r="AJ10" t="s">
         <v>203</v>
       </c>
+      <c r="AK10" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="11" spans="1:45">
       <c r="A11">
@@ -2179,6 +2344,9 @@
       <c r="AJ11" t="s">
         <v>203</v>
       </c>
+      <c r="AK11" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="12" spans="1:45">
       <c r="A12">
@@ -2268,6 +2436,9 @@
       <c r="AJ12" t="s">
         <v>203</v>
       </c>
+      <c r="AK12" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="13" spans="1:45">
       <c r="A13">
@@ -2357,6 +2528,9 @@
       <c r="AJ13" t="s">
         <v>203</v>
       </c>
+      <c r="AK13" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="14" spans="1:45">
       <c r="A14">
@@ -2446,6 +2620,9 @@
       <c r="AJ14" t="s">
         <v>203</v>
       </c>
+      <c r="AK14" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15">
@@ -2535,6 +2712,9 @@
       <c r="AJ15" t="s">
         <v>203</v>
       </c>
+      <c r="AK15" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16">
@@ -2624,8 +2804,11 @@
       <c r="AJ16" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="AK16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2713,8 +2896,11 @@
       <c r="AJ17" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="AK17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -2802,8 +2988,11 @@
       <c r="AJ18" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="1:36">
+      <c r="AK18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -2891,8 +3080,11 @@
       <c r="AJ19" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="20" spans="1:36">
+      <c r="AK19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -2980,8 +3172,11 @@
       <c r="AJ20" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:36">
+      <c r="AK20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -3069,8 +3264,11 @@
       <c r="AJ21" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AK21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -3158,8 +3356,11 @@
       <c r="AJ22" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:36">
+      <c r="AK22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -3247,8 +3448,11 @@
       <c r="AJ23" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="24" spans="1:36">
+      <c r="AK23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3336,8 +3540,11 @@
       <c r="AJ24" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="25" spans="1:36">
+      <c r="AK24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3425,8 +3632,11 @@
       <c r="AJ25" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="26" spans="1:36">
+      <c r="AK25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3514,8 +3724,11 @@
       <c r="AJ26" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="27" spans="1:36">
+      <c r="AK26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3603,8 +3816,11 @@
       <c r="AJ27" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="AK27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3692,8 +3908,11 @@
       <c r="AJ28" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="29" spans="1:36">
+      <c r="AK28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -3781,8 +4000,11 @@
       <c r="AJ29" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="30" spans="1:36">
+      <c r="AK29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -3870,8 +4092,11 @@
       <c r="AJ30" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="AK30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -3959,8 +4184,11 @@
       <c r="AJ31" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="32" spans="1:36">
+      <c r="AK31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -4048,8 +4276,11 @@
       <c r="AJ32" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="AK32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -4137,8 +4368,11 @@
       <c r="AJ33" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AK33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -4226,8 +4460,11 @@
       <c r="AJ34" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AK34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4315,8 +4552,11 @@
       <c r="AJ35" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AK35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4404,8 +4644,11 @@
       <c r="AJ36" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="37" spans="1:36">
+      <c r="AK36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4493,8 +4736,11 @@
       <c r="AJ37" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="38" spans="1:36">
+      <c r="AK37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4582,8 +4828,11 @@
       <c r="AJ38" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AK38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4671,8 +4920,11 @@
       <c r="AJ39" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="40" spans="1:36">
+      <c r="AK39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -4760,8 +5012,11 @@
       <c r="AJ40" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="41" spans="1:36">
+      <c r="AK40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -4849,8 +5104,11 @@
       <c r="AJ41" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="42" spans="1:36">
+      <c r="AK41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -4938,8 +5196,11 @@
       <c r="AJ42" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AK42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -5027,8 +5288,11 @@
       <c r="AJ43" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="44" spans="1:36">
+      <c r="AK43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -5116,8 +5380,11 @@
       <c r="AJ44" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="45" spans="1:36">
+      <c r="AK44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -5205,8 +5472,11 @@
       <c r="AJ45" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="46" spans="1:36">
+      <c r="AK45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5294,8 +5564,11 @@
       <c r="AJ46" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AK46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5383,8 +5656,11 @@
       <c r="AJ47" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="48" spans="1:36">
+      <c r="AK47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -8912,13 +9188,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8926,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8937,10 +9213,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8948,10 +9224,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8959,10 +9235,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8970,10 +9246,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8981,10 +9257,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8992,10 +9268,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9003,10 +9279,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9014,10 +9290,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9025,10 +9301,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9036,10 +9312,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9047,10 +9323,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9058,10 +9334,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9069,10 +9345,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9080,10 +9356,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9091,10 +9367,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9102,10 +9378,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9113,10 +9389,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9124,10 +9400,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9135,10 +9411,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9146,10 +9422,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9157,10 +9433,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9168,10 +9444,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9179,10 +9455,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9190,10 +9466,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C26" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9201,10 +9477,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9212,10 +9488,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9223,10 +9499,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9234,10 +9510,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9245,10 +9521,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9256,10 +9532,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9267,10 +9543,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -9278,10 +9554,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9289,10 +9565,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9300,10 +9576,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9311,10 +9587,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9322,10 +9598,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9333,10 +9609,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9344,10 +9620,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9355,10 +9631,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9366,10 +9642,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9377,10 +9653,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C43" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9388,10 +9664,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9399,10 +9675,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9410,10 +9686,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A3053A-49C8-8D48-AB95-5A57B808C7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="303">
   <si>
     <t>Project_ID</t>
   </si>
@@ -915,13 +921,22 @@
   </si>
   <si>
     <t>Additional description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>minBlobArea</t>
+  </si>
+  <si>
+    <t>sample_vol_config:SyringeSampleVolume,pmtA:{voltage:PMTAhighVoltage,threshold:PMTAtriggerThreshold_DAQ_MCConly},pmtB{voltage:PMTBhighVoltage,threshold:PMTBtriggerThreshold_DAQ_MCConly}, pmtC:{voltage:PMTChighVoltage,threshold:PMTCtriggerThreshold_DAQ_MCConly}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,12 +999,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -997,11 +1013,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1043,7 +1067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1075,9 +1099,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1109,6 +1151,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1284,14 +1344,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="AS1" sqref="AS1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -1520,7 +1584,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -1612,7 +1676,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1704,7 +1768,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1796,7 +1860,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -1888,7 +1952,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -1980,7 +2044,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -2072,7 +2136,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -2164,7 +2228,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -2256,7 +2320,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -2348,7 +2412,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -2440,7 +2504,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -2532,7 +2596,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -2624,7 +2688,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -2716,7 +2780,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -2808,7 +2872,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2900,7 +2964,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -2992,7 +3056,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -3084,7 +3148,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -3176,7 +3240,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -3268,7 +3332,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -3360,7 +3424,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -3452,7 +3516,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3544,7 +3608,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3636,7 +3700,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3728,7 +3792,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3820,7 +3884,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3912,7 +3976,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -4004,7 +4068,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -4096,7 +4160,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -4188,7 +4252,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -4280,7 +4344,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -4372,7 +4436,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -4464,7 +4528,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4556,7 +4620,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4648,7 +4712,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4740,7 +4804,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4832,7 +4896,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4924,7 +4988,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -5016,7 +5080,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -5108,7 +5172,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -5200,7 +5264,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -5292,7 +5356,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -5384,7 +5448,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -5476,7 +5540,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5568,7 +5632,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5660,7 +5724,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5757,8 +5821,20 @@
       <c r="AI48" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="49" spans="1:35">
+      <c r="AN48" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO48" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -5855,8 +5931,20 @@
       <c r="AI49" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="50" spans="1:35">
+      <c r="AN49" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO49" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -5953,8 +6041,20 @@
       <c r="AI50" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="51" spans="1:35">
+      <c r="AN50" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO50" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -6051,8 +6151,20 @@
       <c r="AI51" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="52" spans="1:35">
+      <c r="AN51" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO51" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -6149,8 +6261,20 @@
       <c r="AI52" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="53" spans="1:35">
+      <c r="AN52" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO52" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -6247,8 +6371,20 @@
       <c r="AI53" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="54" spans="1:35">
+      <c r="AN53" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO53" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -6345,8 +6481,20 @@
       <c r="AI54" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="55" spans="1:35">
+      <c r="AN54" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO54" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -6443,8 +6591,20 @@
       <c r="AI55" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="56" spans="1:35">
+      <c r="AN55" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO55" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -6541,8 +6701,20 @@
       <c r="AI56" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="57" spans="1:35">
+      <c r="AN56" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO56" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -6639,8 +6811,20 @@
       <c r="AI57" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="58" spans="1:35">
+      <c r="AN57" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO57" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6737,8 +6921,20 @@
       <c r="AI58" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="59" spans="1:35">
+      <c r="AN58" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO58" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -6835,8 +7031,20 @@
       <c r="AI59" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="60" spans="1:35">
+      <c r="AN59" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO59" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -6933,8 +7141,20 @@
       <c r="AI60" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="61" spans="1:35">
+      <c r="AN60" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO60" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -7031,8 +7251,20 @@
       <c r="AI61" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="62" spans="1:35">
+      <c r="AN61" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO61" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -7129,8 +7361,20 @@
       <c r="AI62" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="63" spans="1:35">
+      <c r="AN62" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO62" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -7227,8 +7471,20 @@
       <c r="AI63" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="64" spans="1:35">
+      <c r="AN63" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO63" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -7325,8 +7581,20 @@
       <c r="AI64" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="65" spans="1:35">
+      <c r="AN64" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO64" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7423,8 +7691,20 @@
       <c r="AI65" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="66" spans="1:35">
+      <c r="AN65" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO65" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -7521,8 +7801,20 @@
       <c r="AI66" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="67" spans="1:35">
+      <c r="AN66" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO66" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -7619,8 +7911,20 @@
       <c r="AI67" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="68" spans="1:35">
+      <c r="AN67" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO67" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -7717,8 +8021,20 @@
       <c r="AI68" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="69" spans="1:35">
+      <c r="AN68" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO68" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -7815,8 +8131,20 @@
       <c r="AI69" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="70" spans="1:35">
+      <c r="AN69" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO69" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -7913,8 +8241,20 @@
       <c r="AI70" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="71" spans="1:35">
+      <c r="AN70" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO70" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -8011,8 +8351,20 @@
       <c r="AI71" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="72" spans="1:35">
+      <c r="AN71" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO71" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -8109,8 +8461,20 @@
       <c r="AI72" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="73" spans="1:35">
+      <c r="AN72" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO72" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -8207,8 +8571,20 @@
       <c r="AI73" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="74" spans="1:35">
+      <c r="AN73" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO73" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -8305,8 +8681,20 @@
       <c r="AI74" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="75" spans="1:35">
+      <c r="AN74" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO74" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -8403,8 +8791,20 @@
       <c r="AI75" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="76" spans="1:35">
+      <c r="AN75" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO75" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -8501,8 +8901,20 @@
       <c r="AI76" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="77" spans="1:35">
+      <c r="AN76" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO76" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -8599,8 +9011,20 @@
       <c r="AI77" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="78" spans="1:35">
+      <c r="AN77" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO77" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -8697,8 +9121,20 @@
       <c r="AI78" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="79" spans="1:35">
+      <c r="AN78" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO78" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -8795,8 +9231,20 @@
       <c r="AI79" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="80" spans="1:35">
+      <c r="AN79" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO79" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -8893,8 +9341,20 @@
       <c r="AI80" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="81" spans="1:35">
+      <c r="AN80" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO80" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -8991,8 +9451,20 @@
       <c r="AI81" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="82" spans="1:35">
+      <c r="AN81" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO81" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -9089,104 +9561,116 @@
       <c r="AI82" t="s">
         <v>202</v>
       </c>
+      <c r="AN82" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO82" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>250</v>
       </c>
@@ -9197,7 +9681,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9208,7 +9692,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9219,7 +9703,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9230,7 +9714,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9241,7 +9725,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -9252,7 +9736,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9263,7 +9747,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -9274,7 +9758,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -9285,7 +9769,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9296,7 +9780,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9307,7 +9791,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9318,7 +9802,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9329,7 +9813,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -9340,7 +9824,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9351,7 +9835,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9362,7 +9846,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -9373,7 +9857,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -9384,7 +9868,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -9395,7 +9879,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -9406,7 +9890,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -9417,7 +9901,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9428,7 +9912,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -9439,7 +9923,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -9450,7 +9934,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -9461,7 +9945,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -9472,7 +9956,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -9483,7 +9967,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -9494,7 +9978,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -9505,7 +9989,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -9516,7 +10000,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -9527,7 +10011,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -9538,7 +10022,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -9549,7 +10033,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -9560,7 +10044,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -9571,7 +10055,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -9582,7 +10066,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -9593,7 +10077,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -9604,7 +10088,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -9615,7 +10099,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -9626,7 +10110,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -9637,7 +10121,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -9648,7 +10132,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -9659,7 +10143,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -9670,7 +10154,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -9681,7 +10165,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>

--- a/raw/project_IFCB_standardizer.xlsx
+++ b/raw/project_IFCB_standardizer.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4214/GIT/PSSdb/raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A3053A-49C8-8D48-AB95-5A57B808C7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -773,6 +767,15 @@
     <t>~/GIT/PSSdb/raw/flags/IFCB/project_3343_flags.tsv</t>
   </si>
   <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>minBlobArea</t>
+  </si>
+  <si>
+    <t>sample_vol_config:SyringeSampleVolume,pmtA:{voltage:PMTAhighVoltage,threshold:PMTAtriggerThreshold_DAQ_MCConly},pmtB{voltage:PMTBhighVoltage,threshold:PMTBtriggerThreshold_DAQ_MCConly}, pmtC:{voltage:PMTChighVoltage,threshold:PMTCtriggerThreshold_DAQ_MCConly}</t>
+  </si>
+  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -921,22 +924,13 @@
   </si>
   <si>
     <t>Additional description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
-  </si>
-  <si>
-    <t>sample_type</t>
-  </si>
-  <si>
-    <t>minBlobArea</t>
-  </si>
-  <si>
-    <t>sample_vol_config:SyringeSampleVolume,pmtA:{voltage:PMTAhighVoltage,threshold:PMTAtriggerThreshold_DAQ_MCConly},pmtB{voltage:PMTBhighVoltage,threshold:PMTBtriggerThreshold_DAQ_MCConly}, pmtC:{voltage:PMTChighVoltage,threshold:PMTCtriggerThreshold_DAQ_MCConly}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,13 +993,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1013,19 +1006,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1067,7 +1052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,27 +1084,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,24 +1118,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1344,18 +1293,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="S1" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="AS1" sqref="AS1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1437,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45">
       <c r="A2">
         <v>2248</v>
       </c>
@@ -1584,7 +1529,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45">
       <c r="A3">
         <v>3147</v>
       </c>
@@ -1676,7 +1621,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45">
       <c r="A4">
         <v>3289</v>
       </c>
@@ -1768,7 +1713,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45">
       <c r="A5">
         <v>3290</v>
       </c>
@@ -1860,7 +1805,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45">
       <c r="A6">
         <v>3294</v>
       </c>
@@ -1952,7 +1897,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45">
       <c r="A7">
         <v>3295</v>
       </c>
@@ -2044,7 +1989,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45">
       <c r="A8">
         <v>3296</v>
       </c>
@@ -2136,7 +2081,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45">
       <c r="A9">
         <v>3297</v>
       </c>
@@ -2228,7 +2173,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45">
       <c r="A10">
         <v>3298</v>
       </c>
@@ -2320,7 +2265,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45">
       <c r="A11">
         <v>3299</v>
       </c>
@@ -2412,7 +2357,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45">
       <c r="A12">
         <v>3300</v>
       </c>
@@ -2504,7 +2449,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45">
       <c r="A13">
         <v>3301</v>
       </c>
@@ -2596,7 +2541,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45">
       <c r="A14">
         <v>3302</v>
       </c>
@@ -2688,7 +2633,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45">
       <c r="A15">
         <v>3303</v>
       </c>
@@ -2780,7 +2725,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45">
       <c r="A16">
         <v>3304</v>
       </c>
@@ -2872,7 +2817,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37">
       <c r="A17">
         <v>3305</v>
       </c>
@@ -2964,7 +2909,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37">
       <c r="A18">
         <v>3306</v>
       </c>
@@ -3056,7 +3001,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37">
       <c r="A19">
         <v>3307</v>
       </c>
@@ -3148,7 +3093,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37">
       <c r="A20">
         <v>3308</v>
       </c>
@@ -3240,7 +3185,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37">
       <c r="A21">
         <v>3309</v>
       </c>
@@ -3332,7 +3277,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37">
       <c r="A22">
         <v>3310</v>
       </c>
@@ -3424,7 +3369,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37">
       <c r="A23">
         <v>3311</v>
       </c>
@@ -3516,7 +3461,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37">
       <c r="A24">
         <v>3312</v>
       </c>
@@ -3608,7 +3553,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37">
       <c r="A25">
         <v>3313</v>
       </c>
@@ -3700,7 +3645,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37">
       <c r="A26">
         <v>3314</v>
       </c>
@@ -3792,7 +3737,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37">
       <c r="A27">
         <v>3315</v>
       </c>
@@ -3884,7 +3829,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37">
       <c r="A28">
         <v>3318</v>
       </c>
@@ -3976,7 +3921,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37">
       <c r="A29">
         <v>3320</v>
       </c>
@@ -4068,7 +4013,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37">
       <c r="A30">
         <v>3321</v>
       </c>
@@ -4160,7 +4105,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37">
       <c r="A31">
         <v>3322</v>
       </c>
@@ -4252,7 +4197,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37">
       <c r="A32">
         <v>3323</v>
       </c>
@@ -4344,7 +4289,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45">
       <c r="A33">
         <v>3324</v>
       </c>
@@ -4436,7 +4381,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45">
       <c r="A34">
         <v>3325</v>
       </c>
@@ -4528,7 +4473,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45">
       <c r="A35">
         <v>3326</v>
       </c>
@@ -4620,7 +4565,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45">
       <c r="A36">
         <v>3331</v>
       </c>
@@ -4712,7 +4657,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45">
       <c r="A37">
         <v>3332</v>
       </c>
@@ -4804,7 +4749,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45">
       <c r="A38">
         <v>3333</v>
       </c>
@@ -4896,7 +4841,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45">
       <c r="A39">
         <v>3334</v>
       </c>
@@ -4988,7 +4933,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45">
       <c r="A40">
         <v>3335</v>
       </c>
@@ -5080,7 +5025,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45">
       <c r="A41">
         <v>3337</v>
       </c>
@@ -5172,7 +5117,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45">
       <c r="A42">
         <v>3338</v>
       </c>
@@ -5264,7 +5209,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45">
       <c r="A43">
         <v>3339</v>
       </c>
@@ -5356,7 +5301,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45">
       <c r="A44">
         <v>3340</v>
       </c>
@@ -5448,7 +5393,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45">
       <c r="A45">
         <v>3341</v>
       </c>
@@ -5540,7 +5485,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45">
       <c r="A46">
         <v>3342</v>
       </c>
@@ -5632,7 +5577,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45">
       <c r="A47">
         <v>3343</v>
       </c>
@@ -5724,7 +5669,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5822,19 +5767,19 @@
         <v>202</v>
       </c>
       <c r="AN48" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO48" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>251</v>
       </c>
       <c r="AP48" t="s">
         <v>194</v>
       </c>
       <c r="AS48" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -5932,19 +5877,19 @@
         <v>202</v>
       </c>
       <c r="AN49" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO49" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>251</v>
       </c>
       <c r="AP49" t="s">
         <v>194</v>
       </c>
       <c r="AS49" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -6042,19 +5987,19 @@
         <v>202</v>
       </c>
       <c r="AN50" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO50" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>251</v>
       </c>
       <c r="AP50" t="s">
         <v>194</v>
       </c>
       <c r="AS50" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -6152,19 +6097,19 @@
         <v>202</v>
       </c>
       <c r="AN51" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO51" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>251</v>
       </c>
       <c r="AP51" t="s">
         <v>194</v>
       </c>
       <c r="AS51" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -6262,19 +6207,19 @@
         <v>202</v>
       </c>
       <c r="AN52" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO52" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>251</v>
       </c>
       <c r="AP52" t="s">
         <v>194</v>
       </c>
       <c r="AS52" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -6372,19 +6317,19 @@
         <v>202</v>
       </c>
       <c r="AN53" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO53" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>251</v>
       </c>
       <c r="AP53" t="s">
         <v>194</v>
       </c>
       <c r="AS53" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -6482,19 +6427,19 @@
         <v>202</v>
       </c>
       <c r="AN54" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO54" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>251</v>
       </c>
       <c r="AP54" t="s">
         <v>194</v>
       </c>
       <c r="AS54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -6592,19 +6537,19 @@
         <v>202</v>
       </c>
       <c r="AN55" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO55" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>251</v>
       </c>
       <c r="AP55" t="s">
         <v>194</v>
       </c>
       <c r="AS55" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -6702,19 +6647,19 @@
         <v>202</v>
       </c>
       <c r="AN56" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO56" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>251</v>
       </c>
       <c r="AP56" t="s">
         <v>194</v>
       </c>
       <c r="AS56" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -6812,19 +6757,19 @@
         <v>202</v>
       </c>
       <c r="AN57" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO57" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>251</v>
       </c>
       <c r="AP57" t="s">
         <v>194</v>
       </c>
       <c r="AS57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6922,19 +6867,19 @@
         <v>202</v>
       </c>
       <c r="AN58" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO58" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>251</v>
       </c>
       <c r="AP58" t="s">
         <v>194</v>
       </c>
       <c r="AS58" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -7032,19 +6977,19 @@
         <v>202</v>
       </c>
       <c r="AN59" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO59" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>251</v>
       </c>
       <c r="AP59" t="s">
         <v>194</v>
       </c>
       <c r="AS59" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -7142,19 +7087,19 @@
         <v>202</v>
       </c>
       <c r="AN60" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO60" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>251</v>
       </c>
       <c r="AP60" t="s">
         <v>194</v>
       </c>
       <c r="AS60" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -7252,19 +7197,19 @@
         <v>202</v>
       </c>
       <c r="AN61" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO61" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>251</v>
       </c>
       <c r="AP61" t="s">
         <v>194</v>
       </c>
       <c r="AS61" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -7362,19 +7307,19 @@
         <v>202</v>
       </c>
       <c r="AN62" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO62" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>251</v>
       </c>
       <c r="AP62" t="s">
         <v>194</v>
       </c>
       <c r="AS62" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -7472,19 +7417,19 @@
         <v>202</v>
       </c>
       <c r="AN63" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO63" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>251</v>
       </c>
       <c r="AP63" t="s">
         <v>194</v>
       </c>
       <c r="AS63" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -7582,19 +7527,19 @@
         <v>202</v>
       </c>
       <c r="AN64" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO64" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>251</v>
       </c>
       <c r="AP64" t="s">
         <v>194</v>
       </c>
       <c r="AS64" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7692,19 +7637,19 @@
         <v>202</v>
       </c>
       <c r="AN65" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO65" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>251</v>
       </c>
       <c r="AP65" t="s">
         <v>194</v>
       </c>
       <c r="AS65" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -7802,19 +7747,19 @@
         <v>202</v>
       </c>
       <c r="AN66" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO66" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>251</v>
       </c>
       <c r="AP66" t="s">
         <v>194</v>
       </c>
       <c r="AS66" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -7912,19 +7857,19 @@
         <v>202</v>
       </c>
       <c r="AN67" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO67" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>251</v>
       </c>
       <c r="AP67" t="s">
         <v>194</v>
       </c>
       <c r="AS67" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -8022,19 +7967,19 @@
         <v>202</v>
       </c>
       <c r="AN68" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO68" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>251</v>
       </c>
       <c r="AP68" t="s">
         <v>194</v>
       </c>
       <c r="AS68" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -8132,19 +8077,19 @@
         <v>202</v>
       </c>
       <c r="AN69" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO69" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>251</v>
       </c>
       <c r="AP69" t="s">
         <v>194</v>
       </c>
       <c r="AS69" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -8242,19 +8187,19 @@
         <v>202</v>
       </c>
       <c r="AN70" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO70" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>251</v>
       </c>
       <c r="AP70" t="s">
         <v>194</v>
       </c>
       <c r="AS70" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -8352,19 +8297,19 @@
         <v>202</v>
       </c>
       <c r="AN71" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO71" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>251</v>
       </c>
       <c r="AP71" t="s">
         <v>194</v>
       </c>
       <c r="AS71" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -8462,19 +8407,19 @@
         <v>202</v>
       </c>
       <c r="AN72" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO72" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>251</v>
       </c>
       <c r="AP72" t="s">
         <v>194</v>
       </c>
       <c r="AS72" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -8572,19 +8517,19 @@
         <v>202</v>
       </c>
       <c r="AN73" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO73" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>251</v>
       </c>
       <c r="AP73" t="s">
         <v>194</v>
       </c>
       <c r="AS73" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -8682,19 +8627,19 @@
         <v>202</v>
       </c>
       <c r="AN74" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO74" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>251</v>
       </c>
       <c r="AP74" t="s">
         <v>194</v>
       </c>
       <c r="AS74" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -8792,19 +8737,19 @@
         <v>202</v>
       </c>
       <c r="AN75" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO75" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>251</v>
       </c>
       <c r="AP75" t="s">
         <v>194</v>
       </c>
       <c r="AS75" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -8902,19 +8847,19 @@
         <v>202</v>
       </c>
       <c r="AN76" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO76" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>251</v>
       </c>
       <c r="AP76" t="s">
         <v>194</v>
       </c>
       <c r="AS76" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -9012,19 +8957,19 @@
         <v>202</v>
       </c>
       <c r="AN77" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO77" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>251</v>
       </c>
       <c r="AP77" t="s">
         <v>194</v>
       </c>
       <c r="AS77" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -9122,19 +9067,19 @@
         <v>202</v>
       </c>
       <c r="AN78" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO78" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>251</v>
       </c>
       <c r="AP78" t="s">
         <v>194</v>
       </c>
       <c r="AS78" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -9232,19 +9177,19 @@
         <v>202</v>
       </c>
       <c r="AN79" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO79" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>251</v>
       </c>
       <c r="AP79" t="s">
         <v>194</v>
       </c>
       <c r="AS79" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -9342,19 +9287,19 @@
         <v>202</v>
       </c>
       <c r="AN80" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO80" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>251</v>
       </c>
       <c r="AP80" t="s">
         <v>194</v>
       </c>
       <c r="AS80" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -9452,19 +9397,19 @@
         <v>202</v>
       </c>
       <c r="AN81" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO81" s="3" t="s">
-        <v>301</v>
+        <v>250</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>251</v>
       </c>
       <c r="AP81" t="s">
         <v>194</v>
       </c>
       <c r="AS81" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45">
       <c r="A82" t="s">
         <v>7